--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B5A69-8B96-4CE5-A767-99175B20EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA92E2-396F-47B2-B7CD-AE6D2A5E473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="168">
   <si>
     <t>CPU</t>
   </si>
@@ -463,9 +463,6 @@
     <t>i7 9750H (Coffee Lake)</t>
   </si>
   <si>
-    <t>i5 4300U</t>
-  </si>
-  <si>
     <t>Celeron N3450 (Apollo Lake) v0.5.1 [37]</t>
   </si>
   <si>
@@ -493,9 +490,6 @@
     <t>i5 8600k (Coffee Lake) v0.5.1 [39]</t>
   </si>
   <si>
-    <t>i5 4300U [58]</t>
-  </si>
-  <si>
     <t>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</t>
   </si>
   <si>
@@ -536,6 +530,21 @@
   </si>
   <si>
     <t>R5 4500U (Renoir) v0.5.1 [29]</t>
+  </si>
+  <si>
+    <t>i5 4300U (Haswell)</t>
+  </si>
+  <si>
+    <t>R5 2600X (Pinnacle Ridge)</t>
+  </si>
+  <si>
+    <t>HasseLadebalken</t>
+  </si>
+  <si>
+    <t>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</t>
+  </si>
+  <si>
+    <t>i5 4300U (Haswell) [58]</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -629,13 +638,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -676,6 +696,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -1227,9 +1249,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$40</c:f>
+              <c:f>'PES ST'!$B$4:$B$41</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -1249,93 +1271,96 @@
                   <c:v>i7 4800MQ (Haswell) [52]</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>i5 4300U [58]</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>i5 4300U (Haswell) [58]</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>R5 5600X (Vermeer) [46]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>R5 3500U (Picasso) [53]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>R7 3700X (Matisse) [47]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R5 3500U (Picasso) [48]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
@@ -1343,10 +1368,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$40</c:f>
+              <c:f>'PES ST'!$C$4:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
@@ -1366,93 +1391,96 @@
                   <c:v>40.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>41.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45.76</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>54.74</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>55.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>55.08</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>57.13</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>58.15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>58.25</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>58.95</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>61.55</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>62.61</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>74.44</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>75.569999999999993</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>83.49</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>90.06</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>91.97</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>101.29</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>104.65</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>107.39</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>141.66999999999999</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>147.36000000000001</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>158.59</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>168.79</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>172.46</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>186.38</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>216.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -2214,9 +2242,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$40</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$41</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -2239,90 +2267,93 @@
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>i7 4800MQ (Haswell) [52]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>R5 5600X (Vermeer) [46]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>R7 3700X (Matisse) [47]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>i5 4300U [58]</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>i5 4300U (Haswell) [58]</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 3500U (Picasso) [53]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R5 3500U (Picasso) [48]</c:v>
                 </c:pt>
               </c:strCache>
@@ -2330,10 +2361,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$40</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>55373</c:v>
                 </c:pt>
@@ -2356,90 +2387,93 @@
                   <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>30535</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>27864</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>27072.99</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>26935</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>25887</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>25543</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>24128.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>23918</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>21193</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20650</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>20078</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18192</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>15775</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>13860.34</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>13379.46</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>11096</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>10777</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>10450</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>10395</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>10273</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>10124</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>9839</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>9072</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>8278</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>7581.59</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>7445</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>6619</c:v>
                 </c:pt>
               </c:numCache>
@@ -3137,14 +3171,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$40</c:f>
+              <c:f>'PES MT'!$B$4:$B$41</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>i5 4300U [58]</c:v>
+                  <c:v>i5 4300U (Haswell) [58]</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
@@ -3177,75 +3211,78 @@
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>R5 3500U (Picasso) [53]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R5 3500U (Picasso) [48]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>R5 5600X (Vermeer) [46]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>R7 3700X (Matisse) [47]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
               </c:strCache>
@@ -3253,10 +3290,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$40</c:f>
+              <c:f>'PES MT'!$C$4:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>35.61</c:v>
                 </c:pt>
@@ -3294,75 +3331,78 @@
                   <c:v>739.31</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>768.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>838.17</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>925.56</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>935.44</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1370.41</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1438.78</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1538.34</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1839.93</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1843</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>2347.02</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>2778.66</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2787.1</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>3171.28</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>4388.1099999999997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>4461.2299999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>5945.36</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>6668.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4291,9 +4331,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$40</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$41</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -4313,93 +4353,96 @@
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>i5 4300U [58]</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>i5 4300U (Haswell) [58]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>i7 4800MQ (Haswell) [52]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>R5 5600X (Vermeer) [46]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>R7 3700X (Matisse) [47]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 3500U (Picasso) [53]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>R5 3500U (Picasso) [48]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
@@ -4407,10 +4450,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$40</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>20531</c:v>
                 </c:pt>
@@ -4430,93 +4473,96 @@
                   <c:v>12017</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11691</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11189.89</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10055</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9308</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>9015.32</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>8980.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7508</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7230</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>6344.53</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>4868</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>4516</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>4404</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>4356</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>4149</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>3886</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>3774</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3342.48</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3335</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>2529</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2220</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -7056,13 +7102,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44391.908492939816" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44394.701907754628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="57" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref-No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="58"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
     </cacheField>
     <cacheField name="Version" numFmtId="0">
       <sharedItems/>
@@ -7116,7 +7162,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="101">
+      <sharedItems count="103">
         <s v="R7 4700U (Renoir) v0.5.1 [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7172,7 +7218,8 @@
         <s v="R5 3500U (Picasso) [53]"/>
         <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]"/>
         <s v="i7 3770K (Ivy Bridge) [57]"/>
-        <s v="i5 4300U [58]"/>
+        <s v="i5 4300U (Haswell) [58]"/>
+        <s v="R5 2600X (Pinnacle Ridge) v0.5.1 [59]"/>
         <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
         <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
@@ -7201,6 +7248,7 @@
         <s v="R9 5900X (Vermeer) [33]" u="1"/>
         <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="i5 4300U [58]" u="1"/>
         <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
         <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
         <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
@@ -7236,7 +7284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
   <r>
     <n v="1"/>
     <s v="v0.5.1"/>
@@ -7256,8 +7304,8 @@
     <n v="162.13"/>
     <n v="13.69"/>
     <x v="0"/>
-    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95"/>
-    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69"/>
+    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95"/>
+    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69"/>
   </r>
   <r>
     <n v="2"/>
@@ -7278,8 +7326,8 @@
     <m/>
     <m/>
     <x v="1"/>
-    <s v="2|6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||"/>
-    <s v="2|6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||"/>
+    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||"/>
+    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||"/>
   </r>
   <r>
     <n v="3"/>
@@ -7300,8 +7348,8 @@
     <m/>
     <m/>
     <x v="2"/>
-    <s v="3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||"/>
-    <s v="3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||"/>
+    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||"/>
+    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||"/>
   </r>
   <r>
     <n v="4"/>
@@ -7322,8 +7370,8 @@
     <n v="33.520000000000003"/>
     <n v="186.22"/>
     <x v="3"/>
-    <s v="4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49"/>
-    <s v="4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22"/>
+    <s v="4|3DC #14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49"/>
+    <s v="4|3DC #14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22"/>
   </r>
   <r>
     <n v="5"/>
@@ -7344,8 +7392,8 @@
     <m/>
     <m/>
     <x v="4"/>
-    <s v="5|18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||"/>
-    <s v="5|18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||"/>
+    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||"/>
+    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||"/>
   </r>
   <r>
     <n v="6"/>
@@ -7366,8 +7414,8 @@
     <m/>
     <m/>
     <x v="5"/>
-    <s v="6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||"/>
-    <s v="6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||"/>
+    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||"/>
+    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||"/>
   </r>
   <r>
     <n v="7"/>
@@ -7388,8 +7436,8 @@
     <m/>
     <m/>
     <x v="6"/>
-    <s v="7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||"/>
-    <s v="7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||"/>
+    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||"/>
+    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||"/>
   </r>
   <r>
     <n v="8"/>
@@ -7410,8 +7458,8 @@
     <m/>
     <m/>
     <x v="7"/>
-    <s v="8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||"/>
-    <s v="8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||"/>
+    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||"/>
+    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||"/>
   </r>
   <r>
     <n v="9"/>
@@ -7432,8 +7480,8 @@
     <n v="150.85"/>
     <n v="11.52"/>
     <x v="8"/>
-    <s v="9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35"/>
-    <s v="9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52"/>
+    <s v="9|3DC #42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35"/>
+    <s v="9|3DC #42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52"/>
   </r>
   <r>
     <n v="10"/>
@@ -7454,8 +7502,8 @@
     <n v="70.3"/>
     <n v="58.11"/>
     <x v="9"/>
-    <s v="10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75"/>
-    <s v="10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11"/>
+    <s v="10|3DC #44|R9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75"/>
+    <s v="10|3DC #44|R9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11"/>
   </r>
   <r>
     <n v="11"/>
@@ -7476,8 +7524,8 @@
     <n v="332.85"/>
     <n v="13.75"/>
     <x v="10"/>
-    <s v="11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99"/>
-    <s v="11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75"/>
+    <s v="11|3DC #54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99"/>
+    <s v="11|3DC #54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75"/>
   </r>
   <r>
     <n v="12"/>
@@ -7498,8 +7546,8 @@
     <n v="95.05"/>
     <n v="60.86"/>
     <x v="11"/>
-    <s v="12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03"/>
-    <s v="12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86"/>
+    <s v="12|3DC #69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03"/>
+    <s v="12|3DC #69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86"/>
   </r>
   <r>
     <n v="13"/>
@@ -7520,8 +7568,8 @@
     <n v="96.17"/>
     <n v="23.15"/>
     <x v="12"/>
-    <s v="13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45"/>
-    <s v="13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15"/>
+    <s v="13|3DC #47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45"/>
+    <s v="13|3DC #47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15"/>
   </r>
   <r>
     <n v="14"/>
@@ -7542,8 +7590,8 @@
     <m/>
     <m/>
     <x v="13"/>
-    <s v="14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||"/>
-    <s v="14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||"/>
+    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||"/>
+    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||"/>
   </r>
   <r>
     <n v="15"/>
@@ -7564,8 +7612,8 @@
     <n v="39.299999999999997"/>
     <n v="116.04"/>
     <x v="14"/>
-    <s v="15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68"/>
-    <s v="15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04"/>
+    <s v="15|3DC #38|R9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68"/>
+    <s v="15|3DC #38|R9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04"/>
   </r>
   <r>
     <n v="16"/>
@@ -7586,8 +7634,8 @@
     <n v="74.63"/>
     <n v="51.33"/>
     <x v="15"/>
-    <s v="16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21"/>
-    <s v="16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33"/>
+    <s v="16|3DC #65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21"/>
+    <s v="16|3DC #65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33"/>
   </r>
   <r>
     <n v="17"/>
@@ -7608,8 +7656,8 @@
     <n v="289.86"/>
     <n v="45.32"/>
     <x v="16"/>
-    <s v="17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26"/>
-    <s v="17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32"/>
+    <s v="17|3DC #64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26"/>
+    <s v="17|3DC #64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32"/>
   </r>
   <r>
     <n v="18"/>
@@ -7630,8 +7678,8 @@
     <n v="81.48"/>
     <n v="54.05"/>
     <x v="17"/>
-    <s v="18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51"/>
-    <s v="18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05"/>
+    <s v="18|3DC #67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51"/>
+    <s v="18|3DC #67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05"/>
   </r>
   <r>
     <n v="19"/>
@@ -7652,8 +7700,8 @@
     <n v="44.78"/>
     <n v="125.22"/>
     <x v="18"/>
-    <s v="19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69"/>
-    <s v="19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22"/>
+    <s v="19|3DC #68|R9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69"/>
+    <s v="19|3DC #68|R9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22"/>
   </r>
   <r>
     <n v="20"/>
@@ -7674,8 +7722,8 @@
     <n v="33.520000000000003"/>
     <n v="168.04"/>
     <x v="19"/>
-    <s v="20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67"/>
-    <s v="20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04"/>
+    <s v="20|3DC #70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67"/>
+    <s v="20|3DC #70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04"/>
   </r>
   <r>
     <n v="21"/>
@@ -7696,8 +7744,8 @@
     <n v="38.61"/>
     <n v="112.84"/>
     <x v="20"/>
-    <s v="21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|62,61|32182|496,32|64,84"/>
-    <s v="21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|5945,36|4356|38,61|112,84"/>
+    <s v="21|3DC #88|R9 5950X (Vermeer)|Lowkey||v0.5.0|62,61|32182|496,32|64,84"/>
+    <s v="21|3DC #88|R9 5950X (Vermeer)|Lowkey||v0.5.0|5945,36|4356|38,61|112,84"/>
   </r>
   <r>
     <n v="22"/>
@@ -7718,8 +7766,8 @@
     <n v="35.049999999999997"/>
     <n v="168.38"/>
     <x v="21"/>
-    <s v="22|90|R9 5950X (Vermeer)|misterh||v0.5.0|63,92|30783|508,2|60,57"/>
-    <s v="22|90|R9 5950X (Vermeer)|misterh||v0.5.0|4834,19|5902|35,05|168,38"/>
+    <s v="22|3DC #90|R9 5950X (Vermeer)|misterh||v0.5.0|63,92|30783|508,2|60,57"/>
+    <s v="22|3DC #90|R9 5950X (Vermeer)|misterh||v0.5.0|4834,19|5902|35,05|168,38"/>
   </r>
   <r>
     <n v="23"/>
@@ -7740,8 +7788,8 @@
     <n v="205"/>
     <n v="100.15"/>
     <x v="22"/>
-    <s v="23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|17,45|55373|1034,64|53,52"/>
-    <s v="23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|237,59|20531|205|100,15"/>
+    <s v="23|3DC #108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|17,45|55373|1034,64|53,52"/>
+    <s v="23|3DC #108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|237,59|20531|205|100,15"/>
   </r>
   <r>
     <n v="24"/>
@@ -7762,8 +7810,8 @@
     <n v="184.18"/>
     <n v="20.49"/>
     <x v="23"/>
-    <s v="24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|172,46|10777|538,06|20,03"/>
-    <s v="24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|1438,78|3774|184,18|20,49"/>
+    <s v="24|3DC #102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|172,46|10777|538,06|20,03"/>
+    <s v="24|3DC #102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|1438,78|3774|184,18|20,49"/>
   </r>
   <r>
     <n v="25"/>
@@ -7784,8 +7832,8 @@
     <n v="36.299999999999997"/>
     <n v="146.87"/>
     <x v="24"/>
-    <s v="25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95"/>
-    <s v="25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87"/>
+    <s v="25|3DC #94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95"/>
+    <s v="25|3DC #94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87"/>
   </r>
   <r>
     <n v="26"/>
@@ -7806,8 +7854,8 @@
     <n v="37.630000000000003"/>
     <n v="115.69"/>
     <x v="25"/>
-    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|59,97|33184,63|502,51|66,04"/>
-    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|6103,75|4353,56|37,63|115,69"/>
+    <s v="26|3DC #96|R9 5950X (Vermeer)|Sweepi||v0.3.1|59,97|33184,63|502,51|66,04"/>
+    <s v="26|3DC #96|R9 5950X (Vermeer)|Sweepi||v0.3.1|6103,75|4353,56|37,63|115,69"/>
   </r>
   <r>
     <n v="27"/>
@@ -7828,8 +7876,8 @@
     <n v="104.79"/>
     <n v="19.13"/>
     <x v="26"/>
-    <s v="27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|164,2|9800,31|621,43|15,77"/>
-    <s v="27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|4760,57|2004,54|104,79|19,13"/>
+    <s v="27|3DC #118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|164,2|9800,31|621,43|15,77"/>
+    <s v="27|3DC #118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|4760,57|2004,54|104,79|19,13"/>
   </r>
   <r>
     <n v="28"/>
@@ -7850,8 +7898,8 @@
     <n v="191.83"/>
     <n v="48.52"/>
     <x v="27"/>
-    <s v="28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|55,06|20078|904,59|22,2"/>
-    <s v="28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|560,07|9308|191,83|48,52"/>
+    <s v="28|3DC #129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|55,06|20078|904,59|22,2"/>
+    <s v="28|3DC #129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|560,07|9308|191,83|48,52"/>
   </r>
   <r>
     <n v="29"/>
@@ -7872,8 +7920,8 @@
     <n v="162.6"/>
     <n v="20.56"/>
     <x v="28"/>
-    <s v="29|133|R5 4500U (Renoir)|Poekel||v0.5.1|186,38|7581,59|707,68|10,71"/>
-    <s v="29|133|R5 4500U (Renoir)|Poekel||v0.5.1|1839,93|3342,48|162,6|20,56"/>
+    <s v="29|3DC #133|R5 4500U (Renoir)|Poekel||v0.5.1|186,38|7581,59|707,68|10,71"/>
+    <s v="29|3DC #133|R5 4500U (Renoir)|Poekel||v0.5.1|1839,93|3342,48|162,6|20,56"/>
   </r>
   <r>
     <n v="30"/>
@@ -7894,8 +7942,8 @@
     <n v="84.41"/>
     <n v="35.659999999999997"/>
     <x v="29"/>
-    <s v="30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|216,08|7445|621,65|11,98"/>
-    <s v="30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|3936,18|3010|84,41|35,66"/>
+    <s v="30|3DC #134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|216,08|7445|621,65|11,98"/>
+    <s v="30|3DC #134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|3936,18|3010|84,41|35,66"/>
   </r>
   <r>
     <n v="31"/>
@@ -7916,8 +7964,8 @@
     <n v="54.57"/>
     <n v="76.08"/>
     <x v="30"/>
-    <s v="31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|60,14|24336|683,23|35,62"/>
-    <s v="31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|4414,66|4151|54,57|76,08"/>
+    <s v="31|3DC #135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|60,14|24336|683,23|35,62"/>
+    <s v="31|3DC #135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|4414,66|4151|54,57|76,08"/>
   </r>
   <r>
     <n v="32"/>
@@ -7938,8 +7986,8 @@
     <n v="43.21"/>
     <n v="120.07"/>
     <x v="31"/>
-    <s v="32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|75,57|25543|518,06|49,31"/>
-    <s v="32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|4461,23|5187,88|43,21|120,07"/>
+    <s v="32|3DC #136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|75,57|25543|518,06|49,31"/>
+    <s v="32|3DC #136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|4461,23|5187,88|43,21|120,07"/>
   </r>
   <r>
     <n v="33"/>
@@ -7960,8 +8008,8 @@
     <n v="44"/>
     <n v="130.91999999999999"/>
     <x v="32"/>
-    <s v="33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|52,3|38103|501,84|75,93"/>
-    <s v="33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|3945,77|5760|44|130,92"/>
+    <s v="33|3DC #140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|52,3|38103|501,84|75,93"/>
+    <s v="33|3DC #140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|3945,77|5760|44|130,92"/>
   </r>
   <r>
     <n v="34"/>
@@ -7982,8 +8030,8 @@
     <n v="198.68"/>
     <n v="93.96"/>
     <x v="33"/>
-    <s v="34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|26,38|38525|983,86|39,16"/>
-    <s v="34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|269,61|18669|198,68|93,96"/>
+    <s v="34|3DC #141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|26,38|38525|983,86|39,16"/>
+    <s v="34|3DC #141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|269,61|18669|198,68|93,96"/>
   </r>
   <r>
     <n v="35"/>
@@ -8004,8 +8052,8 @@
     <n v="56.75"/>
     <n v="132.29"/>
     <x v="34"/>
-    <s v="35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|57,13|34236|511,24|66,97"/>
-    <s v="35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|2347,02|7508|56,75|132,29"/>
+    <s v="35|3DC #145|R7 5800X (Vermeer)|hq-hq||v0.5.1|57,13|34236|511,24|66,97"/>
+    <s v="35|3DC #145|R7 5800X (Vermeer)|hq-hq||v0.5.1|2347,02|7508|56,75|132,29"/>
   </r>
   <r>
     <n v="36"/>
@@ -8026,8 +8074,8 @@
     <n v="497.55"/>
     <n v="10.5"/>
     <x v="35"/>
-    <s v="36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|83,49|11096|1079,37|10,28"/>
-    <s v="36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|384,59|5226|497,55|10,5"/>
+    <s v="36|3DC #146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|83,49|11096|1079,37|10,28"/>
+    <s v="36|3DC #146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|384,59|5226|497,55|10,5"/>
   </r>
   <r>
     <n v="37"/>
@@ -8048,8 +8096,8 @@
     <n v="2173.7800000000002"/>
     <n v="5.94"/>
     <x v="36"/>
-    <s v="37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|16,69|18192|3293,49|5,52"/>
-    <s v="37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|35,61|12920|2173,78|5,94"/>
+    <s v="37|3DC #146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|16,69|18192|3293,49|5,52"/>
+    <s v="37|3DC #146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|35,61|12920|2173,78|5,94"/>
   </r>
   <r>
     <n v="38"/>
@@ -8070,8 +8118,8 @@
     <n v="67.459999999999994"/>
     <n v="117.13"/>
     <x v="37"/>
-    <s v="38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|68,06|28138|522,17|53,89"/>
-    <s v="38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|1876,01|7902|67,46|117,13"/>
+    <s v="38|3DC #148|R7 5800X (Vermeer)|patrock84||v0.5.1|68,06|28138|522,17|53,89"/>
+    <s v="38|3DC #148|R7 5800X (Vermeer)|patrock84||v0.5.1|1876,01|7902|67,46|117,13"/>
   </r>
   <r>
     <n v="39"/>
@@ -8092,8 +8140,8 @@
     <n v="110.27"/>
     <n v="111.24"/>
     <x v="38"/>
-    <s v="39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|58,25|27864|616,08|45,23"/>
-    <s v="39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|739,31|12266|110,27|111,24"/>
+    <s v="39|3DC #154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|58,25|27864|616,08|45,23"/>
+    <s v="39|3DC #154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|739,31|12266|110,27|111,24"/>
   </r>
   <r>
     <n v="40"/>
@@ -8114,8 +8162,8 @@
     <n v="295.61"/>
     <n v="34.020000000000003"/>
     <x v="39"/>
-    <s v="40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|54,74|20650|884,67|23,34"/>
-    <s v="40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|336,42|10055|295,61|34,02"/>
+    <s v="40|3DC #154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|54,74|20650|884,67|23,34"/>
+    <s v="40|3DC #154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|336,42|10055|295,61|34,02"/>
   </r>
   <r>
     <n v="41"/>
@@ -8136,8 +8184,8 @@
     <n v="89.91"/>
     <n v="133.65"/>
     <x v="40"/>
-    <s v="41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|61,55|25887|627,62|41,25"/>
-    <s v="41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|925,56|12017|89,91|133,65"/>
+    <s v="41|3DC #155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|61,55|25887|627,62|41,25"/>
+    <s v="41|3DC #155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|925,56|12017|89,91|133,65"/>
   </r>
   <r>
     <n v="42"/>
@@ -8158,8 +8206,8 @@
     <n v="69.83"/>
     <n v="64.67"/>
     <x v="41"/>
-    <s v="42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|168,79|10124|585,18|17,3"/>
-    <s v="42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|3171,28|4516|69,83|64,67"/>
+    <s v="42|3DC #156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|168,79|10124|585,18|17,3"/>
+    <s v="42|3DC #156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|3171,28|4516|69,83|64,67"/>
   </r>
   <r>
     <n v="43"/>
@@ -8180,8 +8228,8 @@
     <n v="36.14"/>
     <n v="114.8"/>
     <x v="42"/>
-    <s v="43|160|R9 5950X (Vermeer)|GaryX||v0.5.1|74,44|26935|498,76|54"/>
-    <s v="43|160|R9 5950X (Vermeer)|GaryX||v0.5.1|6668,05|4149|36,14|114,8"/>
+    <s v="43|3DC #160|R9 5950X (Vermeer)|GaryX||v0.5.1|74,44|26935|498,76|54"/>
+    <s v="43|3DC #160|R9 5950X (Vermeer)|GaryX||v0.5.1|6668,05|4149|36,14|114,8"/>
   </r>
   <r>
     <n v="44"/>
@@ -8202,8 +8250,8 @@
     <n v="136.99"/>
     <n v="28.36"/>
     <x v="43"/>
-    <s v="44|165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|158,59|8278|761,74|10,87"/>
-    <s v="44|165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|1878,68|3886|136,99|28,36"/>
+    <s v="44|3DC #165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|158,59|8278|761,74|10,87"/>
+    <s v="44|3DC #165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|1878,68|3886|136,99|28,36"/>
   </r>
   <r>
     <n v="45"/>
@@ -8224,8 +8272,8 @@
     <n v="46.82"/>
     <n v="103.97"/>
     <x v="44"/>
-    <s v="45|4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|58,15|33913|507,07|66,88"/>
-    <s v="45|4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|4388,11|4868|46,82|103,97"/>
+    <s v="45|CB #4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|58,15|33913|507,07|66,88"/>
+    <s v="45|CB #4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|4388,11|4868|46,82|103,97"/>
   </r>
   <r>
     <n v="46"/>
@@ -8246,8 +8294,8 @@
     <n v="75.05"/>
     <n v="96.34"/>
     <x v="45"/>
-    <s v="46|5|R5 5600X (Vermeer)|mesohorny||v0.6.0|90,06|21193|523,92|40,45"/>
-    <s v="46|5|R5 5600X (Vermeer)|mesohorny||v0.6.0|1843|7230|75,05|96,34"/>
+    <s v="46|CB #5|R5 5600X (Vermeer)|mesohorny||v0.6.0|90,06|21193|523,92|40,45"/>
+    <s v="46|CB #5|R5 5600X (Vermeer)|mesohorny||v0.6.0|1843|7230|75,05|96,34"/>
   </r>
   <r>
     <n v="47"/>
@@ -8268,8 +8316,8 @@
     <n v="71.48"/>
     <n v="76.150000000000006"/>
     <x v="46"/>
-    <s v="47|9|R7 3700X (Matisse)|Puffer0815||v0.6.0|101,29|15775|625,84|25,21"/>
-    <s v="47|9|R7 3700X (Matisse)|Puffer0815||v0.6.0|2569,91|5444|71,48|76,15"/>
+    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|101,29|15775|625,84|25,21"/>
+    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|2569,91|5444|71,48|76,15"/>
   </r>
   <r>
     <n v="48"/>
@@ -8290,8 +8338,8 @@
     <n v="257.01"/>
     <n v="9.84"/>
     <x v="47"/>
-    <s v="48|10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|147,36|6619|1025,22|6,46"/>
-    <s v="48|10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|1538,34|2529|257,01|9,84"/>
+    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|147,36|6619|1025,22|6,46"/>
+    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|1538,34|2529|257,01|9,84"/>
   </r>
   <r>
     <n v="49"/>
@@ -8312,8 +8360,8 @@
     <n v="71.08"/>
     <n v="87.23"/>
     <x v="48"/>
-    <s v="49|13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|69,31|22812|632,5|36,07"/>
-    <s v="49|13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|2268,8|6201|71,08|87,23"/>
+    <s v="49|CB #13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|69,31|22812|632,5|36,07"/>
+    <s v="49|CB #13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|2268,8|6201|71,08|87,23"/>
   </r>
   <r>
     <n v="50"/>
@@ -8334,8 +8382,8 @@
     <n v="69.19"/>
     <n v="76.260000000000005"/>
     <x v="49"/>
-    <s v="50|14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|82,88|19421,07|621,27|31,26"/>
-    <s v="50|14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|2738,85|5276,69|69,19|76,26"/>
+    <s v="50|CB #14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|82,88|19421,07|621,27|31,26"/>
+    <s v="50|CB #14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|2738,85|5276,69|69,19|76,26"/>
   </r>
   <r>
     <n v="51"/>
@@ -8356,8 +8404,8 @@
     <n v="237.2"/>
     <n v="21.21"/>
     <x v="50"/>
-    <s v="51|20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|107,39|10395|895,74|11,63"/>
-    <s v="51|20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|838,17|5030|237,2|21,21"/>
+    <s v="51|CB #20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|107,39|10395|895,74|11,63"/>
+    <s v="51|CB #20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|838,17|5030|237,2|21,21"/>
   </r>
   <r>
     <n v="52"/>
@@ -8378,8 +8426,8 @@
     <n v="246.44"/>
     <n v="36.44"/>
     <x v="51"/>
-    <s v="52|36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|40,92|24128,5|1012,91|23,82"/>
-    <s v="52|36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|451,85|8980,59|246,44|36,44"/>
+    <s v="52|CB #36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|40,92|24128,5|1012,91|23,82"/>
+    <s v="52|CB #36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|451,85|8980,59|246,44|36,44"/>
   </r>
   <r>
     <n v="53"/>
@@ -8400,8 +8448,8 @@
     <n v="320.52999999999997"/>
     <n v="10.41"/>
     <x v="52"/>
-    <s v="53|49|R5 3500U (Picasso)|Asghan||v0.6.0|91,97|9072|1198,55|7,57"/>
-    <s v="53|49|R5 3500U (Picasso)|Asghan||v0.6.0|935,44|3335|320,53|10,41"/>
+    <s v="53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|91,97|9072|1198,55|7,57"/>
+    <s v="53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|935,44|3335|320,53|10,41"/>
   </r>
   <r>
     <n v="56"/>
@@ -8422,8 +8470,8 @@
     <n v="115.01"/>
     <n v="55.16"/>
     <x v="53"/>
-    <s v="56|57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|104,65|13860,34|689,41|20,1"/>
-    <s v="56|57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|1370,41|6344,53|115,01|55,16"/>
+    <s v="56|CB #57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|104,65|13860,34|689,41|20,1"/>
+    <s v="56|CB #57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|1370,41|6344,53|115,01|55,16"/>
   </r>
   <r>
     <n v="57"/>
@@ -8444,15 +8492,15 @@
     <n v="199.83"/>
     <n v="56"/>
     <x v="54"/>
-    <s v="57|60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|35,72|27072,99|1034,09|26,28"/>
-    <s v="57|60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|447,21|11189,89|199,83|56"/>
+    <s v="57|CB #60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|35,72|27072,99|1034,09|26,28"/>
+    <s v="57|CB #60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|447,21|11189,89|199,83|56"/>
   </r>
   <r>
     <n v="58"/>
     <s v="v0.6.0"/>
     <s v="CB"/>
     <n v="60"/>
-    <s v="i5 4300U"/>
+    <s v="i5 4300U (Haswell)"/>
     <s v="Blende Up"/>
     <m/>
     <m/>
@@ -8466,15 +8514,37 @@
     <n v="600.22"/>
     <n v="15.02"/>
     <x v="55"/>
-    <s v="58|60|i5 4300U|Blende Up||v0.6.0|58,95|13379,46|1267,9|10,55"/>
-    <s v="58|60|i5 4300U|Blende Up||v0.6.0|184,8|9015,32|600,22|15,02"/>
+    <s v="58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|58,95|13379,46|1267,9|10,55"/>
+    <s v="58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|184,8|9015,32|600,22|15,02"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="v0.5.1"/>
+    <s v="CB"/>
+    <n v="39"/>
+    <s v="R5 2600X (Pinnacle Ridge)"/>
+    <s v="HasseLadebalken"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="41.74"/>
+    <n v="30535"/>
+    <n v="784.57"/>
+    <n v="38.92"/>
+    <n v="768.82"/>
+    <n v="11691"/>
+    <n v="111.26"/>
+    <n v="105.08"/>
+    <x v="56"/>
+    <s v="59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|41,74|30535|784,57|38,92"/>
+    <s v="59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|768,82|11691|111,26|105,08"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
-  <location ref="B3:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8500,28 +8570,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="102">
+      <items count="104">
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="59"/>
+        <item m="1" x="74"/>
+        <item m="1" x="100"/>
+        <item m="1" x="75"/>
+        <item m="1" x="93"/>
+        <item m="1" x="76"/>
+        <item m="1" x="60"/>
+        <item m="1" x="96"/>
+        <item m="1" x="80"/>
+        <item m="1" x="95"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="72"/>
+        <item m="1" x="71"/>
+        <item m="1" x="57"/>
+        <item m="1" x="84"/>
+        <item m="1" x="89"/>
+        <item m="1" x="58"/>
         <item m="1" x="65"/>
-        <item m="1" x="62"/>
-        <item m="1" x="58"/>
-        <item m="1" x="73"/>
-        <item m="1" x="98"/>
-        <item m="1" x="74"/>
-        <item m="1" x="91"/>
-        <item m="1" x="75"/>
-        <item m="1" x="59"/>
-        <item m="1" x="94"/>
-        <item m="1" x="79"/>
-        <item m="1" x="93"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="71"/>
-        <item m="1" x="70"/>
-        <item m="1" x="56"/>
-        <item m="1" x="83"/>
-        <item m="1" x="87"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -8529,11 +8599,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="86"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="68"/>
+        <item m="1" x="69"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -8541,12 +8611,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="94"/>
+        <item m="1" x="68"/>
+        <item m="1" x="64"/>
         <item m="1" x="92"/>
-        <item m="1" x="67"/>
-        <item m="1" x="63"/>
-        <item m="1" x="90"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -8555,23 +8625,23 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="81"/>
         <item m="1" x="82"/>
-        <item m="1" x="69"/>
-        <item m="1" x="60"/>
-        <item x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="97"/>
         <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="86"/>
-        <item m="1" x="95"/>
+        <item m="1" x="62"/>
+        <item m="1" x="101"/>
+        <item m="1" x="67"/>
+        <item m="1" x="102"/>
         <item m="1" x="77"/>
-        <item m="1" x="61"/>
-        <item m="1" x="99"/>
-        <item m="1" x="66"/>
-        <item m="1" x="100"/>
-        <item m="1" x="76"/>
-        <item m="1" x="85"/>
-        <item m="1" x="72"/>
+        <item m="1" x="87"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="26"/>
         <item x="27"/>
@@ -8601,7 +8671,9 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
+        <item m="1" x="85"/>
         <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8620,7 +8692,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="38">
     <i>
       <x v="81"/>
     </i>
@@ -8640,6 +8712,9 @@
       <x v="96"/>
     </i>
     <i>
+      <x v="102"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
@@ -8661,7 +8736,7 @@
       <x v="83"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="101"/>
     </i>
     <i>
       <x v="85"/>
@@ -8766,8 +8841,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="B3:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8793,28 +8868,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="102">
+      <items count="104">
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="59"/>
+        <item m="1" x="74"/>
+        <item m="1" x="100"/>
+        <item m="1" x="75"/>
+        <item m="1" x="93"/>
+        <item m="1" x="76"/>
+        <item m="1" x="60"/>
+        <item m="1" x="96"/>
+        <item m="1" x="80"/>
+        <item m="1" x="95"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="72"/>
+        <item m="1" x="71"/>
+        <item m="1" x="57"/>
+        <item m="1" x="84"/>
+        <item m="1" x="89"/>
+        <item m="1" x="58"/>
         <item m="1" x="65"/>
-        <item m="1" x="62"/>
-        <item m="1" x="58"/>
-        <item m="1" x="73"/>
-        <item m="1" x="98"/>
-        <item m="1" x="74"/>
-        <item m="1" x="91"/>
-        <item m="1" x="75"/>
-        <item m="1" x="59"/>
-        <item m="1" x="94"/>
-        <item m="1" x="79"/>
-        <item m="1" x="93"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="71"/>
-        <item m="1" x="70"/>
-        <item m="1" x="56"/>
-        <item m="1" x="83"/>
-        <item m="1" x="87"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -8822,11 +8897,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="86"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="68"/>
+        <item m="1" x="69"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -8834,12 +8909,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="94"/>
+        <item m="1" x="68"/>
+        <item m="1" x="64"/>
         <item m="1" x="92"/>
-        <item m="1" x="67"/>
-        <item m="1" x="63"/>
-        <item m="1" x="90"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -8848,23 +8923,23 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="81"/>
         <item m="1" x="82"/>
-        <item m="1" x="69"/>
-        <item m="1" x="60"/>
-        <item x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="97"/>
         <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="86"/>
-        <item m="1" x="95"/>
+        <item m="1" x="62"/>
+        <item m="1" x="101"/>
+        <item m="1" x="67"/>
+        <item m="1" x="102"/>
         <item m="1" x="77"/>
-        <item m="1" x="61"/>
-        <item m="1" x="99"/>
-        <item m="1" x="66"/>
-        <item m="1" x="100"/>
-        <item m="1" x="76"/>
-        <item m="1" x="85"/>
-        <item m="1" x="72"/>
+        <item m="1" x="87"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="26"/>
         <item x="27"/>
@@ -8894,7 +8969,9 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
+        <item m="1" x="85"/>
         <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8913,7 +8990,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="38">
     <i>
       <x v="50"/>
     </i>
@@ -8936,6 +9013,9 @@
       <x v="21"/>
     </i>
     <i>
+      <x v="102"/>
+    </i>
+    <i>
       <x v="83"/>
     </i>
     <i>
@@ -8975,7 +9055,7 @@
       <x v="98"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="101"/>
     </i>
     <i>
       <x v="30"/>
@@ -9059,8 +9139,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="B3:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9086,28 +9166,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="102">
+      <items count="104">
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="59"/>
+        <item m="1" x="74"/>
+        <item m="1" x="100"/>
+        <item m="1" x="75"/>
+        <item m="1" x="93"/>
+        <item m="1" x="76"/>
+        <item m="1" x="60"/>
+        <item m="1" x="96"/>
+        <item m="1" x="80"/>
+        <item m="1" x="95"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="72"/>
+        <item m="1" x="71"/>
+        <item m="1" x="57"/>
+        <item m="1" x="84"/>
+        <item m="1" x="89"/>
+        <item m="1" x="58"/>
         <item m="1" x="65"/>
-        <item m="1" x="62"/>
-        <item m="1" x="58"/>
-        <item m="1" x="73"/>
-        <item m="1" x="98"/>
-        <item m="1" x="74"/>
-        <item m="1" x="91"/>
-        <item m="1" x="75"/>
-        <item m="1" x="59"/>
-        <item m="1" x="94"/>
-        <item m="1" x="79"/>
-        <item m="1" x="93"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="71"/>
-        <item m="1" x="70"/>
-        <item m="1" x="56"/>
-        <item m="1" x="83"/>
-        <item m="1" x="87"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -9115,11 +9195,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="86"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="68"/>
+        <item m="1" x="69"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9127,12 +9207,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="94"/>
+        <item m="1" x="68"/>
+        <item m="1" x="64"/>
         <item m="1" x="92"/>
-        <item m="1" x="67"/>
-        <item m="1" x="63"/>
-        <item m="1" x="90"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9141,23 +9221,23 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="81"/>
         <item m="1" x="82"/>
-        <item m="1" x="69"/>
-        <item m="1" x="60"/>
-        <item x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="97"/>
         <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="86"/>
-        <item m="1" x="95"/>
+        <item m="1" x="62"/>
+        <item m="1" x="101"/>
+        <item m="1" x="67"/>
+        <item m="1" x="102"/>
         <item m="1" x="77"/>
-        <item m="1" x="61"/>
-        <item m="1" x="99"/>
-        <item m="1" x="66"/>
-        <item m="1" x="100"/>
-        <item m="1" x="76"/>
-        <item m="1" x="85"/>
-        <item m="1" x="72"/>
+        <item m="1" x="87"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="26"/>
         <item x="27"/>
@@ -9187,7 +9267,9 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
+        <item m="1" x="85"/>
         <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9206,12 +9288,12 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="38">
     <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="101"/>
     </i>
     <i>
       <x v="50"/>
@@ -9242,6 +9324,9 @@
     </i>
     <i>
       <x v="83"/>
+    </i>
+    <i>
+      <x v="102"/>
     </i>
     <i>
       <x v="95"/>
@@ -9352,8 +9437,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="B3:C40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9379,28 +9464,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="102">
+      <items count="104">
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="59"/>
+        <item m="1" x="74"/>
+        <item m="1" x="100"/>
+        <item m="1" x="75"/>
+        <item m="1" x="93"/>
+        <item m="1" x="76"/>
+        <item m="1" x="60"/>
+        <item m="1" x="96"/>
+        <item m="1" x="80"/>
+        <item m="1" x="95"/>
+        <item m="1" x="98"/>
+        <item m="1" x="99"/>
+        <item m="1" x="72"/>
+        <item m="1" x="71"/>
+        <item m="1" x="57"/>
+        <item m="1" x="84"/>
+        <item m="1" x="89"/>
+        <item m="1" x="58"/>
         <item m="1" x="65"/>
-        <item m="1" x="62"/>
-        <item m="1" x="58"/>
-        <item m="1" x="73"/>
-        <item m="1" x="98"/>
-        <item m="1" x="74"/>
-        <item m="1" x="91"/>
-        <item m="1" x="75"/>
-        <item m="1" x="59"/>
-        <item m="1" x="94"/>
-        <item m="1" x="79"/>
-        <item m="1" x="93"/>
-        <item m="1" x="96"/>
-        <item m="1" x="97"/>
-        <item m="1" x="71"/>
-        <item m="1" x="70"/>
-        <item m="1" x="56"/>
-        <item m="1" x="83"/>
-        <item m="1" x="87"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -9408,11 +9493,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="86"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="68"/>
+        <item m="1" x="69"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9420,12 +9505,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="94"/>
+        <item m="1" x="68"/>
+        <item m="1" x="64"/>
         <item m="1" x="92"/>
-        <item m="1" x="67"/>
-        <item m="1" x="63"/>
-        <item m="1" x="90"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9434,23 +9519,23 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="81"/>
         <item m="1" x="82"/>
-        <item m="1" x="69"/>
-        <item m="1" x="60"/>
-        <item x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="97"/>
         <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="86"/>
-        <item m="1" x="95"/>
+        <item m="1" x="62"/>
+        <item m="1" x="101"/>
+        <item m="1" x="67"/>
+        <item m="1" x="102"/>
         <item m="1" x="77"/>
-        <item m="1" x="61"/>
-        <item m="1" x="99"/>
-        <item m="1" x="66"/>
-        <item m="1" x="100"/>
-        <item m="1" x="76"/>
-        <item m="1" x="85"/>
-        <item m="1" x="72"/>
+        <item m="1" x="87"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="26"/>
         <item x="27"/>
@@ -9480,7 +9565,9 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
+        <item m="1" x="85"/>
         <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9499,7 +9586,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="38">
     <i>
       <x v="50"/>
     </i>
@@ -9519,6 +9606,9 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="102"/>
+    </i>
+    <i>
       <x v="99"/>
     </i>
     <i>
@@ -9528,7 +9618,7 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="100"/>
+      <x v="101"/>
     </i>
     <i>
       <x v="96"/>
@@ -9681,8 +9771,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U60" totalsRowShown="0">
-  <autoFilter ref="B4:U60" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U61" totalsRowShown="0">
+  <autoFilter ref="B4:U61" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
@@ -9978,24 +10068,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U60"/>
+  <dimension ref="B1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O54" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U84" sqref="U84"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="1"/>
     <col min="2" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="20.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
@@ -13413,7 +13506,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>136</v>
@@ -13447,15 +13540,74 @@
       </c>
       <c r="S60" s="21" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i5 4300U [58]</v>
+        <v>i5 4300U (Haswell) [58]</v>
       </c>
       <c r="T60" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>58|CB #60|i5 4300U|Blende Up||v0.6.0|58,95|13379,46|1267,9|10,55</v>
+        <v>58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|58,95|13379,46|1267,9|10,55</v>
       </c>
       <c r="U60" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>58|CB #60|i5 4300U|Blende Up||v0.6.0|184,8|9015,32|600,22|15,02</v>
+        <v>58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|184,8|9015,32|600,22|15,02</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <v>59</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="7">
+        <v>39</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="16">
+        <v>41.74</v>
+      </c>
+      <c r="L61" s="24">
+        <v>30535</v>
+      </c>
+      <c r="M61" s="16">
+        <v>784.57</v>
+      </c>
+      <c r="N61" s="16">
+        <v>38.92</v>
+      </c>
+      <c r="O61" s="25">
+        <v>768.82</v>
+      </c>
+      <c r="P61" s="24">
+        <v>11691</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>111.26</v>
+      </c>
+      <c r="R61" s="16">
+        <v>105.08</v>
+      </c>
+      <c r="S61" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</v>
+      </c>
+      <c r="T61" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|41,74|30535|784,57|38,92</v>
+      </c>
+      <c r="U61" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|768,82|11691|111,26|105,08</v>
       </c>
     </row>
   </sheetData>
@@ -13476,9 +13628,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C40"/>
+  <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -13508,7 +13660,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3">
         <v>16.690000000000001</v>
@@ -13524,7 +13676,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3">
         <v>26.38</v>
@@ -13540,7 +13692,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3">
         <v>35.72</v>
@@ -13548,7 +13700,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3">
         <v>40.92</v>
@@ -13556,250 +13708,258 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3">
-        <v>45.76</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3">
-        <v>54.74</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3">
-        <v>55.06</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3">
-        <v>55.08</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3">
-        <v>57.13</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3">
-        <v>58.15</v>
+        <v>57.13</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3">
-        <v>58.25</v>
+        <v>58.15</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3">
-        <v>58.95</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C18" s="3">
-        <v>61.55</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3">
-        <v>62.61</v>
+        <v>61.55</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3">
-        <v>74.44</v>
+        <v>62.61</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3">
-        <v>75.569999999999993</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3">
-        <v>83.49</v>
+        <v>75.569999999999993</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3">
-        <v>88.24</v>
+        <v>83.49</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3">
-        <v>90.06</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3">
-        <v>91.97</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3">
-        <v>101.29</v>
+        <v>91.97</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="3">
-        <v>104.65</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3">
-        <v>107.39</v>
+        <v>104.65</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3">
-        <v>127.76</v>
+        <v>107.39</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3">
-        <v>137.88</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3">
-        <v>141.66999999999999</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3">
-        <v>146.74</v>
+        <v>141.66999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3">
-        <v>147.36000000000001</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3">
-        <v>153.88</v>
+        <v>147.36000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3">
-        <v>158.59</v>
+        <v>153.88</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3">
-        <v>168.79</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3">
-        <v>172.46</v>
+        <v>168.79</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C38" s="3">
-        <v>186.38</v>
+        <v>172.46</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3">
-        <v>216.08</v>
+        <v>186.38</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3">
+        <v>216.08</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
-        <v>3310.23</v>
+      <c r="C41" s="3">
+        <v>3351.97</v>
       </c>
     </row>
   </sheetData>
@@ -13810,10 +13970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C40"/>
+  <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13850,7 +14010,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>38525</v>
@@ -13858,7 +14018,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1">
         <v>34236</v>
@@ -13866,7 +14026,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1">
         <v>33913</v>
@@ -13898,242 +14058,250 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1">
-        <v>27864</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1">
-        <v>27072.99</v>
+        <v>27864</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1">
-        <v>26935</v>
+        <v>27072.99</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1">
-        <v>25887</v>
+        <v>26935</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1">
-        <v>25543</v>
+        <v>25887</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1">
-        <v>24128.5</v>
+        <v>25543</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1">
-        <v>23918</v>
+        <v>24128.5</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
-        <v>21193</v>
+        <v>23918</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1">
-        <v>20650</v>
+        <v>21193</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1">
-        <v>20078</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C21" s="1">
-        <v>18192</v>
+        <v>20078</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
-        <v>15775</v>
+        <v>18192</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1">
-        <v>13860.34</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1">
-        <v>13379.46</v>
+        <v>13860.34</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1">
-        <v>11657</v>
+        <v>13379.46</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
-        <v>11096</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1">
-        <v>10777</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1">
-        <v>10450</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1">
-        <v>10396</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1">
-        <v>10395</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C31" s="1">
-        <v>10352</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1">
-        <v>10273</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1">
-        <v>10124</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1">
-        <v>9839</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1">
-        <v>9072</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1">
-        <v>8278</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C37" s="1">
-        <v>7581.59</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1">
-        <v>7445</v>
+        <v>7581.59</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1">
-        <v>6619</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="1">
-        <v>707375.88</v>
+      <c r="C41" s="1">
+        <v>737910.88</v>
       </c>
     </row>
   </sheetData>
@@ -14144,9 +14312,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C40"/>
+  <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -14176,7 +14344,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3">
         <v>35.61</v>
@@ -14184,7 +14352,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3">
         <v>184.8</v>
@@ -14208,7 +14376,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3">
         <v>269.61</v>
@@ -14216,7 +14384,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3">
         <v>336.42</v>
@@ -14224,7 +14392,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3">
         <v>384.59</v>
@@ -14232,7 +14400,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3">
         <v>447.21</v>
@@ -14240,7 +14408,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="3">
         <v>451.85</v>
@@ -14248,7 +14416,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3">
         <v>560.07000000000005</v>
@@ -14264,7 +14432,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3">
         <v>739.31</v>
@@ -14272,202 +14440,210 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3">
-        <v>838.17</v>
+        <v>768.82</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3">
-        <v>885.22</v>
+        <v>838.17</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3">
-        <v>925.56</v>
+        <v>885.22</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3">
-        <v>935.44</v>
+        <v>925.56</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3">
-        <v>1370.41</v>
+        <v>935.44</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="C21" s="3">
-        <v>1386.39</v>
+        <v>1370.41</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3">
-        <v>1438.78</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3">
-        <v>1538.34</v>
+        <v>1438.78</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="C24" s="3">
-        <v>1818.77</v>
+        <v>1538.34</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3">
-        <v>1839.93</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3">
-        <v>1843</v>
+        <v>1839.93</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3">
-        <v>1878.68</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C28" s="3">
-        <v>2347.02</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C29" s="3">
-        <v>2569.91</v>
+        <v>2347.02</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3">
-        <v>2637.56</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3">
-        <v>2778.66</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="C32" s="3">
-        <v>2787.1</v>
+        <v>2778.66</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3">
-        <v>3171.28</v>
+        <v>2787.1</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="C34" s="3">
-        <v>3599.63</v>
+        <v>3171.28</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3">
-        <v>3936.18</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3">
-        <v>4388.1099999999997</v>
+        <v>3936.18</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C37" s="3">
-        <v>4461.2299999999996</v>
+        <v>4388.1099999999997</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C38" s="3">
-        <v>5945.36</v>
+        <v>4461.2299999999996</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3">
-        <v>6668.05</v>
+        <v>5945.36</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6668.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
-        <v>66555.099999999991</v>
+      <c r="C41" s="3">
+        <v>67323.92</v>
       </c>
     </row>
   </sheetData>
@@ -14479,7 +14655,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C40"/>
+  <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -14519,7 +14695,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>18669</v>
@@ -14535,7 +14711,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1">
         <v>12920</v>
@@ -14543,7 +14719,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1">
         <v>12266</v>
@@ -14551,7 +14727,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
         <v>12017</v>
@@ -14559,250 +14735,258 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1">
-        <v>11189.89</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1">
-        <v>10055</v>
+        <v>11189.89</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1">
-        <v>9308</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1">
-        <v>9015.32</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1">
-        <v>8980.59</v>
+        <v>9015.32</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="1">
-        <v>7508</v>
+        <v>8980.59</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1">
-        <v>7230</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1">
-        <v>7223</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1">
-        <v>6344.53</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C19" s="1">
-        <v>5785</v>
+        <v>6344.53</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
-        <v>5444</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1">
-        <v>5262</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1">
-        <v>5226</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1">
-        <v>5187.88</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1">
-        <v>5030</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1">
-        <v>4868</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1">
-        <v>4575</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
-        <v>4516</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1">
-        <v>4404</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1">
-        <v>4356</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1">
-        <v>4149</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1">
-        <v>3912</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
-        <v>3886</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="C33" s="1">
-        <v>3774</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1">
-        <v>3342.48</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1">
-        <v>3335</v>
+        <v>3342.48</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1">
-        <v>3010</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1">
-        <v>2529</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1">
-        <v>2220</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C39" s="1">
-        <v>2029</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="1">
-        <v>253235.69</v>
+      <c r="C41" s="1">
+        <v>264926.69</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA92E2-396F-47B2-B7CD-AE6D2A5E473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0D444-7C37-43F3-8DB0-667B6C62C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="24" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="178">
   <si>
     <t>CPU</t>
   </si>
@@ -256,9 +256,6 @@
     <t>R5 3600 (Matisse) v0.3.1 [2]</t>
   </si>
   <si>
-    <t>R7 3700X (Matisse) v0.3.1 [18]</t>
-  </si>
-  <si>
     <t>i5 8365U (WhiskeyLake) v0.3.1 [11]</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</t>
   </si>
   <si>
-    <t>R9 5950X (Vermeer) v0.5.0 [21]</t>
-  </si>
-  <si>
     <t>i7 1165G7 (TigerLake) v0.5.0 [24]</t>
   </si>
   <si>
@@ -469,12 +463,6 @@
     <t>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</t>
   </si>
   <si>
-    <t>i7 3770K (Ivy Bridge) [57]</t>
-  </si>
-  <si>
-    <t>i7 4800MQ (Haswell) [52]</t>
-  </si>
-  <si>
     <t>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</t>
   </si>
   <si>
@@ -484,9 +472,6 @@
     <t>R7 5800X (Vermeer) v0.5.1 [35]</t>
   </si>
   <si>
-    <t>R7 5900X (Vermeer) @95W [45]</t>
-  </si>
-  <si>
     <t>i5 8600k (Coffee Lake) v0.5.1 [39]</t>
   </si>
   <si>
@@ -502,30 +487,6 @@
     <t>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</t>
   </si>
   <si>
-    <t>R5 5600X (Vermeer) [46]</t>
-  </si>
-  <si>
-    <t>R5 3500U (Picasso) [53]</t>
-  </si>
-  <si>
-    <t>R7 3700X (Matisse) [47]</t>
-  </si>
-  <si>
-    <t>i7 9750H (Coffee Lake) @55W;-140mV [56]</t>
-  </si>
-  <si>
-    <t>i5 8250U (WhiskeyLake) [51]</t>
-  </si>
-  <si>
-    <t>R7 4700U (Renoir) v0.5.1 [1]</t>
-  </si>
-  <si>
-    <t>R5 3500U (Picasso) [48]</t>
-  </si>
-  <si>
-    <t>R5 4600H (Renoir) Win11 [44]</t>
-  </si>
-  <si>
     <t>R7 5800H (Cezanne) v0.5.1 [42]</t>
   </si>
   <si>
@@ -544,7 +505,76 @@
     <t>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</t>
   </si>
   <si>
-    <t>i5 4300U (Haswell) [58]</t>
+    <t>v0.7.0</t>
+  </si>
+  <si>
+    <t>i5 3320M (Ivy Bridge)</t>
+  </si>
+  <si>
+    <t>noplan724</t>
+  </si>
+  <si>
+    <t>andi_sco</t>
+  </si>
+  <si>
+    <t>raser0248</t>
+  </si>
+  <si>
+    <t>i7 2600 (Sandy Bridge)</t>
+  </si>
+  <si>
+    <t>i3 6157U (Skylake)</t>
+  </si>
+  <si>
+    <t>Outlier?</t>
+  </si>
+  <si>
+    <t>Fabiano</t>
+  </si>
+  <si>
+    <t>PBO off?</t>
+  </si>
+  <si>
+    <t>i7 2600 (Sandy Bridge) v0.6.0 [62]</t>
+  </si>
+  <si>
+    <t>i7 3770K (Ivy Bridge) v0.6.0 [57]</t>
+  </si>
+  <si>
+    <t>i5 3320M (Ivy Bridge) v0.6.0 [60]</t>
+  </si>
+  <si>
+    <t>i7 4800MQ (Haswell) v0.6.0 [52]</t>
+  </si>
+  <si>
+    <t>R7 5900X (Vermeer) @95W v0.6.0 [45]</t>
+  </si>
+  <si>
+    <t>i5 4300U (Haswell) v0.6.0 [58]</t>
+  </si>
+  <si>
+    <t>R5 5600X (Vermeer) v0.6.0 [46]</t>
+  </si>
+  <si>
+    <t>R5 3500U (Picasso) v0.6.0 [53]</t>
+  </si>
+  <si>
+    <t>R7 3700X (Matisse) v0.6.0 [47]</t>
+  </si>
+  <si>
+    <t>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</t>
+  </si>
+  <si>
+    <t>i5 8250U (WhiskeyLake) v0.6.0 [51]</t>
+  </si>
+  <si>
+    <t>i3 6157U (Skylake) v0.6.0 [63]</t>
+  </si>
+  <si>
+    <t>R7 4700U (Renoir) [1]</t>
+  </si>
+  <si>
+    <t>R5 4600H (Renoir) Win11 v0.6.0 [44]</t>
   </si>
 </sst>
 </file>
@@ -693,11 +723,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -1262,46 +1292,46 @@
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>i7 4800MQ (Haswell) [52]</c:v>
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>i5 4300U (Haswell) [58]</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
@@ -1316,40 +1346,40 @@
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>R5 5600X (Vermeer) [46]</c:v>
+                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>R5 3500U (Picasso) [53]</c:v>
+                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>R7 3700X (Matisse) [47]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
+                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
+                  <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>R5 3500U (Picasso) [48]</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
@@ -1382,46 +1412,46 @@
                   <c:v>26.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>28.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>35.72</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>37.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40.92</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>41.74</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>45.76</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>54.74</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>55.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>57.13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>58.15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>58.25</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>58.95</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>61.55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62.61</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>74.44</c:v>
@@ -1451,19 +1481,19 @@
                   <c:v>107.39</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>112.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>141.66999999999999</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>143.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>146.74</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>147.36000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>153.88</c:v>
@@ -2255,25 +2285,25 @@
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
@@ -2285,31 +2315,31 @@
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>i7 4800MQ (Haswell) [52]</c:v>
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>R5 5600X (Vermeer) [46]</c:v>
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
+                  <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
+                  <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>R7 3700X (Matisse) [47]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
+                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>i5 4300U (Haswell) [58]</c:v>
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
@@ -2324,16 +2354,16 @@
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
@@ -2342,10 +2372,10 @@
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>R5 3500U (Picasso) [53]</c:v>
+                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
@@ -2354,7 +2384,7 @@
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>R5 3500U (Picasso) [48]</c:v>
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2381,13 +2411,13 @@
                   <c:v>32204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32182</c:v>
+                  <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32112</c:v>
+                  <c:v>30535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30535</c:v>
+                  <c:v>30292</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27864</c:v>
@@ -2408,16 +2438,16 @@
                   <c:v>24128.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23918</c:v>
+                  <c:v>21193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21193</c:v>
+                  <c:v>20650</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20650</c:v>
+                  <c:v>20078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20078</c:v>
+                  <c:v>18966</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>18192</c:v>
@@ -2444,16 +2474,16 @@
                   <c:v>10450</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>10432</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>10395</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>10352</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10273</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>10124</c:v>
@@ -2474,7 +2504,7 @@
                   <c:v>7445</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6619</c:v>
+                  <c:v>6987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,109 +3208,109 @@
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>i5 4300U (Haswell) [58]</c:v>
+                  <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>i7 4800MQ (Haswell) [52]</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
+                  <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>R5 3500U (Picasso) [53]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>R5 3500U (Picasso) [48]</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>R5 5600X (Vermeer) [46]</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
-                </c:pt>
                 <c:pt idx="25">
+                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>R7 3700X (Matisse) [47]</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
-                </c:pt>
                 <c:pt idx="34">
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
@@ -3298,109 +3328,109 @@
                   <c:v>35.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>177.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>184.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>226.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>237.59</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>262.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>269.61</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>336.42</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>384.59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>388.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>447.21</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>451.85</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>560.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>656.66</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>739.31</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>768.82</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>838.17</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>925.56</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>935.44</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>1370.41</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>1438.78</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1538.34</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>1839.93</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>1843</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>2347.02</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>2778.66</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2787.1</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>2656.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3171.28</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>4388.1099999999997</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>4461.2299999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5945.36</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6668.05</c:v>
@@ -4341,106 +4371,106 @@
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>i7 3770K (Ivy Bridge) [57]</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>i5 4300U (Haswell) [58]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>i7 4800MQ (Haswell) [52]</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>R5 5600X (Vermeer) [46]</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV [56]</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>R7 3700X (Matisse) [47]</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>i5 8250U (WhiskeyLake) [51]</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>R7 5900X (Vermeer) @95W [45]</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>R5 4600H (Renoir) Win11 [44]</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>R5 3500U (Picasso) [53]</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>R5 3500U (Picasso) [48]</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>R7 4700U (Renoir) v0.5.1 [1]</c:v>
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
@@ -4461,106 +4491,106 @@
                   <c:v>18669</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17714</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>13138</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>12920</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12266</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12017</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>11691</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>11189.89</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>10172</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>10055</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>9308</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>9015.32</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>8980.59</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>7508</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>7230</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>6344.53</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>4965</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4868</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>4516</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>4404</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4356</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>4149</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>3886</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>3774</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3342.48</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>3335</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2529</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>2220</c:v>
+                  <c:v>2410</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2029</c:v>
@@ -7102,13 +7132,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44394.701907754628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="57" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44395.442386689814" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="62" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref-No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="59"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="64"/>
     </cacheField>
     <cacheField name="Version" numFmtId="0">
       <sharedItems/>
@@ -7162,8 +7192,8 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="103">
-        <s v="R7 4700U (Renoir) v0.5.1 [1]"/>
+      <sharedItems count="121">
+        <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
         <s v="R9 5950X (Vermeer) v0.3.1 [4]"/>
@@ -7206,66 +7236,84 @@
         <s v="i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]"/>
         <s v="R7 5800H (Cezanne) v0.5.1 [42]"/>
         <s v="R9 5950X (Vermeer) v0.5.1 [43]"/>
-        <s v="R5 4600H (Renoir) Win11 [44]"/>
-        <s v="R7 5900X (Vermeer) @95W [45]"/>
-        <s v="R5 5600X (Vermeer) [46]"/>
-        <s v="R7 3700X (Matisse) [47]"/>
-        <s v="R5 3500U (Picasso) [48]"/>
-        <s v="R7 3700X (Matisse) @95W [49]"/>
-        <s v="R7 3700X (Matisse) @PBO [50]"/>
-        <s v="i5 8250U (WhiskeyLake) [51]"/>
-        <s v="i7 4800MQ (Haswell) [52]"/>
-        <s v="R5 3500U (Picasso) [53]"/>
-        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]"/>
-        <s v="i7 3770K (Ivy Bridge) [57]"/>
-        <s v="i5 4300U (Haswell) [58]"/>
+        <s v="R5 4600H (Renoir) Win11 v0.6.0 [44]"/>
+        <s v="R7 5900X (Vermeer) @95W v0.6.0 [45]"/>
+        <s v="R5 5600X (Vermeer) v0.6.0 [46]"/>
+        <s v="R7 3700X (Matisse) v0.6.0 [47]"/>
+        <s v="R5 3500U (Picasso) v0.6.0 [48]"/>
+        <s v="R7 3700X (Matisse) @95W v0.6.0 [49]"/>
+        <s v="R7 3700X (Matisse) @PBO v0.6.0 [50]"/>
+        <s v="i5 8250U (WhiskeyLake) v0.6.0 [51]"/>
+        <s v="i7 4800MQ (Haswell) v0.6.0 [52]"/>
+        <s v="R5 3500U (Picasso) v0.6.0 [53]"/>
+        <s v="i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]"/>
+        <s v="i7 3770K (Ivy Bridge) v0.6.0 [57]"/>
+        <s v="i5 4300U (Haswell) v0.6.0 [58]"/>
         <s v="R5 2600X (Pinnacle Ridge) v0.5.1 [59]"/>
+        <s v="i5 3320M (Ivy Bridge) v0.6.0 [60]"/>
+        <s v="R5 3500U (Picasso) v0.6.0 [61]"/>
+        <s v="i7 2600 (Sandy Bridge) v0.6.0 [62]"/>
+        <s v="i3 6157U (Skylake) v0.6.0 [63]"/>
+        <s v="R7 3700X (Matisse) v0.6.0 [64]"/>
+        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
+        <s v="R9 5900X (Vermeer) [31]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
+        <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
+        <s v="R9 5900X (Vermeer) [32]" u="1"/>
+        <s v="R5 3500U (Picasso) [53]" u="1"/>
+        <s v="R9 5900X (Vermeer) [33]" u="1"/>
+        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="R7 5800X (Vermeer) [35]" u="1"/>
+        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
+        <s v="i7 5775C (Broadwell) [28]" u="1"/>
+        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="R7 5800X (Vermeer) [38]" u="1"/>
+        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
+        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
+        <s v="i5 4300U (Haswell) [58]" u="1"/>
+        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
+        <s v="i5 4300U [58]" u="1"/>
+        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="R9 5950X (Vermeer) [21]" u="1"/>
+        <s v="R5 4500U (Renoir) [29]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
+        <s v="R7 5800H (Cezanne) [42]" u="1"/>
+        <s v="i7 4800MQ (Haswell) [52]" u="1"/>
+        <s v="R5 5600X (Vermeer) [46]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
         <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
-        <s v="R5 4500U (Renoir) [29]" u="1"/>
-        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
-        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
-        <s v="R7 4700U (Renoir) [1]" u="1"/>
+        <s v="R9 5950X (Vermeer) [26]" u="1"/>
+        <s v="??? v0.3.1 [23]" u="1"/>
+        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
+        <s v="R5 3500U (Picasso) [48]" u="1"/>
         <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
         <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
         <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
-        <s v="i7 5775C (Broadwell) [28]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
-        <s v="R7 5800H (Cezanne) [42]" u="1"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
+        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
-        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
-        <s v="R9 5900X (Vermeer) [31]" u="1"/>
-        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
-        <s v="R9 5900X (Vermeer) [32]" u="1"/>
-        <s v="R9 5900X (Vermeer) [33]" u="1"/>
-        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
-        <s v="i5 4300U [58]" u="1"/>
-        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
-        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
-        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
-        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
-        <s v="R9 5950X (Vermeer) [21]" u="1"/>
-        <s v="R9 5950X (Vermeer) [22]" u="1"/>
-        <s v="R9 5950X (Vermeer) [26]" u="1"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
-        <s v="??? v0.3.1 [23]" u="1"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
-        <s v="R7 5800X (Vermeer) [35]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
-        <s v="R7 5800X (Vermeer) [38]" u="1"/>
-        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="BB-Code Single-Thread" numFmtId="0">
@@ -7284,10 +7332,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
   <r>
     <n v="1"/>
-    <s v="v0.5.1"/>
+    <s v="v0.7.0"/>
     <s v="3DC"/>
     <n v="3"/>
     <s v="R7 4700U (Renoir)"/>
@@ -7295,17 +7343,17 @@
     <s v="AC / Win: Best Perf. / HP: Recmd."/>
     <m/>
     <x v="0"/>
-    <n v="141.66999999999999"/>
-    <n v="10273"/>
-    <n v="687.11"/>
-    <n v="14.95"/>
-    <n v="2778.66"/>
-    <n v="2220"/>
-    <n v="162.13"/>
-    <n v="13.69"/>
+    <n v="143.16999999999999"/>
+    <n v="10432"/>
+    <n v="669.57"/>
+    <n v="15.58"/>
+    <n v="2656.06"/>
+    <n v="2410"/>
+    <n v="156.22"/>
+    <n v="15.43"/>
     <x v="0"/>
-    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95"/>
-    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69"/>
+    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|143,17|10432|669,57|15,58"/>
+    <s v="1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|2656,06|2410|156,22|15,43"/>
   </r>
   <r>
     <n v="2"/>
@@ -7668,7 +7716,7 @@
     <s v="Tigershark"/>
     <s v="PBO off"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="55.08"/>
     <n v="23918"/>
     <n v="759.07"/>
@@ -7734,7 +7782,7 @@
     <s v="Lowkey"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="62.61"/>
     <n v="32182"/>
     <n v="496.32"/>
@@ -8304,7 +8352,7 @@
     <n v="9"/>
     <s v="R7 3700X (Matisse)"/>
     <s v="Puffer0815"/>
-    <m/>
+    <s v="Outlier?"/>
     <m/>
     <x v="0"/>
     <n v="101.29"/>
@@ -8316,8 +8364,8 @@
     <n v="71.48"/>
     <n v="76.150000000000006"/>
     <x v="46"/>
-    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|101,29|15775|625,84|25,21"/>
-    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|2569,91|5444|71,48|76,15"/>
+    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|101,29|15775|625,84|25,21"/>
+    <s v="47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|2569,91|5444|71,48|76,15"/>
   </r>
   <r>
     <n v="48"/>
@@ -8326,9 +8374,9 @@
     <n v="10"/>
     <s v="R5 3500U (Picasso)"/>
     <s v="Tenferenzu"/>
+    <s v="Outlier?"/>
     <m/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="147.36000000000001"/>
     <n v="6619"/>
     <n v="1025.22"/>
@@ -8338,8 +8386,8 @@
     <n v="257.01"/>
     <n v="9.84"/>
     <x v="47"/>
-    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|147,36|6619|1025,22|6,46"/>
-    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|1538,34|2529|257,01|9,84"/>
+    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|147,36|6619|1025,22|6,46"/>
+    <s v="48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|1538,34|2529|257,01|9,84"/>
   </r>
   <r>
     <n v="49"/>
@@ -8539,11 +8587,121 @@
     <s v="59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|41,74|30535|784,57|38,92"/>
     <s v="59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|768,82|11691|111,26|105,08"/>
   </r>
+  <r>
+    <n v="60"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="63"/>
+    <s v="i5 3320M (Ivy Bridge)"/>
+    <s v="noplan724"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="37.380000000000003"/>
+    <n v="18966"/>
+    <n v="1410.7"/>
+    <n v="13.44"/>
+    <n v="177.27"/>
+    <n v="10172"/>
+    <n v="554.55999999999995"/>
+    <n v="18.34"/>
+    <x v="57"/>
+    <s v="60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|37,38|18966|1410,7|13,44"/>
+    <s v="60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|177,27|10172|554,56|18,34"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="83"/>
+    <s v="R5 3500U (Picasso)"/>
+    <s v="andi_sco"/>
+    <s v="Outlier?"/>
+    <m/>
+    <x v="1"/>
+    <n v="43.45"/>
+    <n v="19568"/>
+    <n v="1239.32"/>
+    <n v="14.98"/>
+    <n v="458.58"/>
+    <n v="5880"/>
+    <n v="370.88"/>
+    <n v="15.85"/>
+    <x v="58"/>
+    <s v="61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|43,45|19568|1239,32|14,98"/>
+    <s v="61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|458,58|5880|370,88|15,85"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="102"/>
+    <s v="i7 2600 (Sandy Bridge)"/>
+    <s v="raser0248"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="28.37"/>
+    <n v="30292"/>
+    <n v="1163.82"/>
+    <n v="26.03"/>
+    <n v="226.44"/>
+    <n v="17714"/>
+    <n v="249.31"/>
+    <n v="71.05"/>
+    <x v="59"/>
+    <s v="62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|28,37|30292|1163,82|26,03"/>
+    <s v="62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|226,44|17714|249,31|71,05"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="102"/>
+    <s v="i3 6157U (Skylake)"/>
+    <s v="raser0248"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="112.03"/>
+    <n v="6987"/>
+    <n v="1277.45"/>
+    <n v="5.47"/>
+    <n v="388.05"/>
+    <n v="4965"/>
+    <n v="519.01"/>
+    <n v="9.57"/>
+    <x v="60"/>
+    <s v="63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|112,03|6987|1277,45|5,47"/>
+    <s v="63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|388,05|4965|519,01|9,57"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="112"/>
+    <s v="R7 3700X (Matisse)"/>
+    <s v="Fabiano"/>
+    <s v="PBO off?"/>
+    <m/>
+    <x v="1"/>
+    <n v="54.07"/>
+    <n v="29484.61"/>
+    <n v="627.24"/>
+    <n v="47.01"/>
+    <n v="1920.89"/>
+    <n v="7361.79"/>
+    <n v="70.72"/>
+    <n v="104.1"/>
+    <x v="61"/>
+    <s v="64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|54,07|29484,61|627,24|47,01"/>
+    <s v="64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|1920,89|7361,79|70,72|104,1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
   <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -8570,28 +8728,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="104">
+      <items count="122">
+        <item m="1" x="112"/>
+        <item m="1" x="93"/>
+        <item m="1" x="105"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="63"/>
+        <item m="1" x="85"/>
+        <item m="1" x="65"/>
+        <item m="1" x="87"/>
+        <item m="1" x="78"/>
+        <item m="1" x="118"/>
+        <item m="1" x="88"/>
         <item m="1" x="66"/>
-        <item m="1" x="63"/>
-        <item m="1" x="59"/>
-        <item m="1" x="74"/>
+        <item m="1" x="68"/>
+        <item m="1" x="114"/>
+        <item m="1" x="110"/>
+        <item m="1" x="106"/>
+        <item m="1" x="77"/>
         <item m="1" x="100"/>
-        <item m="1" x="75"/>
-        <item m="1" x="93"/>
-        <item m="1" x="76"/>
-        <item m="1" x="60"/>
         <item m="1" x="96"/>
-        <item m="1" x="80"/>
-        <item m="1" x="95"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="72"/>
-        <item m="1" x="71"/>
-        <item m="1" x="57"/>
-        <item m="1" x="84"/>
-        <item m="1" x="89"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -8599,11 +8757,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="86"/>
+        <item m="1" x="84"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="69"/>
+        <item m="1" x="117"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -8611,12 +8769,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
         <item m="1" x="94"/>
-        <item m="1" x="68"/>
-        <item m="1" x="64"/>
-        <item m="1" x="92"/>
+        <item m="1" x="97"/>
+        <item m="1" x="108"/>
+        <item m="1" x="113"/>
+        <item m="1" x="99"/>
+        <item m="1" x="107"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -8625,24 +8783,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="92"/>
+        <item m="1" x="79"/>
+        <item m="1" x="95"/>
+        <item x="29"/>
+        <item m="1" x="67"/>
+        <item m="1" x="71"/>
+        <item m="1" x="73"/>
+        <item m="1" x="82"/>
+        <item m="1" x="75"/>
+        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="81"/>
+        <item m="1" x="104"/>
+        <item m="1" x="69"/>
+        <item m="1" x="86"/>
         <item m="1" x="83"/>
+        <item m="1" x="101"/>
         <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="88"/>
-        <item m="1" x="97"/>
-        <item m="1" x="78"/>
-        <item m="1" x="62"/>
-        <item m="1" x="101"/>
-        <item m="1" x="67"/>
-        <item m="1" x="102"/>
-        <item m="1" x="77"/>
-        <item m="1" x="87"/>
-        <item m="1" x="73"/>
-        <item x="0"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -8659,6 +8817,21 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="80"/>
+        <item m="1" x="98"/>
+        <item m="1" x="103"/>
+        <item m="1" x="74"/>
+        <item m="1" x="111"/>
+        <item m="1" x="62"/>
+        <item m="1" x="119"/>
+        <item m="1" x="109"/>
+        <item m="1" x="102"/>
+        <item m="1" x="72"/>
+        <item m="1" x="116"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="89"/>
+        <item x="56"/>
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
@@ -8671,9 +8844,12 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
-        <item m="1" x="85"/>
         <item x="55"/>
-        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8703,13 +8879,19 @@
       <x v="78"/>
     </i>
     <i>
+      <x v="118"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="99"/>
+      <x v="114"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="111"/>
     </i>
     <i>
       <x v="102"/>
@@ -8724,25 +8906,19 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
       <x v="79"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="104"/>
     </i>
     <i>
       <x v="83"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="85"/>
-    </i>
-    <i>
-      <x v="48"/>
     </i>
     <i>
       <x v="87"/>
@@ -8757,19 +8933,22 @@
       <x v="30"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="119"/>
     </i>
     <i>
       <x v="22"/>
@@ -8778,19 +8957,16 @@
       <x v="26"/>
     </i>
     <i>
-      <x v="71"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="86"/>
@@ -8841,7 +9017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
   <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -8868,28 +9044,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="104">
+      <items count="122">
+        <item m="1" x="112"/>
+        <item m="1" x="93"/>
+        <item m="1" x="105"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="63"/>
+        <item m="1" x="85"/>
+        <item m="1" x="65"/>
+        <item m="1" x="87"/>
+        <item m="1" x="78"/>
+        <item m="1" x="118"/>
+        <item m="1" x="88"/>
         <item m="1" x="66"/>
-        <item m="1" x="63"/>
-        <item m="1" x="59"/>
-        <item m="1" x="74"/>
+        <item m="1" x="68"/>
+        <item m="1" x="114"/>
+        <item m="1" x="110"/>
+        <item m="1" x="106"/>
+        <item m="1" x="77"/>
         <item m="1" x="100"/>
-        <item m="1" x="75"/>
-        <item m="1" x="93"/>
-        <item m="1" x="76"/>
-        <item m="1" x="60"/>
         <item m="1" x="96"/>
-        <item m="1" x="80"/>
-        <item m="1" x="95"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="72"/>
-        <item m="1" x="71"/>
-        <item m="1" x="57"/>
-        <item m="1" x="84"/>
-        <item m="1" x="89"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -8897,11 +9073,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="86"/>
+        <item m="1" x="84"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="69"/>
+        <item m="1" x="117"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -8909,12 +9085,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
         <item m="1" x="94"/>
-        <item m="1" x="68"/>
-        <item m="1" x="64"/>
-        <item m="1" x="92"/>
+        <item m="1" x="97"/>
+        <item m="1" x="108"/>
+        <item m="1" x="113"/>
+        <item m="1" x="99"/>
+        <item m="1" x="107"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -8923,24 +9099,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="92"/>
+        <item m="1" x="79"/>
+        <item m="1" x="95"/>
+        <item x="29"/>
+        <item m="1" x="67"/>
+        <item m="1" x="71"/>
+        <item m="1" x="73"/>
+        <item m="1" x="82"/>
+        <item m="1" x="75"/>
+        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="81"/>
+        <item m="1" x="104"/>
+        <item m="1" x="69"/>
+        <item m="1" x="86"/>
         <item m="1" x="83"/>
+        <item m="1" x="101"/>
         <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="88"/>
-        <item m="1" x="97"/>
-        <item m="1" x="78"/>
-        <item m="1" x="62"/>
-        <item m="1" x="101"/>
-        <item m="1" x="67"/>
-        <item m="1" x="102"/>
-        <item m="1" x="77"/>
-        <item m="1" x="87"/>
-        <item m="1" x="73"/>
-        <item x="0"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -8957,6 +9133,21 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="80"/>
+        <item m="1" x="98"/>
+        <item m="1" x="103"/>
+        <item m="1" x="74"/>
+        <item m="1" x="111"/>
+        <item m="1" x="62"/>
+        <item m="1" x="119"/>
+        <item m="1" x="109"/>
+        <item m="1" x="102"/>
+        <item m="1" x="72"/>
+        <item m="1" x="116"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="89"/>
+        <item x="56"/>
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
@@ -8969,9 +9160,12 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
-        <item m="1" x="85"/>
         <item x="55"/>
-        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9001,13 +9195,10 @@
       <x v="79"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="104"/>
     </i>
     <i>
       <x v="36"/>
-    </i>
-    <i>
-      <x v="48"/>
     </i>
     <i>
       <x v="21"/>
@@ -9016,10 +9207,13 @@
       <x v="102"/>
     </i>
     <i>
+      <x v="118"/>
+    </i>
+    <i>
       <x v="83"/>
     </i>
     <i>
-      <x v="99"/>
+      <x v="114"/>
     </i>
     <i>
       <x v="87"/>
@@ -9031,13 +9225,10 @@
       <x v="76"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="111"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="90"/>
+      <x v="105"/>
     </i>
     <i>
       <x v="84"/>
@@ -9046,16 +9237,19 @@
       <x v="73"/>
     </i>
     <i>
+      <x v="116"/>
+    </i>
+    <i>
       <x v="81"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="106"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="113"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="115"/>
     </i>
     <i>
       <x v="30"/>
@@ -9070,16 +9264,16 @@
       <x v="31"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="110"/>
     </i>
     <i>
       <x v="24"/>
-    </i>
-    <i>
-      <x v="71"/>
     </i>
     <i>
       <x v="86"/>
@@ -9088,10 +9282,10 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="74"/>
@@ -9100,7 +9294,7 @@
       <x v="57"/>
     </i>
     <i>
-      <x v="92"/>
+      <x v="119"/>
     </i>
     <i t="grand">
       <x/>
@@ -9139,7 +9333,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9166,28 +9360,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="104">
+      <items count="122">
+        <item m="1" x="112"/>
+        <item m="1" x="93"/>
+        <item m="1" x="105"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="63"/>
+        <item m="1" x="85"/>
+        <item m="1" x="65"/>
+        <item m="1" x="87"/>
+        <item m="1" x="78"/>
+        <item m="1" x="118"/>
+        <item m="1" x="88"/>
         <item m="1" x="66"/>
-        <item m="1" x="63"/>
-        <item m="1" x="59"/>
-        <item m="1" x="74"/>
+        <item m="1" x="68"/>
+        <item m="1" x="114"/>
+        <item m="1" x="110"/>
+        <item m="1" x="106"/>
+        <item m="1" x="77"/>
         <item m="1" x="100"/>
-        <item m="1" x="75"/>
-        <item m="1" x="93"/>
-        <item m="1" x="76"/>
-        <item m="1" x="60"/>
         <item m="1" x="96"/>
-        <item m="1" x="80"/>
-        <item m="1" x="95"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="72"/>
-        <item m="1" x="71"/>
-        <item m="1" x="57"/>
-        <item m="1" x="84"/>
-        <item m="1" x="89"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -9195,11 +9389,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="86"/>
+        <item m="1" x="84"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="69"/>
+        <item m="1" x="117"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9207,12 +9401,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
         <item m="1" x="94"/>
-        <item m="1" x="68"/>
-        <item m="1" x="64"/>
-        <item m="1" x="92"/>
+        <item m="1" x="97"/>
+        <item m="1" x="108"/>
+        <item m="1" x="113"/>
+        <item m="1" x="99"/>
+        <item m="1" x="107"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9221,24 +9415,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="92"/>
+        <item m="1" x="79"/>
+        <item m="1" x="95"/>
+        <item x="29"/>
+        <item m="1" x="67"/>
+        <item m="1" x="71"/>
+        <item m="1" x="73"/>
+        <item m="1" x="82"/>
+        <item m="1" x="75"/>
+        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="81"/>
+        <item m="1" x="104"/>
+        <item m="1" x="69"/>
+        <item m="1" x="86"/>
         <item m="1" x="83"/>
+        <item m="1" x="101"/>
         <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="88"/>
-        <item m="1" x="97"/>
-        <item m="1" x="78"/>
-        <item m="1" x="62"/>
-        <item m="1" x="101"/>
-        <item m="1" x="67"/>
-        <item m="1" x="102"/>
-        <item m="1" x="77"/>
-        <item m="1" x="87"/>
-        <item m="1" x="73"/>
-        <item x="0"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9255,6 +9449,21 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="80"/>
+        <item m="1" x="98"/>
+        <item m="1" x="103"/>
+        <item m="1" x="74"/>
+        <item m="1" x="111"/>
+        <item m="1" x="62"/>
+        <item m="1" x="119"/>
+        <item m="1" x="109"/>
+        <item m="1" x="102"/>
+        <item m="1" x="72"/>
+        <item m="1" x="116"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="89"/>
+        <item x="56"/>
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
@@ -9267,9 +9476,12 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
-        <item m="1" x="85"/>
         <item x="55"/>
-        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9293,7 +9505,13 @@
       <x v="81"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="118"/>
     </i>
     <i>
       <x v="50"/>
@@ -9311,10 +9529,13 @@
       <x v="80"/>
     </i>
     <i>
-      <x v="99"/>
+      <x v="119"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="111"/>
     </i>
     <i>
       <x v="73"/>
@@ -9329,7 +9550,7 @@
       <x v="102"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="110"/>
     </i>
     <i>
       <x v="22"/>
@@ -9338,10 +9559,10 @@
       <x v="85"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="112"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="113"/>
     </i>
     <i>
       <x v="21"/>
@@ -9350,34 +9571,28 @@
       <x v="51"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
       <x v="31"/>
     </i>
     <i>
       <x v="74"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="105"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="79"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="106"/>
     </i>
     <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="37"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="86"/>
@@ -9389,13 +9604,10 @@
       <x v="57"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="104"/>
     </i>
     <i>
       <x v="76"/>
-    </i>
-    <i>
-      <x v="48"/>
     </i>
     <i>
       <x v="87"/>
@@ -9437,7 +9649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9464,28 +9676,28 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="104">
+      <items count="122">
+        <item m="1" x="112"/>
+        <item m="1" x="93"/>
+        <item m="1" x="105"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="63"/>
+        <item m="1" x="85"/>
+        <item m="1" x="65"/>
+        <item m="1" x="87"/>
+        <item m="1" x="78"/>
+        <item m="1" x="118"/>
+        <item m="1" x="88"/>
         <item m="1" x="66"/>
-        <item m="1" x="63"/>
-        <item m="1" x="59"/>
-        <item m="1" x="74"/>
+        <item m="1" x="68"/>
+        <item m="1" x="114"/>
+        <item m="1" x="110"/>
+        <item m="1" x="106"/>
+        <item m="1" x="77"/>
         <item m="1" x="100"/>
-        <item m="1" x="75"/>
-        <item m="1" x="93"/>
-        <item m="1" x="76"/>
-        <item m="1" x="60"/>
         <item m="1" x="96"/>
-        <item m="1" x="80"/>
-        <item m="1" x="95"/>
-        <item m="1" x="98"/>
-        <item m="1" x="99"/>
-        <item m="1" x="72"/>
-        <item m="1" x="71"/>
-        <item m="1" x="57"/>
-        <item m="1" x="84"/>
-        <item m="1" x="89"/>
-        <item m="1" x="58"/>
-        <item m="1" x="65"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -9493,11 +9705,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="86"/>
+        <item m="1" x="84"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="69"/>
+        <item m="1" x="117"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9505,12 +9717,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="90"/>
-        <item m="1" x="91"/>
         <item m="1" x="94"/>
-        <item m="1" x="68"/>
-        <item m="1" x="64"/>
-        <item m="1" x="92"/>
+        <item m="1" x="97"/>
+        <item m="1" x="108"/>
+        <item m="1" x="113"/>
+        <item m="1" x="99"/>
+        <item m="1" x="107"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9519,24 +9731,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="92"/>
+        <item m="1" x="79"/>
+        <item m="1" x="95"/>
+        <item x="29"/>
+        <item m="1" x="67"/>
+        <item m="1" x="71"/>
+        <item m="1" x="73"/>
+        <item m="1" x="82"/>
+        <item m="1" x="75"/>
+        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="81"/>
+        <item m="1" x="104"/>
+        <item m="1" x="69"/>
+        <item m="1" x="86"/>
         <item m="1" x="83"/>
+        <item m="1" x="101"/>
         <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="88"/>
-        <item m="1" x="97"/>
-        <item m="1" x="78"/>
-        <item m="1" x="62"/>
-        <item m="1" x="101"/>
-        <item m="1" x="67"/>
-        <item m="1" x="102"/>
-        <item m="1" x="77"/>
-        <item m="1" x="87"/>
-        <item m="1" x="73"/>
-        <item x="0"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9553,6 +9765,21 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="80"/>
+        <item m="1" x="98"/>
+        <item m="1" x="103"/>
+        <item m="1" x="74"/>
+        <item m="1" x="111"/>
+        <item m="1" x="62"/>
+        <item m="1" x="119"/>
+        <item m="1" x="109"/>
+        <item m="1" x="102"/>
+        <item m="1" x="72"/>
+        <item m="1" x="116"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="89"/>
+        <item x="56"/>
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
@@ -9565,9 +9792,12 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
-        <item m="1" x="85"/>
         <item x="55"/>
-        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9594,6 +9824,9 @@
       <x v="78"/>
     </i>
     <i>
+      <x v="118"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
@@ -9609,7 +9842,10 @@
       <x v="102"/>
     </i>
     <i>
-      <x v="99"/>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="116"/>
     </i>
     <i>
       <x v="84"/>
@@ -9618,28 +9854,28 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="101"/>
+      <x v="115"/>
     </i>
     <i>
-      <x v="96"/>
+      <x v="111"/>
     </i>
     <i>
       <x v="79"/>
     </i>
     <i>
-      <x v="90"/>
+      <x v="105"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="98"/>
+      <x v="113"/>
     </i>
     <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="91"/>
+      <x v="106"/>
     </i>
     <i>
       <x v="24"/>
@@ -9651,10 +9887,13 @@
       <x v="76"/>
     </i>
     <i>
-      <x v="95"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="89"/>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="104"/>
     </i>
     <i>
       <x v="30"/>
@@ -9663,19 +9902,13 @@
       <x v="86"/>
     </i>
     <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
       <x v="87"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="88"/>
+      <x v="103"/>
     </i>
     <i>
       <x v="51"/>
@@ -9684,16 +9917,13 @@
       <x v="74"/>
     </i>
     <i>
-      <x v="97"/>
+      <x v="112"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="71"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="26"/>
@@ -9771,8 +10001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U61" totalsRowShown="0">
-  <autoFilter ref="B4:U61" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U66" totalsRowShown="0">
+  <autoFilter ref="B4:U66" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
@@ -9792,7 +10022,7 @@
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="4" dataCellStyle="Eingabe"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="3" dataCellStyle="Eingabe"/>
     <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
@@ -10068,18 +10298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U61"/>
+  <dimension ref="B1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="2" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -10105,19 +10335,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22"/>
-      <c r="E1" t="s">
-        <v>112</v>
+      <c r="C1" s="25"/>
+      <c r="D1" t="s">
+        <v>154</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -10125,10 +10354,10 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
@@ -10139,7 +10368,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -10198,10 +10427,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -10213,45 +10442,45 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="15">
-        <v>141.66999999999999</v>
+        <v>143.16999999999999</v>
       </c>
       <c r="L5" s="19">
-        <v>10273</v>
+        <v>10432</v>
       </c>
       <c r="M5" s="15">
-        <v>687.11</v>
+        <v>669.57</v>
       </c>
       <c r="N5" s="15">
-        <v>14.95</v>
+        <v>15.58</v>
       </c>
       <c r="O5" s="17">
-        <v>2778.66</v>
+        <v>2656.06</v>
       </c>
       <c r="P5" s="19">
-        <v>2220</v>
+        <v>2410</v>
       </c>
       <c r="Q5" s="15">
-        <v>162.13</v>
+        <v>156.22</v>
       </c>
       <c r="R5" s="15">
-        <v>13.69</v>
+        <v>15.43</v>
       </c>
       <c r="S5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 4700U (Renoir) v0.5.1 [1]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4700U (Renoir) [1]</v>
       </c>
       <c r="T5" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95</v>
+        <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|143,17|10432|669,57|15,58</v>
       </c>
       <c r="U5" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69</v>
+        <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|2656,06|2410|156,22|15,43</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
@@ -10262,7 +10491,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
@@ -10293,7 +10522,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 3600 (Matisse) v0.3.1 [2]</v>
       </c>
       <c r="T6" t="str">
@@ -10313,7 +10542,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="4">
         <v>7</v>
@@ -10344,7 +10573,7 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 1065G (IceLake) v0.3.1 [3]</v>
       </c>
       <c r="T7" t="str">
@@ -10364,7 +10593,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
@@ -10405,7 +10634,7 @@
         <v>186.22</v>
       </c>
       <c r="S8" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
       </c>
       <c r="T8" t="str">
@@ -10425,7 +10654,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
@@ -10456,7 +10685,7 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) v0.3.1 [5]</v>
       </c>
       <c r="T9" t="str">
@@ -10476,7 +10705,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4">
         <v>27</v>
@@ -10511,7 +10740,7 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [6]</v>
       </c>
       <c r="T10" t="str">
@@ -10531,7 +10760,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="4">
         <v>29</v>
@@ -10562,7 +10791,7 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750U (Renoir) v0.3.1 [7]</v>
       </c>
       <c r="T11" t="str">
@@ -10582,7 +10811,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="4">
         <v>32</v>
@@ -10615,7 +10844,7 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
       </c>
       <c r="T12" t="str">
@@ -10635,7 +10864,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="4">
         <v>42</v>
@@ -10680,7 +10909,7 @@
         <v>11.52</v>
       </c>
       <c r="S13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</v>
       </c>
       <c r="T13" t="str">
@@ -10700,7 +10929,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="4">
         <v>44</v>
@@ -10741,7 +10970,7 @@
         <v>58.11</v>
       </c>
       <c r="S14" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
       </c>
       <c r="T14" t="str">
@@ -10761,7 +10990,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="4">
         <v>54</v>
@@ -10800,7 +11029,7 @@
         <v>13.75</v>
       </c>
       <c r="S15" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
       </c>
       <c r="T15" t="str">
@@ -10820,7 +11049,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" s="4">
         <v>69</v>
@@ -10859,7 +11088,7 @@
         <v>60.86</v>
       </c>
       <c r="S16" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
       </c>
       <c r="T16" t="str">
@@ -10879,7 +11108,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="4">
         <v>47</v>
@@ -10924,7 +11153,7 @@
         <v>23.15</v>
       </c>
       <c r="S17" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @25W v0.3.1 [13]</v>
       </c>
       <c r="T17" t="str">
@@ -10944,7 +11173,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -10979,7 +11208,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) v0.3.1 [14]</v>
       </c>
       <c r="T18" t="str">
@@ -10999,7 +11228,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E19" s="4">
         <v>38</v>
@@ -11040,7 +11269,7 @@
         <v>116.04</v>
       </c>
       <c r="S19" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
       </c>
       <c r="T19" t="str">
@@ -11060,7 +11289,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="4">
         <v>65</v>
@@ -11103,7 +11332,7 @@
         <v>51.33</v>
       </c>
       <c r="S20" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
       </c>
       <c r="T20" t="str">
@@ -11123,7 +11352,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="4">
         <v>64</v>
@@ -11162,7 +11391,7 @@
         <v>45.32</v>
       </c>
       <c r="S21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
       </c>
       <c r="T21" t="str">
@@ -11182,7 +11411,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="4">
         <v>67</v>
@@ -11197,7 +11426,9 @@
         <v>28</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="K22" s="15">
         <v>55.08</v>
       </c>
@@ -11223,7 +11454,7 @@
         <v>54.05</v>
       </c>
       <c r="S22" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [18]</v>
       </c>
       <c r="T22" t="str">
@@ -11243,7 +11474,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="4">
         <v>68</v>
@@ -11284,7 +11515,7 @@
         <v>125.22</v>
       </c>
       <c r="S23" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
       </c>
       <c r="T23" t="str">
@@ -11304,7 +11535,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
@@ -11347,7 +11578,7 @@
         <v>168.04</v>
       </c>
       <c r="S24" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
       </c>
       <c r="T24" t="str">
@@ -11367,7 +11598,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="7">
         <v>88</v>
@@ -11380,7 +11611,9 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="K25" s="16">
         <v>62.61</v>
       </c>
@@ -11406,7 +11639,7 @@
         <v>112.84</v>
       </c>
       <c r="S25" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [21]</v>
       </c>
       <c r="T25" t="str">
@@ -11426,7 +11659,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26" s="7">
         <v>90</v>
@@ -11467,7 +11700,7 @@
         <v>168.38</v>
       </c>
       <c r="S26" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [22]</v>
       </c>
       <c r="T26" t="str">
@@ -11487,22 +11720,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="7">
         <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="16">
@@ -11530,7 +11763,7 @@
         <v>100.15</v>
       </c>
       <c r="S27" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</v>
       </c>
       <c r="T27" t="str">
@@ -11550,7 +11783,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E28" s="4">
         <v>102</v>
@@ -11591,7 +11824,7 @@
         <v>20.49</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 1165G7 (TigerLake) v0.5.0 [24]</v>
       </c>
       <c r="T28" s="9" t="str">
@@ -11611,7 +11844,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E29" s="7">
         <v>94</v>
@@ -11656,7 +11889,7 @@
         <v>146.87</v>
       </c>
       <c r="S29" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</v>
       </c>
       <c r="T29" s="9" t="str">
@@ -11676,7 +11909,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E30" s="7">
         <v>96</v>
@@ -11717,7 +11950,7 @@
         <v>115.69</v>
       </c>
       <c r="S30" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [26]</v>
       </c>
       <c r="T30" s="9" t="str">
@@ -11734,10 +11967,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" s="7">
         <v>118</v>
@@ -11749,10 +11982,10 @@
         <v>12</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>44</v>
@@ -11782,7 +12015,7 @@
         <v>19.13</v>
       </c>
       <c r="S31" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @20W v0.5.1 [27]</v>
       </c>
       <c r="T31" s="9" t="str">
@@ -11799,16 +12032,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="7">
         <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>18</v>
@@ -11841,7 +12074,7 @@
         <v>48.52</v>
       </c>
       <c r="S32" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 5775C (Broadwell) v0.5.1 [28]</v>
       </c>
       <c r="T32" s="9" t="str">
@@ -11858,16 +12091,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" s="7">
         <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>12</v>
@@ -11900,7 +12133,7 @@
         <v>20.56</v>
       </c>
       <c r="S33" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 4500U (Renoir) v0.5.1 [29]</v>
       </c>
       <c r="T33" s="9" t="str">
@@ -11920,7 +12153,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="7">
         <v>134</v>
@@ -11932,7 +12165,7 @@
         <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -11961,7 +12194,7 @@
         <v>35.659999999999997</v>
       </c>
       <c r="S34" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.5.0 [30]</v>
       </c>
       <c r="T34" s="9" t="str">
@@ -11978,10 +12211,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="7">
         <v>135</v>
@@ -11990,10 +12223,10 @@
         <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
@@ -12024,7 +12257,7 @@
         <v>76.08</v>
       </c>
       <c r="S35" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [31]</v>
       </c>
       <c r="T35" s="9" t="str">
@@ -12041,10 +12274,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="7">
         <v>136</v>
@@ -12053,7 +12286,7 @@
         <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -12083,7 +12316,7 @@
         <v>120.07</v>
       </c>
       <c r="S36" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [32]</v>
       </c>
       <c r="T36" s="9" t="str">
@@ -12100,10 +12333,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="4">
         <v>140</v>
@@ -12115,7 +12348,7 @@
         <v>29</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
@@ -12146,7 +12379,7 @@
         <v>130.91999999999999</v>
       </c>
       <c r="S37" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [33]</v>
       </c>
       <c r="T37" s="9" t="str">
@@ -12163,25 +12396,25 @@
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E38" s="7">
         <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="I38" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="16">
@@ -12209,7 +12442,7 @@
         <v>93.96</v>
       </c>
       <c r="S38" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</v>
       </c>
       <c r="T38" s="9" t="str">
@@ -12226,19 +12459,19 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" s="7">
         <v>145</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -12268,7 +12501,7 @@
         <v>132.29</v>
       </c>
       <c r="S39" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [35]</v>
       </c>
       <c r="T39" s="9" t="str">
@@ -12285,23 +12518,23 @@
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="7">
         <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="16">
@@ -12329,7 +12562,7 @@
         <v>10.5</v>
       </c>
       <c r="S40" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</v>
       </c>
       <c r="T40" s="9" t="str">
@@ -12346,19 +12579,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E41" s="7">
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -12388,7 +12621,7 @@
         <v>5.94</v>
       </c>
       <c r="S41" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</v>
       </c>
       <c r="T41" s="9" t="str">
@@ -12405,19 +12638,19 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" s="7">
         <v>148</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -12449,7 +12682,7 @@
         <v>117.13</v>
       </c>
       <c r="S42" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [38]</v>
       </c>
       <c r="T42" s="9" t="str">
@@ -12466,19 +12699,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E43" s="7">
         <v>154</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -12508,7 +12741,7 @@
         <v>111.24</v>
       </c>
       <c r="S43" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i5 8600k (Coffee Lake) v0.5.1 [39]</v>
       </c>
       <c r="T43" s="9" t="str">
@@ -12525,23 +12758,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="7">
         <v>154</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="16">
@@ -12569,7 +12802,7 @@
         <v>34.020000000000003</v>
       </c>
       <c r="S44" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</v>
       </c>
       <c r="T44" s="9" t="str">
@@ -12586,25 +12819,25 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" s="7">
         <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16">
@@ -12632,7 +12865,7 @@
         <v>133.65</v>
       </c>
       <c r="S45" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</v>
       </c>
       <c r="T45" s="9" t="str">
@@ -12649,19 +12882,19 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46" s="7">
         <v>156</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -12691,7 +12924,7 @@
         <v>64.67</v>
       </c>
       <c r="S46" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 5800H (Cezanne) v0.5.1 [42]</v>
       </c>
       <c r="T46" s="9" t="str">
@@ -12708,10 +12941,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="7">
         <v>160</v>
@@ -12720,7 +12953,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -12750,7 +12983,7 @@
         <v>114.8</v>
       </c>
       <c r="S47" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.1 [43]</v>
       </c>
       <c r="T47" s="9" t="str">
@@ -12767,25 +13000,25 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="7">
         <v>165</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="16">
@@ -12813,8 +13046,8 @@
         <v>28.36</v>
       </c>
       <c r="S48" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R5 4600H (Renoir) Win11 [44]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 4600H (Renoir) Win11 v0.6.0 [44]</v>
       </c>
       <c r="T48" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -12830,25 +13063,25 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="16">
@@ -12876,8 +13109,8 @@
         <v>103.97</v>
       </c>
       <c r="S49" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 5900X (Vermeer) @95W [45]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 5900X (Vermeer) @95W v0.6.0 [45]</v>
       </c>
       <c r="T49" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -12893,19 +13126,19 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="7">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -12935,8 +13168,8 @@
         <v>96.34</v>
       </c>
       <c r="S50" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R5 5600X (Vermeer) [46]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) v0.6.0 [46]</v>
       </c>
       <c r="T50" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -12952,10 +13185,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" s="7">
         <v>9</v>
@@ -12964,9 +13197,11 @@
         <v>52</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H51" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="16">
@@ -12994,16 +13229,16 @@
         <v>76.150000000000006</v>
       </c>
       <c r="S51" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 3700X (Matisse) [47]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.6.0 [47]</v>
       </c>
       <c r="T51" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|101,29|15775|625,84|25,21</v>
+        <v>47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|101,29|15775|625,84|25,21</v>
       </c>
       <c r="U51" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>47|CB #9|R7 3700X (Matisse)|Puffer0815||v0.6.0|2569,91|5444|71,48|76,15</v>
+        <v>47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|2569,91|5444|71,48|76,15</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.3">
@@ -13011,23 +13246,27 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="7">
         <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="K52" s="16">
         <v>147.36000000000001</v>
       </c>
@@ -13053,16 +13292,16 @@
         <v>9.84</v>
       </c>
       <c r="S52" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R5 3500U (Picasso) [48]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [48]</v>
       </c>
       <c r="T52" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|147,36|6619|1025,22|6,46</v>
+        <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|147,36|6619|1025,22|6,46</v>
       </c>
       <c r="U52" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu||v0.6.0|1538,34|2529|257,01|9,84</v>
+        <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|1538,34|2529|257,01|9,84</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.3">
@@ -13070,10 +13309,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="7">
         <v>13</v>
@@ -13082,13 +13321,13 @@
         <v>52</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>44</v>
@@ -13118,8 +13357,8 @@
         <v>87.23</v>
       </c>
       <c r="S53" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 3700X (Matisse) @95W [49]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) @95W v0.6.0 [49]</v>
       </c>
       <c r="T53" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13135,10 +13374,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="7">
         <v>14</v>
@@ -13147,13 +13386,13 @@
         <v>52</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>44</v>
@@ -13183,8 +13422,8 @@
         <v>76.260000000000005</v>
       </c>
       <c r="S54" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 3700X (Matisse) @PBO [50]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) @PBO v0.6.0 [50]</v>
       </c>
       <c r="T54" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13200,19 +13439,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="7">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -13242,8 +13481,8 @@
         <v>21.21</v>
       </c>
       <c r="S55" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i5 8250U (WhiskeyLake) [51]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 8250U (WhiskeyLake) v0.6.0 [51]</v>
       </c>
       <c r="T55" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13259,19 +13498,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="7">
         <v>36</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -13301,8 +13540,8 @@
         <v>36.44</v>
       </c>
       <c r="S56" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i7 4800MQ (Haswell) [52]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 4800MQ (Haswell) v0.6.0 [52]</v>
       </c>
       <c r="T56" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13318,19 +13557,19 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E57" s="7">
         <v>49</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -13360,8 +13599,8 @@
         <v>10.41</v>
       </c>
       <c r="S57" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R5 3500U (Picasso) [53]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [53]</v>
       </c>
       <c r="T57" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13377,23 +13616,23 @@
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E58" s="7">
         <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="16">
@@ -13421,8 +13660,8 @@
         <v>55.16</v>
       </c>
       <c r="S58" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i7 9750H (Coffee Lake) @55W;-140mV [56]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</v>
       </c>
       <c r="T58" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13438,19 +13677,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E59" s="7">
         <v>60</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -13480,8 +13719,8 @@
         <v>56</v>
       </c>
       <c r="S59" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i7 3770K (Ivy Bridge) [57]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 3770K (Ivy Bridge) v0.6.0 [57]</v>
       </c>
       <c r="T59" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13497,19 +13736,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E60" s="7">
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -13539,8 +13778,8 @@
         <v>15.02</v>
       </c>
       <c r="S60" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i5 4300U (Haswell) [58]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 4300U (Haswell) v0.6.0 [58]</v>
       </c>
       <c r="T60" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -13556,19 +13795,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E61" s="7">
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -13576,7 +13815,7 @@
       <c r="K61" s="16">
         <v>41.74</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="23">
         <v>30535</v>
       </c>
       <c r="M61" s="16">
@@ -13585,10 +13824,10 @@
       <c r="N61" s="16">
         <v>38.92</v>
       </c>
-      <c r="O61" s="25">
+      <c r="O61" s="24">
         <v>768.82</v>
       </c>
-      <c r="P61" s="24">
+      <c r="P61" s="23">
         <v>11691</v>
       </c>
       <c r="Q61" s="16">
@@ -13598,7 +13837,7 @@
         <v>105.08</v>
       </c>
       <c r="S61" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$E$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</v>
       </c>
       <c r="T61" s="11" t="str">
@@ -13608,6 +13847,309 @@
       <c r="U61" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|768,82|11691|111,26|105,08</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B62" s="6">
+        <v>60</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="7">
+        <v>63</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="16">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="L62" s="23">
+        <v>18966</v>
+      </c>
+      <c r="M62" s="16">
+        <v>1410.7</v>
+      </c>
+      <c r="N62" s="16">
+        <v>13.44</v>
+      </c>
+      <c r="O62" s="24">
+        <v>177.27</v>
+      </c>
+      <c r="P62" s="23">
+        <v>10172</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>554.55999999999995</v>
+      </c>
+      <c r="R62" s="16">
+        <v>18.34</v>
+      </c>
+      <c r="S62" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 3320M (Ivy Bridge) v0.6.0 [60]</v>
+      </c>
+      <c r="T62" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|37,38|18966|1410,7|13,44</v>
+      </c>
+      <c r="U62" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|177,27|10172|554,56|18,34</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B63" s="6">
+        <v>61</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="7">
+        <v>83</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K63" s="16">
+        <v>43.45</v>
+      </c>
+      <c r="L63" s="23">
+        <v>19568</v>
+      </c>
+      <c r="M63" s="16">
+        <v>1239.32</v>
+      </c>
+      <c r="N63" s="16">
+        <v>14.98</v>
+      </c>
+      <c r="O63" s="24">
+        <v>458.58</v>
+      </c>
+      <c r="P63" s="23">
+        <v>5880</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>370.88</v>
+      </c>
+      <c r="R63" s="16">
+        <v>15.85</v>
+      </c>
+      <c r="S63" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [61]</v>
+      </c>
+      <c r="T63" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|43,45|19568|1239,32|14,98</v>
+      </c>
+      <c r="U63" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|458,58|5880|370,88|15,85</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B64" s="6">
+        <v>62</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="7">
+        <v>102</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="16">
+        <v>28.37</v>
+      </c>
+      <c r="L64" s="23">
+        <v>30292</v>
+      </c>
+      <c r="M64" s="16">
+        <v>1163.82</v>
+      </c>
+      <c r="N64" s="16">
+        <v>26.03</v>
+      </c>
+      <c r="O64" s="24">
+        <v>226.44</v>
+      </c>
+      <c r="P64" s="23">
+        <v>17714</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>249.31</v>
+      </c>
+      <c r="R64" s="16">
+        <v>71.05</v>
+      </c>
+      <c r="S64" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 2600 (Sandy Bridge) v0.6.0 [62]</v>
+      </c>
+      <c r="T64" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|28,37|30292|1163,82|26,03</v>
+      </c>
+      <c r="U64" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|226,44|17714|249,31|71,05</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B65" s="6">
+        <v>63</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="7">
+        <v>102</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="16">
+        <v>112.03</v>
+      </c>
+      <c r="L65" s="23">
+        <v>6987</v>
+      </c>
+      <c r="M65" s="16">
+        <v>1277.45</v>
+      </c>
+      <c r="N65" s="16">
+        <v>5.47</v>
+      </c>
+      <c r="O65" s="24">
+        <v>388.05</v>
+      </c>
+      <c r="P65" s="23">
+        <v>4965</v>
+      </c>
+      <c r="Q65" s="16">
+        <v>519.01</v>
+      </c>
+      <c r="R65" s="16">
+        <v>9.57</v>
+      </c>
+      <c r="S65" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i3 6157U (Skylake) v0.6.0 [63]</v>
+      </c>
+      <c r="T65" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|112,03|6987|1277,45|5,47</v>
+      </c>
+      <c r="U65" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|388,05|4965|519,01|9,57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
+        <v>64</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="7">
+        <v>112</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K66" s="16">
+        <v>54.07</v>
+      </c>
+      <c r="L66" s="23">
+        <v>29484.61</v>
+      </c>
+      <c r="M66" s="16">
+        <v>627.24</v>
+      </c>
+      <c r="N66" s="16">
+        <v>47.01</v>
+      </c>
+      <c r="O66" s="24">
+        <v>1920.89</v>
+      </c>
+      <c r="P66" s="23">
+        <v>7361.79</v>
+      </c>
+      <c r="Q66" s="16">
+        <v>70.72</v>
+      </c>
+      <c r="R66" s="16">
+        <v>104.1</v>
+      </c>
+      <c r="S66" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.6.0 [64]</v>
+      </c>
+      <c r="T66" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|54,07|29484,61|627,24|47,01</v>
+      </c>
+      <c r="U66" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|1920,89|7361,79|70,72|104,1</v>
       </c>
     </row>
   </sheetData>
@@ -13637,7 +14179,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -13660,7 +14202,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3">
         <v>16.690000000000001</v>
@@ -13668,7 +14210,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3">
         <v>17.45</v>
@@ -13676,7 +14218,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3">
         <v>26.38</v>
@@ -13684,26 +14226,26 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C7" s="3">
-        <v>31.1</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3">
-        <v>35.72</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3">
-        <v>40.92</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -13711,92 +14253,92 @@
         <v>166</v>
       </c>
       <c r="C10" s="3">
-        <v>41.74</v>
+        <v>37.380000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3">
-        <v>45.76</v>
+        <v>40.92</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3">
-        <v>54.74</v>
+        <v>41.74</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3">
-        <v>55.06</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3">
-        <v>55.08</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3">
-        <v>57.13</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3">
-        <v>58.15</v>
+        <v>57.13</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3">
-        <v>58.25</v>
+        <v>58.15</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C18" s="3">
-        <v>58.95</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3">
-        <v>61.55</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C20" s="3">
-        <v>62.61</v>
+        <v>61.55</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="3">
         <v>74.44</v>
@@ -13804,7 +14346,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3">
         <v>75.569999999999993</v>
@@ -13812,7 +14354,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C23" s="3">
         <v>83.49</v>
@@ -13820,7 +14362,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3">
         <v>88.24</v>
@@ -13828,7 +14370,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3">
         <v>90.06</v>
@@ -13836,7 +14378,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3">
         <v>91.97</v>
@@ -13844,7 +14386,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C27" s="3">
         <v>101.29</v>
@@ -13852,7 +14394,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C28" s="3">
         <v>104.65</v>
@@ -13860,7 +14402,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3">
         <v>107.39</v>
@@ -13868,47 +14410,47 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3">
-        <v>127.76</v>
+        <v>112.03</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3">
-        <v>137.88</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3">
-        <v>141.66999999999999</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3">
-        <v>146.74</v>
+        <v>143.16999999999999</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3">
-        <v>147.36000000000001</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3">
         <v>153.88</v>
@@ -13916,7 +14458,7 @@
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C36" s="3">
         <v>158.59</v>
@@ -13924,7 +14466,7 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C37" s="3">
         <v>168.79</v>
@@ -13932,7 +14474,7 @@
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3">
         <v>172.46</v>
@@ -13940,7 +14482,7 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3">
         <v>186.38</v>
@@ -13948,7 +14490,7 @@
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C40" s="3">
         <v>216.08</v>
@@ -13959,7 +14501,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>3351.97</v>
+        <v>3266.2</v>
       </c>
     </row>
   </sheetData>
@@ -13979,7 +14521,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -14002,7 +14544,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1">
         <v>55373</v>
@@ -14010,7 +14552,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1">
         <v>38525</v>
@@ -14018,7 +14560,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1">
         <v>34236</v>
@@ -14026,7 +14568,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1">
         <v>33913</v>
@@ -14042,31 +14584,31 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>32182</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1">
-        <v>32112</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1">
-        <v>30535</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1">
         <v>27864</v>
@@ -14074,7 +14616,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1">
         <v>27072.99</v>
@@ -14082,7 +14624,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1">
         <v>26935</v>
@@ -14090,7 +14632,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1">
         <v>25887</v>
@@ -14098,7 +14640,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1">
         <v>25543</v>
@@ -14106,7 +14648,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1">
         <v>24128.5</v>
@@ -14114,39 +14656,39 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1">
-        <v>23918</v>
+        <v>21193</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1">
-        <v>21193</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1">
-        <v>20650</v>
+        <v>20078</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1">
-        <v>20078</v>
+        <v>18966</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1">
         <v>18192</v>
@@ -14154,7 +14696,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1">
         <v>15775</v>
@@ -14162,7 +14704,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C24" s="1">
         <v>13860.34</v>
@@ -14170,7 +14712,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1">
         <v>13379.46</v>
@@ -14178,7 +14720,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
         <v>11657</v>
@@ -14186,7 +14728,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1">
         <v>11096</v>
@@ -14194,7 +14736,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1">
         <v>10777</v>
@@ -14202,7 +14744,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1">
         <v>10450</v>
@@ -14210,39 +14752,39 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C30" s="1">
-        <v>10396</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1">
-        <v>10395</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C32" s="1">
-        <v>10352</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
-        <v>10273</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1">
         <v>10124</v>
@@ -14250,7 +14792,7 @@
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1">
         <v>9839</v>
@@ -14258,7 +14800,7 @@
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1">
         <v>9072</v>
@@ -14266,7 +14808,7 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1">
         <v>8278</v>
@@ -14274,7 +14816,7 @@
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1">
         <v>7581.59</v>
@@ -14282,7 +14824,7 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1">
         <v>7445</v>
@@ -14290,10 +14832,10 @@
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1">
-        <v>6619</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -14301,7 +14843,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>737910.88</v>
+        <v>731595.87999999989</v>
       </c>
     </row>
   </sheetData>
@@ -14314,14 +14856,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
   <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -14344,7 +14886,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3">
         <v>35.61</v>
@@ -14352,287 +14894,287 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="3">
-        <v>184.8</v>
+        <v>177.27</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3">
-        <v>237.59</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C7" s="3">
-        <v>262.60000000000002</v>
+        <v>226.44</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3">
-        <v>269.61</v>
+        <v>237.59</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3">
-        <v>336.42</v>
+        <v>262.60000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3">
-        <v>384.59</v>
+        <v>269.61</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3">
-        <v>447.21</v>
+        <v>336.42</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3">
-        <v>451.85</v>
+        <v>384.59</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3">
-        <v>560.07000000000005</v>
+        <v>388.05</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3">
-        <v>656.66</v>
+        <v>447.21</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C15" s="3">
-        <v>739.31</v>
+        <v>451.85</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3">
-        <v>768.82</v>
+        <v>560.07000000000005</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3">
-        <v>838.17</v>
+        <v>656.66</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="C18" s="3">
-        <v>885.22</v>
+        <v>739.31</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3">
-        <v>925.56</v>
+        <v>768.82</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3">
-        <v>935.44</v>
+        <v>838.17</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3">
-        <v>1370.41</v>
+        <v>885.22</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3">
-        <v>1386.39</v>
+        <v>925.56</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3">
-        <v>1438.78</v>
+        <v>935.44</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3">
-        <v>1538.34</v>
+        <v>1370.41</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3">
-        <v>1818.77</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3">
-        <v>1839.93</v>
+        <v>1438.78</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3">
-        <v>1843</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3">
-        <v>1878.68</v>
+        <v>1839.93</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C29" s="3">
-        <v>2347.02</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3">
-        <v>2569.91</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3">
-        <v>2637.56</v>
+        <v>2347.02</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C32" s="3">
-        <v>2778.66</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3">
-        <v>2787.1</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C34" s="3">
-        <v>3171.28</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C35" s="3">
-        <v>3599.63</v>
+        <v>3171.28</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3">
-        <v>3936.18</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C37" s="3">
-        <v>4388.1099999999997</v>
+        <v>3936.18</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3">
-        <v>4461.2299999999996</v>
+        <v>4388.1099999999997</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="C39" s="3">
-        <v>5945.36</v>
+        <v>4461.2299999999996</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C40" s="3">
         <v>6668.05</v>
@@ -14643,7 +15185,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>67323.92</v>
+        <v>57722.280000000021</v>
       </c>
     </row>
   </sheetData>
@@ -14658,13 +15200,13 @@
   <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -14687,7 +15229,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1">
         <v>20531</v>
@@ -14695,7 +15237,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1">
         <v>18669</v>
@@ -14703,279 +15245,279 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1">
-        <v>13138</v>
+        <v>17714</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1">
-        <v>12920</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1">
-        <v>12266</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1">
-        <v>12017</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1">
-        <v>11691</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1">
-        <v>11189.89</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1">
-        <v>10055</v>
+        <v>11189.89</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1">
-        <v>9308</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C14" s="1">
-        <v>9015.32</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1">
-        <v>8980.59</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1">
-        <v>7508</v>
+        <v>9015.32</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1">
-        <v>7230</v>
+        <v>8980.59</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1">
-        <v>7223</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1">
-        <v>6344.53</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
-        <v>5785</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1">
-        <v>5444</v>
+        <v>6344.53</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1">
-        <v>5262</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1">
-        <v>5226</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1">
-        <v>5187.88</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1">
-        <v>5030</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1">
-        <v>4868</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1">
-        <v>4575</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1">
-        <v>4516</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C29" s="1">
-        <v>4404</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1">
-        <v>4356</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="1">
-        <v>4149</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1">
-        <v>3912</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
-        <v>3886</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C34" s="1">
-        <v>3774</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
-        <v>3342.48</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1">
-        <v>3335</v>
+        <v>3342.48</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="C37" s="1">
-        <v>3010</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1">
-        <v>2529</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1">
-        <v>2220</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1">
         <v>2029</v>
@@ -14986,7 +15528,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="1">
-        <v>264926.69</v>
+        <v>286678.69</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0D444-7C37-43F3-8DB0-667B6C62C23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D60F66-6F8F-4FEE-A989-D400D810D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="193">
   <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>Post-No</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>25W</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>v0.5.0</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>manual Curve Optimization</t>
   </si>
   <si>
-    <t>Ref-No.</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>GaryX</t>
   </si>
   <si>
-    <t>Forum</t>
-  </si>
-  <si>
     <t>3DC</t>
   </si>
   <si>
@@ -469,9 +457,6 @@
     <t>i7 5775C (Broadwell) v0.5.1 [28]</t>
   </si>
   <si>
-    <t>R7 5800X (Vermeer) v0.5.1 [35]</t>
-  </si>
-  <si>
     <t>i5 8600k (Coffee Lake) v0.5.1 [39]</t>
   </si>
   <si>
@@ -556,15 +541,9 @@
     <t>R5 5600X (Vermeer) v0.6.0 [46]</t>
   </si>
   <si>
-    <t>R5 3500U (Picasso) v0.6.0 [53]</t>
-  </si>
-  <si>
     <t>R7 3700X (Matisse) v0.6.0 [47]</t>
   </si>
   <si>
-    <t>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</t>
-  </si>
-  <si>
     <t>i5 8250U (WhiskeyLake) v0.6.0 [51]</t>
   </si>
   <si>
@@ -575,6 +554,72 @@
   </si>
   <si>
     <t>R5 4600H (Renoir) Win11 v0.6.0 [44]</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Ref.</t>
+  </si>
+  <si>
+    <t>Frm</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>ThinkPad E495 default</t>
+  </si>
+  <si>
+    <t>JeanLegi</t>
+  </si>
+  <si>
+    <t>ES! See Post</t>
+  </si>
+  <si>
+    <t>or 11900H (Eng. Sample)</t>
+  </si>
+  <si>
+    <t>i9 11980HK (TigerLake-8C)</t>
+  </si>
+  <si>
+    <t>ThinkPad E495 cool and quiet</t>
+  </si>
+  <si>
+    <t>ThinkPad E495</t>
+  </si>
+  <si>
+    <t>Golden Sample?</t>
+  </si>
+  <si>
+    <t>@45W</t>
+  </si>
+  <si>
+    <t>R7 2700X (Pinnacle Ridge)</t>
+  </si>
+  <si>
+    <t>Tanzmusikus</t>
+  </si>
+  <si>
+    <t>Win = Balanced</t>
+  </si>
+  <si>
+    <t>R7 2700X (Pinnacle Ridge) [72]</t>
+  </si>
+  <si>
+    <t>R7 5800X (Vermeer) [66]</t>
+  </si>
+  <si>
+    <t>R5 3500U (Picasso) [73]</t>
+  </si>
+  <si>
+    <t>i7 9750H (Coffee Lake) @45W [71]</t>
+  </si>
+  <si>
+    <t>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</t>
+  </si>
+  <si>
+    <t>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</t>
   </si>
 </sst>
 </file>
@@ -1279,9 +1324,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$41</c:f>
+              <c:f>'PES ST'!$B$4:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -1313,13 +1358,13 @@
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
@@ -1340,68 +1385,77 @@
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R5 3500U (Picasso) [73]</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$41</c:f>
+              <c:f>'PES ST'!$C$4:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
@@ -1433,13 +1487,13 @@
                   <c:v>45.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>50.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>54.74</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>55.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>58.15</c:v>
@@ -1460,58 +1514,67 @@
                   <c:v>75.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>77.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>83.49</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>90.06</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>91.97</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>101.29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>104.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>107.39</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>111.07</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>112.03</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>143.16999999999999</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>147.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>158.59</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>168.79</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>172.46</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>186.38</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>216.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,9 +2335,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$41</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -2282,31 +2345,31 @@
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
+                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
@@ -2315,86 +2378,95 @@
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>R5 3500U (Picasso) [73]</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$41</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>55373</c:v>
                 </c:pt>
@@ -2402,31 +2474,31 @@
                   <c:v>38525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34236</c:v>
+                  <c:v>33913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33913</c:v>
+                  <c:v>32204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32204</c:v>
+                  <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32112</c:v>
+                  <c:v>30535</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30535</c:v>
+                  <c:v>30292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30292</c:v>
+                  <c:v>27864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27864</c:v>
+                  <c:v>27072.99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27072.99</c:v>
+                  <c:v>26935</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26935</c:v>
+                  <c:v>25952</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>25887</c:v>
@@ -2435,76 +2507,85 @@
                   <c:v>25543</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>24558</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>24128.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>21193</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20650</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>20078</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18966</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>18192</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>15775</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>13860.34</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>13745</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>13379.46</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>13062.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12519</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>11096</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>10777</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>10450</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>10432</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>10395</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>10124</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>9839</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>9072</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>8278</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>7581.59</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>7445</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>6987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3201,9 +3282,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$41</c:f>
+              <c:f>'PES MT'!$B$4:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -3244,75 +3325,84 @@
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>R5 3500U (Picasso) [73]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
               </c:strCache>
@@ -3320,10 +3410,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$41</c:f>
+              <c:f>'PES MT'!$C$4:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>35.61</c:v>
                 </c:pt>
@@ -3364,75 +3454,84 @@
                   <c:v>560.07000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>590.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>656.66</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>739.31</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>768.82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>838.17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>925.56</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>935.44</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1370.41</c:v>
+                  <c:v>1386.39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1386.39</c:v>
+                  <c:v>1438.78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1438.78</c:v>
+                  <c:v>1502.87</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1839.93</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1843</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>2347.02</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>2341.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2564.7600000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>2656.06</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3171.28</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>4388.1099999999997</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>4461.2299999999996</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
+                  <c:v>4673.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>6668.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4361,118 +4460,127 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$41</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$44</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>R5 3500U (Picasso) [73]</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
@@ -4480,119 +4588,128 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$41</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>27143.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20531</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>18669</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>17714</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13138</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12920</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12266</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12017</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>11691</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>11189.89</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10172</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10055</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>9308</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>9015.32</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8980.59</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>7508</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>7230</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>6344.53</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>6777</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>5238</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>4965</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>4868</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>4516</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>4149</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>3886</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
+                  <c:v>3825</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>3774</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>3342.48</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>3335</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>2410</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -6971,8 +7088,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>147780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7014,8 +7131,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>147780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7057,8 +7174,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>147780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7100,8 +7217,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>147780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7132,22 +7249,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44395.442386689814" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="62" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44402.532267824077" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="71" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
-    <cacheField name="Ref-No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="64"/>
+    <cacheField name="Ref." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="73"/>
     </cacheField>
-    <cacheField name="Version" numFmtId="0">
+    <cacheField name="Ver" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Forum" numFmtId="0">
+    <cacheField name="Frm" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Post-No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="165"/>
+    <cacheField name="Post" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="204"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -7168,31 +7285,31 @@
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.690000000000001" maxValue="216.08"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.690000000000001" maxValue="256"/>
     </cacheField>
     <cacheField name="Cons. ST" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6239" maxValue="55373"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5293" maxValue="55373"/>
     </cacheField>
     <cacheField name="Dur. ST" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="3293.49"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.03" maxValue="3293.49"/>
     </cacheField>
     <cacheField name="Avg. Pwr. ST" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="87.69"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3499999999999996" maxValue="87.69"/>
     </cacheField>
     <cacheField name="PES MT" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="35.61" maxValue="6668.05"/>
     </cacheField>
     <cacheField name="Cons. MT" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="20531"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="27143.22"/>
     </cacheField>
     <cacheField name="Dur. MT" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="2173.7800000000002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="33.520000000000003" maxValue="2173.7800000000002"/>
     </cacheField>
     <cacheField name="Avg. Pwr. MT" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.94" maxValue="186.22"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="121">
+      <sharedItems count="130">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7255,65 +7372,74 @@
         <s v="i7 2600 (Sandy Bridge) v0.6.0 [62]"/>
         <s v="i3 6157U (Skylake) v0.6.0 [63]"/>
         <s v="R7 3700X (Matisse) v0.6.0 [64]"/>
-        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="R9 5900HS (Cezanne) @ESM v0.6.0 [65]"/>
+        <s v="R7 5800X (Vermeer) [66]"/>
+        <s v="R5 3500U (Picasso) Golden Sample? [67]"/>
+        <s v="i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]"/>
+        <s v="R5 3500U (Picasso) [69]"/>
+        <s v="R5 3500U (Picasso) [70]"/>
+        <s v="i7 9750H (Coffee Lake) @45W [71]"/>
+        <s v="R7 2700X (Pinnacle Ridge) [72]"/>
+        <s v="R5 3500U (Picasso) [73]"/>
+        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
+        <s v="R5 5600X (Vermeer) [46]" u="1"/>
+        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
+        <s v="R5 4500U (Renoir) [29]" u="1"/>
+        <s v="i5 4300U (Haswell) [58]" u="1"/>
+        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
+        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
+        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
+        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
+        <s v="i7 5775C (Broadwell) [28]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
+        <s v="R7 5800H (Cezanne) [42]" u="1"/>
+        <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
+        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
         <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
         <s v="R9 5900X (Vermeer) [31]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
-        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
-        <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
         <s v="R9 5900X (Vermeer) [32]" u="1"/>
         <s v="R5 3500U (Picasso) [53]" u="1"/>
         <s v="R9 5900X (Vermeer) [33]" u="1"/>
-        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="i5 4300U [58]" u="1"/>
+        <s v="i7 4800MQ (Haswell) [52]" u="1"/>
+        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
+        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
+        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
+        <s v="R9 5950X (Vermeer) [21]" u="1"/>
+        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R9 5950X (Vermeer) [26]" u="1"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="R5 3500U (Picasso) [48]" u="1"/>
+        <s v="??? v0.3.1 [23]" u="1"/>
+        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
+        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
+        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
         <s v="R7 5800X (Vermeer) [35]" u="1"/>
-        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
-        <s v="i7 5775C (Broadwell) [28]" u="1"/>
-        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
         <s v="R7 5800X (Vermeer) [38]" u="1"/>
-        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
-        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
-        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
-        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
-        <s v="i5 4300U (Haswell) [58]" u="1"/>
-        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
-        <s v="i5 4300U [58]" u="1"/>
-        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
-        <s v="R9 5950X (Vermeer) [21]" u="1"/>
-        <s v="R5 4500U (Renoir) [29]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
-        <s v="R9 5950X (Vermeer) [22]" u="1"/>
-        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
-        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
-        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
-        <s v="R7 5800H (Cezanne) [42]" u="1"/>
-        <s v="i7 4800MQ (Haswell) [52]" u="1"/>
-        <s v="R5 5600X (Vermeer) [46]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
-        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
-        <s v="R9 5950X (Vermeer) [26]" u="1"/>
-        <s v="??? v0.3.1 [23]" u="1"/>
-        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
-        <s v="R5 3500U (Picasso) [48]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
-        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
-        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
-        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
-        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
-        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
+        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="BB-Code Single-Thread" numFmtId="0">
@@ -7332,7 +7458,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
   <r>
     <n v="1"/>
     <s v="v0.7.0"/>
@@ -7367,15 +7493,15 @@
     <x v="0"/>
     <n v="45.76"/>
     <n v="32112"/>
-    <m/>
-    <m/>
+    <n v="680.5"/>
+    <n v="47.188831741366641"/>
     <n v="1386.39"/>
     <n v="7223"/>
-    <m/>
-    <m/>
+    <n v="99.861243102293088"/>
+    <n v="72.330363368310003"/>
     <x v="1"/>
-    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||"/>
-    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||"/>
+    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112|680,5|47,1888317413666"/>
+    <s v="2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223|99,8612431022931|72,33036336831"/>
   </r>
   <r>
     <n v="3"/>
@@ -7389,15 +7515,15 @@
     <x v="0"/>
     <n v="127.76"/>
     <n v="9839"/>
-    <m/>
-    <m/>
+    <n v="795.5"/>
+    <n v="12.368321810182275"/>
     <n v="885.22"/>
     <n v="3912"/>
-    <m/>
-    <m/>
+    <n v="288.76857942815411"/>
+    <n v="13.547180263680001"/>
     <x v="2"/>
-    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||"/>
-    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||"/>
+    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839|795,5|12,3683218101823"/>
+    <s v="3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912|288,768579428154|13,54718026368"/>
   </r>
   <r>
     <n v="4"/>
@@ -7433,15 +7559,15 @@
     <x v="0"/>
     <n v="153.88"/>
     <n v="10352"/>
-    <m/>
-    <m/>
+    <n v="627.79999999999995"/>
+    <n v="16.489327811404909"/>
     <n v="2637.56"/>
     <n v="5262"/>
-    <m/>
-    <m/>
+    <n v="72.052127420048677"/>
+    <n v="73.030459868639994"/>
     <x v="4"/>
-    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||"/>
-    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||"/>
+    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352|627,8|16,4893278114049"/>
+    <s v="5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262|72,0521274200487|73,03045986864"/>
   </r>
   <r>
     <n v="6"/>
@@ -7455,15 +7581,15 @@
     <x v="1"/>
     <n v="51.8"/>
     <n v="30057"/>
-    <m/>
-    <m/>
+    <n v="642.29999999999995"/>
+    <n v="46.795889771134988"/>
     <n v="2058.48"/>
     <n v="6377"/>
-    <m/>
-    <m/>
+    <n v="76.179291851563704"/>
+    <n v="83.710413223920014"/>
     <x v="5"/>
-    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||"/>
-    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||"/>
+    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057|642,3|46,795889771135"/>
+    <s v="6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377|76,1792918515637|83,71041322392"/>
   </r>
   <r>
     <n v="7"/>
@@ -7477,15 +7603,15 @@
     <x v="0"/>
     <n v="137.88"/>
     <n v="10396"/>
-    <m/>
-    <m/>
+    <n v="697.6"/>
+    <n v="14.902522935779816"/>
     <n v="3599.63"/>
     <n v="2029"/>
-    <m/>
-    <m/>
+    <n v="136.91785613358184"/>
+    <n v="14.819104368830001"/>
     <x v="6"/>
-    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||"/>
-    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||"/>
+    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396|697,6|14,9025229357798"/>
+    <s v="7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029|136,917856133582|14,81910436883"/>
   </r>
   <r>
     <n v="8"/>
@@ -7499,15 +7625,15 @@
     <x v="1"/>
     <n v="52.94"/>
     <n v="37274"/>
-    <m/>
-    <m/>
+    <n v="506.76902536093161"/>
+    <n v="73.552245963439987"/>
     <n v="5760.71"/>
     <n v="4507"/>
-    <m/>
-    <m/>
+    <n v="38.515578825808959"/>
+    <n v="117.01758450478999"/>
     <x v="7"/>
-    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||"/>
-    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||"/>
+    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274|506,769025360932|73,55224596344"/>
+    <s v="8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507|38,515578825809|117,01758450479"/>
   </r>
   <r>
     <n v="9"/>
@@ -7631,15 +7757,15 @@
     <x v="1"/>
     <n v="133.62"/>
     <n v="10168"/>
-    <m/>
-    <m/>
+    <n v="736"/>
+    <n v="13.8"/>
     <n v="2586.7600000000002"/>
     <n v="2649"/>
-    <m/>
-    <m/>
+    <n v="145.93582077670885"/>
+    <n v="18.151814858759998"/>
     <x v="13"/>
-    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||"/>
-    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||"/>
+    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168|736|13,8"/>
+    <s v="14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649|145,935820776709|18,15181485876"/>
   </r>
   <r>
     <n v="15"/>
@@ -8090,7 +8216,7 @@
     <s v="hq-hq"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="57.13"/>
     <n v="34236"/>
     <n v="511.24"/>
@@ -8484,9 +8610,9 @@
     <n v="49"/>
     <s v="R5 3500U (Picasso)"/>
     <s v="Asghan"/>
+    <s v="ThinkPad E495"/>
     <m/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="91.97"/>
     <n v="9072"/>
     <n v="1198.55"/>
@@ -8496,8 +8622,8 @@
     <n v="320.52999999999997"/>
     <n v="10.41"/>
     <x v="52"/>
-    <s v="53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|91,97|9072|1198,55|7,57"/>
-    <s v="53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|935,44|3335|320,53|10,41"/>
+    <s v="53|CB #49|R5 3500U (Picasso)|Asghan|ThinkPad E495|v0.6.0|91,97|9072|1198,55|7,57"/>
+    <s v="53|CB #49|R5 3500U (Picasso)|Asghan|ThinkPad E495|v0.6.0|935,44|3335|320,53|10,41"/>
   </r>
   <r>
     <n v="56"/>
@@ -8508,7 +8634,7 @@
     <s v="Blende Up"/>
     <m/>
     <s v="@55W;-140mV"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="104.65"/>
     <n v="13860.34"/>
     <n v="689.41"/>
@@ -8697,12 +8823,210 @@
     <s v="64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|54,07|29484,61|627,24|47,01"/>
     <s v="64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|1920,89|7361,79|70,72|104,1"/>
   </r>
+  <r>
+    <n v="65"/>
+    <s v="v0.6.0"/>
+    <s v="3DC"/>
+    <n v="190"/>
+    <s v="R9 5900HS (Cezanne)"/>
+    <s v="Monkey"/>
+    <s v="Win: Energy Saving"/>
+    <s v="@ESM"/>
+    <x v="0"/>
+    <n v="256"/>
+    <n v="5293"/>
+    <n v="737.97"/>
+    <n v="7.17"/>
+    <n v="4673.21"/>
+    <n v="2530"/>
+    <n v="84.58"/>
+    <n v="29.91"/>
+    <x v="62"/>
+    <s v="65|3DC #190|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.6.0|256|5293|737,97|7,17"/>
+    <s v="65|3DC #190|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.6.0|4673,21|2530|84,58|29,91"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="v0.7.0"/>
+    <s v="3DC"/>
+    <n v="204"/>
+    <s v="R7 5800X (Vermeer)"/>
+    <s v="patrock84"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="77.22"/>
+    <n v="24558"/>
+    <n v="527.33000000000004"/>
+    <n v="46.57"/>
+    <n v="2341.54"/>
+    <n v="6777"/>
+    <n v="63.01"/>
+    <n v="107.56"/>
+    <x v="63"/>
+    <s v="66|3DC #204|R7 5800X (Vermeer)|patrock84||v0.7.0|77,22|24558|527,33|46,57"/>
+    <s v="66|3DC #204|R7 5800X (Vermeer)|patrock84||v0.7.0|2341,54|6777|63,01|107,56"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="132"/>
+    <s v="R5 3500U (Picasso)"/>
+    <s v="Tenferenzu"/>
+    <s v="ThinkPad E495 default"/>
+    <s v="Golden Sample?"/>
+    <x v="1"/>
+    <n v="180.54"/>
+    <n v="5863"/>
+    <n v="944.68"/>
+    <n v="6.21"/>
+    <n v="1709.41"/>
+    <n v="2399"/>
+    <n v="243.84"/>
+    <n v="9.84"/>
+    <x v="64"/>
+    <s v="67|CB #132|R5 3500U (Picasso)|Tenferenzu|ThinkPad E495 default|v0.7.0|180,54|5863|944,68|6,21"/>
+    <s v="67|CB #132|R5 3500U (Picasso)|Tenferenzu|ThinkPad E495 default|v0.7.0|1709,41|2399|243,84|9,84"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="v0.6.0"/>
+    <s v="CB"/>
+    <n v="118"/>
+    <s v="i9 11980HK (TigerLake-8C)"/>
+    <s v="JeanLegi"/>
+    <s v="or 11900H (Eng. Sample)"/>
+    <s v="ES! See Post"/>
+    <x v="0"/>
+    <n v="147.47999999999999"/>
+    <n v="12519"/>
+    <n v="541.62"/>
+    <n v="23.11"/>
+    <n v="2564.7600000000002"/>
+    <n v="3825"/>
+    <n v="101.94"/>
+    <n v="37.520000000000003"/>
+    <x v="65"/>
+    <s v="68|CB #118|i9 11980HK (TigerLake-8C)|JeanLegi|or 11900H (Eng. Sample)|v0.6.0|147,48|12519|541,62|23,11"/>
+    <s v="68|CB #118|i9 11980HK (TigerLake-8C)|JeanLegi|or 11900H (Eng. Sample)|v0.6.0|2564,76|3825|101,94|37,52"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="137"/>
+    <s v="R5 3500U (Picasso)"/>
+    <s v="andi_sco"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="35.340000000000003"/>
+    <n v="20603"/>
+    <n v="1373.38"/>
+    <n v="15"/>
+    <n v="443.88"/>
+    <n v="6048"/>
+    <n v="372.52"/>
+    <n v="16.23"/>
+    <x v="66"/>
+    <s v="69|CB #137|R5 3500U (Picasso)|andi_sco||v0.7.0|35,34|20603|1373,38|15"/>
+    <s v="69|CB #137|R5 3500U (Picasso)|andi_sco||v0.7.0|443,88|6048|372,52|16,23"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="140"/>
+    <s v="R5 3500U (Picasso)"/>
+    <s v="Asghan"/>
+    <s v="ThinkPad E495 cool and quiet"/>
+    <m/>
+    <x v="1"/>
+    <n v="144.37"/>
+    <n v="6717"/>
+    <n v="1031.19"/>
+    <n v="6.51"/>
+    <n v="1517.62"/>
+    <n v="2129"/>
+    <n v="309.45999999999998"/>
+    <n v="6.88"/>
+    <x v="67"/>
+    <s v="70|CB #140|R5 3500U (Picasso)|Asghan|ThinkPad E495 cool and quiet|v0.7.0|144,37|6717|1031,19|6,51"/>
+    <s v="70|CB #140|R5 3500U (Picasso)|Asghan|ThinkPad E495 cool and quiet|v0.7.0|1517,62|2129|309,46|6,88"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="143"/>
+    <s v="i7 9750H (Coffee Lake)"/>
+    <s v="Blende Up"/>
+    <m/>
+    <s v="@45W"/>
+    <x v="0"/>
+    <n v="111.07"/>
+    <n v="13062.5"/>
+    <n v="689.24"/>
+    <n v="18.95"/>
+    <n v="1535"/>
+    <n v="27143.22"/>
+    <n v="600.03"/>
+    <n v="45.24"/>
+    <x v="68"/>
+    <s v="71|CB #143|i7 9750H (Coffee Lake)|Blende Up||v0.7.0|111,07|13062,5|689,24|18,95"/>
+    <s v="71|CB #143|i7 9750H (Coffee Lake)|Blende Up||v0.7.0|1535|27143,22|600,03|45,24"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="149"/>
+    <s v="R7 2700X (Pinnacle Ridge)"/>
+    <s v="Tanzmusikus"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="50.22"/>
+    <n v="25952"/>
+    <n v="767.28"/>
+    <n v="33.82"/>
+    <n v="1502.87"/>
+    <n v="7620"/>
+    <n v="87.32"/>
+    <n v="87.26"/>
+    <x v="69"/>
+    <s v="72|CB #149|R7 2700X (Pinnacle Ridge)|Tanzmusikus||v0.7.0|50,22|25952|767,28|33,82"/>
+    <s v="72|CB #149|R7 2700X (Pinnacle Ridge)|Tanzmusikus||v0.7.0|1502,87|7620|87,32|87,26"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="152"/>
+    <s v="R5 3500U (Picasso)"/>
+    <s v="Tanzmusikus"/>
+    <s v="Win = Balanced"/>
+    <m/>
+    <x v="0"/>
+    <n v="78.09"/>
+    <n v="13745"/>
+    <n v="931.73"/>
+    <n v="14.75"/>
+    <n v="590.89"/>
+    <n v="5238"/>
+    <n v="323.11"/>
+    <n v="16.21"/>
+    <x v="70"/>
+    <s v="73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|78,09|13745|931,73|14,75"/>
+    <s v="73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|590,89|5238|323,11|16,21"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
-  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
+  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8728,27 +9052,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="122">
+      <items count="131">
+        <item m="1" x="82"/>
+        <item m="1" x="80"/>
+        <item m="1" x="73"/>
+        <item m="1" x="94"/>
+        <item m="1" x="127"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="96"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="100"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="90"/>
+        <item m="1" x="89"/>
+        <item m="1" x="71"/>
+        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="93"/>
-        <item m="1" x="105"/>
-        <item m="1" x="120"/>
-        <item m="1" x="115"/>
-        <item m="1" x="63"/>
-        <item m="1" x="85"/>
-        <item m="1" x="65"/>
-        <item m="1" x="87"/>
-        <item m="1" x="78"/>
-        <item m="1" x="118"/>
-        <item m="1" x="88"/>
-        <item m="1" x="66"/>
-        <item m="1" x="68"/>
-        <item m="1" x="114"/>
-        <item m="1" x="110"/>
-        <item m="1" x="106"/>
-        <item m="1" x="77"/>
-        <item m="1" x="100"/>
-        <item m="1" x="96"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8757,11 +9081,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="109"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="117"/>
+        <item m="1" x="87"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -8769,12 +9093,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="94"/>
-        <item m="1" x="97"/>
-        <item m="1" x="108"/>
         <item m="1" x="113"/>
-        <item m="1" x="99"/>
-        <item m="1" x="107"/>
+        <item m="1" x="114"/>
+        <item m="1" x="118"/>
+        <item m="1" x="86"/>
+        <item m="1" x="81"/>
+        <item m="1" x="115"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -8783,24 +9107,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="104"/>
+        <item m="1" x="88"/>
+        <item m="1" x="77"/>
+        <item x="29"/>
+        <item m="1" x="99"/>
+        <item m="1" x="101"/>
+        <item m="1" x="103"/>
+        <item m="1" x="111"/>
+        <item m="1" x="124"/>
+        <item m="1" x="98"/>
+        <item m="1" x="79"/>
+        <item m="1" x="128"/>
+        <item m="1" x="85"/>
+        <item m="1" x="129"/>
+        <item m="1" x="97"/>
+        <item m="1" x="110"/>
         <item m="1" x="92"/>
-        <item m="1" x="79"/>
-        <item m="1" x="95"/>
-        <item x="29"/>
-        <item m="1" x="67"/>
-        <item m="1" x="71"/>
-        <item m="1" x="73"/>
-        <item m="1" x="82"/>
-        <item m="1" x="75"/>
-        <item m="1" x="64"/>
-        <item m="1" x="76"/>
-        <item m="1" x="81"/>
-        <item m="1" x="104"/>
-        <item m="1" x="69"/>
-        <item m="1" x="86"/>
-        <item m="1" x="83"/>
-        <item m="1" x="101"/>
-        <item m="1" x="70"/>
+        <item m="1" x="93"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -8817,20 +9141,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="80"/>
-        <item m="1" x="98"/>
-        <item m="1" x="103"/>
-        <item m="1" x="74"/>
-        <item m="1" x="111"/>
-        <item m="1" x="62"/>
+        <item m="1" x="108"/>
         <item m="1" x="119"/>
-        <item m="1" x="109"/>
+        <item m="1" x="75"/>
+        <item m="1" x="83"/>
+        <item m="1" x="117"/>
+        <item m="1" x="122"/>
+        <item m="1" x="76"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
         <item m="1" x="102"/>
-        <item m="1" x="72"/>
-        <item m="1" x="116"/>
-        <item m="1" x="90"/>
         <item m="1" x="91"/>
-        <item m="1" x="89"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="78"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -8850,6 +9174,15 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -8868,7 +9201,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="41">
     <i>
       <x v="81"/>
     </i>
@@ -8900,13 +9233,13 @@
       <x v="21"/>
     </i>
     <i>
+      <x v="128"/>
+    </i>
+    <i>
       <x v="84"/>
     </i>
     <i>
       <x v="73"/>
-    </i>
-    <i>
-      <x v="79"/>
     </i>
     <i>
       <x v="104"/>
@@ -8927,6 +9260,12 @@
       <x v="76"/>
     </i>
     <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
       <x v="80"/>
     </i>
     <i>
@@ -8936,16 +9275,13 @@
       <x v="105"/>
     </i>
     <i>
-      <x v="112"/>
-    </i>
-    <i>
       <x v="106"/>
     </i>
     <i>
-      <x v="113"/>
+      <x v="110"/>
     </i>
     <i>
-      <x v="110"/>
+      <x v="127"/>
     </i>
     <i>
       <x v="119"/>
@@ -8961,6 +9297,9 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="124"/>
     </i>
     <i>
       <x v="24"/>
@@ -8979,6 +9318,9 @@
     </i>
     <i>
       <x v="57"/>
+    </i>
+    <i>
+      <x v="121"/>
     </i>
     <i t="grand">
       <x/>
@@ -9017,8 +9359,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9044,27 +9386,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="122">
+      <items count="131">
+        <item m="1" x="82"/>
+        <item m="1" x="80"/>
+        <item m="1" x="73"/>
+        <item m="1" x="94"/>
+        <item m="1" x="127"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="96"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="100"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="90"/>
+        <item m="1" x="89"/>
+        <item m="1" x="71"/>
+        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="93"/>
-        <item m="1" x="105"/>
-        <item m="1" x="120"/>
-        <item m="1" x="115"/>
-        <item m="1" x="63"/>
-        <item m="1" x="85"/>
-        <item m="1" x="65"/>
-        <item m="1" x="87"/>
-        <item m="1" x="78"/>
-        <item m="1" x="118"/>
-        <item m="1" x="88"/>
-        <item m="1" x="66"/>
-        <item m="1" x="68"/>
-        <item m="1" x="114"/>
-        <item m="1" x="110"/>
-        <item m="1" x="106"/>
-        <item m="1" x="77"/>
-        <item m="1" x="100"/>
-        <item m="1" x="96"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9073,11 +9415,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="109"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="117"/>
+        <item m="1" x="87"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9085,12 +9427,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="94"/>
-        <item m="1" x="97"/>
-        <item m="1" x="108"/>
         <item m="1" x="113"/>
-        <item m="1" x="99"/>
-        <item m="1" x="107"/>
+        <item m="1" x="114"/>
+        <item m="1" x="118"/>
+        <item m="1" x="86"/>
+        <item m="1" x="81"/>
+        <item m="1" x="115"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9099,24 +9441,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="104"/>
+        <item m="1" x="88"/>
+        <item m="1" x="77"/>
+        <item x="29"/>
+        <item m="1" x="99"/>
+        <item m="1" x="101"/>
+        <item m="1" x="103"/>
+        <item m="1" x="111"/>
+        <item m="1" x="124"/>
+        <item m="1" x="98"/>
+        <item m="1" x="79"/>
+        <item m="1" x="128"/>
+        <item m="1" x="85"/>
+        <item m="1" x="129"/>
+        <item m="1" x="97"/>
+        <item m="1" x="110"/>
         <item m="1" x="92"/>
-        <item m="1" x="79"/>
-        <item m="1" x="95"/>
-        <item x="29"/>
-        <item m="1" x="67"/>
-        <item m="1" x="71"/>
-        <item m="1" x="73"/>
-        <item m="1" x="82"/>
-        <item m="1" x="75"/>
-        <item m="1" x="64"/>
-        <item m="1" x="76"/>
-        <item m="1" x="81"/>
-        <item m="1" x="104"/>
-        <item m="1" x="69"/>
-        <item m="1" x="86"/>
-        <item m="1" x="83"/>
-        <item m="1" x="101"/>
-        <item m="1" x="70"/>
+        <item m="1" x="93"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9133,20 +9475,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="80"/>
-        <item m="1" x="98"/>
-        <item m="1" x="103"/>
-        <item m="1" x="74"/>
-        <item m="1" x="111"/>
-        <item m="1" x="62"/>
+        <item m="1" x="108"/>
         <item m="1" x="119"/>
-        <item m="1" x="109"/>
+        <item m="1" x="75"/>
+        <item m="1" x="83"/>
+        <item m="1" x="117"/>
+        <item m="1" x="122"/>
+        <item m="1" x="76"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
         <item m="1" x="102"/>
-        <item m="1" x="72"/>
-        <item m="1" x="116"/>
-        <item m="1" x="90"/>
         <item m="1" x="91"/>
-        <item m="1" x="89"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="78"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9166,6 +9508,15 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9184,15 +9535,12 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="41">
     <i>
       <x v="50"/>
     </i>
     <i>
       <x v="78"/>
-    </i>
-    <i>
-      <x v="79"/>
     </i>
     <i>
       <x v="104"/>
@@ -9219,10 +9567,16 @@
       <x v="87"/>
     </i>
     <i>
+      <x v="128"/>
+    </i>
+    <i>
       <x v="85"/>
     </i>
     <i>
       <x v="76"/>
+    </i>
+    <i>
+      <x v="122"/>
     </i>
     <i>
       <x v="111"/>
@@ -9246,10 +9600,16 @@
       <x v="106"/>
     </i>
     <i>
-      <x v="113"/>
+      <x v="129"/>
     </i>
     <i>
       <x v="115"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="124"/>
     </i>
     <i>
       <x v="30"/>
@@ -9282,9 +9642,6 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="112"/>
-    </i>
-    <i>
       <x v="103"/>
     </i>
     <i>
@@ -9295,6 +9652,9 @@
     </i>
     <i>
       <x v="119"/>
+    </i>
+    <i>
+      <x v="121"/>
     </i>
     <i t="grand">
       <x/>
@@ -9333,8 +9693,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9360,27 +9720,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="122">
+      <items count="131">
+        <item m="1" x="82"/>
+        <item m="1" x="80"/>
+        <item m="1" x="73"/>
+        <item m="1" x="94"/>
+        <item m="1" x="127"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="96"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="100"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="90"/>
+        <item m="1" x="89"/>
+        <item m="1" x="71"/>
+        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="93"/>
-        <item m="1" x="105"/>
-        <item m="1" x="120"/>
-        <item m="1" x="115"/>
-        <item m="1" x="63"/>
-        <item m="1" x="85"/>
-        <item m="1" x="65"/>
-        <item m="1" x="87"/>
-        <item m="1" x="78"/>
-        <item m="1" x="118"/>
-        <item m="1" x="88"/>
-        <item m="1" x="66"/>
-        <item m="1" x="68"/>
-        <item m="1" x="114"/>
-        <item m="1" x="110"/>
-        <item m="1" x="106"/>
-        <item m="1" x="77"/>
-        <item m="1" x="100"/>
-        <item m="1" x="96"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9389,11 +9749,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="109"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="117"/>
+        <item m="1" x="87"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9401,12 +9761,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="94"/>
-        <item m="1" x="97"/>
-        <item m="1" x="108"/>
         <item m="1" x="113"/>
-        <item m="1" x="99"/>
-        <item m="1" x="107"/>
+        <item m="1" x="114"/>
+        <item m="1" x="118"/>
+        <item m="1" x="86"/>
+        <item m="1" x="81"/>
+        <item m="1" x="115"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9415,24 +9775,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="104"/>
+        <item m="1" x="88"/>
+        <item m="1" x="77"/>
+        <item x="29"/>
+        <item m="1" x="99"/>
+        <item m="1" x="101"/>
+        <item m="1" x="103"/>
+        <item m="1" x="111"/>
+        <item m="1" x="124"/>
+        <item m="1" x="98"/>
+        <item m="1" x="79"/>
+        <item m="1" x="128"/>
+        <item m="1" x="85"/>
+        <item m="1" x="129"/>
+        <item m="1" x="97"/>
+        <item m="1" x="110"/>
         <item m="1" x="92"/>
-        <item m="1" x="79"/>
-        <item m="1" x="95"/>
-        <item x="29"/>
-        <item m="1" x="67"/>
-        <item m="1" x="71"/>
-        <item m="1" x="73"/>
-        <item m="1" x="82"/>
-        <item m="1" x="75"/>
-        <item m="1" x="64"/>
-        <item m="1" x="76"/>
-        <item m="1" x="81"/>
-        <item m="1" x="104"/>
-        <item m="1" x="69"/>
-        <item m="1" x="86"/>
-        <item m="1" x="83"/>
-        <item m="1" x="101"/>
-        <item m="1" x="70"/>
+        <item m="1" x="93"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9449,20 +9809,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="80"/>
-        <item m="1" x="98"/>
-        <item m="1" x="103"/>
-        <item m="1" x="74"/>
-        <item m="1" x="111"/>
-        <item m="1" x="62"/>
+        <item m="1" x="108"/>
         <item m="1" x="119"/>
-        <item m="1" x="109"/>
+        <item m="1" x="75"/>
+        <item m="1" x="83"/>
+        <item m="1" x="117"/>
+        <item m="1" x="122"/>
+        <item m="1" x="76"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
         <item m="1" x="102"/>
-        <item m="1" x="72"/>
-        <item m="1" x="116"/>
-        <item m="1" x="90"/>
         <item m="1" x="91"/>
-        <item m="1" x="89"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="78"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9482,6 +9842,15 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9500,7 +9869,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="41">
     <i>
       <x v="81"/>
     </i>
@@ -9541,6 +9910,9 @@
       <x v="73"/>
     </i>
     <i>
+      <x v="129"/>
+    </i>
+    <i>
       <x v="30"/>
     </i>
     <i>
@@ -9559,16 +9931,16 @@
       <x v="85"/>
     </i>
     <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
       <x v="51"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="127"/>
     </i>
     <i>
       <x v="31"/>
@@ -9583,7 +9955,10 @@
       <x v="103"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="124"/>
     </i>
     <i>
       <x v="106"/>
@@ -9608,6 +9983,9 @@
     </i>
     <i>
       <x v="76"/>
+    </i>
+    <i>
+      <x v="121"/>
     </i>
     <i>
       <x v="87"/>
@@ -9649,8 +10027,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B3:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9676,27 +10054,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="122">
+      <items count="131">
+        <item m="1" x="82"/>
+        <item m="1" x="80"/>
+        <item m="1" x="73"/>
+        <item m="1" x="94"/>
+        <item m="1" x="127"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="96"/>
+        <item m="1" x="74"/>
+        <item m="1" x="123"/>
+        <item m="1" x="100"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
+        <item m="1" x="90"/>
+        <item m="1" x="89"/>
+        <item m="1" x="71"/>
+        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="93"/>
-        <item m="1" x="105"/>
-        <item m="1" x="120"/>
-        <item m="1" x="115"/>
-        <item m="1" x="63"/>
-        <item m="1" x="85"/>
-        <item m="1" x="65"/>
-        <item m="1" x="87"/>
-        <item m="1" x="78"/>
-        <item m="1" x="118"/>
-        <item m="1" x="88"/>
-        <item m="1" x="66"/>
-        <item m="1" x="68"/>
-        <item m="1" x="114"/>
-        <item m="1" x="110"/>
-        <item m="1" x="106"/>
-        <item m="1" x="77"/>
-        <item m="1" x="100"/>
-        <item m="1" x="96"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9705,11 +10083,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="84"/>
+        <item m="1" x="109"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="117"/>
+        <item m="1" x="87"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9717,12 +10095,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="94"/>
-        <item m="1" x="97"/>
-        <item m="1" x="108"/>
         <item m="1" x="113"/>
-        <item m="1" x="99"/>
-        <item m="1" x="107"/>
+        <item m="1" x="114"/>
+        <item m="1" x="118"/>
+        <item m="1" x="86"/>
+        <item m="1" x="81"/>
+        <item m="1" x="115"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9731,24 +10109,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="104"/>
+        <item m="1" x="88"/>
+        <item m="1" x="77"/>
+        <item x="29"/>
+        <item m="1" x="99"/>
+        <item m="1" x="101"/>
+        <item m="1" x="103"/>
+        <item m="1" x="111"/>
+        <item m="1" x="124"/>
+        <item m="1" x="98"/>
+        <item m="1" x="79"/>
+        <item m="1" x="128"/>
+        <item m="1" x="85"/>
+        <item m="1" x="129"/>
+        <item m="1" x="97"/>
+        <item m="1" x="110"/>
         <item m="1" x="92"/>
-        <item m="1" x="79"/>
-        <item m="1" x="95"/>
-        <item x="29"/>
-        <item m="1" x="67"/>
-        <item m="1" x="71"/>
-        <item m="1" x="73"/>
-        <item m="1" x="82"/>
-        <item m="1" x="75"/>
-        <item m="1" x="64"/>
-        <item m="1" x="76"/>
-        <item m="1" x="81"/>
-        <item m="1" x="104"/>
-        <item m="1" x="69"/>
-        <item m="1" x="86"/>
-        <item m="1" x="83"/>
-        <item m="1" x="101"/>
-        <item m="1" x="70"/>
+        <item m="1" x="93"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9765,20 +10143,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="80"/>
-        <item m="1" x="98"/>
-        <item m="1" x="103"/>
-        <item m="1" x="74"/>
-        <item m="1" x="111"/>
-        <item m="1" x="62"/>
+        <item m="1" x="108"/>
         <item m="1" x="119"/>
-        <item m="1" x="109"/>
+        <item m="1" x="75"/>
+        <item m="1" x="83"/>
+        <item m="1" x="117"/>
+        <item m="1" x="122"/>
+        <item m="1" x="76"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
         <item m="1" x="102"/>
-        <item m="1" x="72"/>
-        <item m="1" x="116"/>
-        <item m="1" x="90"/>
         <item m="1" x="91"/>
-        <item m="1" x="89"/>
+        <item m="1" x="121"/>
+        <item m="1" x="106"/>
+        <item m="1" x="78"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9798,6 +10176,15 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9816,7 +10203,10 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="41">
+    <i>
+      <x v="127"/>
+    </i>
     <i>
       <x v="50"/>
     </i>
@@ -9860,7 +10250,7 @@
       <x v="111"/>
     </i>
     <i>
-      <x v="79"/>
+      <x v="128"/>
     </i>
     <i>
       <x v="105"/>
@@ -9869,7 +10259,7 @@
       <x v="21"/>
     </i>
     <i>
-      <x v="113"/>
+      <x v="122"/>
     </i>
     <i>
       <x v="31"/>
@@ -9879,6 +10269,9 @@
     </i>
     <i>
       <x v="24"/>
+    </i>
+    <i>
+      <x v="129"/>
     </i>
     <i>
       <x v="80"/>
@@ -9911,16 +10304,19 @@
       <x v="103"/>
     </i>
     <i>
+      <x v="124"/>
+    </i>
+    <i>
       <x v="51"/>
     </i>
     <i>
       <x v="74"/>
     </i>
     <i>
-      <x v="112"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="121"/>
     </i>
     <i>
       <x v="20"/>
@@ -10001,13 +10397,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U66" totalsRowShown="0">
-  <autoFilter ref="B4:U66" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U75" totalsRowShown="0">
+  <autoFilter ref="B4:U75" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
-    <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
-    <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
-    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Forum" dataDxfId="14" dataCellStyle="Eingabe"/>
-    <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No" dataCellStyle="Eingabe"/>
+    <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
+    <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
+    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Frm" dataDxfId="14" dataCellStyle="Eingabe"/>
+    <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post" dataCellStyle="Eingabe"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
     <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="13" dataCellStyle="Eingabe"/>
@@ -10022,13 +10418,13 @@
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="4" dataCellStyle="Eingabe"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="3" dataCellStyle="Eingabe"/>
     <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10298,27 +10694,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U66"/>
+  <dimension ref="B1:U75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.21875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="20.21875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
@@ -10336,17 +10733,17 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G1">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -10354,72 +10751,72 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" t="s">
-        <v>46</v>
-      </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
@@ -10427,22 +10824,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -10471,15 +10868,15 @@
         <v>15.43</v>
       </c>
       <c r="S5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) [1]</v>
       </c>
       <c r="T5" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|143,17|10432|669,57|15,58</v>
       </c>
       <c r="U5" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|2656,06|2410|156,22|15,43</v>
       </c>
     </row>
@@ -10488,19 +10885,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -10511,27 +10908,35 @@
       <c r="L6" s="19">
         <v>32112</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="15">
+        <v>680.5</v>
+      </c>
+      <c r="N6" s="15">
+        <v>47.188831741366641</v>
+      </c>
       <c r="O6" s="17">
         <v>1386.39</v>
       </c>
       <c r="P6" s="19">
         <v>7223</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
+      <c r="Q6" s="15">
+        <v>99.861243102293088</v>
+      </c>
+      <c r="R6" s="15">
+        <v>72.330363368310003</v>
+      </c>
       <c r="S6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3600 (Matisse) v0.3.1 [2]</v>
       </c>
       <c r="T6" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112|680,5|47,1888317413666</v>
       </c>
       <c r="U6" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223|99,8612431022931|72,33036336831</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
@@ -10539,19 +10944,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -10562,27 +10967,35 @@
       <c r="L7" s="19">
         <v>9839</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="15">
+        <v>795.5</v>
+      </c>
+      <c r="N7" s="15">
+        <v>12.368321810182275</v>
+      </c>
       <c r="O7" s="17">
         <v>885.22</v>
       </c>
       <c r="P7" s="19">
         <v>3912</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
+      <c r="Q7" s="15">
+        <v>288.76857942815411</v>
+      </c>
+      <c r="R7" s="15">
+        <v>13.547180263680001</v>
+      </c>
       <c r="S7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 1065G (IceLake) v0.3.1 [3]</v>
       </c>
       <c r="T7" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839|795,5|12,3683218101823</v>
       </c>
       <c r="U7" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912|288,768579428154|13,54718026368</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
@@ -10590,24 +11003,24 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" s="15">
         <v>55.41</v>
@@ -10634,15 +11047,15 @@
         <v>186.22</v>
       </c>
       <c r="S8" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
       </c>
       <c r="T8" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>4|3DC #14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49</v>
       </c>
       <c r="U8" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>4|3DC #14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22</v>
       </c>
     </row>
@@ -10651,19 +11064,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -10674,27 +11087,35 @@
       <c r="L9" s="19">
         <v>10352</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="M9" s="15">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="N9" s="15">
+        <v>16.489327811404909</v>
+      </c>
       <c r="O9" s="17">
         <v>2637.56</v>
       </c>
       <c r="P9" s="19">
         <v>5262</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="15">
+        <v>72.052127420048677</v>
+      </c>
+      <c r="R9" s="15">
+        <v>73.030459868639994</v>
+      </c>
       <c r="S9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) v0.3.1 [5]</v>
       </c>
       <c r="T9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352|627,8|16,4893278114049</v>
       </c>
       <c r="U9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262|72,0521274200487|73,03045986864</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -10702,26 +11123,26 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4">
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10" s="15">
         <v>51.8</v>
@@ -10729,27 +11150,35 @@
       <c r="L10" s="19">
         <v>30057</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="15">
+        <v>642.29999999999995</v>
+      </c>
+      <c r="N10" s="15">
+        <v>46.795889771134988</v>
+      </c>
       <c r="O10" s="17">
         <v>2058.48</v>
       </c>
       <c r="P10" s="19">
         <v>6377</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="15">
+        <v>76.179291851563704</v>
+      </c>
+      <c r="R10" s="15">
+        <v>83.710413223920014</v>
+      </c>
       <c r="S10" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [6]</v>
       </c>
       <c r="T10" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057|642,3|46,795889771135</v>
       </c>
       <c r="U10" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>6|3DC #27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377|76,1792918515637|83,71041322392</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
@@ -10757,19 +11186,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E11" s="4">
         <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -10780,27 +11209,35 @@
       <c r="L11" s="19">
         <v>10396</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="15">
+        <v>697.6</v>
+      </c>
+      <c r="N11" s="15">
+        <v>14.902522935779816</v>
+      </c>
       <c r="O11" s="17">
         <v>3599.63</v>
       </c>
       <c r="P11" s="19">
         <v>2029</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="15">
+        <v>136.91785613358184</v>
+      </c>
+      <c r="R11" s="15">
+        <v>14.819104368830001</v>
+      </c>
       <c r="S11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750U (Renoir) v0.3.1 [7]</v>
       </c>
       <c r="T11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396|697,6|14,9025229357798</v>
       </c>
       <c r="U11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>7|3DC #29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029|136,917856133582|14,81910436883</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -10808,24 +11245,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E12" s="4">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K12" s="15">
         <v>52.94</v>
@@ -10833,27 +11270,35 @@
       <c r="L12" s="19">
         <v>37274</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="15">
+        <v>506.76902536093161</v>
+      </c>
+      <c r="N12" s="15">
+        <v>73.552245963439987</v>
+      </c>
       <c r="O12" s="17">
         <v>5760.71</v>
       </c>
       <c r="P12" s="19">
         <v>4507</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="15">
+        <v>38.515578825808959</v>
+      </c>
+      <c r="R12" s="15">
+        <v>117.01758450478999</v>
+      </c>
       <c r="S12" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
       </c>
       <c r="T12" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274|506,769025360932|73,55224596344</v>
       </c>
       <c r="U12" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>8|3DC #32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507|38,515578825809|117,01758450479</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
@@ -10861,28 +11306,28 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4">
         <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K13" s="15">
         <v>111.79</v>
@@ -10909,15 +11354,15 @@
         <v>11.52</v>
       </c>
       <c r="S13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</v>
       </c>
       <c r="T13" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>9|3DC #42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35</v>
       </c>
       <c r="U13" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>9|3DC #42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52</v>
       </c>
     </row>
@@ -10926,24 +11371,24 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" s="4">
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14" s="15">
         <v>165.09</v>
@@ -10970,15 +11415,15 @@
         <v>58.11</v>
       </c>
       <c r="S14" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
       </c>
       <c r="T14" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>10|3DC #44|R9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75</v>
       </c>
       <c r="U14" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>10|3DC #44|R9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11</v>
       </c>
     </row>
@@ -10987,19 +11432,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" s="4">
         <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -11029,15 +11474,15 @@
         <v>13.75</v>
       </c>
       <c r="S15" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
       </c>
       <c r="T15" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>11|3DC #54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99</v>
       </c>
       <c r="U15" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>11|3DC #54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75</v>
       </c>
     </row>
@@ -11046,19 +11491,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="4">
         <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -11088,15 +11533,15 @@
         <v>60.86</v>
       </c>
       <c r="S16" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
       </c>
       <c r="T16" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>12|3DC #69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03</v>
       </c>
       <c r="U16" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>12|3DC #69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86</v>
       </c>
     </row>
@@ -11105,28 +11550,28 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E17" s="4">
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K17" s="15">
         <v>173.7</v>
@@ -11153,43 +11598,43 @@
         <v>23.15</v>
       </c>
       <c r="S17" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @25W v0.3.1 [13]</v>
       </c>
       <c r="T17" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>13|3DC #47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45</v>
       </c>
       <c r="U17" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>13|3DC #47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K18" s="15">
         <v>133.62</v>
@@ -11197,27 +11642,36 @@
       <c r="L18" s="19">
         <v>10168</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="15">
+        <v>736</v>
+      </c>
+      <c r="N18" s="15">
+        <v>13.8</v>
+      </c>
       <c r="O18" s="17">
         <v>2586.7600000000002</v>
       </c>
       <c r="P18" s="19">
         <v>2649</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="15">
+        <v>145.93582077670885</v>
+      </c>
+      <c r="R18" s="15">
+        <f>GeneralTable[[#This Row],[Cons. MT]]/GeneralTable[[#This Row],[Dur. MT]]</f>
+        <v>18.151814858759998</v>
+      </c>
       <c r="S18" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) v0.3.1 [14]</v>
       </c>
       <c r="T18" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168|736|13,8</v>
       </c>
       <c r="U18" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>14|3DC #3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649|145,935820776709|18,15181485876</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
@@ -11225,24 +11679,24 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E19" s="4">
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K19" s="15">
         <v>59</v>
@@ -11269,15 +11723,15 @@
         <v>116.04</v>
       </c>
       <c r="S19" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
       </c>
       <c r="T19" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>15|3DC #38|R9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68</v>
       </c>
       <c r="U19" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>15|3DC #38|R9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04</v>
       </c>
     </row>
@@ -11286,26 +11740,26 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E20" s="4">
         <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K20" s="15">
         <v>169.55</v>
@@ -11332,15 +11786,15 @@
         <v>51.33</v>
       </c>
       <c r="S20" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
       </c>
       <c r="T20" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>16|3DC #65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21</v>
       </c>
       <c r="U20" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>16|3DC #65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33</v>
       </c>
     </row>
@@ -11349,19 +11803,19 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4">
         <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -11391,15 +11845,15 @@
         <v>45.32</v>
       </c>
       <c r="S21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
       </c>
       <c r="T21" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>17|3DC #64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26</v>
       </c>
       <c r="U21" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>17|3DC #64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32</v>
       </c>
     </row>
@@ -11408,26 +11862,26 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" s="4">
         <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K22" s="15">
         <v>55.08</v>
@@ -11454,15 +11908,15 @@
         <v>54.05</v>
       </c>
       <c r="S22" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [18]</v>
       </c>
       <c r="T22" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>18|3DC #67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51</v>
       </c>
       <c r="U22" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>18|3DC #67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05</v>
       </c>
     </row>
@@ -11471,24 +11925,24 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4">
         <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K23" s="15">
         <v>41.55</v>
@@ -11515,15 +11969,15 @@
         <v>125.22</v>
       </c>
       <c r="S23" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
       </c>
       <c r="T23" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>19|3DC #68|R9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69</v>
       </c>
       <c r="U23" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>19|3DC #68|R9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22</v>
       </c>
     </row>
@@ -11532,26 +11986,26 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K24" s="15">
         <v>60.29</v>
@@ -11578,15 +12032,15 @@
         <v>168.04</v>
       </c>
       <c r="S24" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
       </c>
       <c r="T24" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>20|3DC #70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67</v>
       </c>
       <c r="U24" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>20|3DC #70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04</v>
       </c>
     </row>
@@ -11595,24 +12049,24 @@
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E25" s="7">
         <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K25" s="16">
         <v>62.61</v>
@@ -11639,15 +12093,15 @@
         <v>112.84</v>
       </c>
       <c r="S25" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [21]</v>
       </c>
       <c r="T25" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>21|3DC #88|R9 5950X (Vermeer)|Lowkey||v0.5.0|62,61|32182|496,32|64,84</v>
       </c>
       <c r="U25" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>21|3DC #88|R9 5950X (Vermeer)|Lowkey||v0.5.0|5945,36|4356|38,61|112,84</v>
       </c>
     </row>
@@ -11656,24 +12110,24 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E26" s="7">
         <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26" s="16">
         <v>63.92</v>
@@ -11700,15 +12154,15 @@
         <v>168.38</v>
       </c>
       <c r="S26" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [22]</v>
       </c>
       <c r="T26" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>22|3DC #90|R9 5950X (Vermeer)|misterh||v0.5.0|63,92|30783|508,2|60,57</v>
       </c>
       <c r="U26" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>22|3DC #90|R9 5950X (Vermeer)|misterh||v0.5.0|4834,19|5902|35,05|168,38</v>
       </c>
     </row>
@@ -11717,25 +12171,25 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E27" s="7">
         <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="16">
@@ -11763,15 +12217,15 @@
         <v>100.15</v>
       </c>
       <c r="S27" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</v>
       </c>
       <c r="T27" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>23|3DC #108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|17,45|55373|1034,64|53,52</v>
       </c>
       <c r="U27" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>23|3DC #108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|237,59|20531|205|100,15</v>
       </c>
     </row>
@@ -11780,22 +12234,22 @@
         <v>24</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4">
         <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -11824,15 +12278,15 @@
         <v>20.49</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 1165G7 (TigerLake) v0.5.0 [24]</v>
       </c>
       <c r="T28" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>24|3DC #102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|172,46|10777|538,06|20,03</v>
       </c>
       <c r="U28" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>24|3DC #102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|1438,78|3774|184,18|20,49</v>
       </c>
     </row>
@@ -11841,28 +12295,28 @@
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E29" s="7">
         <v>94</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29" s="16">
         <v>63.04</v>
@@ -11889,15 +12343,15 @@
         <v>146.87</v>
       </c>
       <c r="S29" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</v>
       </c>
       <c r="T29" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>25|3DC #94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95</v>
       </c>
       <c r="U29" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>25|3DC #94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87</v>
       </c>
     </row>
@@ -11906,24 +12360,24 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E30" s="7">
         <v>96</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30" s="16">
         <v>59.97</v>
@@ -11950,15 +12404,15 @@
         <v>115.69</v>
       </c>
       <c r="S30" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [26]</v>
       </c>
       <c r="T30" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>26|3DC #96|R9 5950X (Vermeer)|Sweepi||v0.3.1|59,97|33184,63|502,51|66,04</v>
       </c>
       <c r="U30" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>26|3DC #96|R9 5950X (Vermeer)|Sweepi||v0.3.1|6103,75|4353,56|37,63|115,69</v>
       </c>
     </row>
@@ -11967,28 +12421,28 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" s="7">
         <v>118</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K31" s="16">
         <v>164.2</v>
@@ -12015,15 +12469,15 @@
         <v>19.13</v>
       </c>
       <c r="S31" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @20W v0.5.1 [27]</v>
       </c>
       <c r="T31" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>27|3DC #118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|164,2|9800,31|621,43|15,77</v>
       </c>
       <c r="U31" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>27|3DC #118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|4760,57|2004,54|104,79|19,13</v>
       </c>
     </row>
@@ -12032,19 +12486,19 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" s="7">
         <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -12074,15 +12528,15 @@
         <v>48.52</v>
       </c>
       <c r="S32" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 5775C (Broadwell) v0.5.1 [28]</v>
       </c>
       <c r="T32" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>28|3DC #129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|55,06|20078|904,59|22,2</v>
       </c>
       <c r="U32" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>28|3DC #129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|560,07|9308|191,83|48,52</v>
       </c>
     </row>
@@ -12091,19 +12545,19 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E33" s="7">
         <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -12133,15 +12587,15 @@
         <v>20.56</v>
       </c>
       <c r="S33" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 4500U (Renoir) v0.5.1 [29]</v>
       </c>
       <c r="T33" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>29|3DC #133|R5 4500U (Renoir)|Poekel||v0.5.1|186,38|7581,59|707,68|10,71</v>
       </c>
       <c r="U33" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>29|3DC #133|R5 4500U (Renoir)|Poekel||v0.5.1|1839,93|3342,48|162,6|20,56</v>
       </c>
     </row>
@@ -12150,22 +12604,22 @@
         <v>30</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E34" s="7">
         <v>134</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -12194,15 +12648,15 @@
         <v>35.659999999999997</v>
       </c>
       <c r="S34" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.5.0 [30]</v>
       </c>
       <c r="T34" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>30|3DC #134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|216,08|7445|621,65|11,98</v>
       </c>
       <c r="U34" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>30|3DC #134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|3936,18|3010|84,41|35,66</v>
       </c>
     </row>
@@ -12211,26 +12665,26 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" s="7">
         <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K35" s="16">
         <v>60.14</v>
@@ -12257,15 +12711,15 @@
         <v>76.08</v>
       </c>
       <c r="S35" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [31]</v>
       </c>
       <c r="T35" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>31|3DC #135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|60,14|24336|683,23|35,62</v>
       </c>
       <c r="U35" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>31|3DC #135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|4414,66|4151|54,57|76,08</v>
       </c>
     </row>
@@ -12274,19 +12728,19 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E36" s="7">
         <v>136</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -12316,15 +12770,15 @@
         <v>120.07</v>
       </c>
       <c r="S36" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [32]</v>
       </c>
       <c r="T36" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>32|3DC #136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|75,57|25543|518,06|49,31</v>
       </c>
       <c r="U36" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>32|3DC #136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|4461,23|5187,88|43,21|120,07</v>
       </c>
     </row>
@@ -12333,26 +12787,26 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E37" s="4">
         <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K37" s="15">
         <v>52.3</v>
@@ -12379,15 +12833,15 @@
         <v>130.91999999999999</v>
       </c>
       <c r="S37" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [33]</v>
       </c>
       <c r="T37" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>33|3DC #140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|52,3|38103|501,84|75,93</v>
       </c>
       <c r="U37" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>33|3DC #140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|3945,77|5760|44|130,92</v>
       </c>
     </row>
@@ -12396,25 +12850,25 @@
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="7">
         <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="16">
@@ -12442,15 +12896,15 @@
         <v>93.96</v>
       </c>
       <c r="S38" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</v>
       </c>
       <c r="T38" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>34|3DC #141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|26,38|38525|983,86|39,16</v>
       </c>
       <c r="U38" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>34|3DC #141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|269,61|18669|198,68|93,96</v>
       </c>
     </row>
@@ -12459,23 +12913,25 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E39" s="7">
         <v>145</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K39" s="16">
         <v>57.13</v>
       </c>
@@ -12501,15 +12957,15 @@
         <v>132.29</v>
       </c>
       <c r="S39" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [35]</v>
       </c>
       <c r="T39" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>35|3DC #145|R7 5800X (Vermeer)|hq-hq||v0.5.1|57,13|34236|511,24|66,97</v>
       </c>
       <c r="U39" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>35|3DC #145|R7 5800X (Vermeer)|hq-hq||v0.5.1|2347,02|7508|56,75|132,29</v>
       </c>
     </row>
@@ -12518,23 +12974,23 @@
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40" s="7">
         <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="16">
@@ -12562,15 +13018,15 @@
         <v>10.5</v>
       </c>
       <c r="S40" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</v>
       </c>
       <c r="T40" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>36|3DC #146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|83,49|11096|1079,37|10,28</v>
       </c>
       <c r="U40" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>36|3DC #146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|384,59|5226|497,55|10,5</v>
       </c>
     </row>
@@ -12579,19 +13035,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E41" s="7">
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -12621,15 +13077,15 @@
         <v>5.94</v>
       </c>
       <c r="S41" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</v>
       </c>
       <c r="T41" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>37|3DC #146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|16,69|18192|3293,49|5,52</v>
       </c>
       <c r="U41" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>37|3DC #146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|35,61|12920|2173,78|5,94</v>
       </c>
     </row>
@@ -12638,24 +13094,24 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E42" s="7">
         <v>148</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K42" s="16">
         <v>68.06</v>
@@ -12682,15 +13138,15 @@
         <v>117.13</v>
       </c>
       <c r="S42" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [38]</v>
       </c>
       <c r="T42" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>38|3DC #148|R7 5800X (Vermeer)|patrock84||v0.5.1|68,06|28138|522,17|53,89</v>
       </c>
       <c r="U42" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>38|3DC #148|R7 5800X (Vermeer)|patrock84||v0.5.1|1876,01|7902|67,46|117,13</v>
       </c>
     </row>
@@ -12699,19 +13155,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E43" s="7">
         <v>154</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -12741,15 +13197,15 @@
         <v>111.24</v>
       </c>
       <c r="S43" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8600k (Coffee Lake) v0.5.1 [39]</v>
       </c>
       <c r="T43" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>39|3DC #154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|58,25|27864|616,08|45,23</v>
       </c>
       <c r="U43" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>39|3DC #154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|739,31|12266|110,27|111,24</v>
       </c>
     </row>
@@ -12758,23 +13214,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E44" s="7">
         <v>154</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="16">
@@ -12802,15 +13258,15 @@
         <v>34.020000000000003</v>
       </c>
       <c r="S44" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</v>
       </c>
       <c r="T44" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>40|3DC #154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|54,74|20650|884,67|23,34</v>
       </c>
       <c r="U44" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>40|3DC #154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|336,42|10055|295,61|34,02</v>
       </c>
     </row>
@@ -12819,25 +13275,25 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E45" s="7">
         <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16">
@@ -12865,15 +13321,15 @@
         <v>133.65</v>
       </c>
       <c r="S45" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</v>
       </c>
       <c r="T45" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>41|3DC #155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|61,55|25887|627,62|41,25</v>
       </c>
       <c r="U45" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>41|3DC #155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|925,56|12017|89,91|133,65</v>
       </c>
     </row>
@@ -12882,19 +13338,19 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E46" s="7">
         <v>156</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -12924,15 +13380,15 @@
         <v>64.67</v>
       </c>
       <c r="S46" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800H (Cezanne) v0.5.1 [42]</v>
       </c>
       <c r="T46" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>42|3DC #156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|168,79|10124|585,18|17,3</v>
       </c>
       <c r="U46" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>42|3DC #156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|3171,28|4516|69,83|64,67</v>
       </c>
     </row>
@@ -12941,19 +13397,19 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E47" s="7">
         <v>160</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -12983,15 +13439,15 @@
         <v>114.8</v>
       </c>
       <c r="S47" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.1 [43]</v>
       </c>
       <c r="T47" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>43|3DC #160|R9 5950X (Vermeer)|GaryX||v0.5.1|74,44|26935|498,76|54</v>
       </c>
       <c r="U47" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>43|3DC #160|R9 5950X (Vermeer)|GaryX||v0.5.1|6668,05|4149|36,14|114,8</v>
       </c>
     </row>
@@ -13000,25 +13456,25 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E48" s="7">
         <v>165</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="16">
@@ -13046,15 +13502,15 @@
         <v>28.36</v>
       </c>
       <c r="S48" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 4600H (Renoir) Win11 v0.6.0 [44]</v>
       </c>
       <c r="T48" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>44|3DC #165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|158,59|8278|761,74|10,87</v>
       </c>
       <c r="U48" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>44|3DC #165|R5 4600H (Renoir)|Groschi|Win 11|v0.6.0|1878,68|3886|136,99|28,36</v>
       </c>
     </row>
@@ -13063,25 +13519,25 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="16">
@@ -13109,15 +13565,15 @@
         <v>103.97</v>
       </c>
       <c r="S49" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5900X (Vermeer) @95W v0.6.0 [45]</v>
       </c>
       <c r="T49" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>45|CB #4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|58,15|33913|507,07|66,88</v>
       </c>
       <c r="U49" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>45|CB #4|R7 5900X (Vermeer)|Asghan|@95W|v0.6.0|4388,11|4868|46,82|103,97</v>
       </c>
     </row>
@@ -13126,19 +13582,19 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E50" s="7">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -13168,15 +13624,15 @@
         <v>96.34</v>
       </c>
       <c r="S50" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 5600X (Vermeer) v0.6.0 [46]</v>
       </c>
       <c r="T50" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>46|CB #5|R5 5600X (Vermeer)|mesohorny||v0.6.0|90,06|21193|523,92|40,45</v>
       </c>
       <c r="U50" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>46|CB #5|R5 5600X (Vermeer)|mesohorny||v0.6.0|1843|7230|75,05|96,34</v>
       </c>
     </row>
@@ -13185,22 +13641,22 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E51" s="7">
         <v>9</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -13229,15 +13685,15 @@
         <v>76.150000000000006</v>
       </c>
       <c r="S51" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.6.0 [47]</v>
       </c>
       <c r="T51" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|101,29|15775|625,84|25,21</v>
       </c>
       <c r="U51" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>47|CB #9|R7 3700X (Matisse)|Puffer0815|Outlier?|v0.6.0|2569,91|5444|71,48|76,15</v>
       </c>
     </row>
@@ -13246,26 +13702,26 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E52" s="7">
         <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K52" s="16">
         <v>147.36000000000001</v>
@@ -13292,15 +13748,15 @@
         <v>9.84</v>
       </c>
       <c r="S52" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [48]</v>
       </c>
       <c r="T52" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|147,36|6619|1025,22|6,46</v>
       </c>
       <c r="U52" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>48|CB #10|R5 3500U (Picasso)|Tenferenzu|Outlier?|v0.6.0|1538,34|2529|257,01|9,84</v>
       </c>
     </row>
@@ -13309,28 +13765,28 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E53" s="7">
         <v>13</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K53" s="16">
         <v>69.31</v>
@@ -13357,15 +13813,15 @@
         <v>87.23</v>
       </c>
       <c r="S53" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) @95W v0.6.0 [49]</v>
       </c>
       <c r="T53" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>49|CB #13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|69,31|22812|632,5|36,07</v>
       </c>
       <c r="U53" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>49|CB #13|R7 3700X (Matisse)|Hardy72|@95W|v0.6.0|2268,8|6201|71,08|87,23</v>
       </c>
     </row>
@@ -13374,28 +13830,28 @@
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E54" s="7">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K54" s="16">
         <v>82.88</v>
@@ -13422,15 +13878,15 @@
         <v>76.260000000000005</v>
       </c>
       <c r="S54" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) @PBO v0.6.0 [50]</v>
       </c>
       <c r="T54" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>50|CB #14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|82,88|19421,07|621,27|31,26</v>
       </c>
       <c r="U54" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>50|CB #14|R7 3700X (Matisse)|Jon Dohnson|@PBO|v0.6.0|2738,85|5276,69|69,19|76,26</v>
       </c>
     </row>
@@ -13439,19 +13895,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E55" s="7">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -13481,15 +13937,15 @@
         <v>21.21</v>
       </c>
       <c r="S55" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8250U (WhiskeyLake) v0.6.0 [51]</v>
       </c>
       <c r="T55" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>51|CB #20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|107,39|10395|895,74|11,63</v>
       </c>
       <c r="U55" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>51|CB #20|i5 8250U (WhiskeyLake)|Rabrogo||v0.6.0|838,17|5030|237,2|21,21</v>
       </c>
     </row>
@@ -13498,19 +13954,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E56" s="7">
         <v>36</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -13540,15 +13996,15 @@
         <v>36.44</v>
       </c>
       <c r="S56" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 4800MQ (Haswell) v0.6.0 [52]</v>
       </c>
       <c r="T56" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>52|CB #36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|40,92|24128,5|1012,91|23,82</v>
       </c>
       <c r="U56" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>52|CB #36|i7 4800MQ (Haswell)|DrAgOnBaLlOnE||v0.6.0|451,85|8980,59|246,44|36,44</v>
       </c>
     </row>
@@ -13557,23 +14013,27 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E57" s="7">
         <v>49</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K57" s="16">
         <v>91.97</v>
       </c>
@@ -13599,16 +14059,16 @@
         <v>10.41</v>
       </c>
       <c r="S57" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [53]</v>
       </c>
       <c r="T57" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|91,97|9072|1198,55|7,57</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>53|CB #49|R5 3500U (Picasso)|Asghan|ThinkPad E495|v0.6.0|91,97|9072|1198,55|7,57</v>
       </c>
       <c r="U57" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>53|CB #49|R5 3500U (Picasso)|Asghan||v0.6.0|935,44|3335|320,53|10,41</v>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>53|CB #49|R5 3500U (Picasso)|Asghan|ThinkPad E495|v0.6.0|935,44|3335|320,53|10,41</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
@@ -13616,25 +14076,27 @@
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E58" s="7">
         <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J58" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K58" s="16">
         <v>104.65</v>
       </c>
@@ -13660,15 +14122,15 @@
         <v>55.16</v>
       </c>
       <c r="S58" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</v>
       </c>
       <c r="T58" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>56|CB #57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|104,65|13860,34|689,41|20,1</v>
       </c>
       <c r="U58" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>56|CB #57|i7 9750H (Coffee Lake)|Blende Up||v0.6.0|1370,41|6344,53|115,01|55,16</v>
       </c>
     </row>
@@ -13677,19 +14139,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E59" s="7">
         <v>60</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -13719,15 +14181,15 @@
         <v>56</v>
       </c>
       <c r="S59" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 3770K (Ivy Bridge) v0.6.0 [57]</v>
       </c>
       <c r="T59" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>57|CB #60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|35,72|27072,99|1034,09|26,28</v>
       </c>
       <c r="U59" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>57|CB #60|i7 3770K (Ivy Bridge)|Blende Up||v0.6.0|447,21|11189,89|199,83|56</v>
       </c>
     </row>
@@ -13736,19 +14198,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E60" s="7">
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -13778,15 +14240,15 @@
         <v>15.02</v>
       </c>
       <c r="S60" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 4300U (Haswell) v0.6.0 [58]</v>
       </c>
       <c r="T60" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|58,95|13379,46|1267,9|10,55</v>
       </c>
       <c r="U60" s="9" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>58|CB #60|i5 4300U (Haswell)|Blende Up||v0.6.0|184,8|9015,32|600,22|15,02</v>
       </c>
     </row>
@@ -13795,19 +14257,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E61" s="7">
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -13837,15 +14299,15 @@
         <v>105.08</v>
       </c>
       <c r="S61" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</v>
       </c>
       <c r="T61" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|41,74|30535|784,57|38,92</v>
       </c>
       <c r="U61" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>59|CB #39|R5 2600X (Pinnacle Ridge)|HasseLadebalken||v0.5.1|768,82|11691|111,26|105,08</v>
       </c>
     </row>
@@ -13854,19 +14316,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E62" s="7">
         <v>63</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -13896,15 +14358,15 @@
         <v>18.34</v>
       </c>
       <c r="S62" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 3320M (Ivy Bridge) v0.6.0 [60]</v>
       </c>
       <c r="T62" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|37,38|18966|1410,7|13,44</v>
       </c>
       <c r="U62" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>60|CB #63|i5 3320M (Ivy Bridge)|noplan724||v0.6.0|177,27|10172|554,56|18,34</v>
       </c>
     </row>
@@ -13913,26 +14375,26 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E63" s="7">
         <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K63" s="16">
         <v>43.45</v>
@@ -13959,15 +14421,15 @@
         <v>15.85</v>
       </c>
       <c r="S63" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [61]</v>
       </c>
       <c r="T63" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|43,45|19568|1239,32|14,98</v>
       </c>
       <c r="U63" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>61|CB #83|R5 3500U (Picasso)|andi_sco|Outlier?|v0.6.0|458,58|5880|370,88|15,85</v>
       </c>
     </row>
@@ -13976,19 +14438,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E64" s="7">
         <v>102</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -14018,15 +14480,15 @@
         <v>71.05</v>
       </c>
       <c r="S64" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 2600 (Sandy Bridge) v0.6.0 [62]</v>
       </c>
       <c r="T64" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|28,37|30292|1163,82|26,03</v>
       </c>
       <c r="U64" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>62|CB #102|i7 2600 (Sandy Bridge)|raser0248||v0.6.0|226,44|17714|249,31|71,05</v>
       </c>
     </row>
@@ -14035,19 +14497,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E65" s="7">
         <v>102</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -14077,15 +14539,15 @@
         <v>9.57</v>
       </c>
       <c r="S65" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i3 6157U (Skylake) v0.6.0 [63]</v>
       </c>
       <c r="T65" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|112,03|6987|1277,45|5,47</v>
       </c>
       <c r="U65" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>63|CB #102|i3 6157U (Skylake)|raser0248||v0.6.0|388,05|4965|519,01|9,57</v>
       </c>
     </row>
@@ -14094,26 +14556,26 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E66" s="7">
         <v>112</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K66" s="16">
         <v>54.07</v>
@@ -14140,16 +14602,571 @@
         <v>104.1</v>
       </c>
       <c r="S66" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.6.0 [64]</v>
       </c>
       <c r="T66" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|54,07|29484,61|627,24|47,01</v>
       </c>
       <c r="U66" s="11" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Forum]] &amp; " #" &amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>64|CB #112|R7 3700X (Matisse)|Fabiano|PBO off?|v0.6.0|1920,89|7361,79|70,72|104,1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <v>65</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="7">
+        <v>190</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="16">
+        <v>256</v>
+      </c>
+      <c r="L67" s="23">
+        <v>5293</v>
+      </c>
+      <c r="M67" s="16">
+        <v>737.97</v>
+      </c>
+      <c r="N67" s="16">
+        <v>7.17</v>
+      </c>
+      <c r="O67" s="24">
+        <v>4673.21</v>
+      </c>
+      <c r="P67" s="23">
+        <v>2530</v>
+      </c>
+      <c r="Q67" s="16">
+        <v>84.58</v>
+      </c>
+      <c r="R67" s="16">
+        <v>29.91</v>
+      </c>
+      <c r="S67" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</v>
+      </c>
+      <c r="T67" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>65|3DC #190|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.6.0|256|5293|737,97|7,17</v>
+      </c>
+      <c r="U67" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>65|3DC #190|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.6.0|4673,21|2530|84,58|29,91</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B68" s="6">
+        <v>66</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="7">
+        <v>204</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="16">
+        <v>77.22</v>
+      </c>
+      <c r="L68" s="23">
+        <v>24558</v>
+      </c>
+      <c r="M68" s="16">
+        <v>527.33000000000004</v>
+      </c>
+      <c r="N68" s="16">
+        <v>46.57</v>
+      </c>
+      <c r="O68" s="24">
+        <v>2341.54</v>
+      </c>
+      <c r="P68" s="23">
+        <v>6777</v>
+      </c>
+      <c r="Q68" s="16">
+        <v>63.01</v>
+      </c>
+      <c r="R68" s="16">
+        <v>107.56</v>
+      </c>
+      <c r="S68" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) [66]</v>
+      </c>
+      <c r="T68" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>66|3DC #204|R7 5800X (Vermeer)|patrock84||v0.7.0|77,22|24558|527,33|46,57</v>
+      </c>
+      <c r="U68" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>66|3DC #204|R7 5800X (Vermeer)|patrock84||v0.7.0|2341,54|6777|63,01|107,56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B69" s="6">
+        <v>67</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="7">
+        <v>132</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="16">
+        <v>180.54</v>
+      </c>
+      <c r="L69" s="23">
+        <v>5863</v>
+      </c>
+      <c r="M69" s="16">
+        <v>944.68</v>
+      </c>
+      <c r="N69" s="16">
+        <v>6.21</v>
+      </c>
+      <c r="O69" s="24">
+        <v>1709.41</v>
+      </c>
+      <c r="P69" s="23">
+        <v>2399</v>
+      </c>
+      <c r="Q69" s="16">
+        <v>243.84</v>
+      </c>
+      <c r="R69" s="16">
+        <v>9.84</v>
+      </c>
+      <c r="S69" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) Golden Sample? [67]</v>
+      </c>
+      <c r="T69" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>67|CB #132|R5 3500U (Picasso)|Tenferenzu|ThinkPad E495 default|v0.7.0|180,54|5863|944,68|6,21</v>
+      </c>
+      <c r="U69" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>67|CB #132|R5 3500U (Picasso)|Tenferenzu|ThinkPad E495 default|v0.7.0|1709,41|2399|243,84|9,84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
+        <v>68</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="7">
+        <v>118</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="16">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="L70" s="23">
+        <v>12519</v>
+      </c>
+      <c r="M70" s="16">
+        <v>541.62</v>
+      </c>
+      <c r="N70" s="16">
+        <v>23.11</v>
+      </c>
+      <c r="O70" s="24">
+        <v>2564.7600000000002</v>
+      </c>
+      <c r="P70" s="23">
+        <v>3825</v>
+      </c>
+      <c r="Q70" s="16">
+        <v>101.94</v>
+      </c>
+      <c r="R70" s="16">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="S70" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</v>
+      </c>
+      <c r="T70" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>68|CB #118|i9 11980HK (TigerLake-8C)|JeanLegi|or 11900H (Eng. Sample)|v0.6.0|147,48|12519|541,62|23,11</v>
+      </c>
+      <c r="U70" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>68|CB #118|i9 11980HK (TigerLake-8C)|JeanLegi|or 11900H (Eng. Sample)|v0.6.0|2564,76|3825|101,94|37,52</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B71" s="6">
+        <v>69</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="7">
+        <v>137</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="16">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="L71" s="23">
+        <v>20603</v>
+      </c>
+      <c r="M71" s="16">
+        <v>1373.38</v>
+      </c>
+      <c r="N71" s="16">
+        <v>15</v>
+      </c>
+      <c r="O71" s="24">
+        <v>443.88</v>
+      </c>
+      <c r="P71" s="23">
+        <v>6048</v>
+      </c>
+      <c r="Q71" s="16">
+        <v>372.52</v>
+      </c>
+      <c r="R71" s="16">
+        <v>16.23</v>
+      </c>
+      <c r="S71" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) [69]</v>
+      </c>
+      <c r="T71" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>69|CB #137|R5 3500U (Picasso)|andi_sco||v0.7.0|35,34|20603|1373,38|15</v>
+      </c>
+      <c r="U71" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>69|CB #137|R5 3500U (Picasso)|andi_sco||v0.7.0|443,88|6048|372,52|16,23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
+        <v>70</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="7">
+        <v>140</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="16">
+        <v>144.37</v>
+      </c>
+      <c r="L72" s="23">
+        <v>6717</v>
+      </c>
+      <c r="M72" s="16">
+        <v>1031.19</v>
+      </c>
+      <c r="N72" s="16">
+        <v>6.51</v>
+      </c>
+      <c r="O72" s="24">
+        <v>1517.62</v>
+      </c>
+      <c r="P72" s="23">
+        <v>2129</v>
+      </c>
+      <c r="Q72" s="16">
+        <v>309.45999999999998</v>
+      </c>
+      <c r="R72" s="16">
+        <v>6.88</v>
+      </c>
+      <c r="S72" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) [70]</v>
+      </c>
+      <c r="T72" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>70|CB #140|R5 3500U (Picasso)|Asghan|ThinkPad E495 cool and quiet|v0.7.0|144,37|6717|1031,19|6,51</v>
+      </c>
+      <c r="U72" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>70|CB #140|R5 3500U (Picasso)|Asghan|ThinkPad E495 cool and quiet|v0.7.0|1517,62|2129|309,46|6,88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
+        <v>71</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="7">
+        <v>143</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="16">
+        <v>111.07</v>
+      </c>
+      <c r="L73" s="23">
+        <v>13062.5</v>
+      </c>
+      <c r="M73" s="16">
+        <v>689.24</v>
+      </c>
+      <c r="N73" s="16">
+        <v>18.95</v>
+      </c>
+      <c r="O73" s="24">
+        <v>1535</v>
+      </c>
+      <c r="P73" s="23">
+        <v>27143.22</v>
+      </c>
+      <c r="Q73" s="16">
+        <v>600.03</v>
+      </c>
+      <c r="R73" s="16">
+        <v>45.24</v>
+      </c>
+      <c r="S73" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 9750H (Coffee Lake) @45W [71]</v>
+      </c>
+      <c r="T73" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>71|CB #143|i7 9750H (Coffee Lake)|Blende Up||v0.7.0|111,07|13062,5|689,24|18,95</v>
+      </c>
+      <c r="U73" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>71|CB #143|i7 9750H (Coffee Lake)|Blende Up||v0.7.0|1535|27143,22|600,03|45,24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B74" s="6">
+        <v>72</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="7">
+        <v>149</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="16">
+        <v>50.22</v>
+      </c>
+      <c r="L74" s="23">
+        <v>25952</v>
+      </c>
+      <c r="M74" s="16">
+        <v>767.28</v>
+      </c>
+      <c r="N74" s="16">
+        <v>33.82</v>
+      </c>
+      <c r="O74" s="24">
+        <v>1502.87</v>
+      </c>
+      <c r="P74" s="23">
+        <v>7620</v>
+      </c>
+      <c r="Q74" s="16">
+        <v>87.32</v>
+      </c>
+      <c r="R74" s="16">
+        <v>87.26</v>
+      </c>
+      <c r="S74" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 2700X (Pinnacle Ridge) [72]</v>
+      </c>
+      <c r="T74" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>72|CB #149|R7 2700X (Pinnacle Ridge)|Tanzmusikus||v0.7.0|50,22|25952|767,28|33,82</v>
+      </c>
+      <c r="U74" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>72|CB #149|R7 2700X (Pinnacle Ridge)|Tanzmusikus||v0.7.0|1502,87|7620|87,32|87,26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B75" s="6">
+        <v>73</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="7">
+        <v>152</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="16">
+        <v>78.09</v>
+      </c>
+      <c r="L75" s="23">
+        <v>13745</v>
+      </c>
+      <c r="M75" s="16">
+        <v>931.73</v>
+      </c>
+      <c r="N75" s="16">
+        <v>14.75</v>
+      </c>
+      <c r="O75" s="24">
+        <v>590.89</v>
+      </c>
+      <c r="P75" s="23">
+        <v>5238</v>
+      </c>
+      <c r="Q75" s="16">
+        <v>323.11</v>
+      </c>
+      <c r="R75" s="16">
+        <v>16.21</v>
+      </c>
+      <c r="S75" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) [73]</v>
+      </c>
+      <c r="T75" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|78,09|13745|931,73|14,75</v>
+      </c>
+      <c r="U75" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|590,89|5238|323,11|16,21</v>
       </c>
     </row>
   </sheetData>
@@ -14170,39 +15187,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C41"/>
+  <dimension ref="B1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3">
         <v>16.690000000000001</v>
@@ -14210,7 +15227,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3">
         <v>17.45</v>
@@ -14218,7 +15235,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3">
         <v>26.38</v>
@@ -14226,7 +15243,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3">
         <v>28.37</v>
@@ -14234,7 +15251,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <v>31.1</v>
@@ -14242,7 +15259,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3">
         <v>35.72</v>
@@ -14250,7 +15267,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3">
         <v>37.380000000000003</v>
@@ -14258,7 +15275,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3">
         <v>40.92</v>
@@ -14266,7 +15283,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3">
         <v>41.74</v>
@@ -14274,7 +15291,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
         <v>45.76</v>
@@ -14282,31 +15299,31 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3">
-        <v>54.74</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3">
-        <v>55.06</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3">
-        <v>57.13</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3">
         <v>58.15</v>
@@ -14314,7 +15331,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C18" s="3">
         <v>58.25</v>
@@ -14322,7 +15339,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3">
         <v>58.95</v>
@@ -14330,7 +15347,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C20" s="3">
         <v>61.55</v>
@@ -14338,7 +15355,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C21" s="3">
         <v>74.44</v>
@@ -14346,7 +15363,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C22" s="3">
         <v>75.569999999999993</v>
@@ -14354,55 +15371,55 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C23" s="3">
-        <v>83.49</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="C24" s="3">
-        <v>88.24</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C25" s="3">
-        <v>90.06</v>
+        <v>83.49</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3">
-        <v>91.97</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3">
-        <v>101.29</v>
+        <v>90.06</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C28" s="3">
-        <v>104.65</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3">
         <v>107.39</v>
@@ -14410,98 +15427,122 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3">
-        <v>112.03</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C31" s="3">
-        <v>127.76</v>
+        <v>112.03</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3">
-        <v>137.88</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3">
-        <v>143.16999999999999</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3">
-        <v>146.74</v>
+        <v>143.16999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3">
-        <v>153.88</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C36" s="3">
-        <v>158.59</v>
+        <v>147.47999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3">
-        <v>168.79</v>
+        <v>153.88</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C38" s="3">
-        <v>172.46</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3">
-        <v>186.38</v>
+        <v>168.79</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3">
-        <v>216.08</v>
+        <v>172.46</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C41" s="3">
-        <v>3266.2</v>
+        <v>186.38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3">
+        <v>216.08</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3732.5299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -14512,39 +15553,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C41"/>
+  <dimension ref="B1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1">
         <v>55373</v>
@@ -14552,7 +15593,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1">
         <v>38525</v>
@@ -14560,79 +15601,79 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1">
-        <v>34236</v>
+        <v>33913</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
-        <v>33913</v>
+        <v>32204</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1">
-        <v>32204</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1">
-        <v>32112</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1">
-        <v>30535</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1">
-        <v>30292</v>
+        <v>27864</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1">
-        <v>27864</v>
+        <v>27072.99</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1">
-        <v>27072.99</v>
+        <v>26935</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1">
-        <v>26935</v>
+        <v>25952</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1">
         <v>25887</v>
@@ -14640,7 +15681,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1">
         <v>25543</v>
@@ -14648,202 +15689,226 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C17" s="1">
-        <v>24128.5</v>
+        <v>24558</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1">
-        <v>21193</v>
+        <v>24128.5</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1">
-        <v>20650</v>
+        <v>21193</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1">
-        <v>20078</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1">
-        <v>18966</v>
+        <v>20078</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1">
-        <v>18192</v>
+        <v>18966</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1">
-        <v>15775</v>
+        <v>18192</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1">
-        <v>13860.34</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1">
-        <v>13379.46</v>
+        <v>13745</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1">
-        <v>11657</v>
+        <v>13379.46</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1">
-        <v>11096</v>
+        <v>13062.5</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1">
-        <v>10777</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1">
-        <v>10450</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1">
-        <v>10432</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1">
-        <v>10396</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
-        <v>10395</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1">
-        <v>10352</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
-        <v>10124</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1">
-        <v>9839</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1">
-        <v>9072</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1">
-        <v>8278</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
-        <v>7581.59</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1">
-        <v>7445</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1">
-        <v>6987</v>
+        <v>7581.59</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1">
-        <v>731595.87999999989</v>
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>769557.03999999992</v>
       </c>
     </row>
   </sheetData>
@@ -14854,39 +15919,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C41"/>
+  <dimension ref="B1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" s="3">
         <v>35.61</v>
@@ -14894,7 +15959,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3">
         <v>177.27</v>
@@ -14902,7 +15967,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3">
         <v>184.8</v>
@@ -14910,7 +15975,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3">
         <v>226.44</v>
@@ -14918,7 +15983,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3">
         <v>237.59</v>
@@ -14926,7 +15991,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3">
         <v>262.60000000000002</v>
@@ -14934,7 +15999,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3">
         <v>269.61</v>
@@ -14942,7 +16007,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" s="3">
         <v>336.42</v>
@@ -14950,7 +16015,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3">
         <v>384.59</v>
@@ -14958,7 +16023,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3">
         <v>388.05</v>
@@ -14966,7 +16031,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" s="3">
         <v>447.21</v>
@@ -14974,7 +16039,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3">
         <v>451.85</v>
@@ -14982,7 +16047,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3">
         <v>560.07000000000005</v>
@@ -14990,202 +16055,226 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3">
-        <v>656.66</v>
+        <v>590.89</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3">
-        <v>739.31</v>
+        <v>656.66</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3">
-        <v>768.82</v>
+        <v>739.31</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C20" s="3">
-        <v>838.17</v>
+        <v>768.82</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3">
-        <v>885.22</v>
+        <v>838.17</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3">
-        <v>925.56</v>
+        <v>885.22</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C23" s="3">
-        <v>935.44</v>
+        <v>925.56</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3">
-        <v>1370.41</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3">
-        <v>1386.39</v>
+        <v>1438.78</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3">
-        <v>1438.78</v>
+        <v>1502.87</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="C27" s="3">
-        <v>1818.77</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3">
-        <v>1839.93</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C29" s="3">
-        <v>1843</v>
+        <v>1839.93</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3">
-        <v>1878.68</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3">
-        <v>2347.02</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C32" s="3">
-        <v>2569.91</v>
+        <v>2341.54</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C33" s="3">
-        <v>2637.56</v>
+        <v>2564.7600000000002</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3">
-        <v>2656.06</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="C35" s="3">
-        <v>3171.28</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="C36" s="3">
-        <v>3599.63</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3">
-        <v>3936.18</v>
+        <v>3171.28</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C38" s="3">
-        <v>4388.1099999999997</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3">
-        <v>4461.2299999999996</v>
+        <v>3936.18</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3">
-        <v>6668.05</v>
+        <v>4388.1099999999997</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3">
-        <v>57722.280000000021</v>
+        <v>4461.2299999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4673.21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6668.05</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3">
+        <v>66277.680000000008</v>
       </c>
     </row>
   </sheetData>
@@ -15197,7 +16286,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C41"/>
+  <dimension ref="B1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -15206,329 +16295,353 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1">
-        <v>20531</v>
+        <v>27143.22</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1">
-        <v>18669</v>
+        <v>20531</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1">
-        <v>17714</v>
+        <v>18669</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1">
-        <v>13138</v>
+        <v>17714</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1">
-        <v>12920</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
-        <v>12266</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1">
-        <v>12017</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1">
-        <v>11691</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1">
-        <v>11189.89</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1">
-        <v>10172</v>
+        <v>11189.89</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1">
-        <v>10055</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1">
-        <v>9308</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C16" s="1">
-        <v>9015.32</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1">
-        <v>8980.59</v>
+        <v>9015.32</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1">
-        <v>7508</v>
+        <v>8980.59</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1">
-        <v>7230</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1">
-        <v>7223</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1">
-        <v>6344.53</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1">
-        <v>5785</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1">
-        <v>5444</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1">
-        <v>5262</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
-        <v>5226</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="C26" s="1">
-        <v>5187.88</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1">
-        <v>5030</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C28" s="1">
-        <v>4965</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1">
-        <v>4868</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1">
-        <v>4575</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C31" s="1">
-        <v>4516</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1">
-        <v>4149</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1">
-        <v>3912</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C34" s="1">
-        <v>3886</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1">
-        <v>3774</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1">
-        <v>3342.48</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1">
-        <v>3335</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1">
-        <v>3010</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1">
-        <v>2410</v>
+        <v>3342.48</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1">
-        <v>2029</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1">
-        <v>286678.69</v>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>322624.38</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D60F66-6F8F-4FEE-A989-D400D810D9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B86D5-7DE2-47EC-A8E1-83D4764BB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="196">
   <si>
     <t>CPU</t>
   </si>
@@ -475,9 +475,6 @@
     <t>R7 5800H (Cezanne) v0.5.1 [42]</t>
   </si>
   <si>
-    <t>R5 4500U (Renoir) v0.5.1 [29]</t>
-  </si>
-  <si>
     <t>i5 4300U (Haswell)</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>i5 4300U (Haswell) v0.6.0 [58]</t>
   </si>
   <si>
-    <t>R5 5600X (Vermeer) v0.6.0 [46]</t>
-  </si>
-  <si>
     <t>R7 3700X (Matisse) v0.6.0 [47]</t>
   </si>
   <si>
@@ -619,7 +613,22 @@
     <t>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</t>
   </si>
   <si>
-    <t>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</t>
+    <t>R5 2500U (Raven Ridge)</t>
+  </si>
+  <si>
+    <t>Tiberius</t>
+  </si>
+  <si>
+    <t>Freiheraus</t>
+  </si>
+  <si>
+    <t>R5 5600X (Vermeer) [76]</t>
+  </si>
+  <si>
+    <t>R5 2500U (Raven Ridge) [75]</t>
+  </si>
+  <si>
+    <t>R5 4500U (Renoir) [74]</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1406,7 @@
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                  <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
@@ -1412,40 +1421,40 @@
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
-                </c:pt>
                 <c:pt idx="38">
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1526,7 +1535,7 @@
                   <c:v>88.24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.06</c:v>
+                  <c:v>94.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>101.29</c:v>
@@ -1541,40 +1550,40 @@
                   <c:v>112.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>126.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>143.16999999999999</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>147.47999999999999</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>158.59</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>168.79</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>172.46</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>186.38</c:v>
-                </c:pt>
                 <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>216.08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,13 +2393,13 @@
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
+                  <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
+                  <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
@@ -2447,16 +2456,16 @@
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2513,13 +2522,13 @@
                   <c:v>24128.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21193</c:v>
+                  <c:v>20650</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20650</c:v>
+                  <c:v>20078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20078</c:v>
+                  <c:v>20057.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>18966</c:v>
@@ -2576,16 +2585,16 @@
                   <c:v>8278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7581.59</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7445</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>7302.14</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>6987</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,61 +3355,61 @@
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>R5 5600X (Vermeer) [76]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
@@ -3475,61 +3484,61 @@
                   <c:v>925.56</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>1216.69</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1438.78</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1502.87</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1839.93</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>1843</c:v>
+                  <c:v>1878.68</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1878.68</c:v>
+                  <c:v>2061.89</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2098.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2341.54</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2564.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2656.06</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>3171.28</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>4388.1099999999997</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>4461.2299999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4673.21</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>6668.05</c:v>
@@ -4512,13 +4521,13 @@
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                  <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
@@ -4569,13 +4578,13 @@
                   <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
@@ -4641,13 +4650,13 @@
                   <c:v>7620</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7230</c:v>
+                  <c:v>7223</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7223</c:v>
+                  <c:v>6777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6777</c:v>
+                  <c:v>5870.3512499999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5785</c:v>
@@ -4698,13 +4707,13 @@
                   <c:v>3774</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3342.48</c:v>
+                  <c:v>3010</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3010</c:v>
+                  <c:v>2723.7275</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2530</c:v>
+                  <c:v>2588</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2410</c:v>
@@ -7249,13 +7258,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44402.532267824077" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="71" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44410.721510532407" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="74" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="73"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="76"/>
     </cacheField>
     <cacheField name="Ver" numFmtId="0">
       <sharedItems/>
@@ -7264,7 +7273,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Post" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="204"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="212"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -7309,7 +7318,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="130">
+      <sharedItems count="133">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7381,65 +7390,68 @@
         <s v="i7 9750H (Coffee Lake) @45W [71]"/>
         <s v="R7 2700X (Pinnacle Ridge) [72]"/>
         <s v="R5 3500U (Picasso) [73]"/>
-        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
-        <s v="R5 5600X (Vermeer) [46]" u="1"/>
-        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
-        <s v="R5 4500U (Renoir) [29]" u="1"/>
-        <s v="i5 4300U (Haswell) [58]" u="1"/>
-        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
-        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
-        <s v="R7 3700X (Matisse) [47]" u="1"/>
-        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
-        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
-        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
-        <s v="i7 5775C (Broadwell) [28]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
-        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
-        <s v="R7 5800H (Cezanne) [42]" u="1"/>
+        <s v="R5 4500U (Renoir) [74]"/>
+        <s v="R5 2500U (Raven Ridge) [75]"/>
+        <s v="R5 5600X (Vermeer) [76]"/>
+        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
+        <s v="R9 5900X (Vermeer) [31]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
         <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
-        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
-        <s v="R9 5900X (Vermeer) [31]" u="1"/>
-        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
         <s v="R9 5900X (Vermeer) [32]" u="1"/>
         <s v="R5 3500U (Picasso) [53]" u="1"/>
         <s v="R9 5900X (Vermeer) [33]" u="1"/>
+        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="R7 5800X (Vermeer) [35]" u="1"/>
+        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
+        <s v="i7 5775C (Broadwell) [28]" u="1"/>
+        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="R7 5800X (Vermeer) [38]" u="1"/>
+        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
+        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
+        <s v="i5 4300U (Haswell) [58]" u="1"/>
+        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
+        <s v="i5 4300U [58]" u="1"/>
         <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
-        <s v="i5 4300U [58]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="R9 5950X (Vermeer) [21]" u="1"/>
+        <s v="R5 4500U (Renoir) [29]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
+        <s v="R7 5800H (Cezanne) [42]" u="1"/>
         <s v="i7 4800MQ (Haswell) [52]" u="1"/>
-        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
-        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
-        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
-        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
-        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
-        <s v="R9 5950X (Vermeer) [21]" u="1"/>
-        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R5 5600X (Vermeer) [46]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
+        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
         <s v="R9 5950X (Vermeer) [26]" u="1"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="??? v0.3.1 [23]" u="1"/>
+        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
         <s v="R5 3500U (Picasso) [48]" u="1"/>
-        <s v="??? v0.3.1 [23]" u="1"/>
-        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
-        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
-        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
-        <s v="R7 5800X (Vermeer) [35]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
+        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
         <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
-        <s v="R7 5800X (Vermeer) [38]" u="1"/>
-        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
+        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
+        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="BB-Code Single-Thread" numFmtId="0">
@@ -7458,7 +7470,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="71">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
   <r>
     <n v="1"/>
     <s v="v0.7.0"/>
@@ -8084,7 +8096,7 @@
     <s v="Poekel"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="186.38"/>
     <n v="7581.59"/>
     <n v="707.68"/>
@@ -8458,7 +8470,7 @@
     <s v="mesohorny"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="90.06"/>
     <n v="21193"/>
     <n v="523.91999999999996"/>
@@ -8832,7 +8844,7 @@
     <s v="Monkey"/>
     <s v="Win: Energy Saving"/>
     <s v="@ESM"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="256"/>
     <n v="5293"/>
     <n v="737.97"/>
@@ -9021,11 +9033,77 @@
     <s v="73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|78,09|13745|931,73|14,75"/>
     <s v="73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|590,89|5238|323,11|16,21"/>
   </r>
+  <r>
+    <n v="74"/>
+    <s v="v0.7.0"/>
+    <s v="3DC"/>
+    <n v="205"/>
+    <s v="R5 4500U (Renoir)"/>
+    <s v="Poekel"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="190"/>
+    <n v="7302.14"/>
+    <n v="720.78"/>
+    <n v="10.130000000000001"/>
+    <n v="2061.89"/>
+    <n v="2723.7275"/>
+    <n v="178.0625"/>
+    <n v="15.3"/>
+    <x v="71"/>
+    <s v="74|3DC #205|R5 4500U (Renoir)|Poekel||v0.7.0|190|7302,14|720,78|10,13"/>
+    <s v="74|3DC #205|R5 4500U (Renoir)|Poekel||v0.7.0|2061,89|2723,7275|178,0625|15,3"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="v0.7.0"/>
+    <s v="3DC"/>
+    <n v="212"/>
+    <s v="R5 2500U (Raven Ridge)"/>
+    <s v="Tiberius"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="126.49"/>
+    <n v="7799"/>
+    <n v="1013.61"/>
+    <n v="7.69"/>
+    <n v="1216.69"/>
+    <n v="2588"/>
+    <n v="317.62"/>
+    <n v="8.15"/>
+    <x v="72"/>
+    <s v="75|3DC #212|R5 2500U (Raven Ridge)|Tiberius||v0.7.0|126,49|7799|1013,61|7,69"/>
+    <s v="75|3DC #212|R5 2500U (Raven Ridge)|Tiberius||v0.7.0|1216,69|2588|317,62|8,15"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="173"/>
+    <s v="R5 5600X (Vermeer)"/>
+    <s v="Freiheraus"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="94.92"/>
+    <n v="20057.62"/>
+    <n v="525.22"/>
+    <n v="38.19"/>
+    <n v="2098.9899999999998"/>
+    <n v="5870.3512499999997"/>
+    <n v="81.157499999999999"/>
+    <n v="72.33"/>
+    <x v="73"/>
+    <s v="76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|94,92|20057,62|525,22|38,19"/>
+    <s v="76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|2098,99|5870,35125|81,1575|72,33"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9052,27 +9130,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="131">
-        <item m="1" x="82"/>
+      <items count="134">
+        <item m="1" x="124"/>
+        <item m="1" x="105"/>
+        <item m="1" x="117"/>
+        <item m="1" x="132"/>
+        <item m="1" x="127"/>
+        <item m="1" x="75"/>
+        <item m="1" x="97"/>
+        <item m="1" x="77"/>
+        <item m="1" x="99"/>
+        <item m="1" x="90"/>
+        <item m="1" x="130"/>
+        <item m="1" x="100"/>
+        <item m="1" x="78"/>
         <item m="1" x="80"/>
-        <item m="1" x="73"/>
-        <item m="1" x="94"/>
-        <item m="1" x="127"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="74"/>
-        <item m="1" x="123"/>
-        <item m="1" x="100"/>
-        <item m="1" x="120"/>
-        <item m="1" x="125"/>
         <item m="1" x="126"/>
-        <item m="1" x="90"/>
+        <item m="1" x="122"/>
+        <item m="1" x="118"/>
         <item m="1" x="89"/>
-        <item m="1" x="71"/>
-        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="72"/>
+        <item m="1" x="108"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9081,11 +9159,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="109"/>
+        <item m="1" x="96"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="87"/>
+        <item m="1" x="129"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9093,12 +9171,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="118"/>
-        <item m="1" x="86"/>
-        <item m="1" x="81"/>
-        <item m="1" x="115"/>
+        <item m="1" x="106"/>
+        <item m="1" x="109"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="111"/>
+        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9108,23 +9186,23 @@
         <item x="24"/>
         <item x="25"/>
         <item m="1" x="104"/>
+        <item m="1" x="91"/>
+        <item m="1" x="107"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="83"/>
+        <item m="1" x="85"/>
+        <item m="1" x="94"/>
+        <item m="1" x="87"/>
+        <item m="1" x="76"/>
         <item m="1" x="88"/>
-        <item m="1" x="77"/>
-        <item x="29"/>
-        <item m="1" x="99"/>
-        <item m="1" x="101"/>
-        <item m="1" x="103"/>
-        <item m="1" x="111"/>
-        <item m="1" x="124"/>
+        <item m="1" x="93"/>
+        <item m="1" x="116"/>
+        <item m="1" x="81"/>
         <item m="1" x="98"/>
-        <item m="1" x="79"/>
-        <item m="1" x="128"/>
-        <item m="1" x="85"/>
-        <item m="1" x="129"/>
-        <item m="1" x="97"/>
-        <item m="1" x="110"/>
-        <item m="1" x="92"/>
-        <item m="1" x="93"/>
+        <item m="1" x="95"/>
+        <item m="1" x="113"/>
+        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9141,20 +9219,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="108"/>
-        <item m="1" x="119"/>
-        <item m="1" x="75"/>
-        <item m="1" x="83"/>
-        <item m="1" x="117"/>
-        <item m="1" x="122"/>
-        <item m="1" x="76"/>
+        <item m="1" x="92"/>
+        <item m="1" x="110"/>
+        <item m="1" x="115"/>
+        <item m="1" x="86"/>
+        <item m="1" x="123"/>
+        <item m="1" x="74"/>
+        <item m="1" x="131"/>
+        <item m="1" x="121"/>
+        <item m="1" x="114"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
+        <item m="1" x="128"/>
         <item m="1" x="102"/>
-        <item m="1" x="91"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="78"/>
+        <item m="1" x="103"/>
+        <item m="1" x="101"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9183,6 +9261,9 @@
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9272,7 +9353,7 @@
       <x v="30"/>
     </i>
     <i>
-      <x v="105"/>
+      <x v="132"/>
     </i>
     <i>
       <x v="106"/>
@@ -9285,6 +9366,9 @@
     </i>
     <i>
       <x v="119"/>
+    </i>
+    <i>
+      <x v="131"/>
     </i>
     <i>
       <x v="22"/>
@@ -9314,13 +9398,10 @@
       <x v="51"/>
     </i>
     <i>
-      <x v="74"/>
+      <x v="130"/>
     </i>
     <i>
       <x v="57"/>
-    </i>
-    <i>
-      <x v="121"/>
     </i>
     <i t="grand">
       <x/>
@@ -9359,7 +9440,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9386,27 +9467,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="131">
-        <item m="1" x="82"/>
+      <items count="134">
+        <item m="1" x="124"/>
+        <item m="1" x="105"/>
+        <item m="1" x="117"/>
+        <item m="1" x="132"/>
+        <item m="1" x="127"/>
+        <item m="1" x="75"/>
+        <item m="1" x="97"/>
+        <item m="1" x="77"/>
+        <item m="1" x="99"/>
+        <item m="1" x="90"/>
+        <item m="1" x="130"/>
+        <item m="1" x="100"/>
+        <item m="1" x="78"/>
         <item m="1" x="80"/>
-        <item m="1" x="73"/>
-        <item m="1" x="94"/>
-        <item m="1" x="127"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="74"/>
-        <item m="1" x="123"/>
-        <item m="1" x="100"/>
-        <item m="1" x="120"/>
-        <item m="1" x="125"/>
         <item m="1" x="126"/>
-        <item m="1" x="90"/>
+        <item m="1" x="122"/>
+        <item m="1" x="118"/>
         <item m="1" x="89"/>
-        <item m="1" x="71"/>
-        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="72"/>
+        <item m="1" x="108"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9415,11 +9496,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="109"/>
+        <item m="1" x="96"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="87"/>
+        <item m="1" x="129"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9427,12 +9508,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="118"/>
-        <item m="1" x="86"/>
-        <item m="1" x="81"/>
-        <item m="1" x="115"/>
+        <item m="1" x="106"/>
+        <item m="1" x="109"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="111"/>
+        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9442,23 +9523,23 @@
         <item x="24"/>
         <item x="25"/>
         <item m="1" x="104"/>
+        <item m="1" x="91"/>
+        <item m="1" x="107"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="83"/>
+        <item m="1" x="85"/>
+        <item m="1" x="94"/>
+        <item m="1" x="87"/>
+        <item m="1" x="76"/>
         <item m="1" x="88"/>
-        <item m="1" x="77"/>
-        <item x="29"/>
-        <item m="1" x="99"/>
-        <item m="1" x="101"/>
-        <item m="1" x="103"/>
-        <item m="1" x="111"/>
-        <item m="1" x="124"/>
+        <item m="1" x="93"/>
+        <item m="1" x="116"/>
+        <item m="1" x="81"/>
         <item m="1" x="98"/>
-        <item m="1" x="79"/>
-        <item m="1" x="128"/>
-        <item m="1" x="85"/>
-        <item m="1" x="129"/>
-        <item m="1" x="97"/>
-        <item m="1" x="110"/>
-        <item m="1" x="92"/>
-        <item m="1" x="93"/>
+        <item m="1" x="95"/>
+        <item m="1" x="113"/>
+        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9475,20 +9556,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="108"/>
-        <item m="1" x="119"/>
-        <item m="1" x="75"/>
-        <item m="1" x="83"/>
-        <item m="1" x="117"/>
-        <item m="1" x="122"/>
-        <item m="1" x="76"/>
+        <item m="1" x="92"/>
+        <item m="1" x="110"/>
+        <item m="1" x="115"/>
+        <item m="1" x="86"/>
+        <item m="1" x="123"/>
+        <item m="1" x="74"/>
+        <item m="1" x="131"/>
+        <item m="1" x="121"/>
+        <item m="1" x="114"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
+        <item m="1" x="128"/>
         <item m="1" x="102"/>
-        <item m="1" x="91"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="78"/>
+        <item m="1" x="103"/>
+        <item m="1" x="101"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9517,6 +9598,9 @@
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9582,13 +9666,13 @@
       <x v="111"/>
     </i>
     <i>
-      <x v="105"/>
-    </i>
-    <i>
       <x v="84"/>
     </i>
     <i>
       <x v="73"/>
+    </i>
+    <i>
+      <x v="132"/>
     </i>
     <i>
       <x v="116"/>
@@ -9645,16 +9729,16 @@
       <x v="103"/>
     </i>
     <i>
-      <x v="74"/>
+      <x v="131"/>
     </i>
     <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="119"/>
+      <x v="130"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="119"/>
     </i>
     <i t="grand">
       <x/>
@@ -9693,7 +9777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9720,27 +9804,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="131">
-        <item m="1" x="82"/>
+      <items count="134">
+        <item m="1" x="124"/>
+        <item m="1" x="105"/>
+        <item m="1" x="117"/>
+        <item m="1" x="132"/>
+        <item m="1" x="127"/>
+        <item m="1" x="75"/>
+        <item m="1" x="97"/>
+        <item m="1" x="77"/>
+        <item m="1" x="99"/>
+        <item m="1" x="90"/>
+        <item m="1" x="130"/>
+        <item m="1" x="100"/>
+        <item m="1" x="78"/>
         <item m="1" x="80"/>
-        <item m="1" x="73"/>
-        <item m="1" x="94"/>
-        <item m="1" x="127"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="74"/>
-        <item m="1" x="123"/>
-        <item m="1" x="100"/>
-        <item m="1" x="120"/>
-        <item m="1" x="125"/>
         <item m="1" x="126"/>
-        <item m="1" x="90"/>
+        <item m="1" x="122"/>
+        <item m="1" x="118"/>
         <item m="1" x="89"/>
-        <item m="1" x="71"/>
-        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="72"/>
+        <item m="1" x="108"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9749,11 +9833,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="109"/>
+        <item m="1" x="96"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="87"/>
+        <item m="1" x="129"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9761,12 +9845,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="118"/>
-        <item m="1" x="86"/>
-        <item m="1" x="81"/>
-        <item m="1" x="115"/>
+        <item m="1" x="106"/>
+        <item m="1" x="109"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="111"/>
+        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9776,23 +9860,23 @@
         <item x="24"/>
         <item x="25"/>
         <item m="1" x="104"/>
+        <item m="1" x="91"/>
+        <item m="1" x="107"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="83"/>
+        <item m="1" x="85"/>
+        <item m="1" x="94"/>
+        <item m="1" x="87"/>
+        <item m="1" x="76"/>
         <item m="1" x="88"/>
-        <item m="1" x="77"/>
-        <item x="29"/>
-        <item m="1" x="99"/>
-        <item m="1" x="101"/>
-        <item m="1" x="103"/>
-        <item m="1" x="111"/>
-        <item m="1" x="124"/>
+        <item m="1" x="93"/>
+        <item m="1" x="116"/>
+        <item m="1" x="81"/>
         <item m="1" x="98"/>
-        <item m="1" x="79"/>
-        <item m="1" x="128"/>
-        <item m="1" x="85"/>
-        <item m="1" x="129"/>
-        <item m="1" x="97"/>
-        <item m="1" x="110"/>
-        <item m="1" x="92"/>
-        <item m="1" x="93"/>
+        <item m="1" x="95"/>
+        <item m="1" x="113"/>
+        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9809,20 +9893,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="108"/>
-        <item m="1" x="119"/>
-        <item m="1" x="75"/>
-        <item m="1" x="83"/>
-        <item m="1" x="117"/>
-        <item m="1" x="122"/>
-        <item m="1" x="76"/>
+        <item m="1" x="92"/>
+        <item m="1" x="110"/>
+        <item m="1" x="115"/>
+        <item m="1" x="86"/>
+        <item m="1" x="123"/>
+        <item m="1" x="74"/>
+        <item m="1" x="131"/>
+        <item m="1" x="121"/>
+        <item m="1" x="114"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
+        <item m="1" x="128"/>
         <item m="1" x="102"/>
-        <item m="1" x="91"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="78"/>
+        <item m="1" x="103"/>
+        <item m="1" x="101"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9851,6 +9935,9 @@
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9931,6 +10018,9 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="131"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
@@ -9946,13 +10036,13 @@
       <x v="31"/>
     </i>
     <i>
-      <x v="74"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="105"/>
+      <x v="130"/>
     </i>
     <i>
-      <x v="103"/>
+      <x v="132"/>
     </i>
     <i>
       <x v="122"/>
@@ -9983,9 +10073,6 @@
     </i>
     <i>
       <x v="76"/>
-    </i>
-    <i>
-      <x v="121"/>
     </i>
     <i>
       <x v="87"/>
@@ -10027,7 +10114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10054,27 +10141,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="131">
-        <item m="1" x="82"/>
+      <items count="134">
+        <item m="1" x="124"/>
+        <item m="1" x="105"/>
+        <item m="1" x="117"/>
+        <item m="1" x="132"/>
+        <item m="1" x="127"/>
+        <item m="1" x="75"/>
+        <item m="1" x="97"/>
+        <item m="1" x="77"/>
+        <item m="1" x="99"/>
+        <item m="1" x="90"/>
+        <item m="1" x="130"/>
+        <item m="1" x="100"/>
+        <item m="1" x="78"/>
         <item m="1" x="80"/>
-        <item m="1" x="73"/>
-        <item m="1" x="94"/>
-        <item m="1" x="127"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="74"/>
-        <item m="1" x="123"/>
-        <item m="1" x="100"/>
-        <item m="1" x="120"/>
-        <item m="1" x="125"/>
         <item m="1" x="126"/>
-        <item m="1" x="90"/>
+        <item m="1" x="122"/>
+        <item m="1" x="118"/>
         <item m="1" x="89"/>
-        <item m="1" x="71"/>
-        <item m="1" x="105"/>
         <item m="1" x="112"/>
-        <item m="1" x="72"/>
+        <item m="1" x="108"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10083,11 +10170,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="109"/>
+        <item m="1" x="96"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="87"/>
+        <item m="1" x="129"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10095,12 +10182,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="113"/>
-        <item m="1" x="114"/>
-        <item m="1" x="118"/>
-        <item m="1" x="86"/>
-        <item m="1" x="81"/>
-        <item m="1" x="115"/>
+        <item m="1" x="106"/>
+        <item m="1" x="109"/>
+        <item m="1" x="120"/>
+        <item m="1" x="125"/>
+        <item m="1" x="111"/>
+        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10110,23 +10197,23 @@
         <item x="24"/>
         <item x="25"/>
         <item m="1" x="104"/>
+        <item m="1" x="91"/>
+        <item m="1" x="107"/>
+        <item x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="83"/>
+        <item m="1" x="85"/>
+        <item m="1" x="94"/>
+        <item m="1" x="87"/>
+        <item m="1" x="76"/>
         <item m="1" x="88"/>
-        <item m="1" x="77"/>
-        <item x="29"/>
-        <item m="1" x="99"/>
-        <item m="1" x="101"/>
-        <item m="1" x="103"/>
-        <item m="1" x="111"/>
-        <item m="1" x="124"/>
+        <item m="1" x="93"/>
+        <item m="1" x="116"/>
+        <item m="1" x="81"/>
         <item m="1" x="98"/>
-        <item m="1" x="79"/>
-        <item m="1" x="128"/>
-        <item m="1" x="85"/>
-        <item m="1" x="129"/>
-        <item m="1" x="97"/>
-        <item m="1" x="110"/>
-        <item m="1" x="92"/>
-        <item m="1" x="93"/>
+        <item m="1" x="95"/>
+        <item m="1" x="113"/>
+        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10143,20 +10230,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="108"/>
-        <item m="1" x="119"/>
-        <item m="1" x="75"/>
-        <item m="1" x="83"/>
-        <item m="1" x="117"/>
-        <item m="1" x="122"/>
-        <item m="1" x="76"/>
+        <item m="1" x="92"/>
+        <item m="1" x="110"/>
+        <item m="1" x="115"/>
+        <item m="1" x="86"/>
+        <item m="1" x="123"/>
+        <item m="1" x="74"/>
+        <item m="1" x="131"/>
+        <item m="1" x="121"/>
+        <item m="1" x="114"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
+        <item m="1" x="128"/>
         <item m="1" x="102"/>
-        <item m="1" x="91"/>
-        <item m="1" x="121"/>
-        <item m="1" x="106"/>
-        <item m="1" x="78"/>
+        <item m="1" x="103"/>
+        <item m="1" x="101"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10185,6 +10272,9 @@
         <item x="68"/>
         <item x="69"/>
         <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10253,13 +10343,13 @@
       <x v="128"/>
     </i>
     <i>
-      <x v="105"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
       <x v="122"/>
+    </i>
+    <i>
+      <x v="132"/>
     </i>
     <i>
       <x v="31"/>
@@ -10310,13 +10400,13 @@
       <x v="51"/>
     </i>
     <i>
-      <x v="74"/>
-    </i>
-    <i>
       <x v="57"/>
     </i>
     <i>
-      <x v="121"/>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
     </i>
     <i>
       <x v="20"/>
@@ -10337,7 +10427,7 @@
   <dataFields count="1">
     <dataField name="Summe von Cons. MT" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="7">
     <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10383,6 +10473,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="34" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="35" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10397,8 +10505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U75" totalsRowShown="0">
-  <autoFilter ref="B4:U75" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U78" totalsRowShown="0">
+  <autoFilter ref="B4:U78" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
@@ -10694,13 +10802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U75"/>
+  <dimension ref="B1:U78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -10721,7 +10829,7 @@
     <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34" customWidth="1"/>
@@ -10737,13 +10845,13 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>77</v>
       </c>
       <c r="G1">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -10754,21 +10862,21 @@
         <v>106</v>
       </c>
       <c r="G2">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" t="s">
-        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -10824,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>109</v>
@@ -12561,7 +12669,9 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K33" s="16">
         <v>186.38</v>
       </c>
@@ -13598,7 +13708,9 @@
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K50" s="16">
         <v>90.06</v>
       </c>
@@ -13656,7 +13768,7 @@
         <v>118</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -13717,7 +13829,7 @@
         <v>121</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
@@ -14028,7 +14140,7 @@
         <v>115</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
@@ -14207,7 +14319,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>130</v>
@@ -14266,10 +14378,10 @@
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -14325,10 +14437,10 @@
         <v>63</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -14387,10 +14499,10 @@
         <v>129</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
@@ -14447,10 +14559,10 @@
         <v>102</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -14506,10 +14618,10 @@
         <v>102</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -14568,10 +14680,10 @@
         <v>49</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
@@ -14639,7 +14751,9 @@
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K67" s="16">
         <v>256</v>
       </c>
@@ -14682,7 +14796,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>109</v>
@@ -14741,7 +14855,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>114</v>
@@ -14756,10 +14870,10 @@
         <v>121</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>41</v>
@@ -14815,16 +14929,16 @@
         <v>118</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="I70" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16">
@@ -14869,7 +14983,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>114</v>
@@ -14881,7 +14995,7 @@
         <v>129</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -14930,7 +15044,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>114</v>
@@ -14945,7 +15059,7 @@
         <v>115</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
@@ -14993,7 +15107,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>114</v>
@@ -15009,7 +15123,7 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="16">
@@ -15054,7 +15168,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>114</v>
@@ -15063,10 +15177,10 @@
         <v>149</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -15113,7 +15227,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>114</v>
@@ -15125,10 +15239,10 @@
         <v>129</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -15167,6 +15281,187 @@
       <c r="U75" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>73|CB #152|R5 3500U (Picasso)|Tanzmusikus|Win = Balanced|v0.7.0|590,89|5238|323,11|16,21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
+        <v>74</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="7">
+        <v>205</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="16">
+        <v>190</v>
+      </c>
+      <c r="L76" s="23">
+        <v>7302.14</v>
+      </c>
+      <c r="M76" s="16">
+        <v>720.78</v>
+      </c>
+      <c r="N76" s="16">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="O76" s="24">
+        <v>2061.89</v>
+      </c>
+      <c r="P76" s="23">
+        <f>10894.91/4</f>
+        <v>2723.7275</v>
+      </c>
+      <c r="Q76" s="16">
+        <f>712.25/4</f>
+        <v>178.0625</v>
+      </c>
+      <c r="R76" s="16">
+        <v>15.3</v>
+      </c>
+      <c r="S76" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 4500U (Renoir) [74]</v>
+      </c>
+      <c r="T76" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>74|3DC #205|R5 4500U (Renoir)|Poekel||v0.7.0|190|7302,14|720,78|10,13</v>
+      </c>
+      <c r="U76" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>74|3DC #205|R5 4500U (Renoir)|Poekel||v0.7.0|2061,89|2723,7275|178,0625|15,3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B77" s="6">
+        <v>75</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="7">
+        <v>212</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="16">
+        <v>126.49</v>
+      </c>
+      <c r="L77" s="23">
+        <v>7799</v>
+      </c>
+      <c r="M77" s="16">
+        <v>1013.61</v>
+      </c>
+      <c r="N77" s="16">
+        <v>7.69</v>
+      </c>
+      <c r="O77" s="24">
+        <v>1216.69</v>
+      </c>
+      <c r="P77" s="23">
+        <v>2588</v>
+      </c>
+      <c r="Q77" s="16">
+        <v>317.62</v>
+      </c>
+      <c r="R77" s="16">
+        <v>8.15</v>
+      </c>
+      <c r="S77" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 2500U (Raven Ridge) [75]</v>
+      </c>
+      <c r="T77" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>75|3DC #212|R5 2500U (Raven Ridge)|Tiberius||v0.7.0|126,49|7799|1013,61|7,69</v>
+      </c>
+      <c r="U77" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>75|3DC #212|R5 2500U (Raven Ridge)|Tiberius||v0.7.0|1216,69|2588|317,62|8,15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
+        <v>76</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="7">
+        <v>173</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="16">
+        <v>94.92</v>
+      </c>
+      <c r="L78" s="23">
+        <v>20057.62</v>
+      </c>
+      <c r="M78" s="16">
+        <v>525.22</v>
+      </c>
+      <c r="N78" s="16">
+        <v>38.19</v>
+      </c>
+      <c r="O78" s="24">
+        <v>2098.9899999999998</v>
+      </c>
+      <c r="P78" s="23">
+        <f>46962.81/8</f>
+        <v>5870.3512499999997</v>
+      </c>
+      <c r="Q78" s="16">
+        <f>649.26/8</f>
+        <v>81.157499999999999</v>
+      </c>
+      <c r="R78" s="16">
+        <v>72.33</v>
+      </c>
+      <c r="S78" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) [76]</v>
+      </c>
+      <c r="T78" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|94,92|20057,62|525,22|38,19</v>
+      </c>
+      <c r="U78" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|2098,99|5870,35125|81,1575|72,33</v>
       </c>
     </row>
   </sheetData>
@@ -15189,7 +15484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
   <dimension ref="B1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -15243,7 +15538,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3">
         <v>28.37</v>
@@ -15259,7 +15554,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="3">
         <v>35.72</v>
@@ -15267,7 +15562,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3">
         <v>37.380000000000003</v>
@@ -15275,7 +15570,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="3">
         <v>40.92</v>
@@ -15283,7 +15578,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3">
         <v>41.74</v>
@@ -15299,7 +15594,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="3">
         <v>50.22</v>
@@ -15323,7 +15618,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3">
         <v>58.15</v>
@@ -15339,7 +15634,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3">
         <v>58.95</v>
@@ -15371,7 +15666,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="3">
         <v>77.22</v>
@@ -15379,7 +15674,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" s="3">
         <v>78.09</v>
@@ -15403,15 +15698,15 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3">
-        <v>90.06</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3">
         <v>101.29</v>
@@ -15419,7 +15714,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3">
         <v>107.39</v>
@@ -15427,7 +15722,7 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3">
         <v>111.07</v>
@@ -15435,7 +15730,7 @@
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3">
         <v>112.03</v>
@@ -15443,98 +15738,98 @@
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C32" s="3">
-        <v>127.76</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3">
-        <v>137.88</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3">
-        <v>143.16999999999999</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C35" s="3">
-        <v>146.74</v>
+        <v>143.16999999999999</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3">
-        <v>147.47999999999999</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3">
-        <v>153.88</v>
+        <v>147.47999999999999</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3">
-        <v>158.59</v>
+        <v>153.88</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3">
-        <v>168.79</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C40" s="3">
-        <v>172.46</v>
+        <v>168.79</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3">
-        <v>186.38</v>
+        <v>172.46</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="C42" s="3">
-        <v>216.08</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3">
-        <v>256</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15542,7 +15837,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="3">
-        <v>3732.5299999999997</v>
+        <v>3611.4999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -15601,7 +15896,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1">
         <v>33913</v>
@@ -15625,7 +15920,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1">
         <v>30535</v>
@@ -15633,7 +15928,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1">
         <v>30292</v>
@@ -15649,7 +15944,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1">
         <v>27072.99</v>
@@ -15665,7 +15960,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1">
         <v>25952</v>
@@ -15689,7 +15984,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1">
         <v>24558</v>
@@ -15697,7 +15992,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1">
         <v>24128.5</v>
@@ -15705,31 +16000,31 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1">
-        <v>21193</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1">
-        <v>20650</v>
+        <v>20078</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1">
-        <v>20078</v>
+        <v>20057.62</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1">
         <v>18966</v>
@@ -15745,7 +16040,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1">
         <v>15775</v>
@@ -15753,7 +16048,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1">
         <v>13745</v>
@@ -15761,7 +16056,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1">
         <v>13379.46</v>
@@ -15769,7 +16064,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1">
         <v>13062.5</v>
@@ -15777,7 +16072,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1">
         <v>12519</v>
@@ -15817,7 +16112,7 @@
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1">
         <v>10432</v>
@@ -15833,7 +16128,7 @@
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="1">
         <v>10395</v>
@@ -15865,7 +16160,7 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1">
         <v>8278</v>
@@ -15873,10 +16168,10 @@
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1">
-        <v>7581.59</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15889,18 +16184,18 @@
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C42" s="1">
-        <v>6987</v>
+        <v>7302.14</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C43" s="1">
-        <v>5293</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -15908,7 +16203,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>769557.03999999992</v>
+        <v>770648.21</v>
       </c>
     </row>
   </sheetData>
@@ -15959,7 +16254,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3">
         <v>177.27</v>
@@ -15967,7 +16262,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3">
         <v>184.8</v>
@@ -15975,7 +16270,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3">
         <v>226.44</v>
@@ -16023,7 +16318,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3">
         <v>388.05</v>
@@ -16031,7 +16326,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3">
         <v>447.21</v>
@@ -16039,7 +16334,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3">
         <v>451.85</v>
@@ -16055,7 +16350,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3">
         <v>590.89</v>
@@ -16079,7 +16374,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3">
         <v>768.82</v>
@@ -16087,7 +16382,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3">
         <v>838.17</v>
@@ -16111,154 +16406,154 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3">
-        <v>1386.39</v>
+        <v>1216.69</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3">
-        <v>1438.78</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>1502.87</v>
+        <v>1438.78</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C27" s="3">
-        <v>1535</v>
+        <v>1502.87</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3">
-        <v>1818.77</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
-        <v>1839.93</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3">
-        <v>1843</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C31" s="3">
-        <v>1878.68</v>
+        <v>2061.89</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3">
-        <v>2341.54</v>
+        <v>2098.9899999999998</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3">
-        <v>2564.7600000000002</v>
+        <v>2341.54</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3">
-        <v>2569.91</v>
+        <v>2564.7600000000002</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3">
-        <v>2637.56</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
-        <v>2656.06</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3">
-        <v>3171.28</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="C38" s="3">
-        <v>3599.63</v>
+        <v>3171.28</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3">
-        <v>3936.18</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3">
-        <v>4388.1099999999997</v>
+        <v>3936.18</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C41" s="3">
-        <v>4461.2299999999996</v>
+        <v>4388.1099999999997</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="C42" s="3">
-        <v>4673.21</v>
+        <v>4461.2299999999996</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16274,7 +16569,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="3">
-        <v>66277.680000000008</v>
+        <v>63299.110000000008</v>
       </c>
     </row>
   </sheetData>
@@ -16289,7 +16584,7 @@
   <dimension ref="B1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16318,7 +16613,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1">
         <v>27143.22</v>
@@ -16342,7 +16637,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1">
         <v>17714</v>
@@ -16382,7 +16677,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1">
         <v>11691</v>
@@ -16390,7 +16685,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1">
         <v>11189.89</v>
@@ -16398,7 +16693,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1">
         <v>10172</v>
@@ -16422,7 +16717,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1">
         <v>9015.32</v>
@@ -16430,7 +16725,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1">
         <v>8980.59</v>
@@ -16438,7 +16733,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1">
         <v>7620</v>
@@ -16446,26 +16741,26 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1">
-        <v>7230</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1">
-        <v>7223</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1">
-        <v>6777</v>
+        <v>5870.3512499999997</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16478,7 +16773,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1">
         <v>5444</v>
@@ -16494,7 +16789,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1">
         <v>5238</v>
@@ -16518,7 +16813,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1">
         <v>5030</v>
@@ -16526,7 +16821,7 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1">
         <v>4965</v>
@@ -16534,7 +16829,7 @@
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1">
         <v>4868</v>
@@ -16574,7 +16869,7 @@
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1">
         <v>3886</v>
@@ -16582,7 +16877,7 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="1">
         <v>3825</v>
@@ -16598,31 +16893,31 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1">
-        <v>3342.48</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1">
-        <v>3010</v>
+        <v>2723.7275</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1">
-        <v>2530</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1">
         <v>2410</v>
@@ -16641,7 +16936,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1">
-        <v>322624.38</v>
+        <v>320703.97875000001</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B86D5-7DE2-47EC-A8E1-83D4764BB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C164F-AE66-4422-8B85-B02545A683F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9103,7 +9103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9440,7 +9440,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9777,7 +9777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10114,7 +10114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10808,7 +10808,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C164F-AE66-4422-8B85-B02545A683F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63674F5C-6CD5-42C5-9404-C20781B9CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
   <si>
     <t>CPU</t>
   </si>
@@ -280,9 +280,6 @@
     <t>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</t>
   </si>
   <si>
-    <t>i7 1165G7 (TigerLake) v0.5.0 [24]</t>
-  </si>
-  <si>
     <t>@20W</t>
   </si>
   <si>
@@ -629,6 +626,54 @@
   </si>
   <si>
     <t>R5 4500U (Renoir) [74]</t>
+  </si>
+  <si>
+    <t>v0.7.*</t>
+  </si>
+  <si>
+    <t>Fondness</t>
+  </si>
+  <si>
+    <t>Scoty</t>
+  </si>
+  <si>
+    <t>v0.7.2</t>
+  </si>
+  <si>
+    <t>P Silver N6000 (JasperLake)</t>
+  </si>
+  <si>
+    <t>Tralalak</t>
+  </si>
+  <si>
+    <t>y33H@</t>
+  </si>
+  <si>
+    <t>Celeron N5100 (JasperLake)</t>
+  </si>
+  <si>
+    <t>R3 4300G (Renoir)</t>
+  </si>
+  <si>
+    <t>Lord Maiki</t>
+  </si>
+  <si>
+    <t>mkl1</t>
+  </si>
+  <si>
+    <t>Celeron N5100 (JasperLake) [80]</t>
+  </si>
+  <si>
+    <t>P Silver N6000 (JasperLake) [79]</t>
+  </si>
+  <si>
+    <t>i7 1165G7 (TigerLake) [82]</t>
+  </si>
+  <si>
+    <t>R3 4300G (Renoir) [81]</t>
+  </si>
+  <si>
+    <t>R7 5800H (Cezanne) [77]</t>
   </si>
 </sst>
 </file>
@@ -641,7 +686,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +704,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -734,12 +787,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -782,26 +836,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF7F7F7F"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -1333,9 +1389,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$44</c:f>
+              <c:f>'PES ST'!$B$4:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -1388,72 +1444,84 @@
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>i7 1165G7 (TigerLake) [82]</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
+                  <c:v>R3 4300G (Renoir) [81]</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
@@ -1461,10 +1529,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$44</c:f>
+              <c:f>'PES ST'!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
@@ -1517,72 +1585,84 @@
                   <c:v>61.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>65.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>74.44</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>75.569999999999993</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>77.22</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>78.09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>83.49</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>94.92</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
+                  <c:v>95.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>101.29</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>107.39</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>111.07</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>112.03</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>126.49</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>143.16999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>147.47999999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
+                  <c:v>155.84</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>158.59</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>168.79</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>172.46</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
+                  <c:v>188.44</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
+                  <c:v>210.66</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>216.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -2344,9 +2424,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$44</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -2426,10 +2506,10 @@
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>i7 1165G7 (TigerLake) [82]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
@@ -2453,29 +2533,41 @@
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$44</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>55373</c:v>
                 </c:pt>
@@ -2555,10 +2647,10 @@
                   <c:v>11657</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>11590</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>11096</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10777</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>10450</c:v>
@@ -2582,19 +2674,31 @@
                   <c:v>9839</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>9505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8577.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>8278</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
+                  <c:v>8085</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>7799</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>7445</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>7302.14</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>6987</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6349.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3291,9 +3395,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$44</c:f>
+              <c:f>'PES MT'!$B$4:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -3316,102 +3420,114 @@
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>i7 1165G7 (TigerLake) [82]</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>R3 4300G (Renoir) [81]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
               </c:strCache>
@@ -3419,10 +3535,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$44</c:f>
+              <c:f>'PES MT'!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>35.61</c:v>
                 </c:pt>
@@ -3445,102 +3561,114 @@
                   <c:v>269.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>287.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>336.42</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>384.59</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>388.05</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>447.21</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>451.85</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>512.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>560.07000000000005</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>590.89</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>656.66</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>739.31</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>768.82</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>838.17</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>925.56</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>1136.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1216.69</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1438.78</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>1502.87</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>1513.55</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>2061.89</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>2098.9899999999998</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>2341.54</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>2564.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>2656.06</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>3171.28</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
+                  <c:v>3492.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>4388.1099999999997</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>4461.2299999999996</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>6668.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4469,9 +4597,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$44</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
                 </c:pt>
@@ -4485,111 +4613,123 @@
                   <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>R3 4300G (Renoir) [81]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>i7 1165G7 (TigerLake) [82]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
@@ -4597,10 +4737,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$44</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>27143.22</c:v>
                 </c:pt>
@@ -4614,111 +4754,123 @@
                   <c:v>17714</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>16300.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13138</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12920</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12266</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>12017</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>11691</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11189.89</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10172</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>10055</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>9308</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>9015.32</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>8980.59</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>7620</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>7406.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>6777</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>5870.3512499999997</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>5238</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>5208</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>4965</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>4868</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
+                  <c:v>4550</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>4516</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>4149</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>3886</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>3825</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>3774</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
+                  <c:v>3775</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>2723.7275</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>2588</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>2410</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -7258,13 +7410,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44410.721510532407" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="74" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44421.707040856483" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="80" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="76"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="82"/>
     </cacheField>
     <cacheField name="Ver" numFmtId="0">
       <sharedItems/>
@@ -7273,7 +7425,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Post" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="212"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="244"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -7309,7 +7461,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="35.61" maxValue="6668.05"/>
     </cacheField>
     <cacheField name="Cons. MT" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="27143.22"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="48335.86"/>
     </cacheField>
     <cacheField name="Dur. MT" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="33.520000000000003" maxValue="2173.7800000000002"/>
@@ -7318,7 +7470,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="133">
+      <sharedItems count="139">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7393,6 +7545,12 @@
         <s v="R5 4500U (Renoir) [74]"/>
         <s v="R5 2500U (Raven Ridge) [75]"/>
         <s v="R5 5600X (Vermeer) [76]"/>
+        <s v="R7 5800H (Cezanne) [77]"/>
+        <s v="R5 5600X (Vermeer) [78]"/>
+        <s v="P Silver N6000 (JasperLake) [79]"/>
+        <s v="Celeron N5100 (JasperLake) [80]"/>
+        <s v="R3 4300G (Renoir) [81]"/>
+        <s v="i7 1165G7 (TigerLake) [82]"/>
         <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
         <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
@@ -7470,7 +7628,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
   <r>
     <n v="1"/>
     <s v="v0.7.0"/>
@@ -7986,7 +8144,7 @@
     <s v="misterh"/>
     <s v="Win: Best Perf."/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="172.46"/>
     <n v="10777"/>
     <n v="538.05999999999995"/>
@@ -9099,12 +9257,144 @@
     <s v="76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|94,92|20057,62|525,22|38,19"/>
     <s v="76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|2098,99|5870,35125|81,1575|72,33"/>
   </r>
+  <r>
+    <n v="77"/>
+    <s v="v0.7.0"/>
+    <s v="3DC"/>
+    <n v="234"/>
+    <s v="R7 5800H (Cezanne)"/>
+    <s v="Fondness"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="210.66"/>
+    <n v="8085"/>
+    <n v="587.17999999999995"/>
+    <n v="13.77"/>
+    <n v="3492.77"/>
+    <n v="3775"/>
+    <n v="75.84"/>
+    <n v="49.77"/>
+    <x v="74"/>
+    <s v="77|3DC #234|R7 5800H (Cezanne)|Fondness||v0.7.0|210,66|8085|587,18|13,77"/>
+    <s v="77|3DC #234|R7 5800H (Cezanne)|Fondness||v0.7.0|3492,77|3775|75,84|49,77"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="v0.7.0"/>
+    <s v="3DC"/>
+    <n v="241"/>
+    <s v="R5 5600X (Vermeer)"/>
+    <s v="Scoty"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="78.38"/>
+    <n v="23969.25"/>
+    <n v="532.30999999999995"/>
+    <n v="45.03"/>
+    <n v="2001.77"/>
+    <n v="48335.86"/>
+    <n v="661.45"/>
+    <n v="73.08"/>
+    <x v="75"/>
+    <s v="78|3DC #241|R5 5600X (Vermeer)|Scoty||v0.7.0|78,38|23969,25|532,31|45,03"/>
+    <s v="78|3DC #241|R5 5600X (Vermeer)|Scoty||v0.7.0|2001,77|48335,86|661,45|73,08"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="v0.7.2"/>
+    <s v="3DC"/>
+    <n v="242"/>
+    <s v="P Silver N6000 (JasperLake)"/>
+    <s v="Tralalak"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="95.02"/>
+    <n v="8577.2000000000007"/>
+    <n v="1227"/>
+    <n v="6.99"/>
+    <n v="512.39"/>
+    <n v="7406.61"/>
+    <n v="1054"/>
+    <n v="7.03"/>
+    <x v="76"/>
+    <s v="79|3DC #242|P Silver N6000 (JasperLake)|Tralalak||v0.7.2|95,02|8577,2|1227|6,99"/>
+    <s v="79|3DC #242|P Silver N6000 (JasperLake)|Tralalak||v0.7.2|512,39|7406,61|1054|7,03"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="v0.7.2"/>
+    <s v="3DC"/>
+    <n v="244"/>
+    <s v="Celeron N5100 (JasperLake)"/>
+    <s v="y33H@"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="65.849999999999994"/>
+    <n v="9505"/>
+    <n v="1597.64"/>
+    <n v="5.95"/>
+    <n v="287.18"/>
+    <n v="4550"/>
+    <n v="765.23"/>
+    <n v="5.95"/>
+    <x v="77"/>
+    <s v="80|3DC #244|Celeron N5100 (JasperLake)|y33H@||v0.7.2|65,85|9505|1597,64|5,95"/>
+    <s v="80|3DC #244|Celeron N5100 (JasperLake)|y33H@||v0.7.2|287,18|4550|765,23|5,95"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="178"/>
+    <s v="R3 4300G (Renoir)"/>
+    <s v="Lord Maiki"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="188.44"/>
+    <n v="6349.88"/>
+    <n v="835.72"/>
+    <n v="7.6"/>
+    <n v="1513.55"/>
+    <n v="16300.78"/>
+    <n v="648.51"/>
+    <n v="25.14"/>
+    <x v="78"/>
+    <s v="81|CB #178|R3 4300G (Renoir)|Lord Maiki||v0.7.0|188,44|6349,88|835,72|7,6"/>
+    <s v="81|CB #178|R3 4300G (Renoir)|Lord Maiki||v0.7.0|1513,55|16300,78|648,51|25,14"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="v0.7.0"/>
+    <s v="CB"/>
+    <n v="181"/>
+    <s v="i7 1165G7 (TigerLake)"/>
+    <s v="mkl1"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="155.84"/>
+    <n v="11590"/>
+    <n v="553.66999999999996"/>
+    <n v="20.93"/>
+    <n v="1136.33"/>
+    <n v="5208"/>
+    <n v="168.99"/>
+    <n v="30.82"/>
+    <x v="79"/>
+    <s v="82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|155,84|11590|553,67|20,93"/>
+    <s v="82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|1136,33|5208|168,99|30,82"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
-  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9130,27 +9420,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="134">
+      <items count="140">
+        <item m="1" x="130"/>
+        <item m="1" x="111"/>
+        <item m="1" x="123"/>
+        <item m="1" x="138"/>
+        <item m="1" x="133"/>
+        <item m="1" x="81"/>
+        <item m="1" x="103"/>
+        <item m="1" x="83"/>
+        <item m="1" x="105"/>
+        <item m="1" x="96"/>
+        <item m="1" x="136"/>
+        <item m="1" x="106"/>
+        <item m="1" x="84"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="128"/>
         <item m="1" x="124"/>
-        <item m="1" x="105"/>
-        <item m="1" x="117"/>
-        <item m="1" x="132"/>
-        <item m="1" x="127"/>
-        <item m="1" x="75"/>
-        <item m="1" x="97"/>
-        <item m="1" x="77"/>
-        <item m="1" x="99"/>
-        <item m="1" x="90"/>
-        <item m="1" x="130"/>
-        <item m="1" x="100"/>
-        <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
+        <item m="1" x="95"/>
         <item m="1" x="118"/>
-        <item m="1" x="89"/>
-        <item m="1" x="112"/>
-        <item m="1" x="108"/>
+        <item m="1" x="114"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9159,11 +9449,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="96"/>
+        <item m="1" x="102"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="129"/>
+        <item m="1" x="135"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9171,12 +9461,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="106"/>
-        <item m="1" x="109"/>
-        <item m="1" x="120"/>
+        <item m="1" x="112"/>
+        <item m="1" x="115"/>
+        <item m="1" x="126"/>
+        <item m="1" x="131"/>
+        <item m="1" x="117"/>
         <item m="1" x="125"/>
-        <item m="1" x="111"/>
-        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9185,24 +9475,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="110"/>
+        <item m="1" x="97"/>
+        <item m="1" x="113"/>
+        <item x="29"/>
+        <item m="1" x="85"/>
+        <item m="1" x="89"/>
+        <item m="1" x="91"/>
+        <item m="1" x="100"/>
+        <item m="1" x="93"/>
+        <item m="1" x="82"/>
+        <item m="1" x="94"/>
+        <item m="1" x="99"/>
+        <item m="1" x="122"/>
+        <item m="1" x="87"/>
         <item m="1" x="104"/>
-        <item m="1" x="91"/>
-        <item m="1" x="107"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="83"/>
-        <item m="1" x="85"/>
-        <item m="1" x="94"/>
-        <item m="1" x="87"/>
-        <item m="1" x="76"/>
+        <item m="1" x="101"/>
+        <item m="1" x="119"/>
         <item m="1" x="88"/>
-        <item m="1" x="93"/>
-        <item m="1" x="116"/>
-        <item m="1" x="81"/>
-        <item m="1" x="98"/>
-        <item m="1" x="95"/>
-        <item m="1" x="113"/>
-        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9219,20 +9509,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="98"/>
+        <item m="1" x="116"/>
+        <item m="1" x="121"/>
         <item m="1" x="92"/>
-        <item m="1" x="110"/>
-        <item m="1" x="115"/>
-        <item m="1" x="86"/>
-        <item m="1" x="123"/>
-        <item m="1" x="74"/>
-        <item m="1" x="131"/>
-        <item m="1" x="121"/>
-        <item m="1" x="114"/>
-        <item m="1" x="84"/>
-        <item m="1" x="128"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="101"/>
+        <item m="1" x="129"/>
+        <item m="1" x="80"/>
+        <item m="1" x="137"/>
+        <item m="1" x="127"/>
+        <item m="1" x="120"/>
+        <item m="1" x="90"/>
+        <item m="1" x="134"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9264,6 +9554,12 @@
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9282,7 +9578,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="45">
     <i>
       <x v="81"/>
     </i>
@@ -9335,6 +9631,9 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="136"/>
+    </i>
+    <i>
       <x v="87"/>
     </i>
     <i>
@@ -9356,6 +9655,9 @@
       <x v="132"/>
     </i>
     <i>
+      <x v="135"/>
+    </i>
+    <i>
       <x v="106"/>
     </i>
     <i>
@@ -9389,16 +9691,22 @@
       <x v="24"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="103"/>
     </i>
     <i>
       <x v="86"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="137"/>
     </i>
     <i>
       <x v="130"/>
+    </i>
+    <i>
+      <x v="133"/>
     </i>
     <i>
       <x v="57"/>
@@ -9440,8 +9748,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
-  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9467,27 +9775,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="134">
+      <items count="140">
+        <item m="1" x="130"/>
+        <item m="1" x="111"/>
+        <item m="1" x="123"/>
+        <item m="1" x="138"/>
+        <item m="1" x="133"/>
+        <item m="1" x="81"/>
+        <item m="1" x="103"/>
+        <item m="1" x="83"/>
+        <item m="1" x="105"/>
+        <item m="1" x="96"/>
+        <item m="1" x="136"/>
+        <item m="1" x="106"/>
+        <item m="1" x="84"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="128"/>
         <item m="1" x="124"/>
-        <item m="1" x="105"/>
-        <item m="1" x="117"/>
-        <item m="1" x="132"/>
-        <item m="1" x="127"/>
-        <item m="1" x="75"/>
-        <item m="1" x="97"/>
-        <item m="1" x="77"/>
-        <item m="1" x="99"/>
-        <item m="1" x="90"/>
-        <item m="1" x="130"/>
-        <item m="1" x="100"/>
-        <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
+        <item m="1" x="95"/>
         <item m="1" x="118"/>
-        <item m="1" x="89"/>
-        <item m="1" x="112"/>
-        <item m="1" x="108"/>
+        <item m="1" x="114"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9496,11 +9804,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="96"/>
+        <item m="1" x="102"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="129"/>
+        <item m="1" x="135"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9508,12 +9816,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="106"/>
-        <item m="1" x="109"/>
-        <item m="1" x="120"/>
+        <item m="1" x="112"/>
+        <item m="1" x="115"/>
+        <item m="1" x="126"/>
+        <item m="1" x="131"/>
+        <item m="1" x="117"/>
         <item m="1" x="125"/>
-        <item m="1" x="111"/>
-        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9522,24 +9830,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="110"/>
+        <item m="1" x="97"/>
+        <item m="1" x="113"/>
+        <item x="29"/>
+        <item m="1" x="85"/>
+        <item m="1" x="89"/>
+        <item m="1" x="91"/>
+        <item m="1" x="100"/>
+        <item m="1" x="93"/>
+        <item m="1" x="82"/>
+        <item m="1" x="94"/>
+        <item m="1" x="99"/>
+        <item m="1" x="122"/>
+        <item m="1" x="87"/>
         <item m="1" x="104"/>
-        <item m="1" x="91"/>
-        <item m="1" x="107"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="83"/>
-        <item m="1" x="85"/>
-        <item m="1" x="94"/>
-        <item m="1" x="87"/>
-        <item m="1" x="76"/>
+        <item m="1" x="101"/>
+        <item m="1" x="119"/>
         <item m="1" x="88"/>
-        <item m="1" x="93"/>
-        <item m="1" x="116"/>
-        <item m="1" x="81"/>
-        <item m="1" x="98"/>
-        <item m="1" x="95"/>
-        <item m="1" x="113"/>
-        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9556,20 +9864,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="98"/>
+        <item m="1" x="116"/>
+        <item m="1" x="121"/>
         <item m="1" x="92"/>
-        <item m="1" x="110"/>
-        <item m="1" x="115"/>
-        <item m="1" x="86"/>
-        <item m="1" x="123"/>
-        <item m="1" x="74"/>
-        <item m="1" x="131"/>
-        <item m="1" x="121"/>
-        <item m="1" x="114"/>
-        <item m="1" x="84"/>
-        <item m="1" x="128"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="101"/>
+        <item m="1" x="129"/>
+        <item m="1" x="80"/>
+        <item m="1" x="137"/>
+        <item m="1" x="127"/>
+        <item m="1" x="120"/>
+        <item m="1" x="90"/>
+        <item m="1" x="134"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9601,6 +9909,12 @@
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9619,7 +9933,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="45">
     <i>
       <x v="50"/>
     </i>
@@ -9699,10 +10013,10 @@
       <x v="30"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="80"/>
-    </i>
-    <i>
-      <x v="51"/>
     </i>
     <i>
       <x v="31"/>
@@ -9726,7 +10040,16 @@
       <x v="22"/>
     </i>
     <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
       <x v="103"/>
+    </i>
+    <i>
+      <x v="133"/>
     </i>
     <i>
       <x v="131"/>
@@ -9739,6 +10062,9 @@
     </i>
     <i>
       <x v="119"/>
+    </i>
+    <i>
+      <x v="137"/>
     </i>
     <i t="grand">
       <x/>
@@ -9777,8 +10103,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
-  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9804,27 +10130,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="134">
+      <items count="140">
+        <item m="1" x="130"/>
+        <item m="1" x="111"/>
+        <item m="1" x="123"/>
+        <item m="1" x="138"/>
+        <item m="1" x="133"/>
+        <item m="1" x="81"/>
+        <item m="1" x="103"/>
+        <item m="1" x="83"/>
+        <item m="1" x="105"/>
+        <item m="1" x="96"/>
+        <item m="1" x="136"/>
+        <item m="1" x="106"/>
+        <item m="1" x="84"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="128"/>
         <item m="1" x="124"/>
-        <item m="1" x="105"/>
-        <item m="1" x="117"/>
-        <item m="1" x="132"/>
-        <item m="1" x="127"/>
-        <item m="1" x="75"/>
-        <item m="1" x="97"/>
-        <item m="1" x="77"/>
-        <item m="1" x="99"/>
-        <item m="1" x="90"/>
-        <item m="1" x="130"/>
-        <item m="1" x="100"/>
-        <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
+        <item m="1" x="95"/>
         <item m="1" x="118"/>
-        <item m="1" x="89"/>
-        <item m="1" x="112"/>
-        <item m="1" x="108"/>
+        <item m="1" x="114"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9833,11 +10159,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="96"/>
+        <item m="1" x="102"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="129"/>
+        <item m="1" x="135"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9845,12 +10171,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="106"/>
-        <item m="1" x="109"/>
-        <item m="1" x="120"/>
+        <item m="1" x="112"/>
+        <item m="1" x="115"/>
+        <item m="1" x="126"/>
+        <item m="1" x="131"/>
+        <item m="1" x="117"/>
         <item m="1" x="125"/>
-        <item m="1" x="111"/>
-        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9859,24 +10185,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="110"/>
+        <item m="1" x="97"/>
+        <item m="1" x="113"/>
+        <item x="29"/>
+        <item m="1" x="85"/>
+        <item m="1" x="89"/>
+        <item m="1" x="91"/>
+        <item m="1" x="100"/>
+        <item m="1" x="93"/>
+        <item m="1" x="82"/>
+        <item m="1" x="94"/>
+        <item m="1" x="99"/>
+        <item m="1" x="122"/>
+        <item m="1" x="87"/>
         <item m="1" x="104"/>
-        <item m="1" x="91"/>
-        <item m="1" x="107"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="83"/>
-        <item m="1" x="85"/>
-        <item m="1" x="94"/>
-        <item m="1" x="87"/>
-        <item m="1" x="76"/>
+        <item m="1" x="101"/>
+        <item m="1" x="119"/>
         <item m="1" x="88"/>
-        <item m="1" x="93"/>
-        <item m="1" x="116"/>
-        <item m="1" x="81"/>
-        <item m="1" x="98"/>
-        <item m="1" x="95"/>
-        <item m="1" x="113"/>
-        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9893,20 +10219,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="98"/>
+        <item m="1" x="116"/>
+        <item m="1" x="121"/>
         <item m="1" x="92"/>
-        <item m="1" x="110"/>
-        <item m="1" x="115"/>
-        <item m="1" x="86"/>
-        <item m="1" x="123"/>
-        <item m="1" x="74"/>
-        <item m="1" x="131"/>
-        <item m="1" x="121"/>
-        <item m="1" x="114"/>
-        <item m="1" x="84"/>
-        <item m="1" x="128"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="101"/>
+        <item m="1" x="129"/>
+        <item m="1" x="80"/>
+        <item m="1" x="137"/>
+        <item m="1" x="127"/>
+        <item m="1" x="120"/>
+        <item m="1" x="90"/>
+        <item m="1" x="134"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9938,6 +10264,12 @@
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9956,7 +10288,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="45">
     <i>
       <x v="81"/>
     </i>
@@ -9979,6 +10311,9 @@
       <x v="78"/>
     </i>
     <i>
+      <x v="136"/>
+    </i>
+    <i>
       <x v="84"/>
     </i>
     <i>
@@ -9994,6 +10329,9 @@
       <x v="111"/>
     </i>
     <i>
+      <x v="135"/>
+    </i>
+    <i>
       <x v="73"/>
     </i>
     <i>
@@ -10018,16 +10356,19 @@
       <x v="85"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="131"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="128"/>
     </i>
     <i>
-      <x v="128"/>
+      <x v="137"/>
     </i>
     <i>
       <x v="127"/>
@@ -10061,6 +10402,9 @@
     </i>
     <i>
       <x v="86"/>
+    </i>
+    <i>
+      <x v="133"/>
     </i>
     <i>
       <x v="26"/>
@@ -10114,8 +10458,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
-  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10141,27 +10485,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="134">
+      <items count="140">
+        <item m="1" x="130"/>
+        <item m="1" x="111"/>
+        <item m="1" x="123"/>
+        <item m="1" x="138"/>
+        <item m="1" x="133"/>
+        <item m="1" x="81"/>
+        <item m="1" x="103"/>
+        <item m="1" x="83"/>
+        <item m="1" x="105"/>
+        <item m="1" x="96"/>
+        <item m="1" x="136"/>
+        <item m="1" x="106"/>
+        <item m="1" x="84"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="128"/>
         <item m="1" x="124"/>
-        <item m="1" x="105"/>
-        <item m="1" x="117"/>
-        <item m="1" x="132"/>
-        <item m="1" x="127"/>
-        <item m="1" x="75"/>
-        <item m="1" x="97"/>
-        <item m="1" x="77"/>
-        <item m="1" x="99"/>
-        <item m="1" x="90"/>
-        <item m="1" x="130"/>
-        <item m="1" x="100"/>
-        <item m="1" x="78"/>
-        <item m="1" x="80"/>
-        <item m="1" x="126"/>
-        <item m="1" x="122"/>
+        <item m="1" x="95"/>
         <item m="1" x="118"/>
-        <item m="1" x="89"/>
-        <item m="1" x="112"/>
-        <item m="1" x="108"/>
+        <item m="1" x="114"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10170,11 +10514,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="96"/>
+        <item m="1" x="102"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="129"/>
+        <item m="1" x="135"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10182,12 +10526,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="106"/>
-        <item m="1" x="109"/>
-        <item m="1" x="120"/>
+        <item m="1" x="112"/>
+        <item m="1" x="115"/>
+        <item m="1" x="126"/>
+        <item m="1" x="131"/>
+        <item m="1" x="117"/>
         <item m="1" x="125"/>
-        <item m="1" x="111"/>
-        <item m="1" x="119"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10196,24 +10540,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="110"/>
+        <item m="1" x="97"/>
+        <item m="1" x="113"/>
+        <item x="29"/>
+        <item m="1" x="85"/>
+        <item m="1" x="89"/>
+        <item m="1" x="91"/>
+        <item m="1" x="100"/>
+        <item m="1" x="93"/>
+        <item m="1" x="82"/>
+        <item m="1" x="94"/>
+        <item m="1" x="99"/>
+        <item m="1" x="122"/>
+        <item m="1" x="87"/>
         <item m="1" x="104"/>
-        <item m="1" x="91"/>
-        <item m="1" x="107"/>
-        <item x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="83"/>
-        <item m="1" x="85"/>
-        <item m="1" x="94"/>
-        <item m="1" x="87"/>
-        <item m="1" x="76"/>
+        <item m="1" x="101"/>
+        <item m="1" x="119"/>
         <item m="1" x="88"/>
-        <item m="1" x="93"/>
-        <item m="1" x="116"/>
-        <item m="1" x="81"/>
-        <item m="1" x="98"/>
-        <item m="1" x="95"/>
-        <item m="1" x="113"/>
-        <item m="1" x="82"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10230,20 +10574,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item m="1" x="98"/>
+        <item m="1" x="116"/>
+        <item m="1" x="121"/>
         <item m="1" x="92"/>
-        <item m="1" x="110"/>
-        <item m="1" x="115"/>
-        <item m="1" x="86"/>
-        <item m="1" x="123"/>
-        <item m="1" x="74"/>
-        <item m="1" x="131"/>
-        <item m="1" x="121"/>
-        <item m="1" x="114"/>
-        <item m="1" x="84"/>
-        <item m="1" x="128"/>
-        <item m="1" x="102"/>
-        <item m="1" x="103"/>
-        <item m="1" x="101"/>
+        <item m="1" x="129"/>
+        <item m="1" x="80"/>
+        <item m="1" x="137"/>
+        <item m="1" x="127"/>
+        <item m="1" x="120"/>
+        <item m="1" x="90"/>
+        <item m="1" x="134"/>
+        <item m="1" x="108"/>
+        <item m="1" x="109"/>
+        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10275,6 +10619,12 @@
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10293,7 +10643,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="45">
     <i>
       <x v="127"/>
     </i>
@@ -10307,6 +10657,9 @@
       <x v="118"/>
     </i>
     <i>
+      <x v="137"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
     <i>
@@ -10343,6 +10696,9 @@
       <x v="128"/>
     </i>
     <i>
+      <x v="135"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
@@ -10367,6 +10723,9 @@
       <x v="80"/>
     </i>
     <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="76"/>
     </i>
     <i>
@@ -10382,6 +10741,9 @@
       <x v="30"/>
     </i>
     <i>
+      <x v="136"/>
+    </i>
+    <i>
       <x v="86"/>
     </i>
     <i>
@@ -10397,7 +10759,7 @@
       <x v="124"/>
     </i>
     <i>
-      <x v="51"/>
+      <x v="133"/>
     </i>
     <i>
       <x v="57"/>
@@ -10427,7 +10789,7 @@
   <dataFields count="1">
     <dataField name="Summe von Cons. MT" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="7">
+  <chartFormats count="9">
     <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10491,6 +10853,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="36" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="37" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10505,8 +10885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U78" totalsRowShown="0">
-  <autoFilter ref="B4:U78" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U84" totalsRowShown="0">
+  <autoFilter ref="B4:U84" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
@@ -10525,13 +10905,13 @@
     <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="5" dataCellStyle="Komma"/>
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="4" dataCellStyle="Eingabe"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="3" dataCellStyle="Eingabe"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="0" dataCellStyle="Standard">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1" dataCellStyle="Standard">
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="2" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Standard">
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="1" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10802,13 +11182,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U78"/>
+  <dimension ref="B1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -10845,7 +11225,7 @@
       </c>
       <c r="C1" s="25"/>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>77</v>
@@ -10859,7 +11239,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2">
         <v>174</v>
@@ -10867,16 +11247,16 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -10932,10 +11312,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
@@ -10976,7 +11356,7 @@
         <v>15.43</v>
       </c>
       <c r="S5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) [1]</v>
       </c>
       <c r="T5" t="str">
@@ -10996,7 +11376,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
@@ -11035,7 +11415,7 @@
         <v>72.330363368310003</v>
       </c>
       <c r="S6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3600 (Matisse) v0.3.1 [2]</v>
       </c>
       <c r="T6" t="str">
@@ -11055,7 +11435,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4">
         <v>7</v>
@@ -11094,7 +11474,7 @@
         <v>13.547180263680001</v>
       </c>
       <c r="S7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 1065G (IceLake) v0.3.1 [3]</v>
       </c>
       <c r="T7" t="str">
@@ -11114,7 +11494,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
@@ -11155,7 +11535,7 @@
         <v>186.22</v>
       </c>
       <c r="S8" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
       </c>
       <c r="T8" t="str">
@@ -11175,7 +11555,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
@@ -11214,7 +11594,7 @@
         <v>73.030459868639994</v>
       </c>
       <c r="S9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) v0.3.1 [5]</v>
       </c>
       <c r="T9" t="str">
@@ -11234,7 +11614,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4">
         <v>27</v>
@@ -11277,7 +11657,7 @@
         <v>83.710413223920014</v>
       </c>
       <c r="S10" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [6]</v>
       </c>
       <c r="T10" t="str">
@@ -11297,7 +11677,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="4">
         <v>29</v>
@@ -11336,7 +11716,7 @@
         <v>14.819104368830001</v>
       </c>
       <c r="S11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750U (Renoir) v0.3.1 [7]</v>
       </c>
       <c r="T11" t="str">
@@ -11356,7 +11736,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="4">
         <v>32</v>
@@ -11397,7 +11777,7 @@
         <v>117.01758450478999</v>
       </c>
       <c r="S12" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
       </c>
       <c r="T12" t="str">
@@ -11417,7 +11797,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4">
         <v>42</v>
@@ -11462,7 +11842,7 @@
         <v>11.52</v>
       </c>
       <c r="S13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</v>
       </c>
       <c r="T13" t="str">
@@ -11482,7 +11862,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="4">
         <v>44</v>
@@ -11523,7 +11903,7 @@
         <v>58.11</v>
       </c>
       <c r="S14" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
       </c>
       <c r="T14" t="str">
@@ -11543,7 +11923,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4">
         <v>54</v>
@@ -11582,7 +11962,7 @@
         <v>13.75</v>
       </c>
       <c r="S15" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
       </c>
       <c r="T15" t="str">
@@ -11602,7 +11982,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4">
         <v>69</v>
@@ -11641,7 +12021,7 @@
         <v>60.86</v>
       </c>
       <c r="S16" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
       </c>
       <c r="T16" t="str">
@@ -11661,7 +12041,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="4">
         <v>47</v>
@@ -11706,7 +12086,7 @@
         <v>23.15</v>
       </c>
       <c r="S17" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @25W v0.3.1 [13]</v>
       </c>
       <c r="T17" t="str">
@@ -11726,7 +12106,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -11770,7 +12150,7 @@
         <v>18.151814858759998</v>
       </c>
       <c r="S18" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) v0.3.1 [14]</v>
       </c>
       <c r="T18" t="str">
@@ -11790,7 +12170,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4">
         <v>38</v>
@@ -11831,7 +12211,7 @@
         <v>116.04</v>
       </c>
       <c r="S19" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
       </c>
       <c r="T19" t="str">
@@ -11851,7 +12231,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4">
         <v>65</v>
@@ -11894,7 +12274,7 @@
         <v>51.33</v>
       </c>
       <c r="S20" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
       </c>
       <c r="T20" t="str">
@@ -11914,7 +12294,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4">
         <v>64</v>
@@ -11953,7 +12333,7 @@
         <v>45.32</v>
       </c>
       <c r="S21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
       </c>
       <c r="T21" t="str">
@@ -11973,7 +12353,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4">
         <v>67</v>
@@ -12016,7 +12396,7 @@
         <v>54.05</v>
       </c>
       <c r="S22" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [18]</v>
       </c>
       <c r="T22" t="str">
@@ -12036,7 +12416,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="4">
         <v>68</v>
@@ -12077,7 +12457,7 @@
         <v>125.22</v>
       </c>
       <c r="S23" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
       </c>
       <c r="T23" t="str">
@@ -12097,7 +12477,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
@@ -12140,7 +12520,7 @@
         <v>168.04</v>
       </c>
       <c r="S24" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
       </c>
       <c r="T24" t="str">
@@ -12160,7 +12540,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="7">
         <v>88</v>
@@ -12201,7 +12581,7 @@
         <v>112.84</v>
       </c>
       <c r="S25" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [21]</v>
       </c>
       <c r="T25" t="str">
@@ -12221,7 +12601,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="7">
         <v>90</v>
@@ -12262,7 +12642,7 @@
         <v>168.38</v>
       </c>
       <c r="S26" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.0 [22]</v>
       </c>
       <c r="T26" t="str">
@@ -12282,7 +12662,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="7">
         <v>108</v>
@@ -12325,7 +12705,7 @@
         <v>100.15</v>
       </c>
       <c r="S27" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</v>
       </c>
       <c r="T27" t="str">
@@ -12345,7 +12725,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4">
         <v>102</v>
@@ -12360,7 +12740,9 @@
         <v>21</v>
       </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K28" s="16">
         <v>172.46</v>
       </c>
@@ -12386,7 +12768,7 @@
         <v>20.49</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 1165G7 (TigerLake) v0.5.0 [24]</v>
       </c>
       <c r="T28" s="9" t="str">
@@ -12406,7 +12788,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="7">
         <v>94</v>
@@ -12451,7 +12833,7 @@
         <v>146.87</v>
       </c>
       <c r="S29" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</v>
       </c>
       <c r="T29" s="9" t="str">
@@ -12471,7 +12853,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="7">
         <v>96</v>
@@ -12512,7 +12894,7 @@
         <v>115.69</v>
       </c>
       <c r="S30" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [26]</v>
       </c>
       <c r="T30" s="9" t="str">
@@ -12532,7 +12914,7 @@
         <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="7">
         <v>118</v>
@@ -12544,10 +12926,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>41</v>
@@ -12577,7 +12959,7 @@
         <v>19.13</v>
       </c>
       <c r="S31" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) @20W v0.5.1 [27]</v>
       </c>
       <c r="T31" s="9" t="str">
@@ -12597,13 +12979,13 @@
         <v>73</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="7">
         <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>17</v>
@@ -12636,7 +13018,7 @@
         <v>48.52</v>
       </c>
       <c r="S32" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 5775C (Broadwell) v0.5.1 [28]</v>
       </c>
       <c r="T32" s="9" t="str">
@@ -12656,13 +13038,13 @@
         <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="7">
         <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>11</v>
@@ -12697,7 +13079,7 @@
         <v>20.56</v>
       </c>
       <c r="S33" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 4500U (Renoir) v0.5.1 [29]</v>
       </c>
       <c r="T33" s="9" t="str">
@@ -12717,7 +13099,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="7">
         <v>134</v>
@@ -12729,7 +13111,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -12758,7 +13140,7 @@
         <v>35.659999999999997</v>
       </c>
       <c r="S34" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.5.0 [30]</v>
       </c>
       <c r="T34" s="9" t="str">
@@ -12778,7 +13160,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="7">
         <v>135</v>
@@ -12787,10 +13169,10 @@
         <v>54</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
@@ -12821,7 +13203,7 @@
         <v>76.08</v>
       </c>
       <c r="S35" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [31]</v>
       </c>
       <c r="T35" s="9" t="str">
@@ -12841,7 +13223,7 @@
         <v>73</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="7">
         <v>136</v>
@@ -12850,7 +13232,7 @@
         <v>54</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -12880,7 +13262,7 @@
         <v>120.07</v>
       </c>
       <c r="S36" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [32]</v>
       </c>
       <c r="T36" s="9" t="str">
@@ -12900,7 +13282,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4">
         <v>140</v>
@@ -12912,7 +13294,7 @@
         <v>27</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
@@ -12943,7 +13325,7 @@
         <v>130.91999999999999</v>
       </c>
       <c r="S37" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.5.1 [33]</v>
       </c>
       <c r="T37" s="9" t="str">
@@ -12963,22 +13345,22 @@
         <v>73</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="7">
         <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="I38" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="16">
@@ -13006,7 +13388,7 @@
         <v>93.96</v>
       </c>
       <c r="S38" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</v>
       </c>
       <c r="T38" s="9" t="str">
@@ -13026,16 +13408,16 @@
         <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="7">
         <v>145</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -13067,7 +13449,7 @@
         <v>132.29</v>
       </c>
       <c r="S39" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [35]</v>
       </c>
       <c r="T39" s="9" t="str">
@@ -13087,20 +13469,20 @@
         <v>73</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="7">
         <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="16">
@@ -13128,7 +13510,7 @@
         <v>10.5</v>
       </c>
       <c r="S40" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</v>
       </c>
       <c r="T40" s="9" t="str">
@@ -13148,16 +13530,16 @@
         <v>73</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="7">
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -13187,7 +13569,7 @@
         <v>5.94</v>
       </c>
       <c r="S41" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</v>
       </c>
       <c r="T41" s="9" t="str">
@@ -13207,16 +13589,16 @@
         <v>73</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="7">
         <v>148</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -13248,7 +13630,7 @@
         <v>117.13</v>
       </c>
       <c r="S42" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) v0.5.1 [38]</v>
       </c>
       <c r="T42" s="9" t="str">
@@ -13268,16 +13650,16 @@
         <v>73</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="7">
         <v>154</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -13307,7 +13689,7 @@
         <v>111.24</v>
       </c>
       <c r="S43" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8600k (Coffee Lake) v0.5.1 [39]</v>
       </c>
       <c r="T43" s="9" t="str">
@@ -13327,20 +13709,20 @@
         <v>73</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="7">
         <v>154</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="16">
@@ -13368,7 +13750,7 @@
         <v>34.020000000000003</v>
       </c>
       <c r="S44" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</v>
       </c>
       <c r="T44" s="9" t="str">
@@ -13388,22 +13770,22 @@
         <v>73</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" s="7">
         <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="I45" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16">
@@ -13431,7 +13813,7 @@
         <v>133.65</v>
       </c>
       <c r="S45" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</v>
       </c>
       <c r="T45" s="9" t="str">
@@ -13451,16 +13833,16 @@
         <v>73</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="7">
         <v>156</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -13490,7 +13872,7 @@
         <v>64.67</v>
       </c>
       <c r="S46" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800H (Cezanne) v0.5.1 [42]</v>
       </c>
       <c r="T46" s="9" t="str">
@@ -13510,7 +13892,7 @@
         <v>73</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="7">
         <v>160</v>
@@ -13519,7 +13901,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -13549,7 +13931,7 @@
         <v>114.8</v>
       </c>
       <c r="S47" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.5.1 [43]</v>
       </c>
       <c r="T47" s="9" t="str">
@@ -13566,25 +13948,25 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="7">
         <v>165</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="16">
@@ -13612,7 +13994,7 @@
         <v>28.36</v>
       </c>
       <c r="S48" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 4600H (Renoir) Win11 v0.6.0 [44]</v>
       </c>
       <c r="T48" s="9" t="str">
@@ -13629,25 +14011,25 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="I49" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="16">
@@ -13675,7 +14057,7 @@
         <v>103.97</v>
       </c>
       <c r="S49" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5900X (Vermeer) @95W v0.6.0 [45]</v>
       </c>
       <c r="T49" s="9" t="str">
@@ -13692,19 +14074,19 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E50" s="7">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -13736,7 +14118,7 @@
         <v>96.34</v>
       </c>
       <c r="S50" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 5600X (Vermeer) v0.6.0 [46]</v>
       </c>
       <c r="T50" s="9" t="str">
@@ -13753,10 +14135,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="7">
         <v>9</v>
@@ -13765,10 +14147,10 @@
         <v>49</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -13797,7 +14179,7 @@
         <v>76.150000000000006</v>
       </c>
       <c r="S51" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.6.0 [47]</v>
       </c>
       <c r="T51" s="9" t="str">
@@ -13814,22 +14196,22 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="7">
         <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
@@ -13860,7 +14242,7 @@
         <v>9.84</v>
       </c>
       <c r="S52" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [48]</v>
       </c>
       <c r="T52" s="9" t="str">
@@ -13877,10 +14259,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="7">
         <v>13</v>
@@ -13889,13 +14271,13 @@
         <v>49</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J53" s="8" t="s">
         <v>41</v>
@@ -13925,7 +14307,7 @@
         <v>87.23</v>
       </c>
       <c r="S53" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) @95W v0.6.0 [49]</v>
       </c>
       <c r="T53" s="9" t="str">
@@ -13942,10 +14324,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="7">
         <v>14</v>
@@ -13954,13 +14336,13 @@
         <v>49</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>124</v>
-      </c>
       <c r="I54" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>41</v>
@@ -13990,7 +14372,7 @@
         <v>76.260000000000005</v>
       </c>
       <c r="S54" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) @PBO v0.6.0 [50]</v>
       </c>
       <c r="T54" s="9" t="str">
@@ -14007,19 +14389,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" s="7">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -14049,7 +14431,7 @@
         <v>21.21</v>
       </c>
       <c r="S55" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 8250U (WhiskeyLake) v0.6.0 [51]</v>
       </c>
       <c r="T55" s="9" t="str">
@@ -14066,19 +14448,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="7">
         <v>36</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -14108,7 +14490,7 @@
         <v>36.44</v>
       </c>
       <c r="S56" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 4800MQ (Haswell) v0.6.0 [52]</v>
       </c>
       <c r="T56" s="9" t="str">
@@ -14125,22 +14507,22 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" s="7">
         <v>49</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
@@ -14171,7 +14553,7 @@
         <v>10.41</v>
       </c>
       <c r="S57" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [53]</v>
       </c>
       <c r="T57" s="9" t="str">
@@ -14188,23 +14570,23 @@
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="7">
         <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>41</v>
@@ -14234,7 +14616,7 @@
         <v>55.16</v>
       </c>
       <c r="S58" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</v>
       </c>
       <c r="T58" s="9" t="str">
@@ -14251,19 +14633,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="7">
         <v>60</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -14293,7 +14675,7 @@
         <v>56</v>
       </c>
       <c r="S59" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 3770K (Ivy Bridge) v0.6.0 [57]</v>
       </c>
       <c r="T59" s="9" t="str">
@@ -14310,19 +14692,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="7">
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -14352,7 +14734,7 @@
         <v>15.02</v>
       </c>
       <c r="S60" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 4300U (Haswell) v0.6.0 [58]</v>
       </c>
       <c r="T60" s="9" t="str">
@@ -14372,16 +14754,16 @@
         <v>73</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="7">
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -14411,7 +14793,7 @@
         <v>105.08</v>
       </c>
       <c r="S61" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</v>
       </c>
       <c r="T61" s="11" t="str">
@@ -14428,19 +14810,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="7">
         <v>63</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -14470,7 +14852,7 @@
         <v>18.34</v>
       </c>
       <c r="S62" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i5 3320M (Ivy Bridge) v0.6.0 [60]</v>
       </c>
       <c r="T62" s="11" t="str">
@@ -14487,22 +14869,22 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="7">
         <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
@@ -14533,7 +14915,7 @@
         <v>15.85</v>
       </c>
       <c r="S63" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) v0.6.0 [61]</v>
       </c>
       <c r="T63" s="11" t="str">
@@ -14550,19 +14932,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="7">
         <v>102</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -14592,7 +14974,7 @@
         <v>71.05</v>
       </c>
       <c r="S64" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 2600 (Sandy Bridge) v0.6.0 [62]</v>
       </c>
       <c r="T64" s="11" t="str">
@@ -14609,19 +14991,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="7">
         <v>102</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -14651,7 +15033,7 @@
         <v>9.57</v>
       </c>
       <c r="S65" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i3 6157U (Skylake) v0.6.0 [63]</v>
       </c>
       <c r="T65" s="11" t="str">
@@ -14668,10 +15050,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="7">
         <v>112</v>
@@ -14680,10 +15062,10 @@
         <v>49</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
@@ -14714,7 +15096,7 @@
         <v>104.1</v>
       </c>
       <c r="S66" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.6.0 [64]</v>
       </c>
       <c r="T66" s="11" t="str">
@@ -14731,10 +15113,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E67" s="7">
         <v>190</v>
@@ -14779,7 +15161,7 @@
         <v>29.91</v>
       </c>
       <c r="S67" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</v>
       </c>
       <c r="T67" s="11" t="str">
@@ -14796,19 +15178,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="7">
         <v>204</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -14838,7 +15220,7 @@
         <v>107.56</v>
       </c>
       <c r="S68" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 5800X (Vermeer) [66]</v>
       </c>
       <c r="T68" s="11" t="str">
@@ -14855,25 +15237,25 @@
         <v>67</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="7">
         <v>132</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>41</v>
@@ -14903,7 +15285,7 @@
         <v>9.84</v>
       </c>
       <c r="S69" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) Golden Sample? [67]</v>
       </c>
       <c r="T69" s="11" t="str">
@@ -14920,25 +15302,25 @@
         <v>68</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="7">
         <v>118</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16">
@@ -14966,7 +15348,7 @@
         <v>37.520000000000003</v>
       </c>
       <c r="S70" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</v>
       </c>
       <c r="T70" s="11" t="str">
@@ -14983,19 +15365,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="7">
         <v>137</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -15027,7 +15409,7 @@
         <v>16.23</v>
       </c>
       <c r="S71" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) [69]</v>
       </c>
       <c r="T71" s="11" t="str">
@@ -15044,22 +15426,22 @@
         <v>70</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" s="7">
         <v>140</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
@@ -15090,7 +15472,7 @@
         <v>6.88</v>
       </c>
       <c r="S72" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) [70]</v>
       </c>
       <c r="T72" s="11" t="str">
@@ -15107,23 +15489,23 @@
         <v>71</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" s="7">
         <v>143</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="16">
@@ -15151,7 +15533,7 @@
         <v>45.24</v>
       </c>
       <c r="S73" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>i7 9750H (Coffee Lake) @45W [71]</v>
       </c>
       <c r="T73" s="11" t="str">
@@ -15168,19 +15550,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="7">
         <v>149</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -15210,7 +15592,7 @@
         <v>87.26</v>
       </c>
       <c r="S74" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R7 2700X (Pinnacle Ridge) [72]</v>
       </c>
       <c r="T74" s="11" t="str">
@@ -15227,22 +15609,22 @@
         <v>73</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="7">
         <v>152</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -15271,7 +15653,7 @@
         <v>16.21</v>
       </c>
       <c r="S75" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 3500U (Picasso) [73]</v>
       </c>
       <c r="T75" s="11" t="str">
@@ -15288,16 +15670,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E76" s="7">
         <v>205</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>11</v>
@@ -15332,7 +15714,7 @@
         <v>15.3</v>
       </c>
       <c r="S76" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 4500U (Renoir) [74]</v>
       </c>
       <c r="T76" s="11" t="str">
@@ -15349,19 +15731,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" s="7">
         <v>212</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -15391,7 +15773,7 @@
         <v>8.15</v>
       </c>
       <c r="S77" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 2500U (Raven Ridge) [75]</v>
       </c>
       <c r="T77" s="11" t="str">
@@ -15408,19 +15790,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="7">
         <v>173</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -15452,7 +15834,7 @@
         <v>72.33</v>
       </c>
       <c r="S78" s="21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Ver]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
         <v>R5 5600X (Vermeer) [76]</v>
       </c>
       <c r="T78" s="11" t="str">
@@ -15462,6 +15844,362 @@
       <c r="U78" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>76|CB #173|R5 5600X (Vermeer)|Freiheraus||v0.7.0|2098,99|5870,35125|81,1575|72,33</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B79" s="6">
+        <v>77</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="7">
+        <v>234</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="16">
+        <v>210.66</v>
+      </c>
+      <c r="L79" s="23">
+        <v>8085</v>
+      </c>
+      <c r="M79" s="16">
+        <v>587.17999999999995</v>
+      </c>
+      <c r="N79" s="16">
+        <v>13.77</v>
+      </c>
+      <c r="O79" s="24">
+        <v>3492.77</v>
+      </c>
+      <c r="P79" s="23">
+        <v>3775</v>
+      </c>
+      <c r="Q79" s="16">
+        <v>75.84</v>
+      </c>
+      <c r="R79" s="16">
+        <v>49.77</v>
+      </c>
+      <c r="S79" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800H (Cezanne) [77]</v>
+      </c>
+      <c r="T79" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>77|3DC #234|R7 5800H (Cezanne)|Fondness||v0.7.0|210,66|8085|587,18|13,77</v>
+      </c>
+      <c r="U79" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>77|3DC #234|R7 5800H (Cezanne)|Fondness||v0.7.0|3492,77|3775|75,84|49,77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B80" s="6">
+        <v>78</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" s="7">
+        <v>241</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" s="16">
+        <v>78.38</v>
+      </c>
+      <c r="L80" s="23">
+        <v>23969.25</v>
+      </c>
+      <c r="M80" s="16">
+        <v>532.30999999999995</v>
+      </c>
+      <c r="N80" s="16">
+        <v>45.03</v>
+      </c>
+      <c r="O80" s="24">
+        <v>2001.77</v>
+      </c>
+      <c r="P80" s="23">
+        <v>48335.86</v>
+      </c>
+      <c r="Q80" s="16">
+        <v>661.45</v>
+      </c>
+      <c r="R80" s="16">
+        <v>73.08</v>
+      </c>
+      <c r="S80" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) [78]</v>
+      </c>
+      <c r="T80" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>78|3DC #241|R5 5600X (Vermeer)|Scoty||v0.7.0|78,38|23969,25|532,31|45,03</v>
+      </c>
+      <c r="U80" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>78|3DC #241|R5 5600X (Vermeer)|Scoty||v0.7.0|2001,77|48335,86|661,45|73,08</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B81" s="6">
+        <v>79</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="7">
+        <v>242</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="16">
+        <v>95.02</v>
+      </c>
+      <c r="L81" s="23">
+        <v>8577.2000000000007</v>
+      </c>
+      <c r="M81" s="16">
+        <v>1227</v>
+      </c>
+      <c r="N81" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="O81" s="24">
+        <v>512.39</v>
+      </c>
+      <c r="P81" s="23">
+        <v>7406.61</v>
+      </c>
+      <c r="Q81" s="16">
+        <v>1054</v>
+      </c>
+      <c r="R81" s="16">
+        <v>7.03</v>
+      </c>
+      <c r="S81" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>P Silver N6000 (JasperLake) [79]</v>
+      </c>
+      <c r="T81" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>79|3DC #242|P Silver N6000 (JasperLake)|Tralalak||v0.7.2|95,02|8577,2|1227|6,99</v>
+      </c>
+      <c r="U81" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>79|3DC #242|P Silver N6000 (JasperLake)|Tralalak||v0.7.2|512,39|7406,61|1054|7,03</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B82" s="6">
+        <v>80</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="7">
+        <v>244</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="16">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="L82" s="23">
+        <v>9505</v>
+      </c>
+      <c r="M82" s="16">
+        <v>1597.64</v>
+      </c>
+      <c r="N82" s="16">
+        <v>5.95</v>
+      </c>
+      <c r="O82" s="24">
+        <v>287.18</v>
+      </c>
+      <c r="P82" s="23">
+        <v>4550</v>
+      </c>
+      <c r="Q82" s="16">
+        <v>765.23</v>
+      </c>
+      <c r="R82" s="16">
+        <v>5.95</v>
+      </c>
+      <c r="S82" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>Celeron N5100 (JasperLake) [80]</v>
+      </c>
+      <c r="T82" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>80|3DC #244|Celeron N5100 (JasperLake)|y33H@||v0.7.2|65,85|9505|1597,64|5,95</v>
+      </c>
+      <c r="U82" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>80|3DC #244|Celeron N5100 (JasperLake)|y33H@||v0.7.2|287,18|4550|765,23|5,95</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B83" s="6">
+        <v>81</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="7">
+        <v>178</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="16">
+        <v>188.44</v>
+      </c>
+      <c r="L83" s="23">
+        <v>6349.88</v>
+      </c>
+      <c r="M83" s="16">
+        <v>835.72</v>
+      </c>
+      <c r="N83" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="O83" s="24">
+        <v>1513.55</v>
+      </c>
+      <c r="P83" s="23">
+        <v>16300.78</v>
+      </c>
+      <c r="Q83" s="16">
+        <v>648.51</v>
+      </c>
+      <c r="R83" s="16">
+        <v>25.14</v>
+      </c>
+      <c r="S83" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R3 4300G (Renoir) [81]</v>
+      </c>
+      <c r="T83" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>81|CB #178|R3 4300G (Renoir)|Lord Maiki||v0.7.0|188,44|6349,88|835,72|7,6</v>
+      </c>
+      <c r="U83" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>81|CB #178|R3 4300G (Renoir)|Lord Maiki||v0.7.0|1513,55|16300,78|648,51|25,14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B84" s="6">
+        <v>82</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="7">
+        <v>181</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="16">
+        <v>155.84</v>
+      </c>
+      <c r="L84" s="23">
+        <v>11590</v>
+      </c>
+      <c r="M84" s="16">
+        <v>553.66999999999996</v>
+      </c>
+      <c r="N84" s="16">
+        <v>20.93</v>
+      </c>
+      <c r="O84" s="24">
+        <v>1136.33</v>
+      </c>
+      <c r="P84" s="23">
+        <v>5208</v>
+      </c>
+      <c r="Q84" s="16">
+        <v>168.99</v>
+      </c>
+      <c r="R84" s="16">
+        <v>30.82</v>
+      </c>
+      <c r="S84" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 1165G7 (TigerLake) [82]</v>
+      </c>
+      <c r="T84" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|155,84|11590|553,67|20,93</v>
+      </c>
+      <c r="U84" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|1136,33|5208|168,99|30,82</v>
       </c>
     </row>
   </sheetData>
@@ -15471,18 +16209,19 @@
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1" display="https://www.forum-3dcenter.org/vbulletin/member.php?u=9072" xr:uid="{88633189-35CB-42F8-9FD4-567025EE54D9}"/>
     <hyperlink ref="G29" r:id="rId2" display="https://www.forum-3dcenter.org/vbulletin/member.php?u=9072" xr:uid="{5DE3216B-5AF9-4587-BCFF-0DB645E87253}"/>
+    <hyperlink ref="G82" r:id="rId3" xr:uid="{E635F3C7-194B-4272-834E-994909D95D5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C44"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
@@ -15514,7 +16253,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3">
         <v>16.690000000000001</v>
@@ -15530,7 +16269,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3">
         <v>26.38</v>
@@ -15538,7 +16277,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3">
         <v>28.37</v>
@@ -15554,7 +16293,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3">
         <v>35.72</v>
@@ -15562,7 +16301,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3">
         <v>37.380000000000003</v>
@@ -15570,7 +16309,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3">
         <v>40.92</v>
@@ -15578,7 +16317,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3">
         <v>41.74</v>
@@ -15594,7 +16333,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="3">
         <v>50.22</v>
@@ -15602,7 +16341,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3">
         <v>54.74</v>
@@ -15610,7 +16349,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3">
         <v>55.06</v>
@@ -15618,7 +16357,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3">
         <v>58.15</v>
@@ -15626,7 +16365,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3">
         <v>58.25</v>
@@ -15634,7 +16373,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3">
         <v>58.95</v>
@@ -15642,7 +16381,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="3">
         <v>61.55</v>
@@ -15650,194 +16389,226 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="C21" s="3">
-        <v>74.44</v>
+        <v>65.849999999999994</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3">
-        <v>75.569999999999993</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C23" s="3">
-        <v>77.22</v>
+        <v>75.569999999999993</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="3">
-        <v>78.09</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3">
-        <v>83.49</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3">
-        <v>88.24</v>
+        <v>83.49</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3">
-        <v>94.92</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C28" s="3">
-        <v>101.29</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C29" s="3">
-        <v>107.39</v>
+        <v>95.02</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3">
-        <v>111.07</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3">
-        <v>112.03</v>
+        <v>107.39</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C32" s="3">
-        <v>126.49</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3">
-        <v>127.76</v>
+        <v>112.03</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="C34" s="3">
-        <v>137.88</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3">
-        <v>143.16999999999999</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3">
-        <v>146.74</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C37" s="3">
-        <v>147.47999999999999</v>
+        <v>143.16999999999999</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3">
-        <v>153.88</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C39" s="3">
-        <v>158.59</v>
+        <v>147.47999999999999</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3">
-        <v>168.79</v>
+        <v>153.88</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C41" s="3">
-        <v>172.46</v>
+        <v>155.84</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C42" s="3">
-        <v>190</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C43" s="3">
-        <v>216.08</v>
+        <v>168.79</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="3">
+        <v>188.44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="3">
+        <v>210.66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3">
+        <v>216.08</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="3">
-        <v>3611.4999999999995</v>
+      <c r="C48" s="3">
+        <v>4154.8499999999995</v>
       </c>
     </row>
   </sheetData>
@@ -15848,7 +16619,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C44"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -15888,7 +16659,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1">
         <v>38525</v>
@@ -15896,7 +16667,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1">
         <v>33913</v>
@@ -15920,7 +16691,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1">
         <v>30535</v>
@@ -15928,7 +16699,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1">
         <v>30292</v>
@@ -15936,7 +16707,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1">
         <v>27864</v>
@@ -15944,7 +16715,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1">
         <v>27072.99</v>
@@ -15952,7 +16723,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1">
         <v>26935</v>
@@ -15960,7 +16731,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1">
         <v>25952</v>
@@ -15968,7 +16739,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1">
         <v>25887</v>
@@ -15976,7 +16747,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>25543</v>
@@ -15984,7 +16755,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1">
         <v>24558</v>
@@ -15992,7 +16763,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1">
         <v>24128.5</v>
@@ -16000,7 +16771,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1">
         <v>20650</v>
@@ -16008,7 +16779,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1">
         <v>20078</v>
@@ -16016,7 +16787,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="1">
         <v>20057.62</v>
@@ -16024,7 +16795,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1">
         <v>18966</v>
@@ -16032,7 +16803,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1">
         <v>18192</v>
@@ -16040,7 +16811,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1">
         <v>15775</v>
@@ -16048,7 +16819,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="1">
         <v>13745</v>
@@ -16056,7 +16827,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1">
         <v>13379.46</v>
@@ -16064,7 +16835,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1">
         <v>13062.5</v>
@@ -16072,7 +16843,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1">
         <v>12519</v>
@@ -16088,18 +16859,18 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1">
-        <v>11096</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1">
-        <v>10777</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16112,7 +16883,7 @@
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="1">
         <v>10432</v>
@@ -16128,7 +16899,7 @@
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1">
         <v>10395</v>
@@ -16144,7 +16915,7 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1">
         <v>10124</v>
@@ -16160,50 +16931,82 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C39" s="1">
-        <v>8278</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C40" s="1">
-        <v>7799</v>
+        <v>8577.2000000000007</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1">
-        <v>7445</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C42" s="1">
-        <v>7302.14</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="C43" s="1">
-        <v>6987</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7302.14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6349.88</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
-        <v>770648.21</v>
+      <c r="C48" s="1">
+        <v>803978.28999999992</v>
       </c>
     </row>
   </sheetData>
@@ -16214,7 +17017,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C44"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -16246,7 +17049,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3">
         <v>35.61</v>
@@ -16254,7 +17057,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="3">
         <v>177.27</v>
@@ -16262,7 +17065,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3">
         <v>184.8</v>
@@ -16270,7 +17073,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3">
         <v>226.44</v>
@@ -16294,7 +17097,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3">
         <v>269.61</v>
@@ -16302,274 +17105,306 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C11" s="3">
-        <v>336.42</v>
+        <v>287.18</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3">
-        <v>384.59</v>
+        <v>336.42</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C13" s="3">
-        <v>388.05</v>
+        <v>384.59</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3">
-        <v>447.21</v>
+        <v>388.05</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3">
-        <v>451.85</v>
+        <v>447.21</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3">
-        <v>560.07000000000005</v>
+        <v>451.85</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3">
-        <v>590.89</v>
+        <v>512.39</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C18" s="3">
-        <v>656.66</v>
+        <v>560.07000000000005</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="C19" s="3">
-        <v>739.31</v>
+        <v>590.89</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C20" s="3">
-        <v>768.82</v>
+        <v>656.66</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3">
-        <v>838.17</v>
+        <v>739.31</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3">
-        <v>885.22</v>
+        <v>768.82</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3">
-        <v>925.56</v>
+        <v>838.17</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3">
-        <v>1216.69</v>
+        <v>885.22</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3">
-        <v>1386.39</v>
+        <v>925.56</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C26" s="3">
-        <v>1438.78</v>
+        <v>1136.33</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3">
-        <v>1502.87</v>
+        <v>1216.69</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3">
-        <v>1535</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C29" s="3">
-        <v>1818.77</v>
+        <v>1502.87</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C30" s="3">
-        <v>1878.68</v>
+        <v>1513.55</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3">
-        <v>2061.89</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3">
-        <v>2098.9899999999998</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3">
-        <v>2341.54</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C34" s="3">
-        <v>2564.7600000000002</v>
+        <v>2061.89</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C35" s="3">
-        <v>2569.91</v>
+        <v>2098.9899999999998</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C36" s="3">
-        <v>2637.56</v>
+        <v>2341.54</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C37" s="3">
-        <v>2656.06</v>
+        <v>2564.7600000000002</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3">
-        <v>3171.28</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C39" s="3">
-        <v>3599.63</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3">
-        <v>3936.18</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3">
-        <v>4388.1099999999997</v>
+        <v>3171.28</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="C42" s="3">
-        <v>4461.2299999999996</v>
+        <v>3492.77</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3">
-        <v>6668.05</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3936.18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4388.1099999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4461.2299999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6668.05</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="3">
-        <v>63299.110000000008</v>
+      <c r="C48" s="3">
+        <v>68802.55</v>
       </c>
     </row>
   </sheetData>
@@ -16581,7 +17416,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C44"/>
+  <dimension ref="B1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
@@ -16613,7 +17448,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1">
         <v>27143.22</v>
@@ -16629,7 +17464,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
         <v>18669</v>
@@ -16637,7 +17472,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1">
         <v>17714</v>
@@ -16645,298 +17480,330 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1">
-        <v>13138</v>
+        <v>16300.78</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
-        <v>12920</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C10" s="1">
-        <v>12266</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1">
-        <v>12017</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1">
-        <v>11691</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1">
-        <v>11189.89</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1">
-        <v>10172</v>
+        <v>11189.89</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1">
-        <v>10055</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1">
-        <v>9308</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1">
-        <v>9015.32</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1">
-        <v>8980.59</v>
+        <v>9015.32</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1">
-        <v>7620</v>
+        <v>8980.59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="C20" s="1">
-        <v>7223</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1">
-        <v>6777</v>
+        <v>7406.61</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
-        <v>5870.3512499999997</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1">
-        <v>5785</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1">
-        <v>5444</v>
+        <v>5870.3512499999997</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1">
-        <v>5262</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1">
-        <v>5238</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
-        <v>5226</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1">
-        <v>5187.88</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1">
-        <v>5030</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1">
-        <v>4965</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1">
-        <v>4868</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1">
-        <v>4575</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C33" s="1">
-        <v>4516</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C34" s="1">
-        <v>4149</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1">
-        <v>3912</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="C36" s="1">
-        <v>3886</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1">
-        <v>3825</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1">
-        <v>3774</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1">
-        <v>3010</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1">
-        <v>2723.7275</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C41" s="1">
-        <v>2588</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C42" s="1">
-        <v>2410</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
-        <v>2029</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2723.7275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
-        <v>320703.97875000001</v>
+      <c r="C48" s="1">
+        <v>354170.36875000002</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63674F5C-6CD5-42C5-9404-C20781B9CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CE065-B6B2-44A4-A701-02FD47F4F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -833,10 +833,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -847,17 +847,17 @@
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border>
-        <left style="thin">
-          <color rgb="FF7F7F7F"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -9393,7 +9393,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
   <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9748,7 +9748,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10103,7 +10103,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
   <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10458,7 +10458,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
   <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10905,13 +10905,13 @@
     <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="5" dataCellStyle="Komma"/>
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="4" dataCellStyle="Eingabe"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="3" dataCellStyle="Eingabe"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="0" dataCellStyle="Standard">
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="2" dataCellStyle="Standard">
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="1" dataCellStyle="Standard">
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11185,10 +11185,10 @@
   <dimension ref="B1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11220,10 +11220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="26"/>
       <c r="D1" t="s">
         <v>195</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>77</v>
       </c>
       <c r="G1">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -11242,7 +11242,7 @@
         <v>105</v>
       </c>
       <c r="G2">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
@@ -16041,7 +16041,7 @@
       <c r="F82" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="25" t="s">
         <v>201</v>
       </c>
       <c r="H82" s="8"/>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CE065-B6B2-44A4-A701-02FD47F4F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D416F-D40E-4324-934C-32D5D6618ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="210">
   <si>
     <t>CPU</t>
   </si>
@@ -469,9 +469,6 @@
     <t>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</t>
   </si>
   <si>
-    <t>R7 5800H (Cezanne) v0.5.1 [42]</t>
-  </si>
-  <si>
     <t>i5 4300U (Haswell)</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>i7 4800MQ (Haswell) v0.6.0 [52]</t>
   </si>
   <si>
-    <t>R7 5900X (Vermeer) @95W v0.6.0 [45]</t>
-  </si>
-  <si>
     <t>i5 4300U (Haswell) v0.6.0 [58]</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>Golden Sample?</t>
   </si>
   <si>
-    <t>@45W</t>
-  </si>
-  <si>
     <t>R7 2700X (Pinnacle Ridge)</t>
   </si>
   <si>
@@ -604,9 +595,6 @@
     <t>R5 3500U (Picasso) [73]</t>
   </si>
   <si>
-    <t>i7 9750H (Coffee Lake) @45W [71]</t>
-  </si>
-  <si>
     <t>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</t>
   </si>
   <si>
@@ -674,6 +662,15 @@
   </si>
   <si>
     <t>R7 5800H (Cezanne) [77]</t>
+  </si>
+  <si>
+    <t>i5 11500 (Rocket Lake)</t>
+  </si>
+  <si>
+    <t>i5 11500 (Rocket Lake) [83]</t>
+  </si>
+  <si>
+    <t>i7 9750H (Coffee Lake) [71]</t>
   </si>
 </sst>
 </file>
@@ -1389,9 +1386,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$48</c:f>
+              <c:f>'PES ST'!$B$4:$B$47</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -1432,31 +1429,31 @@
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                  <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>R5 3500U (Picasso) [73]</c:v>
+                  <c:v>i5 11500 (Rocket Lake) [83]</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
@@ -1477,7 +1474,7 @@
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                  <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
@@ -1510,18 +1507,15 @@
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
+                  <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>R3 4300G (Renoir) [81]</c:v>
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>R5 4500U (Renoir) [74]</c:v>
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>R7 5800H (Cezanne) [77]</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
@@ -1529,10 +1523,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$48</c:f>
+              <c:f>'PES ST'!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
@@ -1573,31 +1567,31 @@
                   <c:v>55.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.15</c:v>
+                  <c:v>58.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.25</c:v>
+                  <c:v>58.95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58.95</c:v>
+                  <c:v>61.55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61.55</c:v>
+                  <c:v>65.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.849999999999994</c:v>
+                  <c:v>74.44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.44</c:v>
+                  <c:v>75.569999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.569999999999993</c:v>
+                  <c:v>77.22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.22</c:v>
+                  <c:v>78.09</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78.09</c:v>
+                  <c:v>83.47</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>83.49</c:v>
@@ -1651,18 +1645,15 @@
                   <c:v>158.59</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>168.79</c:v>
+                  <c:v>188.44</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>188.44</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>190</c:v>
+                  <c:v>210.66</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>210.66</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>216.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -2424,9 +2415,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$48</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$47</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -2434,43 +2425,43 @@
                   <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
+                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
+                  <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>R7 5800X (Vermeer) [66]</c:v>
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
+                  <c:v>i5 11500 (Rocket Lake) [83]</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
@@ -2497,7 +2488,7 @@
                   <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                  <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
@@ -2527,36 +2518,33 @@
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Celeron N5100 (JasperLake) [80]</c:v>
+                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>P Silver N6000 (JasperLake) [79]</c:v>
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>R5 4500U (Renoir) [74]</c:v>
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
               </c:strCache>
@@ -2564,10 +2552,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$48</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>55373</c:v>
                 </c:pt>
@@ -2575,43 +2563,43 @@
                   <c:v>38525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33913</c:v>
+                  <c:v>32204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32204</c:v>
+                  <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32112</c:v>
+                  <c:v>30535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30535</c:v>
+                  <c:v>30292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30292</c:v>
+                  <c:v>27864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27864</c:v>
+                  <c:v>27072.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27072.99</c:v>
+                  <c:v>26935</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26935</c:v>
+                  <c:v>25952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25952</c:v>
+                  <c:v>25887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25887</c:v>
+                  <c:v>25543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25543</c:v>
+                  <c:v>24558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24558</c:v>
+                  <c:v>24128.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24128.5</c:v>
+                  <c:v>20987</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20650</c:v>
@@ -2668,36 +2656,33 @@
                   <c:v>10352</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10124</c:v>
+                  <c:v>9839</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9839</c:v>
+                  <c:v>9505</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9505</c:v>
+                  <c:v>8577.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8577.2000000000007</c:v>
+                  <c:v>8278</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8278</c:v>
+                  <c:v>8085</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8085</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7799</c:v>
+                  <c:v>7445</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7445</c:v>
+                  <c:v>7302.14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7302.14</c:v>
+                  <c:v>6987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6987</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>6349.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -3395,9 +3380,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$48</c:f>
+              <c:f>'PES MT'!$B$4:$B$47</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -3474,43 +3459,43 @@
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>i5 11500 (Rocket Lake) [83]</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>i7 9750H (Coffee Lake) [71]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>R7 5800H (Cezanne) [77]</c:v>
@@ -3522,12 +3507,9 @@
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
               </c:strCache>
@@ -3535,10 +3517,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$48</c:f>
+              <c:f>'PES MT'!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>35.61</c:v>
                 </c:pt>
@@ -3615,43 +3597,43 @@
                   <c:v>1386.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>1480.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1502.87</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1513.55</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2061.89</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2098.9899999999998</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2341.54</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>2564.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>2656.06</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3171.28</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3492.77</c:v>
@@ -3663,12 +3645,9 @@
                   <c:v>3936.18</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4388.1099999999997</c:v>
+                  <c:v>4461.2299999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4461.2299999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>6668.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4597,11 +4576,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$48</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$47</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>i7 9750H (Coffee Lake) @45W [71]</c:v>
+                  <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
@@ -4661,37 +4640,37 @@
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>i5 11500 (Rocket Lake) [83]</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>i7 1165G7 (TigerLake) [82]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
@@ -4700,36 +4679,33 @@
                   <c:v>Celeron N5100 (JasperLake) [80]</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                  <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>R7 5800H (Cezanne) [77]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                  <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>R5 4500U (Renoir) [74]</c:v>
+                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>R5 2500U (Raven Ridge) [75]</c:v>
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>R7 4700U (Renoir) [1]</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
@@ -4737,10 +4713,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$48</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>27143.22</c:v>
                 </c:pt>
@@ -4802,37 +4778,37 @@
                   <c:v>6777</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5870.3512499999997</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>5238</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>5208</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>4965</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4868</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4575</c:v>
@@ -4841,36 +4817,33 @@
                   <c:v>4550</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4516</c:v>
+                  <c:v>4149</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4149</c:v>
+                  <c:v>3912</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3912</c:v>
+                  <c:v>3886</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3886</c:v>
+                  <c:v>3825</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3825</c:v>
+                  <c:v>3775</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3775</c:v>
+                  <c:v>3010</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3010</c:v>
+                  <c:v>2723.7275</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2723.7275</c:v>
+                  <c:v>2588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2588</c:v>
+                  <c:v>2410</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2410</c:v>
-                </c:pt>
-                <c:pt idx="43">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -7410,13 +7383,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44421.707040856483" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="80" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44422.376297916664" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="81" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="82"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="83"/>
     </cacheField>
     <cacheField name="Ver" numFmtId="0">
       <sharedItems/>
@@ -7470,7 +7443,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="139">
+      <sharedItems count="141">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7539,7 +7512,7 @@
         <s v="i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]"/>
         <s v="R5 3500U (Picasso) [69]"/>
         <s v="R5 3500U (Picasso) [70]"/>
-        <s v="i7 9750H (Coffee Lake) @45W [71]"/>
+        <s v="i7 9750H (Coffee Lake) [71]"/>
         <s v="R7 2700X (Pinnacle Ridge) [72]"/>
         <s v="R5 3500U (Picasso) [73]"/>
         <s v="R5 4500U (Renoir) [74]"/>
@@ -7551,6 +7524,7 @@
         <s v="Celeron N5100 (JasperLake) [80]"/>
         <s v="R3 4300G (Renoir) [81]"/>
         <s v="i7 1165G7 (TigerLake) [82]"/>
+        <s v="i5 11500 (Rocket Lake) [83]"/>
         <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
         <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
@@ -7575,6 +7549,7 @@
         <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
         <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
         <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @45W [71]" u="1"/>
         <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
         <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
         <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
@@ -7628,7 +7603,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
   <r>
     <n v="1"/>
     <s v="v0.7.0"/>
@@ -8540,7 +8515,7 @@
     <s v="Darkearth27"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="168.79"/>
     <n v="10124"/>
     <n v="585.17999999999995"/>
@@ -8606,7 +8581,7 @@
     <s v="Asghan"/>
     <s v="@95W"/>
     <s v="@95W"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="58.15"/>
     <n v="33913"/>
     <n v="507.07"/>
@@ -9133,7 +9108,7 @@
     <s v="i7 9750H (Coffee Lake)"/>
     <s v="Blende Up"/>
     <m/>
-    <s v="@45W"/>
+    <m/>
     <x v="0"/>
     <n v="111.07"/>
     <n v="13062.5"/>
@@ -9389,12 +9364,34 @@
     <s v="82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|155,84|11590|553,67|20,93"/>
     <s v="82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|1136,33|5208|168,99|30,82"/>
   </r>
+  <r>
+    <n v="83"/>
+    <s v="v0.7.2"/>
+    <s v="CB"/>
+    <n v="184"/>
+    <s v="i5 11500 (Rocket Lake)"/>
+    <s v="Freiheraus"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="83.47"/>
+    <n v="20987"/>
+    <n v="570.83000000000004"/>
+    <n v="36.770000000000003"/>
+    <n v="1480.21"/>
+    <n v="6750"/>
+    <n v="100.09"/>
+    <n v="67.44"/>
+    <x v="80"/>
+    <s v="83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|83,47|20987|570,83|36,77"/>
+    <s v="83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|1480,21|6750|100,09|67,44"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9420,27 +9417,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="140">
+      <items count="142">
+        <item m="1" x="132"/>
+        <item m="1" x="113"/>
+        <item m="1" x="125"/>
+        <item m="1" x="140"/>
+        <item m="1" x="135"/>
+        <item m="1" x="82"/>
+        <item m="1" x="104"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="97"/>
+        <item m="1" x="138"/>
+        <item m="1" x="108"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="134"/>
         <item m="1" x="130"/>
-        <item m="1" x="111"/>
-        <item m="1" x="123"/>
-        <item m="1" x="138"/>
-        <item m="1" x="133"/>
-        <item m="1" x="81"/>
-        <item m="1" x="103"/>
-        <item m="1" x="83"/>
-        <item m="1" x="105"/>
+        <item m="1" x="126"/>
         <item m="1" x="96"/>
-        <item m="1" x="136"/>
-        <item m="1" x="106"/>
-        <item m="1" x="84"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="128"/>
-        <item m="1" x="124"/>
-        <item m="1" x="95"/>
-        <item m="1" x="118"/>
-        <item m="1" x="114"/>
+        <item m="1" x="120"/>
+        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9449,11 +9446,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="102"/>
+        <item m="1" x="103"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="135"/>
+        <item m="1" x="137"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9461,12 +9458,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="112"/>
-        <item m="1" x="115"/>
-        <item m="1" x="126"/>
-        <item m="1" x="131"/>
+        <item m="1" x="114"/>
         <item m="1" x="117"/>
-        <item m="1" x="125"/>
+        <item m="1" x="128"/>
+        <item m="1" x="133"/>
+        <item m="1" x="119"/>
+        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9475,24 +9472,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="110"/>
-        <item m="1" x="97"/>
-        <item m="1" x="113"/>
+        <item m="1" x="112"/>
+        <item m="1" x="98"/>
+        <item m="1" x="115"/>
         <item x="29"/>
-        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="90"/>
+        <item m="1" x="92"/>
+        <item m="1" x="101"/>
+        <item m="1" x="94"/>
+        <item m="1" x="83"/>
+        <item m="1" x="95"/>
+        <item m="1" x="100"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="106"/>
+        <item m="1" x="102"/>
+        <item m="1" x="121"/>
         <item m="1" x="89"/>
-        <item m="1" x="91"/>
-        <item m="1" x="100"/>
-        <item m="1" x="93"/>
-        <item m="1" x="82"/>
-        <item m="1" x="94"/>
-        <item m="1" x="99"/>
-        <item m="1" x="122"/>
-        <item m="1" x="87"/>
-        <item m="1" x="104"/>
-        <item m="1" x="101"/>
-        <item m="1" x="119"/>
-        <item m="1" x="88"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9509,20 +9506,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="98"/>
-        <item m="1" x="116"/>
-        <item m="1" x="121"/>
-        <item m="1" x="92"/>
+        <item m="1" x="99"/>
+        <item m="1" x="118"/>
+        <item m="1" x="123"/>
+        <item m="1" x="93"/>
+        <item m="1" x="131"/>
+        <item m="1" x="81"/>
+        <item m="1" x="139"/>
         <item m="1" x="129"/>
-        <item m="1" x="80"/>
-        <item m="1" x="137"/>
-        <item m="1" x="127"/>
-        <item m="1" x="120"/>
-        <item m="1" x="90"/>
-        <item m="1" x="134"/>
-        <item m="1" x="108"/>
+        <item m="1" x="122"/>
+        <item m="1" x="91"/>
+        <item m="1" x="136"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
         <item m="1" x="109"/>
-        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9548,7 +9545,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item x="68"/>
+        <item m="1" x="105"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -9560,6 +9557,8 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9578,7 +9577,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="44">
     <i>
       <x v="81"/>
     </i>
@@ -9619,9 +9618,6 @@
       <x v="73"/>
     </i>
     <i>
-      <x v="104"/>
-    </i>
-    <i>
       <x v="83"/>
     </i>
     <i>
@@ -9646,6 +9642,9 @@
       <x v="129"/>
     </i>
     <i>
+      <x v="139"/>
+    </i>
+    <i>
       <x v="80"/>
     </i>
     <i>
@@ -9664,7 +9663,7 @@
       <x v="110"/>
     </i>
     <i>
-      <x v="127"/>
+      <x v="140"/>
     </i>
     <i>
       <x v="119"/>
@@ -9695,9 +9694,6 @@
     </i>
     <i>
       <x v="103"/>
-    </i>
-    <i>
-      <x v="86"/>
     </i>
     <i>
       <x v="137"/>
@@ -9748,8 +9744,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
-  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9775,27 +9771,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="140">
+      <items count="142">
+        <item m="1" x="132"/>
+        <item m="1" x="113"/>
+        <item m="1" x="125"/>
+        <item m="1" x="140"/>
+        <item m="1" x="135"/>
+        <item m="1" x="82"/>
+        <item m="1" x="104"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="97"/>
+        <item m="1" x="138"/>
+        <item m="1" x="108"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="134"/>
         <item m="1" x="130"/>
-        <item m="1" x="111"/>
-        <item m="1" x="123"/>
-        <item m="1" x="138"/>
-        <item m="1" x="133"/>
-        <item m="1" x="81"/>
-        <item m="1" x="103"/>
-        <item m="1" x="83"/>
-        <item m="1" x="105"/>
+        <item m="1" x="126"/>
         <item m="1" x="96"/>
-        <item m="1" x="136"/>
-        <item m="1" x="106"/>
-        <item m="1" x="84"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="128"/>
-        <item m="1" x="124"/>
-        <item m="1" x="95"/>
-        <item m="1" x="118"/>
-        <item m="1" x="114"/>
+        <item m="1" x="120"/>
+        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9804,11 +9800,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="102"/>
+        <item m="1" x="103"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="135"/>
+        <item m="1" x="137"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9816,12 +9812,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="112"/>
-        <item m="1" x="115"/>
-        <item m="1" x="126"/>
-        <item m="1" x="131"/>
+        <item m="1" x="114"/>
         <item m="1" x="117"/>
-        <item m="1" x="125"/>
+        <item m="1" x="128"/>
+        <item m="1" x="133"/>
+        <item m="1" x="119"/>
+        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9830,24 +9826,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="110"/>
-        <item m="1" x="97"/>
-        <item m="1" x="113"/>
+        <item m="1" x="112"/>
+        <item m="1" x="98"/>
+        <item m="1" x="115"/>
         <item x="29"/>
-        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="90"/>
+        <item m="1" x="92"/>
+        <item m="1" x="101"/>
+        <item m="1" x="94"/>
+        <item m="1" x="83"/>
+        <item m="1" x="95"/>
+        <item m="1" x="100"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="106"/>
+        <item m="1" x="102"/>
+        <item m="1" x="121"/>
         <item m="1" x="89"/>
-        <item m="1" x="91"/>
-        <item m="1" x="100"/>
-        <item m="1" x="93"/>
-        <item m="1" x="82"/>
-        <item m="1" x="94"/>
-        <item m="1" x="99"/>
-        <item m="1" x="122"/>
-        <item m="1" x="87"/>
-        <item m="1" x="104"/>
-        <item m="1" x="101"/>
-        <item m="1" x="119"/>
-        <item m="1" x="88"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9864,20 +9860,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="98"/>
-        <item m="1" x="116"/>
-        <item m="1" x="121"/>
-        <item m="1" x="92"/>
+        <item m="1" x="99"/>
+        <item m="1" x="118"/>
+        <item m="1" x="123"/>
+        <item m="1" x="93"/>
+        <item m="1" x="131"/>
+        <item m="1" x="81"/>
+        <item m="1" x="139"/>
         <item m="1" x="129"/>
-        <item m="1" x="80"/>
-        <item m="1" x="137"/>
-        <item m="1" x="127"/>
-        <item m="1" x="120"/>
-        <item m="1" x="90"/>
-        <item m="1" x="134"/>
-        <item m="1" x="108"/>
+        <item m="1" x="122"/>
+        <item m="1" x="91"/>
+        <item m="1" x="136"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
         <item m="1" x="109"/>
-        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9903,7 +9899,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item x="68"/>
+        <item m="1" x="105"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -9915,6 +9911,8 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9933,15 +9931,12 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="44">
     <i>
       <x v="50"/>
     </i>
     <i>
       <x v="78"/>
-    </i>
-    <i>
-      <x v="104"/>
     </i>
     <i>
       <x v="36"/>
@@ -9980,6 +9975,9 @@
       <x v="111"/>
     </i>
     <i>
+      <x v="139"/>
+    </i>
+    <i>
       <x v="84"/>
     </i>
     <i>
@@ -10004,7 +10002,7 @@
       <x v="115"/>
     </i>
     <i>
-      <x v="127"/>
+      <x v="140"/>
     </i>
     <i>
       <x v="124"/>
@@ -10032,9 +10030,6 @@
     </i>
     <i>
       <x v="24"/>
-    </i>
-    <i>
-      <x v="86"/>
     </i>
     <i>
       <x v="22"/>
@@ -10103,8 +10098,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
-  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10130,27 +10125,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="140">
+      <items count="142">
+        <item m="1" x="132"/>
+        <item m="1" x="113"/>
+        <item m="1" x="125"/>
+        <item m="1" x="140"/>
+        <item m="1" x="135"/>
+        <item m="1" x="82"/>
+        <item m="1" x="104"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="97"/>
+        <item m="1" x="138"/>
+        <item m="1" x="108"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="134"/>
         <item m="1" x="130"/>
-        <item m="1" x="111"/>
-        <item m="1" x="123"/>
-        <item m="1" x="138"/>
-        <item m="1" x="133"/>
-        <item m="1" x="81"/>
-        <item m="1" x="103"/>
-        <item m="1" x="83"/>
-        <item m="1" x="105"/>
+        <item m="1" x="126"/>
         <item m="1" x="96"/>
-        <item m="1" x="136"/>
-        <item m="1" x="106"/>
-        <item m="1" x="84"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="128"/>
-        <item m="1" x="124"/>
-        <item m="1" x="95"/>
-        <item m="1" x="118"/>
-        <item m="1" x="114"/>
+        <item m="1" x="120"/>
+        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10159,11 +10154,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="102"/>
+        <item m="1" x="103"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="135"/>
+        <item m="1" x="137"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10171,12 +10166,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="112"/>
-        <item m="1" x="115"/>
-        <item m="1" x="126"/>
-        <item m="1" x="131"/>
+        <item m="1" x="114"/>
         <item m="1" x="117"/>
-        <item m="1" x="125"/>
+        <item m="1" x="128"/>
+        <item m="1" x="133"/>
+        <item m="1" x="119"/>
+        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10185,24 +10180,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="110"/>
-        <item m="1" x="97"/>
-        <item m="1" x="113"/>
+        <item m="1" x="112"/>
+        <item m="1" x="98"/>
+        <item m="1" x="115"/>
         <item x="29"/>
-        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="90"/>
+        <item m="1" x="92"/>
+        <item m="1" x="101"/>
+        <item m="1" x="94"/>
+        <item m="1" x="83"/>
+        <item m="1" x="95"/>
+        <item m="1" x="100"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="106"/>
+        <item m="1" x="102"/>
+        <item m="1" x="121"/>
         <item m="1" x="89"/>
-        <item m="1" x="91"/>
-        <item m="1" x="100"/>
-        <item m="1" x="93"/>
-        <item m="1" x="82"/>
-        <item m="1" x="94"/>
-        <item m="1" x="99"/>
-        <item m="1" x="122"/>
-        <item m="1" x="87"/>
-        <item m="1" x="104"/>
-        <item m="1" x="101"/>
-        <item m="1" x="119"/>
-        <item m="1" x="88"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10219,20 +10214,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="98"/>
-        <item m="1" x="116"/>
-        <item m="1" x="121"/>
-        <item m="1" x="92"/>
+        <item m="1" x="99"/>
+        <item m="1" x="118"/>
+        <item m="1" x="123"/>
+        <item m="1" x="93"/>
+        <item m="1" x="131"/>
+        <item m="1" x="81"/>
+        <item m="1" x="139"/>
         <item m="1" x="129"/>
-        <item m="1" x="80"/>
-        <item m="1" x="137"/>
-        <item m="1" x="127"/>
-        <item m="1" x="120"/>
-        <item m="1" x="90"/>
-        <item m="1" x="134"/>
-        <item m="1" x="108"/>
+        <item m="1" x="122"/>
+        <item m="1" x="91"/>
+        <item m="1" x="136"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
         <item m="1" x="109"/>
-        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10258,7 +10253,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item x="68"/>
+        <item m="1" x="105"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -10270,6 +10265,8 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10288,7 +10285,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="44">
     <i>
       <x v="81"/>
     </i>
@@ -10365,13 +10362,16 @@
       <x v="21"/>
     </i>
     <i>
+      <x v="139"/>
+    </i>
+    <i>
       <x v="128"/>
     </i>
     <i>
       <x v="137"/>
     </i>
     <i>
-      <x v="127"/>
+      <x v="140"/>
     </i>
     <i>
       <x v="31"/>
@@ -10401,9 +10401,6 @@
       <x v="20"/>
     </i>
     <i>
-      <x v="86"/>
-    </i>
-    <i>
       <x v="133"/>
     </i>
     <i>
@@ -10411,9 +10408,6 @@
     </i>
     <i>
       <x v="57"/>
-    </i>
-    <i>
-      <x v="104"/>
     </i>
     <i>
       <x v="76"/>
@@ -10458,8 +10452,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
-  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10485,27 +10479,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="140">
+      <items count="142">
+        <item m="1" x="132"/>
+        <item m="1" x="113"/>
+        <item m="1" x="125"/>
+        <item m="1" x="140"/>
+        <item m="1" x="135"/>
+        <item m="1" x="82"/>
+        <item m="1" x="104"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="97"/>
+        <item m="1" x="138"/>
+        <item m="1" x="108"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="134"/>
         <item m="1" x="130"/>
-        <item m="1" x="111"/>
-        <item m="1" x="123"/>
-        <item m="1" x="138"/>
-        <item m="1" x="133"/>
-        <item m="1" x="81"/>
-        <item m="1" x="103"/>
-        <item m="1" x="83"/>
-        <item m="1" x="105"/>
+        <item m="1" x="126"/>
         <item m="1" x="96"/>
-        <item m="1" x="136"/>
-        <item m="1" x="106"/>
-        <item m="1" x="84"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="128"/>
-        <item m="1" x="124"/>
-        <item m="1" x="95"/>
-        <item m="1" x="118"/>
-        <item m="1" x="114"/>
+        <item m="1" x="120"/>
+        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10514,11 +10508,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="102"/>
+        <item m="1" x="103"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="135"/>
+        <item m="1" x="137"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10526,12 +10520,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="112"/>
-        <item m="1" x="115"/>
-        <item m="1" x="126"/>
-        <item m="1" x="131"/>
+        <item m="1" x="114"/>
         <item m="1" x="117"/>
-        <item m="1" x="125"/>
+        <item m="1" x="128"/>
+        <item m="1" x="133"/>
+        <item m="1" x="119"/>
+        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10540,24 +10534,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
-        <item m="1" x="110"/>
-        <item m="1" x="97"/>
-        <item m="1" x="113"/>
+        <item m="1" x="112"/>
+        <item m="1" x="98"/>
+        <item m="1" x="115"/>
         <item x="29"/>
-        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="90"/>
+        <item m="1" x="92"/>
+        <item m="1" x="101"/>
+        <item m="1" x="94"/>
+        <item m="1" x="83"/>
+        <item m="1" x="95"/>
+        <item m="1" x="100"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="106"/>
+        <item m="1" x="102"/>
+        <item m="1" x="121"/>
         <item m="1" x="89"/>
-        <item m="1" x="91"/>
-        <item m="1" x="100"/>
-        <item m="1" x="93"/>
-        <item m="1" x="82"/>
-        <item m="1" x="94"/>
-        <item m="1" x="99"/>
-        <item m="1" x="122"/>
-        <item m="1" x="87"/>
-        <item m="1" x="104"/>
-        <item m="1" x="101"/>
-        <item m="1" x="119"/>
-        <item m="1" x="88"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10574,20 +10568,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="98"/>
-        <item m="1" x="116"/>
-        <item m="1" x="121"/>
-        <item m="1" x="92"/>
+        <item m="1" x="99"/>
+        <item m="1" x="118"/>
+        <item m="1" x="123"/>
+        <item m="1" x="93"/>
+        <item m="1" x="131"/>
+        <item m="1" x="81"/>
+        <item m="1" x="139"/>
         <item m="1" x="129"/>
-        <item m="1" x="80"/>
-        <item m="1" x="137"/>
-        <item m="1" x="127"/>
-        <item m="1" x="120"/>
-        <item m="1" x="90"/>
-        <item m="1" x="134"/>
-        <item m="1" x="108"/>
+        <item m="1" x="122"/>
+        <item m="1" x="91"/>
+        <item m="1" x="136"/>
+        <item m="1" x="110"/>
+        <item m="1" x="111"/>
         <item m="1" x="109"/>
-        <item m="1" x="107"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10613,7 +10607,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item x="68"/>
+        <item m="1" x="105"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -10625,6 +10619,8 @@
         <item x="77"/>
         <item x="78"/>
         <item x="79"/>
+        <item x="80"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10643,9 +10639,9 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="44">
     <i>
-      <x v="127"/>
+      <x v="140"/>
     </i>
     <i>
       <x v="50"/>
@@ -10705,6 +10701,9 @@
       <x v="122"/>
     </i>
     <i>
+      <x v="139"/>
+    </i>
+    <i>
       <x v="132"/>
     </i>
     <i>
@@ -10735,16 +10734,10 @@
       <x v="119"/>
     </i>
     <i>
-      <x v="104"/>
-    </i>
-    <i>
       <x v="30"/>
     </i>
     <i>
       <x v="136"/>
-    </i>
-    <i>
-      <x v="86"/>
     </i>
     <i>
       <x v="87"/>
@@ -10885,8 +10878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U84" totalsRowShown="0">
-  <autoFilter ref="B4:U84" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U85" totalsRowShown="0">
+  <autoFilter ref="B4:U85" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
@@ -11182,13 +11175,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U84"/>
+  <dimension ref="B1:U85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11225,7 +11218,7 @@
       </c>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>77</v>
@@ -11247,16 +11240,16 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -11312,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>108</v>
@@ -13846,7 +13839,9 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K46" s="16">
         <v>168.79</v>
       </c>
@@ -14031,7 +14026,9 @@
       <c r="I49" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="J49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K49" s="16">
         <v>58.15</v>
       </c>
@@ -14150,7 +14147,7 @@
         <v>117</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -14211,7 +14208,7 @@
         <v>120</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
@@ -14522,7 +14519,7 @@
         <v>114</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
@@ -14701,7 +14698,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>129</v>
@@ -14760,10 +14757,10 @@
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -14819,10 +14816,10 @@
         <v>63</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -14881,10 +14878,10 @@
         <v>128</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
@@ -14941,10 +14938,10 @@
         <v>102</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -15000,10 +14997,10 @@
         <v>102</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -15062,10 +15059,10 @@
         <v>49</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
@@ -15178,7 +15175,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>108</v>
@@ -15237,7 +15234,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>113</v>
@@ -15252,10 +15249,10 @@
         <v>120</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J69" s="8" t="s">
         <v>41</v>
@@ -15311,16 +15308,16 @@
         <v>118</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="I70" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16">
@@ -15365,7 +15362,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>113</v>
@@ -15377,7 +15374,7 @@
         <v>128</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -15426,7 +15423,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>113</v>
@@ -15441,7 +15438,7 @@
         <v>114</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
@@ -15489,7 +15486,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>113</v>
@@ -15504,9 +15501,7 @@
         <v>129</v>
       </c>
       <c r="H73" s="8"/>
-      <c r="I73" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="I73" s="12"/>
       <c r="J73" s="8"/>
       <c r="K73" s="16">
         <v>111.07</v>
@@ -15534,7 +15529,7 @@
       </c>
       <c r="S73" s="21" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
-        <v>i7 9750H (Coffee Lake) @45W [71]</v>
+        <v>i7 9750H (Coffee Lake) [71]</v>
       </c>
       <c r="T73" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -15550,7 +15545,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>113</v>
@@ -15559,10 +15554,10 @@
         <v>149</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -15609,7 +15604,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>113</v>
@@ -15621,10 +15616,10 @@
         <v>128</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -15670,7 +15665,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>108</v>
@@ -15731,7 +15726,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>108</v>
@@ -15740,10 +15735,10 @@
         <v>212</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -15790,7 +15785,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>113</v>
@@ -15802,7 +15797,7 @@
         <v>119</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -15851,7 +15846,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>108</v>
@@ -15863,7 +15858,7 @@
         <v>104</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -15910,7 +15905,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>108</v>
@@ -15922,7 +15917,7 @@
         <v>119</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
@@ -15971,7 +15966,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>108</v>
@@ -15980,10 +15975,10 @@
         <v>242</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -16030,7 +16025,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>108</v>
@@ -16039,10 +16034,10 @@
         <v>244</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -16089,7 +16084,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>113</v>
@@ -16098,10 +16093,10 @@
         <v>178</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -16148,7 +16143,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>113</v>
@@ -16160,7 +16155,7 @@
         <v>60</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -16200,6 +16195,65 @@
       <c r="U84" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>82|CB #181|i7 1165G7 (TigerLake)|mkl1||v0.7.0|1136,33|5208|168,99|30,82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B85" s="6">
+        <v>83</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="7">
+        <v>184</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="16">
+        <v>83.47</v>
+      </c>
+      <c r="L85" s="23">
+        <v>20987</v>
+      </c>
+      <c r="M85" s="16">
+        <v>570.83000000000004</v>
+      </c>
+      <c r="N85" s="16">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="O85" s="24">
+        <v>1480.21</v>
+      </c>
+      <c r="P85" s="23">
+        <v>6750</v>
+      </c>
+      <c r="Q85" s="16">
+        <v>100.09</v>
+      </c>
+      <c r="R85" s="16">
+        <v>67.44</v>
+      </c>
+      <c r="S85" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 11500 (Rocket Lake) [83]</v>
+      </c>
+      <c r="T85" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|83,47|20987|570,83|36,77</v>
+      </c>
+      <c r="U85" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|1480,21|6750|100,09|67,44</v>
       </c>
     </row>
   </sheetData>
@@ -16221,7 +16275,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C48"/>
+  <dimension ref="B1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
@@ -16277,7 +16331,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3">
         <v>28.37</v>
@@ -16293,7 +16347,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3">
         <v>35.72</v>
@@ -16301,7 +16355,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="3">
         <v>37.380000000000003</v>
@@ -16309,7 +16363,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3">
         <v>40.92</v>
@@ -16317,7 +16371,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3">
         <v>41.74</v>
@@ -16333,7 +16387,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" s="3">
         <v>50.22</v>
@@ -16357,74 +16411,74 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3">
-        <v>58.15</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3">
-        <v>58.25</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3">
-        <v>58.95</v>
+        <v>61.55</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C20" s="3">
-        <v>61.55</v>
+        <v>65.849999999999994</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3">
-        <v>65.849999999999994</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="3">
-        <v>74.44</v>
+        <v>75.569999999999993</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C23" s="3">
-        <v>75.569999999999993</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3">
-        <v>77.22</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C25" s="3">
-        <v>78.09</v>
+        <v>83.47</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16445,7 +16499,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3">
         <v>94.92</v>
@@ -16453,7 +16507,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C29" s="3">
         <v>95.02</v>
@@ -16461,7 +16515,7 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3">
         <v>101.29</v>
@@ -16469,7 +16523,7 @@
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3">
         <v>107.39</v>
@@ -16477,7 +16531,7 @@
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C32" s="3">
         <v>111.07</v>
@@ -16485,7 +16539,7 @@
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3">
         <v>112.03</v>
@@ -16493,7 +16547,7 @@
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3">
         <v>126.49</v>
@@ -16517,7 +16571,7 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3">
         <v>143.16999999999999</v>
@@ -16533,7 +16587,7 @@
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C39" s="3">
         <v>147.47999999999999</v>
@@ -16549,7 +16603,7 @@
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C41" s="3">
         <v>155.84</v>
@@ -16557,7 +16611,7 @@
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3">
         <v>158.59</v>
@@ -16565,50 +16619,42 @@
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3">
-        <v>168.79</v>
+        <v>188.44</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C44" s="3">
-        <v>188.44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C45" s="3">
-        <v>190</v>
+        <v>210.66</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3">
-        <v>210.66</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>216.08</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4154.8499999999995</v>
+        <v>4011.3799999999997</v>
       </c>
     </row>
   </sheetData>
@@ -16619,7 +16665,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C48"/>
+  <dimension ref="B1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -16667,106 +16713,106 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1">
-        <v>33913</v>
+        <v>32204</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1">
-        <v>32204</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1">
-        <v>32112</v>
+        <v>30535</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1">
-        <v>30535</v>
+        <v>30292</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1">
-        <v>30292</v>
+        <v>27864</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1">
-        <v>27864</v>
+        <v>27072.99</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1">
-        <v>27072.99</v>
+        <v>26935</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1">
-        <v>26935</v>
+        <v>25952</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1">
-        <v>25952</v>
+        <v>25887</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1">
-        <v>25887</v>
+        <v>25543</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1">
-        <v>25543</v>
+        <v>24558</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1">
-        <v>24558</v>
+        <v>24128.5</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1">
-        <v>24128.5</v>
+        <v>20987</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16787,7 +16833,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1">
         <v>20057.62</v>
@@ -16795,7 +16841,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1">
         <v>18966</v>
@@ -16811,7 +16857,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="1">
         <v>15775</v>
@@ -16819,7 +16865,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1">
         <v>13745</v>
@@ -16827,7 +16873,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1">
         <v>13379.46</v>
@@ -16835,7 +16881,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C27" s="1">
         <v>13062.5</v>
@@ -16843,7 +16889,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1">
         <v>12519</v>
@@ -16859,7 +16905,7 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1">
         <v>11590</v>
@@ -16883,7 +16929,7 @@
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1">
         <v>10432</v>
@@ -16899,7 +16945,7 @@
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="1">
         <v>10395</v>
@@ -16915,98 +16961,90 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1">
-        <v>10124</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="C38" s="1">
-        <v>9839</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1">
-        <v>9505</v>
+        <v>8577.2000000000007</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C40" s="1">
-        <v>8577.2000000000007</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C41" s="1">
-        <v>8278</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C42" s="1">
-        <v>8085</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
-        <v>7799</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1">
-        <v>7445</v>
+        <v>7302.14</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1">
-        <v>7302.14</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="C46" s="1">
-        <v>6987</v>
+        <v>6349.88</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>6349.88</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1">
-        <v>803978.28999999992</v>
+        <v>780928.28999999992</v>
       </c>
     </row>
   </sheetData>
@@ -17017,7 +17055,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C48"/>
+  <dimension ref="B1:C47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -17057,7 +17095,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3">
         <v>177.27</v>
@@ -17065,7 +17103,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="3">
         <v>184.8</v>
@@ -17073,7 +17111,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3">
         <v>226.44</v>
@@ -17105,7 +17143,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C11" s="3">
         <v>287.18</v>
@@ -17129,7 +17167,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3">
         <v>388.05</v>
@@ -17137,7 +17175,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3">
         <v>447.21</v>
@@ -17145,7 +17183,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3">
         <v>451.85</v>
@@ -17153,7 +17191,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C17" s="3">
         <v>512.39</v>
@@ -17169,7 +17207,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="3">
         <v>590.89</v>
@@ -17193,7 +17231,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3">
         <v>768.82</v>
@@ -17201,7 +17239,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3">
         <v>838.17</v>
@@ -17225,7 +17263,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C26" s="3">
         <v>1136.33</v>
@@ -17233,7 +17271,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3">
         <v>1216.69</v>
@@ -17249,111 +17287,111 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C29" s="3">
-        <v>1502.87</v>
+        <v>1480.21</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C30" s="3">
-        <v>1513.55</v>
+        <v>1502.87</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C31" s="3">
-        <v>1535</v>
+        <v>1513.55</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="C32" s="3">
-        <v>1818.77</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3">
-        <v>1878.68</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3">
-        <v>2061.89</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3">
-        <v>2098.9899999999998</v>
+        <v>2061.89</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3">
-        <v>2341.54</v>
+        <v>2098.9899999999998</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3">
-        <v>2564.7600000000002</v>
+        <v>2341.54</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C38" s="3">
-        <v>2569.91</v>
+        <v>2564.7600000000002</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3">
-        <v>2637.56</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3">
-        <v>2656.06</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C41" s="3">
-        <v>3171.28</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C42" s="3">
         <v>3492.77</v>
@@ -17377,34 +17415,26 @@
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C45" s="3">
-        <v>4388.1099999999997</v>
+        <v>4461.2299999999996</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3">
-        <v>4461.2299999999996</v>
+        <v>6668.05</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="C47" s="3">
-        <v>6668.05</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="3">
-        <v>68802.55</v>
+        <v>62723.37000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17416,7 +17446,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C48"/>
+  <dimension ref="B1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
@@ -17448,7 +17478,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1">
         <v>27143.22</v>
@@ -17472,7 +17502,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1">
         <v>17714</v>
@@ -17480,7 +17510,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1">
         <v>16300.78</v>
@@ -17520,7 +17550,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1">
         <v>11691</v>
@@ -17528,7 +17558,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1">
         <v>11189.89</v>
@@ -17536,7 +17566,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1">
         <v>10172</v>
@@ -17560,7 +17590,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1">
         <v>9015.32</v>
@@ -17568,7 +17598,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="1">
         <v>8980.59</v>
@@ -17576,7 +17606,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C20" s="1">
         <v>7620</v>
@@ -17584,7 +17614,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1">
         <v>7406.61</v>
@@ -17600,7 +17630,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1">
         <v>6777</v>
@@ -17608,90 +17638,90 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C24" s="1">
-        <v>5870.3512499999997</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1">
-        <v>5785</v>
+        <v>5870.3512499999997</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
-        <v>5444</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1">
-        <v>5262</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1">
-        <v>5238</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1">
-        <v>5226</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1">
-        <v>5208</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C31" s="1">
-        <v>5187.88</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1">
-        <v>5030</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1">
-        <v>4965</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C34" s="1">
-        <v>4868</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17704,7 +17734,7 @@
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C36" s="1">
         <v>4550</v>
@@ -17712,98 +17742,90 @@
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1">
-        <v>4516</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1">
-        <v>4149</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1">
-        <v>3912</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C40" s="1">
-        <v>3886</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C41" s="1">
-        <v>3825</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
-        <v>3775</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C43" s="1">
-        <v>3010</v>
+        <v>2723.7275</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1">
-        <v>2723.7275</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1">
-        <v>2588</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1">
-        <v>2410</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="1">
-        <v>354170.36875000002</v>
+        <v>351536.36875000002</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D416F-D40E-4324-934C-32D5D6618ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982C056-3AAC-4F21-A5CE-D19BEE0378B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="218">
   <si>
     <t>CPU</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Avg. Pwr. MT</t>
   </si>
   <si>
-    <t>Current Version</t>
-  </si>
-  <si>
     <t>Summe von Cons. ST</t>
   </si>
   <si>
@@ -671,6 +668,33 @@
   </si>
   <si>
     <t>i7 9750H (Coffee Lake) [71]</t>
+  </si>
+  <si>
+    <t>i7 11700K (Rocket Lake)</t>
+  </si>
+  <si>
+    <t>Triskaine</t>
+  </si>
+  <si>
+    <t>i5 11400F (Rocket Lake)</t>
+  </si>
+  <si>
+    <t>zymotic</t>
+  </si>
+  <si>
+    <t>@-95mV</t>
+  </si>
+  <si>
+    <t>-95mV offset</t>
+  </si>
+  <si>
+    <t>i7 11700K (Rocket Lake) [84]</t>
+  </si>
+  <si>
+    <t>i5 11400F (Rocket Lake) @-95mV [85]</t>
+  </si>
+  <si>
+    <t>Current Vrsn</t>
   </si>
 </sst>
 </file>
@@ -1386,9 +1410,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$47</c:f>
+              <c:f>'PES ST'!$B$4:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -1459,63 +1483,69 @@
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>i7 11700K (Rocket Lake) [84]</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>P Silver N6000 (JasperLake) [79]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>i5 11400F (Rocket Lake) @-95mV [85]</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>i7 1165G7 (TigerLake) [82]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
@@ -1523,10 +1553,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$47</c:f>
+              <c:f>'PES ST'!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
@@ -1597,63 +1627,69 @@
                   <c:v>83.49</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>83.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>94.92</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>95.02</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>101.29</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
+                  <c:v>106.64</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>107.39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>111.07</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>112.03</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>126.49</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>143.16999999999999</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>147.47999999999999</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>155.84</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>158.59</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>188.44</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>210.66</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>216.08</c:v>
                 </c:pt>
               </c:numCache>
@@ -2415,9 +2451,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$47</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
@@ -2461,90 +2497,96 @@
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>i7 11700K (Rocket Lake) [84]</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>i5 11500 (Rocket Lake) [83]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>i5 11400F (Rocket Lake) @-95mV [85]</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>i7 1165G7 (TigerLake) [82]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>Celeron N5100 (JasperLake) [80]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>P Silver N6000 (JasperLake) [79]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
               </c:strCache>
@@ -2552,10 +2594,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$47</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>55373</c:v>
                 </c:pt>
@@ -2599,90 +2641,96 @@
                   <c:v>24128.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>23458.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>20987</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20650</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>20078</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>20057.62</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>18966</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>18192</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>16480.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>15775</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>13745</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>13379.46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>13062.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>12519</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>11590</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>11096</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>10450</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>10432</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>10395</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>9839</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>9505</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>8577.2000000000007</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>8278</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>8085</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>7799</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>7445</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>7302.14</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>6987</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>6349.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -3380,9 +3428,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$47</c:f>
+              <c:f>'PES MT'!$B$4:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
                 </c:pt>
@@ -3462,54 +3510,60 @@
                   <c:v>i5 11500 (Rocket Lake) [83]</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>i5 11400F (Rocket Lake) @-95mV [85]</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>R3 4300G (Renoir) [81]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>i7 11700K (Rocket Lake) [84]</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
               </c:strCache>
@@ -3517,10 +3571,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$47</c:f>
+              <c:f>'PES MT'!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>35.61</c:v>
                 </c:pt>
@@ -3600,54 +3654,60 @@
                   <c:v>1480.21</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>1485.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1502.87</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1513.55</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1535</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1878.68</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
+                  <c:v>1887.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2061.89</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>2098.9899999999998</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>2341.54</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>2564.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>2569.91</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>2656.06</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>3492.77</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>3936.18</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>4461.2299999999996</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>6668.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4576,9 +4636,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$47</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>i7 9750H (Coffee Lake) [71]</c:v>
                 </c:pt>
@@ -4628,84 +4688,90 @@
                   <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>i7 11700K (Rocket Lake) [84]</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>R7 2700X (Pinnacle Ridge) [72]</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>P Silver N6000 (JasperLake) [79]</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>R7 5800X (Vermeer) [66]</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>i5 11500 (Rocket Lake) [83]</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>i5 11400F (Rocket Lake) @-95mV [85]</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>R5 5600X (Vermeer) [76]</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>R5 3500U (Picasso) [73]</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>i7 1165G7 (TigerLake) [82]</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>Celeron N5100 (JasperLake) [80]</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>R7 5800H (Cezanne) [77]</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>R5 4500U (Renoir) [74]</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>R5 2500U (Raven Ridge) [75]</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
@@ -4713,10 +4779,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$47</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>27143.22</c:v>
                 </c:pt>
@@ -4766,84 +4832,90 @@
                   <c:v>8980.59</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8241.4330000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>7620</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>7406.61</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>6777</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>6750</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
+                  <c:v>6385</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5870.3512499999997</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>5444</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>5238</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>5226</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>5208</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>5187.88</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>5030</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>4965</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>4550</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>4149</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>3886</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>3825</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>3775</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>2723.7275</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>2588</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>2410</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -7383,13 +7455,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44422.376297916664" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="81" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44430.398624305555" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="83" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="20">
     <cacheField name="Ref." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="83"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="85"/>
     </cacheField>
     <cacheField name="Ver" numFmtId="0">
       <sharedItems/>
@@ -7398,7 +7470,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Post" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="244"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="257"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -7443,7 +7515,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="141">
+      <sharedItems count="143">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -7525,66 +7597,68 @@
         <s v="R3 4300G (Renoir) [81]"/>
         <s v="i7 1165G7 (TigerLake) [82]"/>
         <s v="i5 11500 (Rocket Lake) [83]"/>
-        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="i7 11700K (Rocket Lake) [84]"/>
+        <s v="i5 11400F (Rocket Lake) @-95mV [85]"/>
+        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
+        <s v="R5 5600X (Vermeer) [46]" u="1"/>
+        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
+        <s v="R5 4500U (Renoir) [29]" u="1"/>
+        <s v="i5 4300U (Haswell) [58]" u="1"/>
+        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
+        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
+        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
+        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
+        <s v="i7 5775C (Broadwell) [28]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @45W [71]" u="1"/>
+        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
+        <s v="R7 5800H (Cezanne) [42]" u="1"/>
+        <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
+        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
         <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
         <s v="R9 5900X (Vermeer) [31]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
-        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
-        <s v="R7 4700U (Renoir) v0.5.1 [1]" u="1"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
         <s v="R9 5900X (Vermeer) [32]" u="1"/>
         <s v="R5 3500U (Picasso) [53]" u="1"/>
         <s v="R9 5900X (Vermeer) [33]" u="1"/>
-        <s v="R7 3700X (Matisse) [47]" u="1"/>
+        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="i5 4300U [58]" u="1"/>
+        <s v="i7 4800MQ (Haswell) [52]" u="1"/>
+        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
+        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
+        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
+        <s v="R9 5950X (Vermeer) [21]" u="1"/>
+        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R9 5950X (Vermeer) [26]" u="1"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="R5 3500U (Picasso) [48]" u="1"/>
+        <s v="??? v0.3.1 [23]" u="1"/>
+        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
+        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
+        <s v="R7 3700X (Matisse) @95W [49]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
         <s v="R7 5800X (Vermeer) [35]" u="1"/>
-        <s v="Celeron N3450 (Apollo Lake) [37]" u="1"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
-        <s v="i7 5775C (Broadwell) [28]" u="1"/>
-        <s v="R5 4600H (Renoir) Win11 [44]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
         <s v="R7 5800X (Vermeer) [38]" u="1"/>
-        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]" u="1"/>
-        <s v="i7 8700k (Coffee Lake) @5Ghz [41]" u="1"/>
-        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
-        <s v="i7 9750H (Coffee Lake) @45W [71]" u="1"/>
-        <s v="i5 7500 (Kaby Lake) 4C/4T [40]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
-        <s v="i5 4300U (Haswell) [58]" u="1"/>
-        <s v="i7 3770K (Ivy Bridge) [57]" u="1"/>
-        <s v="i5 4300U [58]" u="1"/>
-        <s v="R7 4750G (Renoir) @20W [27]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
-        <s v="R9 5950X (Vermeer) [21]" u="1"/>
-        <s v="R5 4500U (Renoir) [29]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
-        <s v="R9 5950X (Vermeer) [22]" u="1"/>
-        <s v="R7 5900X (Vermeer) @95W [45]" u="1"/>
-        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
-        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
-        <s v="R7 5800H (Cezanne) [42]" u="1"/>
-        <s v="i7 4800MQ (Haswell) [52]" u="1"/>
-        <s v="R5 5600X (Vermeer) [46]" u="1"/>
-        <s v="i7 7500U (Kaby Lake) 2C/4T [36]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
-        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
-        <s v="R9 5950X (Vermeer) [26]" u="1"/>
-        <s v="??? v0.3.1 [23]" u="1"/>
-        <s v="i5 8250U (WhiskeyLake) [51]" u="1"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
-        <s v="R5 3500U (Picasso) [48]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
-        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
-        <s v="i7 9750H (Coffee Lake) @55W;-140mV [56]" u="1"/>
-        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
-        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
-        <s v="R7 3700X (Matisse) @PBO [50]" u="1"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
+        <s v="i5 8600k (Coffee Lake) [39]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="BB-Code Single-Thread" numFmtId="0">
@@ -7603,7 +7677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="83">
   <r>
     <n v="1"/>
     <s v="v0.7.0"/>
@@ -9386,12 +9460,56 @@
     <s v="83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|83,47|20987|570,83|36,77"/>
     <s v="83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|1480,21|6750|100,09|67,44"/>
   </r>
+  <r>
+    <n v="84"/>
+    <s v="v0.7.2"/>
+    <s v="3DC"/>
+    <n v="257"/>
+    <s v="i7 11700K (Rocket Lake)"/>
+    <s v="Triskaine"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="83.97"/>
+    <n v="23458.63"/>
+    <n v="507.64"/>
+    <n v="46.21"/>
+    <n v="1887.59"/>
+    <n v="8241.4330000000009"/>
+    <n v="642.82000000000005"/>
+    <n v="128.21"/>
+    <x v="81"/>
+    <s v="84|3DC #257|i7 11700K (Rocket Lake)|Triskaine||v0.7.2|83,97|23458,63|507,64|46,21"/>
+    <s v="84|3DC #257|i7 11700K (Rocket Lake)|Triskaine||v0.7.2|1887,59|8241,433|642,82|128,21"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="v0.7.2"/>
+    <s v="CB"/>
+    <n v="186"/>
+    <s v="i5 11400F (Rocket Lake)"/>
+    <s v="zymotic"/>
+    <s v="-95mV offset"/>
+    <s v="@-95mV"/>
+    <x v="0"/>
+    <n v="106.64"/>
+    <n v="16480.22"/>
+    <n v="568.99"/>
+    <n v="28.96"/>
+    <n v="1485.51"/>
+    <n v="6385"/>
+    <n v="674.74"/>
+    <n v="94.63"/>
+    <x v="82"/>
+    <s v="85|CB #186|i5 11400F (Rocket Lake)|zymotic|-95mV offset|v0.7.2|106,64|16480,22|568,99|28,96"/>
+    <s v="85|CB #186|i5 11400F (Rocket Lake)|zymotic|-95mV offset|v0.7.2|1485,51|6385|674,74|94,63"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="35">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+  <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9417,27 +9535,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="142">
-        <item m="1" x="132"/>
+      <items count="144">
+        <item m="1" x="94"/>
+        <item m="1" x="92"/>
+        <item m="1" x="85"/>
+        <item m="1" x="107"/>
+        <item m="1" x="140"/>
+        <item m="1" x="108"/>
+        <item m="1" x="129"/>
+        <item m="1" x="109"/>
+        <item m="1" x="86"/>
+        <item m="1" x="136"/>
         <item m="1" x="113"/>
+        <item m="1" x="133"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="102"/>
+        <item m="1" x="101"/>
+        <item m="1" x="83"/>
+        <item m="1" x="118"/>
         <item m="1" x="125"/>
-        <item m="1" x="140"/>
-        <item m="1" x="135"/>
-        <item m="1" x="82"/>
-        <item m="1" x="104"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="97"/>
-        <item m="1" x="138"/>
-        <item m="1" x="108"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="134"/>
-        <item m="1" x="130"/>
-        <item m="1" x="126"/>
-        <item m="1" x="96"/>
-        <item m="1" x="120"/>
-        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9446,11 +9564,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="103"/>
+        <item m="1" x="122"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="137"/>
+        <item m="1" x="99"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9458,12 +9576,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="114"/>
-        <item m="1" x="117"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="131"/>
+        <item m="1" x="98"/>
+        <item m="1" x="93"/>
         <item m="1" x="128"/>
-        <item m="1" x="133"/>
-        <item m="1" x="119"/>
-        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9472,24 +9590,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="117"/>
+        <item m="1" x="100"/>
+        <item m="1" x="89"/>
+        <item x="29"/>
         <item m="1" x="112"/>
-        <item m="1" x="98"/>
-        <item m="1" x="115"/>
-        <item x="29"/>
-        <item m="1" x="86"/>
-        <item m="1" x="90"/>
-        <item m="1" x="92"/>
-        <item m="1" x="101"/>
-        <item m="1" x="94"/>
-        <item m="1" x="83"/>
-        <item m="1" x="95"/>
-        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="116"/>
         <item m="1" x="124"/>
-        <item m="1" x="88"/>
+        <item m="1" x="137"/>
+        <item m="1" x="111"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
+        <item m="1" x="97"/>
+        <item m="1" x="142"/>
+        <item m="1" x="110"/>
+        <item m="1" x="123"/>
+        <item m="1" x="105"/>
         <item m="1" x="106"/>
-        <item m="1" x="102"/>
-        <item m="1" x="121"/>
-        <item m="1" x="89"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9506,20 +9624,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="99"/>
-        <item m="1" x="118"/>
-        <item m="1" x="123"/>
-        <item m="1" x="93"/>
-        <item m="1" x="131"/>
-        <item m="1" x="81"/>
-        <item m="1" x="139"/>
-        <item m="1" x="129"/>
-        <item m="1" x="122"/>
-        <item m="1" x="91"/>
-        <item m="1" x="136"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="109"/>
+        <item m="1" x="121"/>
+        <item m="1" x="132"/>
+        <item m="1" x="87"/>
+        <item m="1" x="95"/>
+        <item m="1" x="130"/>
+        <item m="1" x="135"/>
+        <item m="1" x="88"/>
+        <item m="1" x="96"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="104"/>
+        <item m="1" x="134"/>
+        <item m="1" x="119"/>
+        <item m="1" x="90"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9545,7 +9663,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="105"/>
+        <item m="1" x="103"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -9559,6 +9677,8 @@
         <item x="79"/>
         <item x="80"/>
         <item x="68"/>
+        <item x="81"/>
+        <item x="82"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9577,7 +9697,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="46">
     <i>
       <x v="81"/>
     </i>
@@ -9648,6 +9768,9 @@
       <x v="80"/>
     </i>
     <i>
+      <x v="141"/>
+    </i>
+    <i>
       <x v="30"/>
     </i>
     <i>
@@ -9658,6 +9781,9 @@
     </i>
     <i>
       <x v="106"/>
+    </i>
+    <i>
+      <x v="142"/>
     </i>
     <i>
       <x v="110"/>
@@ -9744,8 +9870,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+  <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9771,27 +9897,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="142">
-        <item m="1" x="132"/>
+      <items count="144">
+        <item m="1" x="94"/>
+        <item m="1" x="92"/>
+        <item m="1" x="85"/>
+        <item m="1" x="107"/>
+        <item m="1" x="140"/>
+        <item m="1" x="108"/>
+        <item m="1" x="129"/>
+        <item m="1" x="109"/>
+        <item m="1" x="86"/>
+        <item m="1" x="136"/>
         <item m="1" x="113"/>
+        <item m="1" x="133"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="102"/>
+        <item m="1" x="101"/>
+        <item m="1" x="83"/>
+        <item m="1" x="118"/>
         <item m="1" x="125"/>
-        <item m="1" x="140"/>
-        <item m="1" x="135"/>
-        <item m="1" x="82"/>
-        <item m="1" x="104"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="97"/>
-        <item m="1" x="138"/>
-        <item m="1" x="108"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="134"/>
-        <item m="1" x="130"/>
-        <item m="1" x="126"/>
-        <item m="1" x="96"/>
-        <item m="1" x="120"/>
-        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9800,11 +9926,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="103"/>
+        <item m="1" x="122"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="137"/>
+        <item m="1" x="99"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -9812,12 +9938,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="114"/>
-        <item m="1" x="117"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="131"/>
+        <item m="1" x="98"/>
+        <item m="1" x="93"/>
         <item m="1" x="128"/>
-        <item m="1" x="133"/>
-        <item m="1" x="119"/>
-        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -9826,24 +9952,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="117"/>
+        <item m="1" x="100"/>
+        <item m="1" x="89"/>
+        <item x="29"/>
         <item m="1" x="112"/>
-        <item m="1" x="98"/>
-        <item m="1" x="115"/>
-        <item x="29"/>
-        <item m="1" x="86"/>
-        <item m="1" x="90"/>
-        <item m="1" x="92"/>
-        <item m="1" x="101"/>
-        <item m="1" x="94"/>
-        <item m="1" x="83"/>
-        <item m="1" x="95"/>
-        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="116"/>
         <item m="1" x="124"/>
-        <item m="1" x="88"/>
+        <item m="1" x="137"/>
+        <item m="1" x="111"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
+        <item m="1" x="97"/>
+        <item m="1" x="142"/>
+        <item m="1" x="110"/>
+        <item m="1" x="123"/>
+        <item m="1" x="105"/>
         <item m="1" x="106"/>
-        <item m="1" x="102"/>
-        <item m="1" x="121"/>
-        <item m="1" x="89"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -9860,20 +9986,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="99"/>
-        <item m="1" x="118"/>
-        <item m="1" x="123"/>
-        <item m="1" x="93"/>
-        <item m="1" x="131"/>
-        <item m="1" x="81"/>
-        <item m="1" x="139"/>
-        <item m="1" x="129"/>
-        <item m="1" x="122"/>
-        <item m="1" x="91"/>
-        <item m="1" x="136"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="109"/>
+        <item m="1" x="121"/>
+        <item m="1" x="132"/>
+        <item m="1" x="87"/>
+        <item m="1" x="95"/>
+        <item m="1" x="130"/>
+        <item m="1" x="135"/>
+        <item m="1" x="88"/>
+        <item m="1" x="96"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="104"/>
+        <item m="1" x="134"/>
+        <item m="1" x="119"/>
+        <item m="1" x="90"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -9899,7 +10025,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="105"/>
+        <item m="1" x="103"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -9913,6 +10039,8 @@
         <item x="79"/>
         <item x="80"/>
         <item x="68"/>
+        <item x="81"/>
+        <item x="82"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -9931,7 +10059,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="46">
     <i>
       <x v="50"/>
     </i>
@@ -9975,6 +10103,9 @@
       <x v="111"/>
     </i>
     <i>
+      <x v="141"/>
+    </i>
+    <i>
       <x v="139"/>
     </i>
     <i>
@@ -9991,6 +10122,9 @@
     </i>
     <i>
       <x v="81"/>
+    </i>
+    <i>
+      <x v="142"/>
     </i>
     <i>
       <x v="106"/>
@@ -10098,8 +10232,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+  <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10125,27 +10259,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="142">
-        <item m="1" x="132"/>
+      <items count="144">
+        <item m="1" x="94"/>
+        <item m="1" x="92"/>
+        <item m="1" x="85"/>
+        <item m="1" x="107"/>
+        <item m="1" x="140"/>
+        <item m="1" x="108"/>
+        <item m="1" x="129"/>
+        <item m="1" x="109"/>
+        <item m="1" x="86"/>
+        <item m="1" x="136"/>
         <item m="1" x="113"/>
+        <item m="1" x="133"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="102"/>
+        <item m="1" x="101"/>
+        <item m="1" x="83"/>
+        <item m="1" x="118"/>
         <item m="1" x="125"/>
-        <item m="1" x="140"/>
-        <item m="1" x="135"/>
-        <item m="1" x="82"/>
-        <item m="1" x="104"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="97"/>
-        <item m="1" x="138"/>
-        <item m="1" x="108"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="134"/>
-        <item m="1" x="130"/>
-        <item m="1" x="126"/>
-        <item m="1" x="96"/>
-        <item m="1" x="120"/>
-        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10154,11 +10288,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="103"/>
+        <item m="1" x="122"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="137"/>
+        <item m="1" x="99"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10166,12 +10300,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="114"/>
-        <item m="1" x="117"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="131"/>
+        <item m="1" x="98"/>
+        <item m="1" x="93"/>
         <item m="1" x="128"/>
-        <item m="1" x="133"/>
-        <item m="1" x="119"/>
-        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10180,24 +10314,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="117"/>
+        <item m="1" x="100"/>
+        <item m="1" x="89"/>
+        <item x="29"/>
         <item m="1" x="112"/>
-        <item m="1" x="98"/>
-        <item m="1" x="115"/>
-        <item x="29"/>
-        <item m="1" x="86"/>
-        <item m="1" x="90"/>
-        <item m="1" x="92"/>
-        <item m="1" x="101"/>
-        <item m="1" x="94"/>
-        <item m="1" x="83"/>
-        <item m="1" x="95"/>
-        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="116"/>
         <item m="1" x="124"/>
-        <item m="1" x="88"/>
+        <item m="1" x="137"/>
+        <item m="1" x="111"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
+        <item m="1" x="97"/>
+        <item m="1" x="142"/>
+        <item m="1" x="110"/>
+        <item m="1" x="123"/>
+        <item m="1" x="105"/>
         <item m="1" x="106"/>
-        <item m="1" x="102"/>
-        <item m="1" x="121"/>
-        <item m="1" x="89"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10214,20 +10348,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="99"/>
-        <item m="1" x="118"/>
-        <item m="1" x="123"/>
-        <item m="1" x="93"/>
-        <item m="1" x="131"/>
-        <item m="1" x="81"/>
-        <item m="1" x="139"/>
-        <item m="1" x="129"/>
-        <item m="1" x="122"/>
-        <item m="1" x="91"/>
-        <item m="1" x="136"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="109"/>
+        <item m="1" x="121"/>
+        <item m="1" x="132"/>
+        <item m="1" x="87"/>
+        <item m="1" x="95"/>
+        <item m="1" x="130"/>
+        <item m="1" x="135"/>
+        <item m="1" x="88"/>
+        <item m="1" x="96"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="104"/>
+        <item m="1" x="134"/>
+        <item m="1" x="119"/>
+        <item m="1" x="90"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10253,7 +10387,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="105"/>
+        <item m="1" x="103"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -10267,6 +10401,8 @@
         <item x="79"/>
         <item x="80"/>
         <item x="68"/>
+        <item x="81"/>
+        <item x="82"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10285,7 +10421,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="46">
     <i>
       <x v="81"/>
     </i>
@@ -10365,6 +10501,9 @@
       <x v="139"/>
     </i>
     <i>
+      <x v="142"/>
+    </i>
+    <i>
       <x v="128"/>
     </i>
     <i>
@@ -10378,6 +10517,9 @@
     </i>
     <i>
       <x v="103"/>
+    </i>
+    <i>
+      <x v="141"/>
     </i>
     <i>
       <x v="130"/>
@@ -10452,8 +10594,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+  <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10479,27 +10621,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="142">
-        <item m="1" x="132"/>
+      <items count="144">
+        <item m="1" x="94"/>
+        <item m="1" x="92"/>
+        <item m="1" x="85"/>
+        <item m="1" x="107"/>
+        <item m="1" x="140"/>
+        <item m="1" x="108"/>
+        <item m="1" x="129"/>
+        <item m="1" x="109"/>
+        <item m="1" x="86"/>
+        <item m="1" x="136"/>
         <item m="1" x="113"/>
+        <item m="1" x="133"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="102"/>
+        <item m="1" x="101"/>
+        <item m="1" x="83"/>
+        <item m="1" x="118"/>
         <item m="1" x="125"/>
-        <item m="1" x="140"/>
-        <item m="1" x="135"/>
-        <item m="1" x="82"/>
-        <item m="1" x="104"/>
         <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="97"/>
-        <item m="1" x="138"/>
-        <item m="1" x="108"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="134"/>
-        <item m="1" x="130"/>
-        <item m="1" x="126"/>
-        <item m="1" x="96"/>
-        <item m="1" x="120"/>
-        <item m="1" x="116"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10508,11 +10650,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item m="1" x="103"/>
+        <item m="1" x="122"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item m="1" x="137"/>
+        <item m="1" x="99"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -10520,12 +10662,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
-        <item m="1" x="114"/>
-        <item m="1" x="117"/>
+        <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="131"/>
+        <item m="1" x="98"/>
+        <item m="1" x="93"/>
         <item m="1" x="128"/>
-        <item m="1" x="133"/>
-        <item m="1" x="119"/>
-        <item m="1" x="127"/>
         <item x="8"/>
         <item x="12"/>
         <item x="20"/>
@@ -10534,24 +10676,24 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item m="1" x="117"/>
+        <item m="1" x="100"/>
+        <item m="1" x="89"/>
+        <item x="29"/>
         <item m="1" x="112"/>
-        <item m="1" x="98"/>
-        <item m="1" x="115"/>
-        <item x="29"/>
-        <item m="1" x="86"/>
-        <item m="1" x="90"/>
-        <item m="1" x="92"/>
-        <item m="1" x="101"/>
-        <item m="1" x="94"/>
-        <item m="1" x="83"/>
-        <item m="1" x="95"/>
-        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="116"/>
         <item m="1" x="124"/>
-        <item m="1" x="88"/>
+        <item m="1" x="137"/>
+        <item m="1" x="111"/>
+        <item m="1" x="91"/>
+        <item m="1" x="141"/>
+        <item m="1" x="97"/>
+        <item m="1" x="142"/>
+        <item m="1" x="110"/>
+        <item m="1" x="123"/>
+        <item m="1" x="105"/>
         <item m="1" x="106"/>
-        <item m="1" x="102"/>
-        <item m="1" x="121"/>
-        <item m="1" x="89"/>
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
@@ -10568,20 +10710,20 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item m="1" x="99"/>
-        <item m="1" x="118"/>
-        <item m="1" x="123"/>
-        <item m="1" x="93"/>
-        <item m="1" x="131"/>
-        <item m="1" x="81"/>
-        <item m="1" x="139"/>
-        <item m="1" x="129"/>
-        <item m="1" x="122"/>
-        <item m="1" x="91"/>
-        <item m="1" x="136"/>
-        <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="109"/>
+        <item m="1" x="121"/>
+        <item m="1" x="132"/>
+        <item m="1" x="87"/>
+        <item m="1" x="95"/>
+        <item m="1" x="130"/>
+        <item m="1" x="135"/>
+        <item m="1" x="88"/>
+        <item m="1" x="96"/>
+        <item m="1" x="120"/>
+        <item m="1" x="115"/>
+        <item m="1" x="104"/>
+        <item m="1" x="134"/>
+        <item m="1" x="119"/>
+        <item m="1" x="90"/>
         <item x="56"/>
         <item x="43"/>
         <item x="44"/>
@@ -10607,7 +10749,7 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="105"/>
+        <item m="1" x="103"/>
         <item x="69"/>
         <item x="70"/>
         <item x="71"/>
@@ -10621,6 +10763,8 @@
         <item x="79"/>
         <item x="80"/>
         <item x="68"/>
+        <item x="81"/>
+        <item x="82"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -10639,7 +10783,7 @@
   <rowFields count="1">
     <field x="17"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="46">
     <i>
       <x v="140"/>
     </i>
@@ -10689,6 +10833,9 @@
       <x v="111"/>
     </i>
     <i>
+      <x v="141"/>
+    </i>
+    <i>
       <x v="128"/>
     </i>
     <i>
@@ -10702,6 +10849,9 @@
     </i>
     <i>
       <x v="139"/>
+    </i>
+    <i>
+      <x v="142"/>
     </i>
     <i>
       <x v="132"/>
@@ -10782,7 +10932,7 @@
   <dataFields count="1">
     <dataField name="Summe von Cons. MT" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="11">
     <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10864,6 +11014,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="38" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="39" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10878,8 +11046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U85" totalsRowShown="0">
-  <autoFilter ref="B4:U85" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U87" totalsRowShown="0">
+  <autoFilter ref="B4:U87" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
@@ -11175,13 +11343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U85"/>
+  <dimension ref="B1:U87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -11214,17 +11382,17 @@
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" s="26" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
@@ -11232,24 +11400,24 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>169</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -11261,10 +11429,10 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -11294,10 +11462,10 @@
         <v>7</v>
       </c>
       <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
         <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
@@ -11305,22 +11473,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -11369,13 +11537,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
@@ -11428,13 +11596,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -11487,13 +11655,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -11501,7 +11669,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="15">
         <v>55.41</v>
@@ -11548,13 +11716,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -11607,13 +11775,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4">
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -11623,7 +11791,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="15">
         <v>51.8</v>
@@ -11670,13 +11838,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4">
         <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -11729,13 +11897,13 @@
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4">
         <v>32</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
@@ -11743,7 +11911,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="15">
         <v>52.94</v>
@@ -11790,13 +11958,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4">
         <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
@@ -11805,10 +11973,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="15">
         <v>111.79</v>
@@ -11855,13 +12023,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="4">
         <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
@@ -11869,7 +12037,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="15">
         <v>165.09</v>
@@ -11916,13 +12084,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="4">
         <v>54</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>17</v>
@@ -11975,13 +12143,13 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4">
         <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
@@ -12034,13 +12202,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="4">
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -12049,10 +12217,10 @@
         <v>18</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="15">
         <v>173.7</v>
@@ -12099,13 +12267,13 @@
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>4</v>
@@ -12115,7 +12283,7 @@
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="15">
         <v>133.62</v>
@@ -12163,13 +12331,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="4">
         <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
@@ -12177,7 +12345,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="15">
         <v>59</v>
@@ -12224,13 +12392,13 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="4">
         <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
@@ -12240,7 +12408,7 @@
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="15">
         <v>169.55</v>
@@ -12287,13 +12455,13 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4">
         <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>24</v>
@@ -12346,13 +12514,13 @@
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4">
         <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
@@ -12362,7 +12530,7 @@
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="15">
         <v>55.08</v>
@@ -12409,13 +12577,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4">
         <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>27</v>
@@ -12423,7 +12591,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="15">
         <v>41.55</v>
@@ -12470,13 +12638,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>28</v>
@@ -12486,7 +12654,7 @@
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="15">
         <v>60.29</v>
@@ -12533,21 +12701,21 @@
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="7">
         <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="16">
         <v>62.61</v>
@@ -12594,21 +12762,21 @@
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="7">
         <v>90</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="16">
         <v>63.92</v>
@@ -12655,22 +12823,22 @@
         <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="7">
         <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="I27" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="16">
@@ -12718,23 +12886,23 @@
         <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4">
         <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="16">
         <v>172.46</v>
@@ -12781,25 +12949,25 @@
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="7">
         <v>94</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="16">
         <v>63.04</v>
@@ -12846,13 +13014,13 @@
         <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="7">
         <v>96</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>15</v>
@@ -12860,7 +13028,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="16">
         <v>59.97</v>
@@ -12904,28 +13072,28 @@
         <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="7">
         <v>118</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="16">
         <v>164.2</v>
@@ -12969,16 +13137,16 @@
         <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="7">
         <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>17</v>
@@ -13028,16 +13196,16 @@
         <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="7">
         <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>11</v>
@@ -13045,7 +13213,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="16">
         <v>186.38</v>
@@ -13092,19 +13260,19 @@
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="7">
         <v>134</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -13150,26 +13318,26 @@
         <v>31</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="7">
         <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" s="16">
         <v>60.14</v>
@@ -13213,19 +13381,19 @@
         <v>32</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="7">
         <v>136</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -13272,26 +13440,26 @@
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4">
         <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K37" s="15">
         <v>52.3</v>
@@ -13335,25 +13503,25 @@
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="7">
         <v>141</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="I38" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="16">
@@ -13398,24 +13566,24 @@
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="7">
         <v>145</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" s="16">
         <v>57.13</v>
@@ -13459,23 +13627,23 @@
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="7">
         <v>146</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="16">
@@ -13520,19 +13688,19 @@
         <v>37</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="7">
         <v>146</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
@@ -13579,24 +13747,24 @@
         <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="7">
         <v>148</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42" s="16">
         <v>68.06</v>
@@ -13640,19 +13808,19 @@
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="7">
         <v>154</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -13699,23 +13867,23 @@
         <v>40</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="7">
         <v>154</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="16">
@@ -13760,25 +13928,25 @@
         <v>41</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="7">
         <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="I45" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="16">
@@ -13823,24 +13991,24 @@
         <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="7">
         <v>156</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46" s="16">
         <v>168.79</v>
@@ -13884,19 +14052,19 @@
         <v>43</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="7">
         <v>160</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -13943,25 +14111,25 @@
         <v>44</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="7">
         <v>165</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="8" t="s">
+      <c r="I48" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="16">
@@ -14006,28 +14174,28 @@
         <v>45</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="7">
         <v>4</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="I49" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K49" s="16">
         <v>58.15</v>
@@ -14071,24 +14239,24 @@
         <v>46</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="7">
         <v>5</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K50" s="16">
         <v>90.06</v>
@@ -14132,22 +14300,22 @@
         <v>47</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="7">
         <v>9</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -14193,26 +14361,26 @@
         <v>48</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="7">
         <v>10</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52" s="16">
         <v>147.36000000000001</v>
@@ -14256,28 +14424,28 @@
         <v>49</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="7">
         <v>13</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" s="16">
         <v>69.31</v>
@@ -14321,28 +14489,28 @@
         <v>50</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="7">
         <v>14</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="I54" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54" s="16">
         <v>82.88</v>
@@ -14386,19 +14554,19 @@
         <v>51</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" s="7">
         <v>20</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -14445,19 +14613,19 @@
         <v>52</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" s="7">
         <v>36</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
@@ -14504,26 +14672,26 @@
         <v>53</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E57" s="7">
         <v>49</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K57" s="16">
         <v>91.97</v>
@@ -14567,26 +14735,26 @@
         <v>56</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" s="7">
         <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K58" s="16">
         <v>104.65</v>
@@ -14630,19 +14798,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59" s="7">
         <v>60</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -14689,19 +14857,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" s="7">
         <v>60</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
@@ -14748,19 +14916,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="7">
         <v>39</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
@@ -14807,19 +14975,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="7">
         <v>63</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
@@ -14866,26 +15034,26 @@
         <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="7">
         <v>83</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="16">
         <v>43.45</v>
@@ -14929,19 +15097,19 @@
         <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" s="7">
         <v>102</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -14988,19 +15156,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E65" s="7">
         <v>102</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
@@ -15047,26 +15215,26 @@
         <v>64</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="7">
         <v>112</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K66" s="16">
         <v>54.07</v>
@@ -15110,16 +15278,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="7">
         <v>190</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>16</v>
@@ -15128,10 +15296,10 @@
         <v>22</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K67" s="16">
         <v>256</v>
@@ -15175,19 +15343,19 @@
         <v>66</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="7">
         <v>204</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -15234,28 +15402,28 @@
         <v>67</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" s="7">
         <v>132</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69" s="16">
         <v>180.54</v>
@@ -15299,25 +15467,25 @@
         <v>68</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E70" s="7">
         <v>118</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="16">
@@ -15362,24 +15530,24 @@
         <v>69</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" s="7">
         <v>137</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71" s="16">
         <v>35.340000000000003</v>
@@ -15423,26 +15591,26 @@
         <v>70</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" s="7">
         <v>140</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72" s="16">
         <v>144.37</v>
@@ -15486,19 +15654,19 @@
         <v>71</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E73" s="7">
         <v>143</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="12"/>
@@ -15545,19 +15713,19 @@
         <v>72</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E74" s="7">
         <v>149</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
@@ -15604,22 +15772,22 @@
         <v>73</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="7">
         <v>152</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -15665,16 +15833,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" s="7">
         <v>205</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>11</v>
@@ -15726,19 +15894,19 @@
         <v>75</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="7">
         <v>212</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
@@ -15785,19 +15953,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" s="7">
         <v>173</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
@@ -15846,19 +16014,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="7">
         <v>234</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
@@ -15905,24 +16073,24 @@
         <v>78</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="7">
         <v>241</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K80" s="16">
         <v>78.38</v>
@@ -15966,19 +16134,19 @@
         <v>79</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="7">
         <v>242</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
@@ -16025,19 +16193,19 @@
         <v>80</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="7">
         <v>244</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
@@ -16084,19 +16252,19 @@
         <v>81</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83" s="7">
         <v>178</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
@@ -16143,19 +16311,19 @@
         <v>82</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E84" s="7">
         <v>181</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -16202,19 +16370,19 @@
         <v>83</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" s="7">
         <v>184</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
@@ -16254,6 +16422,129 @@
       <c r="U85" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>83|CB #184|i5 11500 (Rocket Lake)|Freiheraus||v0.7.2|1480,21|6750|100,09|67,44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B86" s="6">
+        <v>84</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="7">
+        <v>257</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="16">
+        <v>83.97</v>
+      </c>
+      <c r="L86" s="23">
+        <v>23458.63</v>
+      </c>
+      <c r="M86" s="16">
+        <v>507.64</v>
+      </c>
+      <c r="N86" s="16">
+        <v>46.21</v>
+      </c>
+      <c r="O86" s="24">
+        <v>1887.59</v>
+      </c>
+      <c r="P86" s="23">
+        <f>82414.33/10</f>
+        <v>8241.4330000000009</v>
+      </c>
+      <c r="Q86" s="16">
+        <v>642.82000000000005</v>
+      </c>
+      <c r="R86" s="16">
+        <v>128.21</v>
+      </c>
+      <c r="S86" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 11700K (Rocket Lake) [84]</v>
+      </c>
+      <c r="T86" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>84|3DC #257|i7 11700K (Rocket Lake)|Triskaine||v0.7.2|83,97|23458,63|507,64|46,21</v>
+      </c>
+      <c r="U86" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>84|3DC #257|i7 11700K (Rocket Lake)|Triskaine||v0.7.2|1887,59|8241,433|642,82|128,21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B87" s="6">
+        <v>85</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="7">
+        <v>186</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" s="8"/>
+      <c r="K87" s="16">
+        <v>106.64</v>
+      </c>
+      <c r="L87" s="23">
+        <v>16480.22</v>
+      </c>
+      <c r="M87" s="16">
+        <v>568.99</v>
+      </c>
+      <c r="N87" s="16">
+        <v>28.96</v>
+      </c>
+      <c r="O87" s="24">
+        <v>1485.51</v>
+      </c>
+      <c r="P87" s="23">
+        <v>6385</v>
+      </c>
+      <c r="Q87" s="16">
+        <v>674.74</v>
+      </c>
+      <c r="R87" s="16">
+        <v>94.63</v>
+      </c>
+      <c r="S87" s="21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 11400F (Rocket Lake) @-95mV [85]</v>
+      </c>
+      <c r="T87" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>85|CB #186|i5 11400F (Rocket Lake)|zymotic|-95mV offset|v0.7.2|106,64|16480,22|568,99|28,96</v>
+      </c>
+      <c r="U87" s="11" t="str">
+        <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>85|CB #186|i5 11400F (Rocket Lake)|zymotic|-95mV offset|v0.7.2|1485,51|6385|674,74|94,63</v>
       </c>
     </row>
   </sheetData>
@@ -16275,7 +16566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
@@ -16291,10 +16582,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16307,7 +16598,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3">
         <v>16.690000000000001</v>
@@ -16315,7 +16606,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3">
         <v>17.45</v>
@@ -16323,7 +16614,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3">
         <v>26.38</v>
@@ -16331,7 +16622,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3">
         <v>28.37</v>
@@ -16339,7 +16630,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3">
         <v>31.1</v>
@@ -16347,7 +16638,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3">
         <v>35.72</v>
@@ -16355,7 +16646,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3">
         <v>37.380000000000003</v>
@@ -16363,7 +16654,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3">
         <v>40.92</v>
@@ -16371,7 +16662,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3">
         <v>41.74</v>
@@ -16379,7 +16670,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3">
         <v>45.76</v>
@@ -16387,7 +16678,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="3">
         <v>50.22</v>
@@ -16395,7 +16686,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3">
         <v>54.74</v>
@@ -16403,7 +16694,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3">
         <v>55.06</v>
@@ -16411,7 +16702,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3">
         <v>58.25</v>
@@ -16419,7 +16710,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3">
         <v>58.95</v>
@@ -16427,7 +16718,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3">
         <v>61.55</v>
@@ -16435,7 +16726,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3">
         <v>65.849999999999994</v>
@@ -16443,7 +16734,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3">
         <v>74.44</v>
@@ -16451,7 +16742,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3">
         <v>75.569999999999993</v>
@@ -16459,7 +16750,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="3">
         <v>77.22</v>
@@ -16467,7 +16758,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3">
         <v>78.09</v>
@@ -16475,7 +16766,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="3">
         <v>83.47</v>
@@ -16483,7 +16774,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" s="3">
         <v>83.49</v>
@@ -16491,170 +16782,186 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="C27" s="3">
-        <v>88.24</v>
+        <v>83.97</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3">
-        <v>94.92</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3">
-        <v>95.02</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C30" s="3">
-        <v>101.29</v>
+        <v>95.02</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3">
-        <v>107.39</v>
+        <v>101.29</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C32" s="3">
-        <v>111.07</v>
+        <v>106.64</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3">
-        <v>112.03</v>
+        <v>107.39</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C34" s="3">
-        <v>126.49</v>
+        <v>111.07</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3">
-        <v>127.76</v>
+        <v>112.03</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3">
-        <v>137.88</v>
+        <v>126.49</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3">
-        <v>143.16999999999999</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3">
-        <v>146.74</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C39" s="3">
-        <v>147.47999999999999</v>
+        <v>143.16999999999999</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3">
-        <v>153.88</v>
+        <v>146.74</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C41" s="3">
-        <v>155.84</v>
+        <v>147.47999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3">
-        <v>158.59</v>
+        <v>153.88</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="3">
-        <v>188.44</v>
+        <v>155.84</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3">
-        <v>190</v>
+        <v>158.59</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C45" s="3">
-        <v>210.66</v>
+        <v>188.44</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3">
-        <v>216.08</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="3">
+        <v>210.66</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="3">
+        <v>216.08</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
-        <v>4011.3799999999997</v>
+      <c r="C49" s="3">
+        <v>4201.99</v>
       </c>
     </row>
   </sheetData>
@@ -16665,7 +16972,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -16681,10 +16988,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16692,12 +16999,12 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1">
         <v>55373</v>
@@ -16705,7 +17012,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1">
         <v>38525</v>
@@ -16713,7 +17020,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>32204</v>
@@ -16721,7 +17028,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>32112</v>
@@ -16729,7 +17036,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1">
         <v>30535</v>
@@ -16737,7 +17044,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1">
         <v>30292</v>
@@ -16745,7 +17052,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1">
         <v>27864</v>
@@ -16753,7 +17060,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1">
         <v>27072.99</v>
@@ -16761,7 +17068,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1">
         <v>26935</v>
@@ -16769,7 +17076,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1">
         <v>25952</v>
@@ -16777,7 +17084,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1">
         <v>25887</v>
@@ -16785,7 +17092,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1">
         <v>25543</v>
@@ -16793,7 +17100,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1">
         <v>24558</v>
@@ -16801,7 +17108,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1">
         <v>24128.5</v>
@@ -16809,66 +17116,66 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C18" s="1">
-        <v>20987</v>
+        <v>23458.63</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1">
-        <v>20650</v>
+        <v>20987</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1">
-        <v>20078</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1">
-        <v>20057.62</v>
+        <v>20078</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
-        <v>18966</v>
+        <v>20057.62</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C23" s="1">
-        <v>18192</v>
+        <v>18966</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1">
-        <v>15775</v>
+        <v>18192</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1">
-        <v>13745</v>
+        <v>16480.22</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16876,63 +17183,63 @@
         <v>160</v>
       </c>
       <c r="C26" s="1">
-        <v>13379.46</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C27" s="1">
-        <v>13062.5</v>
+        <v>13745</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1">
-        <v>12519</v>
+        <v>13379.46</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1">
-        <v>11657</v>
+        <v>13062.5</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1">
-        <v>11590</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>11096</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1">
-        <v>10450</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1">
-        <v>10432</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -16940,111 +17247,127 @@
         <v>70</v>
       </c>
       <c r="C34" s="1">
-        <v>10396</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="1">
-        <v>10395</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1">
-        <v>10352</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C37" s="1">
-        <v>9839</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1">
-        <v>9505</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1">
-        <v>8577.2000000000007</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C40" s="1">
-        <v>8278</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C41" s="1">
-        <v>8085</v>
+        <v>8577.2000000000007</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C42" s="1">
-        <v>7799</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1">
-        <v>7445</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1">
-        <v>7302.14</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1">
-        <v>6987</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C46" s="1">
-        <v>6349.88</v>
+        <v>7302.14</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6349.88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
-        <v>780928.28999999992</v>
+      <c r="C49" s="1">
+        <v>820867.1399999999</v>
       </c>
     </row>
   </sheetData>
@@ -17055,7 +17378,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
@@ -17071,10 +17394,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17087,7 +17410,7 @@
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3">
         <v>35.61</v>
@@ -17095,7 +17418,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3">
         <v>177.27</v>
@@ -17103,7 +17426,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="3">
         <v>184.8</v>
@@ -17111,7 +17434,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3">
         <v>226.44</v>
@@ -17119,7 +17442,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3">
         <v>237.59</v>
@@ -17127,7 +17450,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>262.60000000000002</v>
@@ -17135,7 +17458,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3">
         <v>269.61</v>
@@ -17143,7 +17466,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3">
         <v>287.18</v>
@@ -17151,7 +17474,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3">
         <v>336.42</v>
@@ -17159,7 +17482,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3">
         <v>384.59</v>
@@ -17167,7 +17490,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3">
         <v>388.05</v>
@@ -17175,7 +17498,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3">
         <v>447.21</v>
@@ -17183,7 +17506,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3">
         <v>451.85</v>
@@ -17191,7 +17514,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3">
         <v>512.39</v>
@@ -17199,7 +17522,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="3">
         <v>560.07000000000005</v>
@@ -17207,7 +17530,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="3">
         <v>590.89</v>
@@ -17215,7 +17538,7 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3">
         <v>656.66</v>
@@ -17223,7 +17546,7 @@
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3">
         <v>739.31</v>
@@ -17231,7 +17554,7 @@
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3">
         <v>768.82</v>
@@ -17239,7 +17562,7 @@
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3">
         <v>838.17</v>
@@ -17247,7 +17570,7 @@
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3">
         <v>885.22</v>
@@ -17255,7 +17578,7 @@
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3">
         <v>925.56</v>
@@ -17263,7 +17586,7 @@
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="3">
         <v>1136.33</v>
@@ -17271,7 +17594,7 @@
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3">
         <v>1216.69</v>
@@ -17279,7 +17602,7 @@
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3">
         <v>1386.39</v>
@@ -17287,7 +17610,7 @@
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="3">
         <v>1480.21</v>
@@ -17295,146 +17618,162 @@
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3">
-        <v>1502.87</v>
+        <v>1485.51</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C31" s="3">
-        <v>1513.55</v>
+        <v>1502.87</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3">
-        <v>1535</v>
+        <v>1513.55</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="C33" s="3">
-        <v>1818.77</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="C34" s="3">
-        <v>1878.68</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3">
-        <v>2061.89</v>
+        <v>1878.68</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C36" s="3">
-        <v>2098.9899999999998</v>
+        <v>1887.59</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3">
-        <v>2341.54</v>
+        <v>2061.89</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C38" s="3">
-        <v>2564.7600000000002</v>
+        <v>2098.9899999999998</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C39" s="3">
-        <v>2569.91</v>
+        <v>2341.54</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="C40" s="3">
-        <v>2637.56</v>
+        <v>2564.7600000000002</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C41" s="3">
-        <v>2656.06</v>
+        <v>2569.91</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3">
-        <v>3492.77</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C43" s="3">
-        <v>3599.63</v>
+        <v>2656.06</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="C44" s="3">
-        <v>3936.18</v>
+        <v>3492.77</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3">
-        <v>4461.2299999999996</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3">
-        <v>6668.05</v>
+        <v>3936.18</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4461.2299999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="3">
+        <v>6668.05</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
-        <v>62723.37000000001</v>
+      <c r="C49" s="3">
+        <v>66096.47</v>
       </c>
     </row>
   </sheetData>
@@ -17446,7 +17785,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
@@ -17462,10 +17801,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17473,12 +17812,12 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1">
         <v>27143.22</v>
@@ -17486,7 +17825,7 @@
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1">
         <v>20531</v>
@@ -17494,7 +17833,7 @@
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1">
         <v>18669</v>
@@ -17502,7 +17841,7 @@
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1">
         <v>17714</v>
@@ -17510,7 +17849,7 @@
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C8" s="1">
         <v>16300.78</v>
@@ -17518,7 +17857,7 @@
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>13138</v>
@@ -17526,7 +17865,7 @@
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1">
         <v>12920</v>
@@ -17534,7 +17873,7 @@
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1">
         <v>12266</v>
@@ -17542,7 +17881,7 @@
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1">
         <v>12017</v>
@@ -17550,7 +17889,7 @@
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1">
         <v>11691</v>
@@ -17558,7 +17897,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1">
         <v>11189.89</v>
@@ -17566,7 +17905,7 @@
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1">
         <v>10172</v>
@@ -17574,7 +17913,7 @@
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1">
         <v>10055</v>
@@ -17582,7 +17921,7 @@
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1">
         <v>9308</v>
@@ -17590,7 +17929,7 @@
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1">
         <v>9015.32</v>
@@ -17598,7 +17937,7 @@
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1">
         <v>8980.59</v>
@@ -17606,98 +17945,98 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1">
-        <v>7620</v>
+        <v>8241.4330000000009</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1">
-        <v>7406.61</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1">
-        <v>7223</v>
+        <v>7406.61</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1">
-        <v>6777</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1">
-        <v>6750</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C25" s="1">
-        <v>5870.3512499999997</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1">
-        <v>5785</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1">
-        <v>5444</v>
+        <v>5870.3512499999997</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
-        <v>5262</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1">
-        <v>5238</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1">
-        <v>5226</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1">
-        <v>5208</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -17705,127 +18044,143 @@
         <v>140</v>
       </c>
       <c r="C32" s="1">
-        <v>5187.88</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1">
-        <v>5030</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1">
-        <v>4965</v>
+        <v>5187.88</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C35" s="1">
-        <v>4575</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C36" s="1">
-        <v>4550</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
-        <v>4149</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1">
-        <v>3912</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1">
-        <v>3886</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="C40" s="1">
-        <v>3825</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1">
-        <v>3775</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C42" s="1">
-        <v>3010</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1">
-        <v>2723.7275</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1">
-        <v>2588</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1">
-        <v>2410</v>
+        <v>2723.7275</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="C46" s="1">
-        <v>2029</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
-        <v>351536.36875000002</v>
+      <c r="C49" s="1">
+        <v>366162.80175000004</v>
       </c>
     </row>
   </sheetData>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0982C056-3AAC-4F21-A5CE-D19BEE0378B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5C706-D4B8-479A-8835-089F19884038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsEntry" sheetId="1" r:id="rId1"/>
     <sheet name="PES ST" sheetId="2" r:id="rId2"/>
     <sheet name="Consumption ST" sheetId="5" r:id="rId3"/>
-    <sheet name="PES MT" sheetId="4" r:id="rId4"/>
-    <sheet name="Consumption MT" sheetId="6" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="7" r:id="rId4"/>
+    <sheet name="PES MT" sheetId="4" r:id="rId5"/>
+    <sheet name="Consumption MT" sheetId="6" r:id="rId6"/>
+    <sheet name="Perf-Power-ST" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="218">
   <si>
     <t>CPU</t>
   </si>
@@ -707,7 +709,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +739,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,8 +760,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -807,6 +823,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +863,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -858,6 +907,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -865,7 +920,151 @@
     <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -5110,6 +5309,6573 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4700U (Renoir) v0.7.0 [1]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>669.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>32112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>680.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>9839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>627.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>30057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>642.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>697.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>37274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>506.76902536093161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>6239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1433.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [10]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>11657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>972.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4750G (Renoir) @25W v0.3.1 [13]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>9122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>631.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>33870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>569.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>32204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>23918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>45942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>32182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>496.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [22]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>30783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>55373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1034.6400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.05999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>28707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552.55999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [26]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>33184.629999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 4750G (Renoir) @20W v0.5.1 [27]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>9800.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.42999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 5775C (Broadwell) v0.5.1 [28]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>20078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>904.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 4500U (Renoir) v0.5.1 [29]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$33:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>7581.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>707.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$34:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>7445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [31]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>24336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>683.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [32]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>25543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>518.05999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900X (Vermeer) v0.5.1 [33]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>38103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>38525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>983.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5800X (Vermeer) v0.5.1 [35]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$39:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>34236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$40:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>11096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1079.3699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$41:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>18192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3293.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5800X (Vermeer) v0.5.1 [38]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$42:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>28138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522.16999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 8600k (Coffee Lake) v0.5.1 [39]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$43:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>27864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>616.08000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="39"/>
+          <c:order val="39"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>20650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$45:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>25887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>627.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5800H (Cezanne) v0.5.1 [42]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                    <a:lumOff val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$46:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>585.17999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5950X (Vermeer) v0.5.1 [43]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$47:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>26935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="43"/>
+          <c:order val="43"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 4600H (Renoir) Win11 v0.6.0 [44]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$48:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>8278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>761.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5900X (Vermeer) @95W v0.6.0 [45]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$49:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>33913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 5600X (Vermeer) v0.6.0 [46]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$50:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>21193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523.91999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) v0.6.0 [47]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$51:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>15775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="47"/>
+          <c:order val="47"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.6.0 [48]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$52:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>6619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1025.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="48"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) @95W v0.6.0 [49]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$53:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>22812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>632.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="49"/>
+          <c:order val="49"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) @PBO v0.6.0 [50]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$54:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>19421.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>621.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="50"/>
+          <c:order val="50"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 8250U (WhiskeyLake) v0.6.0 [51]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$55:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>10395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>895.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="51"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 4800MQ (Haswell) v0.6.0 [52]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$56:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>24128.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1012.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="52"/>
+          <c:order val="52"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.6.0 [53]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>9072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1198.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000037-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="53"/>
+          <c:order val="53"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$58:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>13860.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="54"/>
+          <c:order val="54"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 3770K (Ivy Bridge) v0.6.0 [57]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$59:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>27072.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1034.0899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="55"/>
+          <c:order val="55"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 4300U (Haswell) v0.6.0 [58]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$60:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>13379.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1267.9000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003A-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="56"/>
+          <c:order val="56"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$61:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>30535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>784.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003B-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="57"/>
+          <c:order val="57"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 3320M (Ivy Bridge) v0.6.0 [60]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$62:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>18966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1410.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003C-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="58"/>
+          <c:order val="58"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.6.0 [61]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$63:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>19568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1239.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003D-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="59"/>
+          <c:order val="59"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 2600 (Sandy Bridge) v0.6.0 [62]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$64:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>30292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1163.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003E-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="60"/>
+          <c:order val="60"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i3 6157U (Skylake) v0.6.0 [63]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$65:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>6987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1277.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000003F-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="61"/>
+          <c:order val="61"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 3700X (Matisse) v0.6.0 [64]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$66:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>29484.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>627.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000040-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="62"/>
+          <c:order val="62"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$67:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>5293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>737.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000041-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="63"/>
+          <c:order val="63"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5800X (Vermeer) v0.7.0 [66]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$68:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>24558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>527.33000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000042-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="64"/>
+          <c:order val="64"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) Golden Sample? v0.7.0 [67]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$69:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>5863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>944.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000043-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="65"/>
+          <c:order val="65"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$70:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>12519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000044-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="66"/>
+          <c:order val="66"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.7.0 [69]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$71:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>20603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1373.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000045-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="67"/>
+          <c:order val="67"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.7.0 [70]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$72:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>6717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1031.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000046-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="68"/>
+          <c:order val="68"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 9750H (Coffee Lake) v0.7.0 [71]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$73:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>13062.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>689.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000047-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="69"/>
+          <c:order val="69"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 2700X (Pinnacle Ridge) v0.7.0 [72]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$74:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>25952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>767.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000048-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="70"/>
+          <c:order val="70"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 3500U (Picasso) v0.7.0 [73]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$75:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>13745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>931.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000049-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="71"/>
+          <c:order val="71"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 4500U (Renoir) v0.7.0 [74]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$76:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>7302.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004A-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="72"/>
+          <c:order val="72"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 2500U (Raven Ridge) v0.7.0 [75]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$77:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>7799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1013.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004B-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="73"/>
+          <c:order val="73"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 5600X (Vermeer) v0.7.0 [76]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$78:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>20057.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>525.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004C-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="74"/>
+          <c:order val="74"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R7 5800H (Cezanne) v0.7.0 [77]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$79:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>8085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>587.17999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004D-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="75"/>
+          <c:order val="75"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R5 5600X (Vermeer) v0.7.0 [78]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$80:$D$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>23969.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.30999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004E-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="76"/>
+          <c:order val="76"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P Silver N6000 (JasperLake) v0.7.2 [79]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$81:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>8577.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004F-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="77"/>
+          <c:order val="77"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Celeron N5100 (JasperLake) v0.7.2 [80]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$82:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>9505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1597.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000050-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="78"/>
+          <c:order val="78"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3 4300G (Renoir) v0.7.0 [81]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$83:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>6349.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>835.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000051-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="79"/>
+          <c:order val="79"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 1165G7 (TigerLake) v0.7.0 [82]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$84:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>11590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553.66999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000052-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="80"/>
+          <c:order val="80"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 11500 (Rocket Lake) v0.7.2 [83]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$85:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>20987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570.83000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000053-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="81"/>
+          <c:order val="81"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i7 11700K (Rocket Lake) v0.7.2 [84]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$86:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>23458.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000054-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="82"/>
+          <c:order val="82"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i5 11400F (Rocket Lake) @-95mV v0.7.2 [85]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Perf-Power-ST'!$C$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cons. ST</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dur. ST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Perf-Power-ST'!$C$87:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>16480.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>568.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000055-C6D3-4CA3-BEC0-BB66C0EFDC07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573431215"/>
+        <c:axId val="1110749183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573431215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110749183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1110749183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573431215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5231,6 +11997,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7282,6 +14088,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7438,6 +14760,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE6B2B2-A5ED-4AF5-87D6-B7F0FB2DE515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9508,7 +16871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -9870,7 +17233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
   <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10232,7 +17595,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -10594,7 +17957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -11051,32 +18414,50 @@
   <tableColumns count="20">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
-    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Frm" dataDxfId="14" dataCellStyle="Eingabe"/>
+    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Frm" dataDxfId="19" dataCellStyle="Eingabe"/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post" dataCellStyle="Eingabe"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
-    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="13" dataCellStyle="Eingabe"/>
-    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="12" dataCellStyle="Eingabe"/>
-    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="11" dataCellStyle="Eingabe"/>
-    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataDxfId="10" dataCellStyle="Eingabe"/>
-    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataDxfId="9" dataCellStyle="Komma"/>
-    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataDxfId="8" dataCellStyle="Eingabe"/>
-    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataDxfId="7" dataCellStyle="Eingabe"/>
-    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataDxfId="6" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="5" dataCellStyle="Komma"/>
-    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="4" dataCellStyle="Eingabe"/>
-    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="3" dataCellStyle="Eingabe"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2" dataCellStyle="Standard">
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="18" dataCellStyle="Eingabe"/>
+    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="17" dataCellStyle="Eingabe"/>
+    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="16" dataCellStyle="Eingabe"/>
+    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataDxfId="15" dataCellStyle="Eingabe"/>
+    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataDxfId="14" dataCellStyle="Komma"/>
+    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataDxfId="13" dataCellStyle="Eingabe"/>
+    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataDxfId="12" dataCellStyle="Eingabe"/>
+    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="10" dataCellStyle="Komma"/>
+    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="9" dataCellStyle="Eingabe"/>
+    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="8" dataCellStyle="Eingabe"/>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="7" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1" dataCellStyle="Standard">
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="6" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Standard">
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="5" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}" name="PerfPowerST" displayName="PerfPowerST" ref="B4:D87" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="4">
+  <autoFilter ref="B4:D87" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5C2F3F4-C19A-4236-9BFB-721869560BCA}" name="GraphLabel" dataDxfId="3">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{01B3B0A8-ADBE-4612-B79B-C28EA6D97BAD}" name="Cons. ST" dataDxfId="2" dataCellStyle="Komma">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Cons. ST]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FBCA2DDA-B121-4788-AFAA-6ED61C86D4AC}" name="Dur. ST" dataDxfId="1" dataCellStyle="Eingabe">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Dur. ST]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -11345,11 +18726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -17377,6 +24758,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACA42B7-02AB-4856-A16B-BE715E441EF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
   <dimension ref="B1:C49"/>
   <sheetViews>
@@ -17783,7 +25176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
   <dimension ref="B1:C49"/>
   <sheetViews>
@@ -18188,4 +25581,1199 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093893EB-1C3B-4AC4-A954-F4CE9F9B9C4A}">
+  <dimension ref="B4:D87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4700U (Renoir) v0.7.0 [1]</v>
+      </c>
+      <c r="C5" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10432</v>
+      </c>
+      <c r="D5" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>669.57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3600 (Matisse) v0.3.1 [2]</v>
+      </c>
+      <c r="C6" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>32112</v>
+      </c>
+      <c r="D6" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>680.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 1065G (IceLake) v0.3.1 [3]</v>
+      </c>
+      <c r="C7" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>9839</v>
+      </c>
+      <c r="D7" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>795.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
+      </c>
+      <c r="C8" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>35920</v>
+      </c>
+      <c r="D8" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>502.43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) v0.3.1 [5]</v>
+      </c>
+      <c r="C9" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10352</v>
+      </c>
+      <c r="D9" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>627.79999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.3.1 [6]</v>
+      </c>
+      <c r="C10" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>30057</v>
+      </c>
+      <c r="D10" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>642.29999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4750U (Renoir) v0.3.1 [7]</v>
+      </c>
+      <c r="C11" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10396</v>
+      </c>
+      <c r="D11" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>697.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
+      </c>
+      <c r="C12" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>37274</v>
+      </c>
+      <c r="D12" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>506.76902536093161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</v>
+      </c>
+      <c r="C13" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>6239</v>
+      </c>
+      <c r="D13" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1433.91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
+      </c>
+      <c r="C14" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10936</v>
+      </c>
+      <c r="D14" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>553.86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
+      </c>
+      <c r="C15" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>11657</v>
+      </c>
+      <c r="D15" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>972.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
+      </c>
+      <c r="C16" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10450</v>
+      </c>
+      <c r="D16" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) @25W v0.3.1 [13]</v>
+      </c>
+      <c r="C17" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>9122</v>
+      </c>
+      <c r="D17" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>631.12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4700U (Renoir) v0.3.1 [14]</v>
+      </c>
+      <c r="C18" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10168</v>
+      </c>
+      <c r="D18" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
+      </c>
+      <c r="C19" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>33870</v>
+      </c>
+      <c r="D19" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>500.42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
+      </c>
+      <c r="C20" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10364</v>
+      </c>
+      <c r="D20" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>569.12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
+      </c>
+      <c r="C21" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>32204</v>
+      </c>
+      <c r="D21" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>998.38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.3.1 [18]</v>
+      </c>
+      <c r="C22" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>23918</v>
+      </c>
+      <c r="D22" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>759.07</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
+      </c>
+      <c r="C23" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>45942</v>
+      </c>
+      <c r="D23" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>523.91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
+      </c>
+      <c r="C24" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>33002</v>
+      </c>
+      <c r="D24" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>502.56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.5.0 [21]</v>
+      </c>
+      <c r="C25" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>32182</v>
+      </c>
+      <c r="D25" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>496.32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.5.0 [22]</v>
+      </c>
+      <c r="C26" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>30783</v>
+      </c>
+      <c r="D26" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>508.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</v>
+      </c>
+      <c r="C27" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>55373</v>
+      </c>
+      <c r="D27" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1034.6400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 1165G7 (TigerLake) v0.5.0 [24]</v>
+      </c>
+      <c r="C28" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10777</v>
+      </c>
+      <c r="D28" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>538.05999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</v>
+      </c>
+      <c r="C29" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>28707</v>
+      </c>
+      <c r="D29" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>552.55999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [26]</v>
+      </c>
+      <c r="C30" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>33184.629999999997</v>
+      </c>
+      <c r="D30" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>502.51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) @20W v0.5.1 [27]</v>
+      </c>
+      <c r="C31" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>9800.31</v>
+      </c>
+      <c r="D31" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>621.42999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 5775C (Broadwell) v0.5.1 [28]</v>
+      </c>
+      <c r="C32" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>20078</v>
+      </c>
+      <c r="D32" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>904.59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 4500U (Renoir) v0.5.1 [29]</v>
+      </c>
+      <c r="C33" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>7581.59</v>
+      </c>
+      <c r="D33" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>707.68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.5.0 [30]</v>
+      </c>
+      <c r="C34" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>7445</v>
+      </c>
+      <c r="D34" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>621.65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) v0.5.1 [31]</v>
+      </c>
+      <c r="C35" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>24336</v>
+      </c>
+      <c r="D35" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>683.23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) v0.5.1 [32]</v>
+      </c>
+      <c r="C36" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>25543</v>
+      </c>
+      <c r="D36" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>518.05999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) v0.5.1 [33]</v>
+      </c>
+      <c r="C37" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>38103</v>
+      </c>
+      <c r="D37" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>501.84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 2600K (Sandy Bridge) @4,4Ghz v0.5.1 [34]</v>
+      </c>
+      <c r="C38" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>38525</v>
+      </c>
+      <c r="D38" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>983.86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) v0.5.1 [35]</v>
+      </c>
+      <c r="C39" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>34236</v>
+      </c>
+      <c r="D39" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>511.24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 7500U (Kaby Lake) 2C/4T v0.5.1 [36]</v>
+      </c>
+      <c r="C40" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>11096</v>
+      </c>
+      <c r="D40" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1079.3699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>Celeron N3450 (Apollo Lake) v0.5.1 [37]</v>
+      </c>
+      <c r="C41" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>18192</v>
+      </c>
+      <c r="D41" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>3293.49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) v0.5.1 [38]</v>
+      </c>
+      <c r="C42" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>28138</v>
+      </c>
+      <c r="D42" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>522.16999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 8600k (Coffee Lake) v0.5.1 [39]</v>
+      </c>
+      <c r="C43" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>27864</v>
+      </c>
+      <c r="D43" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>616.08000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 7500 (Kaby Lake) 4C/4T v0.5.1 [40]</v>
+      </c>
+      <c r="C44" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>20650</v>
+      </c>
+      <c r="D44" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>884.67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 8700k (Coffee Lake) @5Ghz v0.5.1 [41]</v>
+      </c>
+      <c r="C45" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>25887</v>
+      </c>
+      <c r="D45" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>627.62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800H (Cezanne) v0.5.1 [42]</v>
+      </c>
+      <c r="C46" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10124</v>
+      </c>
+      <c r="D46" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>585.17999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.5.1 [43]</v>
+      </c>
+      <c r="C47" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>26935</v>
+      </c>
+      <c r="D47" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>498.76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 4600H (Renoir) Win11 v0.6.0 [44]</v>
+      </c>
+      <c r="C48" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>8278</v>
+      </c>
+      <c r="D48" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>761.74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5900X (Vermeer) @95W v0.6.0 [45]</v>
+      </c>
+      <c r="C49" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>33913</v>
+      </c>
+      <c r="D49" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>507.07</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) v0.6.0 [46]</v>
+      </c>
+      <c r="C50" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>21193</v>
+      </c>
+      <c r="D50" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>523.91999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.6.0 [47]</v>
+      </c>
+      <c r="C51" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>15775</v>
+      </c>
+      <c r="D51" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>625.84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [48]</v>
+      </c>
+      <c r="C52" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>6619</v>
+      </c>
+      <c r="D52" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1025.22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) @95W v0.6.0 [49]</v>
+      </c>
+      <c r="C53" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>22812</v>
+      </c>
+      <c r="D53" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>632.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) @PBO v0.6.0 [50]</v>
+      </c>
+      <c r="C54" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>19421.07</v>
+      </c>
+      <c r="D54" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>621.27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 8250U (WhiskeyLake) v0.6.0 [51]</v>
+      </c>
+      <c r="C55" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>10395</v>
+      </c>
+      <c r="D55" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>895.74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 4800MQ (Haswell) v0.6.0 [52]</v>
+      </c>
+      <c r="C56" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>24128.5</v>
+      </c>
+      <c r="D56" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1012.91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [53]</v>
+      </c>
+      <c r="C57" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>9072</v>
+      </c>
+      <c r="D57" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1198.55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 9750H (Coffee Lake) @55W;-140mV v0.6.0 [56]</v>
+      </c>
+      <c r="C58" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>13860.34</v>
+      </c>
+      <c r="D58" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>689.41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 3770K (Ivy Bridge) v0.6.0 [57]</v>
+      </c>
+      <c r="C59" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>27072.99</v>
+      </c>
+      <c r="D59" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1034.0899999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 4300U (Haswell) v0.6.0 [58]</v>
+      </c>
+      <c r="C60" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>13379.46</v>
+      </c>
+      <c r="D60" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1267.9000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 2600X (Pinnacle Ridge) v0.5.1 [59]</v>
+      </c>
+      <c r="C61" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>30535</v>
+      </c>
+      <c r="D61" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>784.57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 3320M (Ivy Bridge) v0.6.0 [60]</v>
+      </c>
+      <c r="C62" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>18966</v>
+      </c>
+      <c r="D62" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1410.7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.6.0 [61]</v>
+      </c>
+      <c r="C63" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>19568</v>
+      </c>
+      <c r="D63" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1239.32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 2600 (Sandy Bridge) v0.6.0 [62]</v>
+      </c>
+      <c r="C64" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>30292</v>
+      </c>
+      <c r="D64" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1163.82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i3 6157U (Skylake) v0.6.0 [63]</v>
+      </c>
+      <c r="C65" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>6987</v>
+      </c>
+      <c r="D65" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1277.45</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.6.0 [64]</v>
+      </c>
+      <c r="C66" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>29484.61</v>
+      </c>
+      <c r="D66" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>627.24</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) @ESM v0.6.0 [65]</v>
+      </c>
+      <c r="C67" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>5293</v>
+      </c>
+      <c r="D67" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>737.97</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) v0.7.0 [66]</v>
+      </c>
+      <c r="C68" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>24558</v>
+      </c>
+      <c r="D68" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>527.33000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) Golden Sample? v0.7.0 [67]</v>
+      </c>
+      <c r="C69" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>5863</v>
+      </c>
+      <c r="D69" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>944.68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i9 11980HK (TigerLake-8C) ES! See Post v0.6.0 [68]</v>
+      </c>
+      <c r="C70" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>12519</v>
+      </c>
+      <c r="D70" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>541.62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.7.0 [69]</v>
+      </c>
+      <c r="C71" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>20603</v>
+      </c>
+      <c r="D71" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1373.38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.7.0 [70]</v>
+      </c>
+      <c r="C72" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>6717</v>
+      </c>
+      <c r="D72" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1031.19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 9750H (Coffee Lake) v0.7.0 [71]</v>
+      </c>
+      <c r="C73" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>13062.5</v>
+      </c>
+      <c r="D73" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>689.24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 2700X (Pinnacle Ridge) v0.7.0 [72]</v>
+      </c>
+      <c r="C74" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>25952</v>
+      </c>
+      <c r="D74" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>767.28</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 3500U (Picasso) v0.7.0 [73]</v>
+      </c>
+      <c r="C75" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>13745</v>
+      </c>
+      <c r="D75" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>931.73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 4500U (Renoir) v0.7.0 [74]</v>
+      </c>
+      <c r="C76" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>7302.14</v>
+      </c>
+      <c r="D76" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>720.78</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 2500U (Raven Ridge) v0.7.0 [75]</v>
+      </c>
+      <c r="C77" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>7799</v>
+      </c>
+      <c r="D77" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1013.61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) v0.7.0 [76]</v>
+      </c>
+      <c r="C78" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>20057.62</v>
+      </c>
+      <c r="D78" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>525.22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R7 5800H (Cezanne) v0.7.0 [77]</v>
+      </c>
+      <c r="C79" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>8085</v>
+      </c>
+      <c r="D79" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>587.17999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R5 5600X (Vermeer) v0.7.0 [78]</v>
+      </c>
+      <c r="C80" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>23969.25</v>
+      </c>
+      <c r="D80" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>532.30999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>P Silver N6000 (JasperLake) v0.7.2 [79]</v>
+      </c>
+      <c r="C81" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>8577.2000000000007</v>
+      </c>
+      <c r="D81" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>Celeron N5100 (JasperLake) v0.7.2 [80]</v>
+      </c>
+      <c r="C82" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>9505</v>
+      </c>
+      <c r="D82" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>1597.64</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>R3 4300G (Renoir) v0.7.0 [81]</v>
+      </c>
+      <c r="C83" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>6349.88</v>
+      </c>
+      <c r="D83" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>835.72</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 1165G7 (TigerLake) v0.7.0 [82]</v>
+      </c>
+      <c r="C84" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>11590</v>
+      </c>
+      <c r="D84" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>553.66999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 11500 (Rocket Lake) v0.7.2 [83]</v>
+      </c>
+      <c r="C85" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>20987</v>
+      </c>
+      <c r="D85" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>570.83000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i7 11700K (Rocket Lake) v0.7.2 [84]</v>
+      </c>
+      <c r="C86" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>23458.63</v>
+      </c>
+      <c r="D86" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>507.64</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</f>
+        <v>i5 11400F (Rocket Lake) @-95mV v0.7.2 [85]</v>
+      </c>
+      <c r="C87" s="19">
+        <f>GeneralTable[[#This Row],[Cons. ST]]</f>
+        <v>16480.22</v>
+      </c>
+      <c r="D87" s="31">
+        <f>GeneralTable[[#This Row],[Dur. ST]]</f>
+        <v>568.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F28B9F-2665-4FB9-83C6-ADF35FD7FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529D3AB-A391-4BE5-A655-17FF8684C476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8437,7 +8437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F06E1893-BD0F-4CAA-8A26-DF7FF54A2AFD}" type="CELLRANGE">
+                    <a:fld id="{F58A9B6F-7B7B-4469-96C0-52B41B6674F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8470,7 +8470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70619ED5-7951-4C84-800E-D48CCC78907B}" type="CELLRANGE">
+                    <a:fld id="{D0A3FCB0-DF78-4D3A-9A7A-A8FE2CCD73BF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8504,7 +8504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B5170AA-F223-4D6D-AC6E-345C5807CB1C}" type="CELLRANGE">
+                    <a:fld id="{8331B24C-24E8-47CA-88F3-CF3641291E2C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8572,7 +8572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0526B101-91C1-4981-8E19-A3C37FC96C9B}" type="CELLRANGE">
+                    <a:fld id="{B65A9DEC-7C33-4604-8EB8-A75F2DDBED1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8639,7 +8639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6F97964-3BC5-4C97-9465-1F6A8BEEF7FC}" type="CELLRANGE">
+                    <a:fld id="{9C1B6239-F407-489E-B61F-E3E603720508}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8756,7 +8756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC99EA03-1A43-4380-B02D-A9B1E2156E7B}" type="CELLRANGE">
+                    <a:fld id="{6D2D8931-8235-46F1-8017-1DFB0E95365B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8796,7 +8796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D35BA250-5FFF-41EC-A540-60499A051AC2}" type="CELLRANGE">
+                    <a:fld id="{33D87645-0B92-4DFA-AC36-6F5A9B8514D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8941,7 +8941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C77190B1-A6B5-4D6F-A7B6-F075AEC7934A}" type="CELLRANGE">
+                    <a:fld id="{0C7A4DF8-4371-48F2-B65B-9BB278DA916C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9115,7 +9115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{752674AA-9DA9-4B15-A9A8-ABF4CA245992}" type="CELLRANGE">
+                    <a:fld id="{5A2DD29E-F84D-4115-90EE-BDF7EC504ED5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9261,7 +9261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD1E6C61-25F4-4954-BC36-330EC38254F4}" type="CELLRANGE">
+                    <a:fld id="{19308448-306E-48A2-B649-9155A9ED649F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9329,7 +9329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF0995AE-AC13-4087-892A-BA6796D216F2}" type="CELLRANGE">
+                    <a:fld id="{C8B323B9-C2E5-4490-8B3C-86782194F978}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9390,7 +9390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00E97D8B-E38F-4F6F-9F2C-4A6A73377504}" type="CELLRANGE">
+                    <a:fld id="{31B37857-D519-4953-933C-95C21E9444FD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9452,7 +9452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFEB88FB-B285-4B0B-A674-BE02E5792195}" type="CELLRANGE">
+                    <a:fld id="{5A39B0FA-11CB-4CAB-B12A-68937B416395}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9514,7 +9514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88CE5F43-8113-4886-AB3A-66878C4211CA}" type="CELLRANGE">
+                    <a:fld id="{7FE93A9E-82EE-4D99-85B3-E09C8BAC1F1A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9548,7 +9548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9B0DE6F-BE1C-4E21-B150-D04EDCAA9718}" type="CELLRANGE">
+                    <a:fld id="{4F741B4E-BA0E-4561-AD84-8D5A5E2D11B6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9610,7 +9610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A9DEC10-EEEC-49E1-8940-3FEF39505414}" type="CELLRANGE">
+                    <a:fld id="{F20BA2DD-C52D-4F6D-9968-D30C463ABBB9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9650,7 +9650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4EB53BD-8CFC-411A-8A9A-855F2B38739F}" type="CELLRANGE">
+                    <a:fld id="{82374E4E-5DDA-4DB7-B990-A3F84EC65961}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9683,7 +9683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F98C752-1019-4FAC-8E1D-1F71DD9BBC23}" type="CELLRANGE">
+                    <a:fld id="{EBCE86E8-5612-4D2A-8297-841B12BF835F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9745,7 +9745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D60AD9EE-4BB6-4E98-86A7-1DC98E46666D}" type="CELLRANGE">
+                    <a:fld id="{423938CC-F5BB-4720-BB4C-42EAE3C607D0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9779,7 +9779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2A49940-255A-4CFE-AE6C-5628A397C262}" type="CELLRANGE">
+                    <a:fld id="{23390592-19BF-48A6-9BE7-A7B89ACDE41F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9869,7 +9869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36546854-C711-4F9C-A16B-F5F05D6C0E12}" type="CELLRANGE">
+                    <a:fld id="{53642E9C-3AC9-4734-B2E0-3EFF776B28D0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9987,7 +9987,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{740F12D4-EEBD-4563-9482-BEFB3D8CFF10}" type="CELLRANGE">
+                    <a:fld id="{AFBCA4C7-2EDE-442F-8EB7-14D2F59E5BCD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10027,7 +10027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8864414-1C1C-49D9-B075-58D0371A3835}" type="CELLRANGE">
+                    <a:fld id="{61A14568-5F99-48B3-9776-A1E99E2F4495}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10116,7 +10116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCAB4233-D42E-49FA-8A66-C95B98457D67}" type="CELLRANGE">
+                    <a:fld id="{2134EB39-9322-4635-864C-49BE16B1BD43}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10150,7 +10150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60647064-A6A0-43F8-BFFF-6E76C821140D}" type="CELLRANGE">
+                    <a:fld id="{3CA517CD-D043-4062-A6E8-8B1829A8F7A5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10184,7 +10184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF12EEB1-9410-454F-A238-17385E9E6609}" type="CELLRANGE">
+                    <a:fld id="{E51F2F8D-8E73-4512-B2EC-437FAAC0FC72}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10218,7 +10218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CBAFB4C-18C7-46AE-A084-272ECA95C5C1}" type="CELLRANGE">
+                    <a:fld id="{C4F707D4-F468-4920-81AB-05463866E1CE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10280,7 +10280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F009F6C-9741-4C3E-8BEE-C0CC55DC9645}" type="CELLRANGE">
+                    <a:fld id="{690C0309-914C-4298-ADDB-944847191DA8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10314,7 +10314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3459E930-9A4F-4218-BB57-42DBACC61BBF}" type="CELLRANGE">
+                    <a:fld id="{3759D2CC-32B7-44C1-A0BF-1431D23A81A5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10410,7 +10410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE492215-3975-416E-AE6F-268C4BE5D937}" type="CELLRANGE">
+                    <a:fld id="{5A7F7973-C50A-489D-95D8-463C36F61855}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10477,7 +10477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CF44290-769F-4454-A76F-37D1C7827300}" type="CELLRANGE">
+                    <a:fld id="{7E528F9E-0E14-46A8-8C54-93A2E852531D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10566,7 +10566,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A031E2D3-1D85-42E5-B282-572F344793D9}" type="CELLRANGE">
+                    <a:fld id="{49D666FD-CD4A-4570-A640-E22B9ABC23B9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10600,7 +10600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31724A6F-24AA-433A-B626-2F5631074529}" type="CELLRANGE">
+                    <a:fld id="{44B84F73-0BE8-41EE-A773-A7902CEEB814}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10634,7 +10634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC9E17AA-8D28-4FEB-97A0-77605C578180}" type="CELLRANGE">
+                    <a:fld id="{2C4E9FDF-7E2E-48CC-97EC-432EB32E67E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10668,7 +10668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEB262FA-43D9-40B9-96E2-34E91D46246E}" type="CELLRANGE">
+                    <a:fld id="{7D47B612-86AB-4F62-AD76-F3AD249EF110}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10702,7 +10702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1340E9B1-2E40-4287-904F-8A68DD0BC033}" type="CELLRANGE">
+                    <a:fld id="{518B8239-5EE3-4080-832D-D00A47E8E1F4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10736,7 +10736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DEFBC6E-32EA-4800-A1A5-6CB6BDFE0123}" type="CELLRANGE">
+                    <a:fld id="{E03C72D6-E701-4352-A401-EE924D5AFB60}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10776,7 +10776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE2B91B0-8573-4C90-B129-0DF23C7CA5AA}" type="CELLRANGE">
+                    <a:fld id="{F13C69AF-099C-4383-84F5-3F0D27C662BF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10837,7 +10837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3329380E-D1B0-4E0A-B6DE-6EB416853BBD}" type="CELLRANGE">
+                    <a:fld id="{525B20CB-EA1B-4457-BB58-09FE4666EEE9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10871,7 +10871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4BADA53-3B06-4778-AADE-5A1E9A4BDD84}" type="CELLRANGE">
+                    <a:fld id="{8DCFCA6B-3B4D-4C60-9E1F-A19CC24BFC10}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10905,7 +10905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C1503B1-084C-42E0-9D02-231569DDD617}" type="CELLRANGE">
+                    <a:fld id="{731AED43-241E-42E4-A651-F4C98364EE68}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10945,7 +10945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F17E57E-9116-4440-98F9-62DF16713495}" type="CELLRANGE">
+                    <a:fld id="{AC56F2F6-CE4C-4393-B0C9-67DBEE81A5A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10984,7 +10984,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1385357-40AB-460D-93AE-FB38919829EF}" type="CELLRANGE">
+                    <a:fld id="{23BF368A-CE53-45F7-96A6-13B1493C5C34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11023,7 +11023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF3122F8-7942-4F08-B330-FFCB4CEE99BA}" type="CELLRANGE">
+                    <a:fld id="{93DEAFFE-B5E9-41D4-B4D9-475140085D17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11056,7 +11056,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30BBAA31-053E-4D78-B65C-A36DC4CEFADF}" type="CELLRANGE">
+                    <a:fld id="{EA18061B-3D9B-4F1A-B38A-8295270812F9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11118,7 +11118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A289424C-BDEE-4117-B00A-B55BC81DE1FF}" type="CELLRANGE">
+                    <a:fld id="{8F40DD5B-5B58-4DED-835E-9D8EF3667AB2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11320,8 +11320,8 @@
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                          <a:lumMod val="25000"/>
+                          <a:lumOff val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:round/>
@@ -12189,12 +12189,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -12303,12 +12314,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -12371,12 +12393,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -15301,7 +15318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EBEC2AD-FA5D-417D-A35C-132FAC5F5776}" type="CELLRANGE">
+                    <a:fld id="{0C84F730-ED18-4087-B645-1AC81705E9A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15333,8 +15350,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0378E20-619D-4D23-ACC5-3754D8CF2772}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7A3E7BE2-C0C3-41C7-A8B4-384541886259}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -15351,6 +15368,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15365,8 +15383,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8116B91-84AA-4AAB-A4A9-7137CC0E25B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CA003703-878D-4C63-B8CB-CC595B5F724F}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -15383,6 +15401,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15430,7 +15449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{040856A4-FCAE-42BE-A4EB-B7D4D830B5EE}" type="CELLRANGE">
+                    <a:fld id="{0211FB29-9AC8-4814-9D62-27F3C79EF4CF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15495,7 +15514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E25135F0-C058-4A6A-B29E-CD96375727A4}" type="CELLRANGE">
+                    <a:fld id="{2E5D49EC-C8FC-45A3-8FA4-73C9104DA203}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15608,8 +15627,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7680D7E-A94A-4954-8181-F8A6E576F8A0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{62451703-622E-4A76-8B16-59A0A73DC4CD}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -15626,6 +15645,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15640,8 +15660,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC63BA58-F579-4687-B39A-69B98B7771B5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4026A46D-BB77-4511-B64D-7B56539DB271}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -15658,6 +15678,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15786,7 +15807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9206F032-0617-4522-A470-67074E6DDDEB}" type="CELLRANGE">
+                    <a:fld id="{6E1E0525-F050-4BAA-A7CC-9E980BB7C2C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15953,8 +15974,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DD6C054-F80F-4DDE-A42E-A5DA31EB3706}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A6722907-2CD7-4E14-933F-BED875A24D40}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -15971,6 +15992,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16093,8 +16115,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D45F4B9-933A-4FDC-9915-2ED3745F402B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{59DCC3B4-CA71-47CD-9A05-D83305FB1C12}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16111,6 +16133,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16152,8 +16175,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35333055-950D-4652-98AD-3158E9953089}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C1B619BC-B6A3-420B-B6C3-D68FA19ED5A0}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16170,6 +16193,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16211,8 +16235,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47838756-00AA-4208-91EA-D3CC5A2AD052}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F6B4E16B-844E-4A17-AC42-F1EBBAE8E856}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16229,6 +16253,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16270,8 +16295,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D271ACA-807F-4734-B179-7421F7B2C7C5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4584A3E4-2A05-4338-B327-C892831BC99B}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16288,6 +16313,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16329,8 +16355,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F607856C-03A6-4001-A7BD-570CB111DA3B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8D19BE18-BACB-40FE-B23F-2A59F37D7379}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16347,6 +16373,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16361,8 +16388,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45BD63FD-6412-483B-A4B0-355369D0D8ED}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CF4E4F97-A848-45A0-9EBC-F5A45E47A627}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16379,6 +16406,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16426,7 +16454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCC0E20F-CA5D-4E74-9517-50101ED83789}" type="CELLRANGE">
+                    <a:fld id="{198886A9-05AB-45A8-8600-7BB9D49A1345}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16458,8 +16486,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A31E9C3-52BD-40DC-9D0C-E70444EEE899}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{07876B4B-FBEB-49B9-B9DD-A5E49CC72912}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16476,6 +16504,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16490,8 +16519,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A75AB457-B805-4E44-BCDC-989D452B9450}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5B4A78C0-AE41-426D-86FE-8D31AD28DF6C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16508,6 +16537,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16549,8 +16579,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F4FBC52-9B4F-4B1E-8AE6-2FDA0517875E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CEACA2C7-097F-42F0-810F-2C092E934EF2}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16567,6 +16597,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16581,8 +16612,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A83B3F75-493F-4AD8-8468-A4BCAC7B396A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3F1C08D7-9C5B-4003-A830-3378FE65CA4C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16599,6 +16630,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16673,7 +16705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A39CF4AA-18E6-4B46-B375-F91E3DD2D344}" type="CELLRANGE">
+                    <a:fld id="{16E94B8F-D269-4688-A178-9DF66541C42F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16786,8 +16818,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1229FCF-FAD5-442C-90DF-7E9CF1AE6309}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1E289920-90D4-454F-8C22-A07AB0839715}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16804,6 +16836,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16818,8 +16851,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A308EF5A-AF79-4CC2-8C23-4ABAE58B6D0E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{AFD72AD8-0F70-443C-9E80-9C79C56BE8BF}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16836,6 +16869,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16904,8 +16938,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBBF9656-0449-4B97-B6DF-B336103C72C1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{911DD4C5-72E1-487E-AD12-FBE5137AA9EC}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16922,6 +16956,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16936,8 +16971,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E74D7651-2F67-4229-9AFE-494E186381E7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0D1E2799-5FED-450C-ABF4-3B645F6C087B}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -16954,6 +16989,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16974,7 +17010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A6F69A0-1FD2-4818-A9F6-FDCEE9FEBA38}" type="CELLRANGE">
+                    <a:fld id="{7F9B34F6-AEF7-4D97-8B4C-23C23595562E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17006,8 +17042,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{999CBDE4-CD34-4C24-865C-37318FF71BA7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{93725383-12FB-4760-BAF7-96CCED3073D8}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17024,6 +17060,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17065,8 +17102,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F2C8222-4514-46AE-9A2B-746441AB80A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{01C99215-8B44-413A-906F-F606A597CE48}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17083,6 +17120,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17097,8 +17135,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15836EB0-B503-451D-9A76-623EC799A517}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{86360672-4176-48B6-BD95-154F8BDEDFE6}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17115,6 +17153,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17189,7 +17228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69B97024-4D1A-4EAF-B01A-02A672F2C8FF}" type="CELLRANGE">
+                    <a:fld id="{DF103D62-9EB9-429C-85FA-BB1C7C453884}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17248,8 +17287,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB233D86-3915-4A84-8067-68138B42FC3A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{89C493B2-6D9F-41EC-9023-7D5C16AC5C1B}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17266,6 +17305,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17334,8 +17374,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3E718D7-804B-4167-BD8A-4C8BFFFCBEB3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0D322ED9-D25A-489F-9DD6-3630E82C37FB}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17352,6 +17392,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17366,8 +17407,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB9EAE5D-BE15-4AA2-B2D7-84A4CD8F2CEB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FD945E38-706B-4576-950A-DEA4E26490C6}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17384,6 +17425,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17398,8 +17440,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB08D102-F477-4E05-B0FD-66AE4CCE6473}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F85FBFD5-14C9-41A2-8A2F-7CD837C1EEE4}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17416,6 +17458,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17430,8 +17473,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A179598-296B-4B9E-8036-4010D4D9EA01}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0FBD45CC-27A4-4091-B6F5-20F3D0F42E7E}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17448,6 +17491,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17462,8 +17506,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CF5ED06-EE76-42D6-9221-D18E36D647BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{94ECDB6B-38B8-45B4-B3E7-EADFB9B80D19}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17480,6 +17524,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17494,8 +17539,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D491F0D2-DE50-4FA1-82FA-9A991C09AD84}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{34C224CB-3173-4CF6-B960-71656E0862D7}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17512,6 +17557,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17526,8 +17572,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4194276B-6E29-4B62-BA8D-47A53C45E445}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{9A9C625A-D744-4D93-8B8F-298D5E044D28}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17544,6 +17590,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17585,8 +17632,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EA3A9C9-0AC1-4A59-8873-B4B8CED87968}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2EEBEA71-EA63-41E5-B82D-F74E7C323839}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17603,6 +17650,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17617,8 +17665,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E134F10-B50D-4E16-85C0-FBED67536F21}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BFBF8C2B-CC99-47A9-A110-916B2FA1960C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17635,6 +17683,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17649,8 +17698,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E020704A-E4B6-4229-BDAB-FAAE7E9038D3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{23CD89C3-8B4E-43CA-9276-AE87FC13CA8D}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17667,6 +17716,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17681,8 +17731,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A33E84E-0233-4432-A763-D588EC008FB4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BF58F274-DC53-47B3-9745-8A07307AB423}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -17699,6 +17749,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17719,7 +17770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17B42555-E455-4F36-83B2-790D6AE6EEB9}" type="CELLRANGE">
+                    <a:fld id="{2EAA89E0-3E2F-4062-9218-EBE6C66CE885}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17757,7 +17808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77033FF0-3AC6-4F6C-9BAA-CCEC5E36E6B8}" type="CELLRANGE">
+                    <a:fld id="{0C08DA78-098F-4111-8928-B4C2D51C8100}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17795,7 +17846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4955AA20-FA68-4E75-B161-40C820D5750C}" type="CELLRANGE">
+                    <a:fld id="{AD225F3E-9784-477C-86D8-098D25273BAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17860,7 +17911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A0BB671-E3A7-402A-BB4C-52E28C4B5295}" type="CELLRANGE">
+                    <a:fld id="{539C6C5F-7D8B-4360-8389-2507B7E79CB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -18907,7 +18958,9 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -19021,7 +19074,9 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -22645,14 +22700,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>206520</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>36473</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24849,7 +24904,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="39">
   <location ref="B3:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -25221,7 +25276,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="34">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="B3:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -25593,7 +25648,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
   <location ref="B3:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -25965,7 +26020,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
   <location ref="B3:C51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -26313,7 +26368,7 @@
   <dataFields count="1">
     <dataField name="Summe von Cons. MT" fld="14" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="11">
+  <chartFormats count="13">
     <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -26405,6 +26460,24 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="39" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="40" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="41" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -26774,7 +26847,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -33875,8 +33948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093893EB-1C3B-4AC4-A954-F4CE9F9B9C4A}">
   <dimension ref="B4:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35609,8 +35682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A2D50E-9363-488B-9BFC-B64ADDEEA2B0}">
   <dimension ref="B4:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529D3AB-A391-4BE5-A655-17FF8684C476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2116E4E-D996-4FB1-A2C7-07C479EC4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsEntry" sheetId="1" r:id="rId1"/>
@@ -5608,7 +5608,95 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CB23 | Single-Thread | Performance-Consumption-Matrix</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -8437,7 +8525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F58A9B6F-7B7B-4469-96C0-52B41B6674F8}" type="CELLRANGE">
+                    <a:fld id="{C602B720-896E-4FBD-8848-0FC2AD89439E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8470,7 +8558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0A3FCB0-DF78-4D3A-9A7A-A8FE2CCD73BF}" type="CELLRANGE">
+                    <a:fld id="{FE5EE830-6B6A-4894-B5F9-46B534C6ED7B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8504,7 +8592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8331B24C-24E8-47CA-88F3-CF3641291E2C}" type="CELLRANGE">
+                    <a:fld id="{5B832305-A2C0-42EA-9F12-8F6B3793FCA4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8572,7 +8660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B65A9DEC-7C33-4604-8EB8-A75F2DDBED1F}" type="CELLRANGE">
+                    <a:fld id="{996C5659-1DB6-4025-88A4-61F958DF22E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8639,7 +8727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C1B6239-F407-489E-B61F-E3E603720508}" type="CELLRANGE">
+                    <a:fld id="{1515A64D-E980-4CFC-A1B3-3051238D4E0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8756,7 +8844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D2D8931-8235-46F1-8017-1DFB0E95365B}" type="CELLRANGE">
+                    <a:fld id="{153E23EA-975E-408A-870F-993B0B6A7CD8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8796,7 +8884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33D87645-0B92-4DFA-AC36-6F5A9B8514D8}" type="CELLRANGE">
+                    <a:fld id="{11EAFEF5-9E59-4981-8C4F-AD872DDA0A06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8941,7 +9029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C7A4DF8-4371-48F2-B65B-9BB278DA916C}" type="CELLRANGE">
+                    <a:fld id="{360CFB5A-1DE8-4CED-BC0F-C5E0DB897D16}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9115,7 +9203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A2DD29E-F84D-4115-90EE-BDF7EC504ED5}" type="CELLRANGE">
+                    <a:fld id="{3E0CFE83-BF0B-4532-A0BC-5C451A3E2DD8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9261,7 +9349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19308448-306E-48A2-B649-9155A9ED649F}" type="CELLRANGE">
+                    <a:fld id="{9EB95EEE-42FF-48A8-ADB3-5AC8E22E52DF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9329,7 +9417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8B323B9-C2E5-4490-8B3C-86782194F978}" type="CELLRANGE">
+                    <a:fld id="{71250F1F-7A31-41F2-9217-1DF350DF3A4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9390,7 +9478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31B37857-D519-4953-933C-95C21E9444FD}" type="CELLRANGE">
+                    <a:fld id="{C2BF9159-3C10-44FB-B0E7-10773CC782F7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9452,7 +9540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A39B0FA-11CB-4CAB-B12A-68937B416395}" type="CELLRANGE">
+                    <a:fld id="{A1F9EBFF-AF5A-4161-9FB6-6CAF3CF6DA46}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9514,7 +9602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FE93A9E-82EE-4D99-85B3-E09C8BAC1F1A}" type="CELLRANGE">
+                    <a:fld id="{3DDE1CC5-7A8B-4968-8916-F362968A308D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9548,7 +9636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F741B4E-BA0E-4561-AD84-8D5A5E2D11B6}" type="CELLRANGE">
+                    <a:fld id="{46417AC0-09E0-4134-A596-991537372C26}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9610,7 +9698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F20BA2DD-C52D-4F6D-9968-D30C463ABBB9}" type="CELLRANGE">
+                    <a:fld id="{0530E1F0-B0E3-427B-A520-5F4F59565B1E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9650,7 +9738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82374E4E-5DDA-4DB7-B990-A3F84EC65961}" type="CELLRANGE">
+                    <a:fld id="{388BB512-E674-4D2E-9EE2-FB0A11681F53}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9683,7 +9771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBCE86E8-5612-4D2A-8297-841B12BF835F}" type="CELLRANGE">
+                    <a:fld id="{0E69817E-78FB-4F67-96CF-487D71ED9E40}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9745,7 +9833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{423938CC-F5BB-4720-BB4C-42EAE3C607D0}" type="CELLRANGE">
+                    <a:fld id="{134E03A3-0A07-4FEF-B205-91DA6B523203}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9779,7 +9867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23390592-19BF-48A6-9BE7-A7B89ACDE41F}" type="CELLRANGE">
+                    <a:fld id="{C91C7115-C847-4249-A228-DF4126332826}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9869,7 +9957,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53642E9C-3AC9-4734-B2E0-3EFF776B28D0}" type="CELLRANGE">
+                    <a:fld id="{DC3734FE-77E7-4716-BEB8-3E2FD44F81EC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9987,7 +10075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFBCA4C7-2EDE-442F-8EB7-14D2F59E5BCD}" type="CELLRANGE">
+                    <a:fld id="{958F13D9-90EE-4C77-A880-C5D3C48AFAA4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10027,7 +10115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61A14568-5F99-48B3-9776-A1E99E2F4495}" type="CELLRANGE">
+                    <a:fld id="{B8C741F5-7B91-4FB0-A065-EB381D6C5273}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10116,7 +10204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2134EB39-9322-4635-864C-49BE16B1BD43}" type="CELLRANGE">
+                    <a:fld id="{651D046F-6752-4D0D-A581-BBDA8671E15B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10150,7 +10238,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CA517CD-D043-4062-A6E8-8B1829A8F7A5}" type="CELLRANGE">
+                    <a:fld id="{8DC99BC2-6E23-496D-BEC8-AF99453479C4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10184,7 +10272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E51F2F8D-8E73-4512-B2EC-437FAAC0FC72}" type="CELLRANGE">
+                    <a:fld id="{F63CA29F-D8F7-4A65-87E7-C7018FB3C7AD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10218,7 +10306,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4F707D4-F468-4920-81AB-05463866E1CE}" type="CELLRANGE">
+                    <a:fld id="{1CA97EAF-DC74-422C-9AD6-53DC72EFDCD9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10280,7 +10368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{690C0309-914C-4298-ADDB-944847191DA8}" type="CELLRANGE">
+                    <a:fld id="{2D40CE0E-CCFD-4E0A-A207-3BA5BABAA53F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10314,7 +10402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3759D2CC-32B7-44C1-A0BF-1431D23A81A5}" type="CELLRANGE">
+                    <a:fld id="{175AEE33-EB7A-41D6-9E82-D52111D4E1AB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10410,7 +10498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A7F7973-C50A-489D-95D8-463C36F61855}" type="CELLRANGE">
+                    <a:fld id="{A0697E05-460D-4B56-A621-E5655D615372}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10477,7 +10565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E528F9E-0E14-46A8-8C54-93A2E852531D}" type="CELLRANGE">
+                    <a:fld id="{5DBC80F5-CB8C-43B3-937F-A4112AF2C236}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10566,7 +10654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49D666FD-CD4A-4570-A640-E22B9ABC23B9}" type="CELLRANGE">
+                    <a:fld id="{F2850404-2A63-4718-B04B-E237DA093357}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10600,7 +10688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44B84F73-0BE8-41EE-A773-A7902CEEB814}" type="CELLRANGE">
+                    <a:fld id="{3A8FE2B6-7FA5-450D-9E29-01AD23A8FB91}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10634,7 +10722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C4E9FDF-7E2E-48CC-97EC-432EB32E67E6}" type="CELLRANGE">
+                    <a:fld id="{07B91008-7417-4516-B15D-6302B79BB58E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10668,7 +10756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D47B612-86AB-4F62-AD76-F3AD249EF110}" type="CELLRANGE">
+                    <a:fld id="{C496922E-C06F-443F-A983-216FA5379D1C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10702,7 +10790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{518B8239-5EE3-4080-832D-D00A47E8E1F4}" type="CELLRANGE">
+                    <a:fld id="{25B3F8AB-DF1E-446D-BA72-143E3A61B31D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10736,7 +10824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E03C72D6-E701-4352-A401-EE924D5AFB60}" type="CELLRANGE">
+                    <a:fld id="{1CDBD6F4-B6AF-4A13-9C6A-1BBE4A8751C1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10776,7 +10864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F13C69AF-099C-4383-84F5-3F0D27C662BF}" type="CELLRANGE">
+                    <a:fld id="{5D22B0FD-A482-4E10-A28B-CC543955DD9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10837,7 +10925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{525B20CB-EA1B-4457-BB58-09FE4666EEE9}" type="CELLRANGE">
+                    <a:fld id="{DE70D47A-A132-4F9A-AFF9-E2505C9DDA7B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10871,7 +10959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DCFCA6B-3B4D-4C60-9E1F-A19CC24BFC10}" type="CELLRANGE">
+                    <a:fld id="{DC29DF78-A08A-4279-9B18-2385AA754F50}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10905,7 +10993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{731AED43-241E-42E4-A651-F4C98364EE68}" type="CELLRANGE">
+                    <a:fld id="{AE956D60-3FF0-4E82-BD09-41674BE5BC02}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10945,7 +11033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC56F2F6-CE4C-4393-B0C9-67DBEE81A5A9}" type="CELLRANGE">
+                    <a:fld id="{D9BD4270-A874-4B8C-BAA3-360D2920EF15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10984,7 +11072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23BF368A-CE53-45F7-96A6-13B1493C5C34}" type="CELLRANGE">
+                    <a:fld id="{89872563-CDFC-46E8-BE7E-105C2552C837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11023,7 +11111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93DEAFFE-B5E9-41D4-B4D9-475140085D17}" type="CELLRANGE">
+                    <a:fld id="{7C5C45A2-3CBE-432B-BD89-3B09742BDD37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11056,7 +11144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA18061B-3D9B-4F1A-B38A-8295270812F9}" type="CELLRANGE">
+                    <a:fld id="{F19FE04E-C5D9-47A8-AB1A-C10B4A4DB394}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11118,7 +11206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F40DD5B-5B58-4DED-835E-9D8EF3667AB2}" type="CELLRANGE">
+                    <a:fld id="{3539855E-E2AA-4B5C-A983-773D9D94C1F9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -12227,8 +12315,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Consumption (Ws)</a:t>
+                  <a:t>Consumption [Joule</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> or </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Ws]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> - less is better</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12352,8 +12453,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Duration (s)</a:t>
+                  <a:t>Duration [s]</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> - less is better</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -12495,7 +12601,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>CB23 | Multi-Thread </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>| Performance-Consumption-Matrix</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -15318,7 +15486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C84F730-ED18-4087-B645-1AC81705E9A2}" type="CELLRANGE">
+                    <a:fld id="{0B60BC2A-3BAE-4476-B77E-D97C7CC4C0B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15350,7 +15518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A3E7BE2-C0C3-41C7-A8B4-384541886259}" type="CELLRANGE">
+                    <a:fld id="{764721EF-9EC4-4380-BA3D-D75A39A81D01}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15383,7 +15551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA003703-878D-4C63-B8CB-CC595B5F724F}" type="CELLRANGE">
+                    <a:fld id="{640BAF1E-56F4-45B6-B683-DEB67563C7C9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15449,7 +15617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0211FB29-9AC8-4814-9D62-27F3C79EF4CF}" type="CELLRANGE">
+                    <a:fld id="{BCA032C3-D496-4BF7-83D1-259AB123522F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15514,7 +15682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E5D49EC-C8FC-45A3-8FA4-73C9104DA203}" type="CELLRANGE">
+                    <a:fld id="{E643BB51-3744-4582-9F17-B446B2F13BBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15627,7 +15795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62451703-622E-4A76-8B16-59A0A73DC4CD}" type="CELLRANGE">
+                    <a:fld id="{4CFFE72B-65B5-48EA-9FA3-D6E1C1ED9FBB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15660,7 +15828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4026A46D-BB77-4511-B64D-7B56539DB271}" type="CELLRANGE">
+                    <a:fld id="{593A0806-6925-478B-A7EC-7BCC10EE2FFA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15807,7 +15975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E1E0525-F050-4BAA-A7CC-9E980BB7C2C0}" type="CELLRANGE">
+                    <a:fld id="{0CC58D43-3051-48E5-A773-12DB354B5663}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15974,7 +16142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6722907-2CD7-4E14-933F-BED875A24D40}" type="CELLRANGE">
+                    <a:fld id="{A71EF58D-91AD-41E8-A9F8-3CD71447A167}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16115,7 +16283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59DCC3B4-CA71-47CD-9A05-D83305FB1C12}" type="CELLRANGE">
+                    <a:fld id="{927FCE42-800E-46CB-BFC7-8A43B295B86E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16175,7 +16343,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C1B619BC-B6A3-420B-B6C3-D68FA19ED5A0}" type="CELLRANGE">
+                    <a:fld id="{389EC362-EF5E-42B5-BDB3-997C397401A5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16235,7 +16403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6B4E16B-844E-4A17-AC42-F1EBBAE8E856}" type="CELLRANGE">
+                    <a:fld id="{50866B53-500D-4ED1-B480-9F4CB8B22AA0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16295,7 +16463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4584A3E4-2A05-4338-B327-C892831BC99B}" type="CELLRANGE">
+                    <a:fld id="{E4D77137-832A-41AD-A52C-D91889B3FD76}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16355,7 +16523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D19BE18-BACB-40FE-B23F-2A59F37D7379}" type="CELLRANGE">
+                    <a:fld id="{E9D92688-EC2C-4D13-B020-9DB3A2191478}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16388,7 +16556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF4E4F97-A848-45A0-9EBC-F5A45E47A627}" type="CELLRANGE">
+                    <a:fld id="{4BA61AFA-1A70-49C4-AEF7-EC8B425C2422}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16454,7 +16622,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{198886A9-05AB-45A8-8600-7BB9D49A1345}" type="CELLRANGE">
+                    <a:fld id="{26C3EE88-9454-4510-9701-9BC5E6739D0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16486,7 +16654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07876B4B-FBEB-49B9-B9DD-A5E49CC72912}" type="CELLRANGE">
+                    <a:fld id="{AFBA0A15-F581-4128-9F37-6CEC51EC622B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16519,7 +16687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B4A78C0-AE41-426D-86FE-8D31AD28DF6C}" type="CELLRANGE">
+                    <a:fld id="{E3553A26-1A02-46E1-8CDB-E6782251AC37}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16579,7 +16747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEACA2C7-097F-42F0-810F-2C092E934EF2}" type="CELLRANGE">
+                    <a:fld id="{5CB34B15-6D23-4FA3-AFF6-DA647C08C234}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16612,7 +16780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F1C08D7-9C5B-4003-A830-3378FE65CA4C}" type="CELLRANGE">
+                    <a:fld id="{B4AA285D-2A45-4132-AF3D-C30DB886C51F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16705,7 +16873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16E94B8F-D269-4688-A178-9DF66541C42F}" type="CELLRANGE">
+                    <a:fld id="{F21EC703-9B98-499A-A370-D4D7C02231C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16818,7 +16986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E289920-90D4-454F-8C22-A07AB0839715}" type="CELLRANGE">
+                    <a:fld id="{72C8FB7A-BA73-40BF-8146-159A0A33FDDB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16851,7 +17019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFD72AD8-0F70-443C-9E80-9C79C56BE8BF}" type="CELLRANGE">
+                    <a:fld id="{71031E17-FBA1-454C-A9AD-343959A478BE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16938,7 +17106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{911DD4C5-72E1-487E-AD12-FBE5137AA9EC}" type="CELLRANGE">
+                    <a:fld id="{8E38E201-08C4-44C8-8C99-86B274326AEA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16971,7 +17139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D1E2799-5FED-450C-ABF4-3B645F6C087B}" type="CELLRANGE">
+                    <a:fld id="{6F2E91DE-3843-4C16-99C7-07E3999BBAA5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17010,7 +17178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F9B34F6-AEF7-4D97-8B4C-23C23595562E}" type="CELLRANGE">
+                    <a:fld id="{3F39C02A-AB1A-416B-B718-E182D62E80B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17042,7 +17210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93725383-12FB-4760-BAF7-96CCED3073D8}" type="CELLRANGE">
+                    <a:fld id="{71366A28-218F-4AEB-8DEF-69AD7DA8AC72}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17102,7 +17270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01C99215-8B44-413A-906F-F606A597CE48}" type="CELLRANGE">
+                    <a:fld id="{441D91BC-E6B5-4964-BE53-ABCB1ABB80F8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17135,7 +17303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86360672-4176-48B6-BD95-154F8BDEDFE6}" type="CELLRANGE">
+                    <a:fld id="{1619974D-9AED-43C7-B42C-1F011CBF301C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17228,7 +17396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF103D62-9EB9-429C-85FA-BB1C7C453884}" type="CELLRANGE">
+                    <a:fld id="{1C8CDF99-5786-4E45-AE86-DC3911AF5F30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17287,7 +17455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89C493B2-6D9F-41EC-9023-7D5C16AC5C1B}" type="CELLRANGE">
+                    <a:fld id="{325A620D-8CE7-4275-9395-49CDDEE5FF89}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17374,7 +17542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D322ED9-D25A-489F-9DD6-3630E82C37FB}" type="CELLRANGE">
+                    <a:fld id="{DCF7FAC5-B0FE-4BC3-A76B-5AB6ED00C8AA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17407,7 +17575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD945E38-706B-4576-950A-DEA4E26490C6}" type="CELLRANGE">
+                    <a:fld id="{A77B64F2-E271-4F88-8E24-C3C19672C70A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17440,7 +17608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F85FBFD5-14C9-41A2-8A2F-7CD837C1EEE4}" type="CELLRANGE">
+                    <a:fld id="{D5EB6950-1371-4D14-B5AF-7B287A89DD33}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17473,7 +17641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FBD45CC-27A4-4091-B6F5-20F3D0F42E7E}" type="CELLRANGE">
+                    <a:fld id="{AD84957C-49A7-4014-ACFF-EF48F0BFB6E5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17506,7 +17674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94ECDB6B-38B8-45B4-B3E7-EADFB9B80D19}" type="CELLRANGE">
+                    <a:fld id="{4F4A3059-3BF2-491B-BE22-1B62612824D5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17539,7 +17707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34C224CB-3173-4CF6-B960-71656E0862D7}" type="CELLRANGE">
+                    <a:fld id="{F5863CD3-0E5D-4136-A744-868021FC3DA3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17572,7 +17740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A9C625A-D744-4D93-8B8F-298D5E044D28}" type="CELLRANGE">
+                    <a:fld id="{D3B61169-C619-4752-9AD9-77E206F0DB91}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17632,7 +17800,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EEBEA71-EA63-41E5-B82D-F74E7C323839}" type="CELLRANGE">
+                    <a:fld id="{DAAC2431-EB7C-435C-B59C-C7183D175C38}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17665,7 +17833,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFBF8C2B-CC99-47A9-A110-916B2FA1960C}" type="CELLRANGE">
+                    <a:fld id="{A04339A2-0D4B-43AE-A1ED-7D4F72525465}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17698,7 +17866,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23CD89C3-8B4E-43CA-9276-AE87FC13CA8D}" type="CELLRANGE">
+                    <a:fld id="{205229D1-A31B-48F3-A074-D7168BE10AD4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17731,7 +17899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF58F274-DC53-47B3-9745-8A07307AB423}" type="CELLRANGE">
+                    <a:fld id="{EF8C0709-8315-450B-A3DF-C04C6EFA7D15}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17770,7 +17938,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EAA89E0-3E2F-4062-9218-EBE6C66CE885}" type="CELLRANGE">
+                    <a:fld id="{0CBD41B5-18B1-436B-A56B-C04C66091770}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17808,7 +17976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C08DA78-098F-4111-8928-B4C2D51C8100}" type="CELLRANGE">
+                    <a:fld id="{AC64134E-6348-4E73-97FC-D60D659A02DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17846,7 +18014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD225F3E-9784-477C-86D8-098D25273BAB}" type="CELLRANGE">
+                    <a:fld id="{BA5F8055-AC8B-4A76-A073-AC41E1EC3548}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17911,7 +18079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{539C6C5F-7D8B-4360-8389-2507B7E79CB5}" type="CELLRANGE">
+                    <a:fld id="{A7F7D725-D767-4B50-ACD3-BF882E93B6DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -18987,8 +19155,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Consumption (Ws)</a:t>
+                  <a:t>Consumption [Joule or Ws]</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> - less is better</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -19103,8 +19276,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Duration (s)</a:t>
+                  <a:t>Duration [s]</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> - less is better</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -26843,11 +27021,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -33948,8 +34126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093893EB-1C3B-4AC4-A954-F4CE9F9B9C4A}">
   <dimension ref="B4:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35682,8 +35860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A2D50E-9363-488B-9BFC-B64ADDEEA2B0}">
   <dimension ref="B4:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ranking/Rankings.xlsx
+++ b/Ranking/Rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite.PS\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2116E4E-D996-4FB1-A2C7-07C479EC4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E7A4AD-C397-4946-A380-65F9F8D6010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="693" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsEntry" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="225">
   <si>
     <t>CPU</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>(Leer)</t>
-  </si>
-  <si>
-    <t>BB-Code Single-Thread</t>
-  </si>
-  <si>
-    <t>BB-Code Multi-Thread</t>
   </si>
   <si>
     <t>R7 4700U (Renoir)</t>
@@ -713,6 +707,18 @@
   <si>
     <t>ExcludeHere</t>
   </si>
+  <si>
+    <t>3DC BB-Code Single-Thread</t>
+  </si>
+  <si>
+    <t>3DC BB-Code Multi-Thread</t>
+  </si>
+  <si>
+    <t>AT BB-Code Single-Thread</t>
+  </si>
+  <si>
+    <t>AT BB-Code Multi-Thread</t>
+  </si>
 </sst>
 </file>
 
@@ -949,7 +955,13 @@
     <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8525,7 +8537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C602B720-896E-4FBD-8848-0FC2AD89439E}" type="CELLRANGE">
+                    <a:fld id="{88F513A4-957E-44AB-970A-2F205A7A2F7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8558,7 +8570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE5EE830-6B6A-4894-B5F9-46B534C6ED7B}" type="CELLRANGE">
+                    <a:fld id="{0CC94B9D-1B3C-4518-94AC-405E2E2CEBE8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8592,7 +8604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B832305-A2C0-42EA-9F12-8F6B3793FCA4}" type="CELLRANGE">
+                    <a:fld id="{A8D09778-48D2-4F33-8BF2-EBEA5324AC76}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8660,7 +8672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{996C5659-1DB6-4025-88A4-61F958DF22E5}" type="CELLRANGE">
+                    <a:fld id="{10408F8D-5D91-44EB-8BA0-4C47150AD89F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8727,7 +8739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1515A64D-E980-4CFC-A1B3-3051238D4E0C}" type="CELLRANGE">
+                    <a:fld id="{8E27A17B-4D4D-4677-8D3C-B604C411EDAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8844,7 +8856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{153E23EA-975E-408A-870F-993B0B6A7CD8}" type="CELLRANGE">
+                    <a:fld id="{61E2D183-52EC-43EA-8D3D-29FF2B8FEA5B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8884,7 +8896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11EAFEF5-9E59-4981-8C4F-AD872DDA0A06}" type="CELLRANGE">
+                    <a:fld id="{AF8DA7A7-D9AC-47A5-8B17-00E02A5C7619}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9029,7 +9041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{360CFB5A-1DE8-4CED-BC0F-C5E0DB897D16}" type="CELLRANGE">
+                    <a:fld id="{420D3598-20D5-46EF-B50D-89A6B37062B1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9203,7 +9215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E0CFE83-BF0B-4532-A0BC-5C451A3E2DD8}" type="CELLRANGE">
+                    <a:fld id="{98CDAC9A-C5F5-455D-9D53-4B551DAA51C7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9349,7 +9361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EB95EEE-42FF-48A8-ADB3-5AC8E22E52DF}" type="CELLRANGE">
+                    <a:fld id="{07E75BE1-CFCC-4FB9-BAAE-3C8EC3C8712C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9417,7 +9429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71250F1F-7A31-41F2-9217-1DF350DF3A4D}" type="CELLRANGE">
+                    <a:fld id="{30C6E7E9-9853-4BCB-AE81-E6687FFE911B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9478,7 +9490,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2BF9159-3C10-44FB-B0E7-10773CC782F7}" type="CELLRANGE">
+                    <a:fld id="{6F3A1E59-0AD8-4C01-B5F4-1BEDFB995BC5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9540,7 +9552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1F9EBFF-AF5A-4161-9FB6-6CAF3CF6DA46}" type="CELLRANGE">
+                    <a:fld id="{D539461E-1ABE-4732-945E-6A7BEB48333D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9602,7 +9614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DDE1CC5-7A8B-4968-8916-F362968A308D}" type="CELLRANGE">
+                    <a:fld id="{DD44C03A-4D74-4C97-8331-B7FDFD8B8BE2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9636,7 +9648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{46417AC0-09E0-4134-A596-991537372C26}" type="CELLRANGE">
+                    <a:fld id="{F749F98B-5AEE-4916-8952-E93644630383}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9698,7 +9710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0530E1F0-B0E3-427B-A520-5F4F59565B1E}" type="CELLRANGE">
+                    <a:fld id="{BC41F076-27B4-48F3-B017-216959239DD5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9738,7 +9750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{388BB512-E674-4D2E-9EE2-FB0A11681F53}" type="CELLRANGE">
+                    <a:fld id="{791A0EF7-20F6-48DE-A135-DECE9D9F36AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9771,7 +9783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E69817E-78FB-4F67-96CF-487D71ED9E40}" type="CELLRANGE">
+                    <a:fld id="{813CC6EB-BD77-4DBC-B083-0EAF1734A73B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9833,7 +9845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{134E03A3-0A07-4FEF-B205-91DA6B523203}" type="CELLRANGE">
+                    <a:fld id="{CEF354A5-80EB-4E3B-B0DB-5DC79E785A69}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9867,7 +9879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C91C7115-C847-4249-A228-DF4126332826}" type="CELLRANGE">
+                    <a:fld id="{39B579BF-38BD-4C74-84F2-B3942AB31CC8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9957,7 +9969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC3734FE-77E7-4716-BEB8-3E2FD44F81EC}" type="CELLRANGE">
+                    <a:fld id="{30B0D9DD-3A01-4FA1-BD1C-85F756794B23}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10075,7 +10087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{958F13D9-90EE-4C77-A880-C5D3C48AFAA4}" type="CELLRANGE">
+                    <a:fld id="{7FA8044B-BE4F-44C8-89C5-818A72BE69EB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10115,7 +10127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8C741F5-7B91-4FB0-A065-EB381D6C5273}" type="CELLRANGE">
+                    <a:fld id="{766C2BC0-FEB9-4D7F-BF2E-0B8BC0950F98}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10204,7 +10216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{651D046F-6752-4D0D-A581-BBDA8671E15B}" type="CELLRANGE">
+                    <a:fld id="{C37A2031-16FC-49F2-91D7-D4877EC08C8A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10238,7 +10250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DC99BC2-6E23-496D-BEC8-AF99453479C4}" type="CELLRANGE">
+                    <a:fld id="{6A39C09C-43E2-4973-B32A-A79C8CBE7892}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10272,7 +10284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F63CA29F-D8F7-4A65-87E7-C7018FB3C7AD}" type="CELLRANGE">
+                    <a:fld id="{14C3B48E-DE83-4A29-B9A0-305F2F05C992}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10306,7 +10318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CA97EAF-DC74-422C-9AD6-53DC72EFDCD9}" type="CELLRANGE">
+                    <a:fld id="{874B4265-E7F4-481C-BB90-8E6F9446ABFA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10368,7 +10380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D40CE0E-CCFD-4E0A-A207-3BA5BABAA53F}" type="CELLRANGE">
+                    <a:fld id="{802CB8AE-DC27-4D7B-B2F4-DCD451041361}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10402,7 +10414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{175AEE33-EB7A-41D6-9E82-D52111D4E1AB}" type="CELLRANGE">
+                    <a:fld id="{40E6E11F-AC11-48BD-8126-CA989C62833A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10498,7 +10510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0697E05-460D-4B56-A621-E5655D615372}" type="CELLRANGE">
+                    <a:fld id="{C9068A04-4AAC-48CA-B4A1-3F190C410F5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10565,7 +10577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DBC80F5-CB8C-43B3-937F-A4112AF2C236}" type="CELLRANGE">
+                    <a:fld id="{2A817204-A5FE-42CA-BF6B-BAD463D7865B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10654,7 +10666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2850404-2A63-4718-B04B-E237DA093357}" type="CELLRANGE">
+                    <a:fld id="{F47B8926-2CEB-4FFB-ABBE-DBBD2C2775E1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10688,7 +10700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A8FE2B6-7FA5-450D-9E29-01AD23A8FB91}" type="CELLRANGE">
+                    <a:fld id="{82F64070-42B4-4E2E-80D4-232062F06EBB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10722,7 +10734,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07B91008-7417-4516-B15D-6302B79BB58E}" type="CELLRANGE">
+                    <a:fld id="{4C18C859-B478-4EFF-8C3F-044DCBC1CC68}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10756,7 +10768,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C496922E-C06F-443F-A983-216FA5379D1C}" type="CELLRANGE">
+                    <a:fld id="{07B6E859-4AA8-4CB7-A0F4-47A7C6E85138}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10790,7 +10802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25B3F8AB-DF1E-446D-BA72-143E3A61B31D}" type="CELLRANGE">
+                    <a:fld id="{D84823F1-D6A3-4EA0-BFDE-AE2B0D29CCD4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10824,7 +10836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CDBD6F4-B6AF-4A13-9C6A-1BBE4A8751C1}" type="CELLRANGE">
+                    <a:fld id="{7C1B43B5-A55F-4799-8AE4-FF20745D3FD6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10864,7 +10876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D22B0FD-A482-4E10-A28B-CC543955DD9F}" type="CELLRANGE">
+                    <a:fld id="{92FAE04C-E432-474C-B144-42944DE09908}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10925,7 +10937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE70D47A-A132-4F9A-AFF9-E2505C9DDA7B}" type="CELLRANGE">
+                    <a:fld id="{49DB8A80-2045-4227-ABC2-9F53B9898EA2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10959,7 +10971,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC29DF78-A08A-4279-9B18-2385AA754F50}" type="CELLRANGE">
+                    <a:fld id="{340012A3-E2F1-43C3-9DE0-113AECBFA2C3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -10993,7 +11005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE956D60-3FF0-4E82-BD09-41674BE5BC02}" type="CELLRANGE">
+                    <a:fld id="{9893256D-87F9-4EA9-86D3-EF9DF32F6F59}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11033,7 +11045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9BD4270-A874-4B8C-BAA3-360D2920EF15}" type="CELLRANGE">
+                    <a:fld id="{2C1FC9B2-60AC-4383-8114-2BCB74D905F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11072,7 +11084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89872563-CDFC-46E8-BE7E-105C2552C837}" type="CELLRANGE">
+                    <a:fld id="{C9E54238-8A95-4C06-8118-BC89806D54D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11111,7 +11123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C5C45A2-3CBE-432B-BD89-3B09742BDD37}" type="CELLRANGE">
+                    <a:fld id="{76EE50A4-76FF-46F1-BC51-9775DEA18E29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11144,7 +11156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F19FE04E-C5D9-47A8-AB1A-C10B4A4DB394}" type="CELLRANGE">
+                    <a:fld id="{B2BF31E8-F5FE-40F7-9F2D-F89FB33B4C41}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -11206,7 +11218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3539855E-E2AA-4B5C-A983-773D9D94C1F9}" type="CELLRANGE">
+                    <a:fld id="{1A290B15-09E8-46E6-BDB3-D62012661237}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15518,7 +15530,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{764721EF-9EC4-4380-BA3D-D75A39A81D01}" type="CELLRANGE">
+                    <a:fld id="{89949E86-DD92-49E2-9215-291105D4D369}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15551,7 +15563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{640BAF1E-56F4-45B6-B683-DEB67563C7C9}" type="CELLRANGE">
+                    <a:fld id="{8167A411-7FFE-4D88-A704-9FDFA27A53DF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15795,7 +15807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CFFE72B-65B5-48EA-9FA3-D6E1C1ED9FBB}" type="CELLRANGE">
+                    <a:fld id="{064084F5-D8DE-41C4-90ED-6248D4298DC3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -15828,7 +15840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{593A0806-6925-478B-A7EC-7BCC10EE2FFA}" type="CELLRANGE">
+                    <a:fld id="{BBC220A7-8F54-44C5-A9CB-4ECF573BA135}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16142,7 +16154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A71EF58D-91AD-41E8-A9F8-3CD71447A167}" type="CELLRANGE">
+                    <a:fld id="{741855D6-2EDB-4ACF-A265-ED09CC3ACCBF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16283,7 +16295,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{927FCE42-800E-46CB-BFC7-8A43B295B86E}" type="CELLRANGE">
+                    <a:fld id="{7D757347-1804-44AE-8267-15D3815F9913}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16343,7 +16355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389EC362-EF5E-42B5-BDB3-997C397401A5}" type="CELLRANGE">
+                    <a:fld id="{D9217DE1-49C1-466F-ADC1-E40A7D0DB607}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16403,7 +16415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50866B53-500D-4ED1-B480-9F4CB8B22AA0}" type="CELLRANGE">
+                    <a:fld id="{FF9E6A1D-C9C0-4EA7-B9F9-28912E4ED303}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16463,7 +16475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4D77137-832A-41AD-A52C-D91889B3FD76}" type="CELLRANGE">
+                    <a:fld id="{FDEE0C9B-DC67-45FB-ABAE-09A452681480}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16523,7 +16535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9D92688-EC2C-4D13-B020-9DB3A2191478}" type="CELLRANGE">
+                    <a:fld id="{3C1DAFDF-5AF4-4B7F-A4EA-51F9F4DE5C24}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16556,7 +16568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BA61AFA-1A70-49C4-AEF7-EC8B425C2422}" type="CELLRANGE">
+                    <a:fld id="{C9AC2688-B39E-475F-84EA-8A6BAC36D89A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16654,7 +16666,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFBA0A15-F581-4128-9F37-6CEC51EC622B}" type="CELLRANGE">
+                    <a:fld id="{27D741B2-9905-4FCE-A556-502C035D0256}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16687,7 +16699,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3553A26-1A02-46E1-8CDB-E6782251AC37}" type="CELLRANGE">
+                    <a:fld id="{6564F90E-9BAB-4112-ADA0-B8138965CE27}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16747,7 +16759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CB34B15-6D23-4FA3-AFF6-DA647C08C234}" type="CELLRANGE">
+                    <a:fld id="{F465B6E9-C4E2-4DEA-9019-AE381ABA5331}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16780,7 +16792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4AA285D-2A45-4132-AF3D-C30DB886C51F}" type="CELLRANGE">
+                    <a:fld id="{DED23E20-9B00-4E41-A096-80DFD4DD1A93}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -16986,7 +16998,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72C8FB7A-BA73-40BF-8146-159A0A33FDDB}" type="CELLRANGE">
+                    <a:fld id="{CF65D3E6-39D4-4786-AE83-1B02DB809C18}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17019,7 +17031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71031E17-FBA1-454C-A9AD-343959A478BE}" type="CELLRANGE">
+                    <a:fld id="{BDC39F72-DB4C-4398-9ADA-71C17C241F81}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17106,7 +17118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E38E201-08C4-44C8-8C99-86B274326AEA}" type="CELLRANGE">
+                    <a:fld id="{6E06A657-3AEA-4948-962F-C6D404FEEB78}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17139,7 +17151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F2E91DE-3843-4C16-99C7-07E3999BBAA5}" type="CELLRANGE">
+                    <a:fld id="{15130D85-A0BD-430A-8407-DDF68E1680C0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17210,7 +17222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71366A28-218F-4AEB-8DEF-69AD7DA8AC72}" type="CELLRANGE">
+                    <a:fld id="{E284E1F4-DD26-4FC8-A42E-3FA661AC64FA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17270,7 +17282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{441D91BC-E6B5-4964-BE53-ABCB1ABB80F8}" type="CELLRANGE">
+                    <a:fld id="{9BF6E167-CBE4-4ADA-9F1C-B93054EF0551}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17303,7 +17315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1619974D-9AED-43C7-B42C-1F011CBF301C}" type="CELLRANGE">
+                    <a:fld id="{369437E9-B730-4A4C-B6D5-5D1831B1C916}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17455,7 +17467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{325A620D-8CE7-4275-9395-49CDDEE5FF89}" type="CELLRANGE">
+                    <a:fld id="{6C91B1D4-F381-469A-95B2-96750828E6F2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17542,7 +17554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCF7FAC5-B0FE-4BC3-A76B-5AB6ED00C8AA}" type="CELLRANGE">
+                    <a:fld id="{6880C198-9295-49C1-A06E-10C5B9479333}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17575,7 +17587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A77B64F2-E271-4F88-8E24-C3C19672C70A}" type="CELLRANGE">
+                    <a:fld id="{89560D87-F930-4B04-8C68-F9BCB9D2E3ED}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17608,7 +17620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5EB6950-1371-4D14-B5AF-7B287A89DD33}" type="CELLRANGE">
+                    <a:fld id="{9D3973E9-3CFF-44C0-A267-6EC03116E7A8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17641,7 +17653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD84957C-49A7-4014-ACFF-EF48F0BFB6E5}" type="CELLRANGE">
+                    <a:fld id="{7ED5497A-C8C7-4EB4-AB0F-874BAE3E990F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17674,7 +17686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F4A3059-3BF2-491B-BE22-1B62612824D5}" type="CELLRANGE">
+                    <a:fld id="{6ACF47F2-2488-45DB-970E-94FAFA38740C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17707,7 +17719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5863CD3-0E5D-4136-A744-868021FC3DA3}" type="CELLRANGE">
+                    <a:fld id="{56C08C70-52C2-4544-A2AB-EA5EA1D32A52}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17740,7 +17752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3B61169-C619-4752-9AD9-77E206F0DB91}" type="CELLRANGE">
+                    <a:fld id="{ACE27E60-33F0-48A5-AC18-6796A35BF083}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17800,7 +17812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAAC2431-EB7C-435C-B59C-C7183D175C38}" type="CELLRANGE">
+                    <a:fld id="{404B8B93-8430-40BF-BBD6-EFC690C5BD33}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17833,7 +17845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A04339A2-0D4B-43AE-A1ED-7D4F72525465}" type="CELLRANGE">
+                    <a:fld id="{20715027-44FD-4ABD-B523-2AEEA1EA7E99}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17866,7 +17878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{205229D1-A31B-48F3-A074-D7168BE10AD4}" type="CELLRANGE">
+                    <a:fld id="{8279856C-2FAF-4058-BFE8-C99E15B146FB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -17899,7 +17911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF8C0709-8315-450B-A3DF-C04C6EFA7D15}" type="CELLRANGE">
+                    <a:fld id="{09B0941D-DA57-4C4A-8CE1-6D1EBD160966}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -26678,34 +26690,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:U90" totalsRowShown="0">
-  <autoFilter ref="B4:U90" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B4:W90" totalsRowShown="0">
+  <autoFilter ref="B4:W90" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+  <tableColumns count="22">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Ver" dataCellStyle="Eingabe"/>
-    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Frm" dataDxfId="28" dataCellStyle="Eingabe"/>
+    <tableColumn id="20" xr3:uid="{AD0FEAE1-8D4C-4952-B2FF-6B0C4EC22BC9}" name="Frm" dataDxfId="30" dataCellStyle="Eingabe"/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post" dataCellStyle="Eingabe"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
-    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="27" dataCellStyle="Eingabe"/>
-    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="26" dataCellStyle="Eingabe"/>
-    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="25" dataCellStyle="Eingabe"/>
-    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataDxfId="24" dataCellStyle="Eingabe"/>
-    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataDxfId="23" dataCellStyle="Komma"/>
-    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataDxfId="22" dataCellStyle="Eingabe"/>
-    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataDxfId="21" dataCellStyle="Eingabe"/>
-    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataDxfId="20" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="19" dataCellStyle="Komma"/>
-    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="18" dataCellStyle="Eingabe"/>
-    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="17" dataCellStyle="Eingabe"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="16" dataCellStyle="Standard">
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="29" dataCellStyle="Eingabe"/>
+    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="28" dataCellStyle="Eingabe"/>
+    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="27" dataCellStyle="Eingabe"/>
+    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataDxfId="26" dataCellStyle="Eingabe"/>
+    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataDxfId="25" dataCellStyle="Komma"/>
+    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataDxfId="24" dataCellStyle="Eingabe"/>
+    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataDxfId="23" dataCellStyle="Eingabe"/>
+    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataDxfId="22" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="21" dataCellStyle="Komma"/>
+    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="20" dataCellStyle="Eingabe"/>
+    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="19" dataCellStyle="Eingabe"/>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="18" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(COUNTIF(GeneralTable[[#This Row],[Ver]],$D$1)=0," "&amp;GeneralTable[[#This Row],[Ver]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="15" dataCellStyle="Standard">
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="3DC BB-Code Single-Thread" dataDxfId="17" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="14" dataCellStyle="Standard">
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="3DC BB-Code Multi-Thread" dataDxfId="16" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{46697E13-4493-4471-AFA2-F31104E508F1}" name="AT BB-Code Single-Thread" dataDxfId="0">
+      <calculatedColumnFormula>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]&amp;"[/TD][/TR]"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{04B7243E-641C-43E9-9BB8-316A51612008}" name="AT BB-Code Multi-Thread" dataDxfId="1">
+      <calculatedColumnFormula>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]&amp;"[/TD][/TR]"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -26713,20 +26731,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}" name="PerfPowerST" displayName="PerfPowerST" ref="B4:F93" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}" name="PerfPowerST" displayName="PerfPowerST" ref="B4:F93" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B4:F93" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{F3E1F3BF-002B-482A-88AD-54C90AC58C6F}" name="Ref." dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{F3E1F3BF-002B-482A-88AD-54C90AC58C6F}" name="Ref." dataDxfId="13">
       <calculatedColumnFormula>IFERROR(GeneralTable[[#This Row],[Ref.]],NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D5C2F3F4-C19A-4236-9BFB-721869560BCA}" name="GraphLabel" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{D5C2F3F4-C19A-4236-9BFB-721869560BCA}" name="GraphLabel" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(IF(GeneralTable[[#This Row],[Exclude From Chart]]="X",NA(),GeneralTable[[#This Row],[CPU]]&amp; " [" &amp; GeneralTable[[#This Row],[Ref.]] &amp; "]"),NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{78A74983-1B81-4043-9F23-03DF142B7905}" name="ExcludeHere" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{01B3B0A8-ADBE-4612-B79B-C28EA6D97BAD}" name="Cons. ST" dataDxfId="8" dataCellStyle="Komma">
+    <tableColumn id="4" xr3:uid="{78A74983-1B81-4043-9F23-03DF142B7905}" name="ExcludeHere" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{01B3B0A8-ADBE-4612-B79B-C28EA6D97BAD}" name="Cons. ST" dataDxfId="10" dataCellStyle="Komma">
       <calculatedColumnFormula>IFERROR(IF(OR(GeneralTable[[#This Row],[Exclude From Chart]]="X",PerfPowerST[[#This Row],[ExcludeHere]]="X"),NA(),GeneralTable[[#This Row],[Cons. ST]]),NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FBCA2DDA-B121-4788-AFAA-6ED61C86D4AC}" name="Dur. ST" dataDxfId="7" dataCellStyle="Eingabe">
+    <tableColumn id="3" xr3:uid="{FBCA2DDA-B121-4788-AFAA-6ED61C86D4AC}" name="Dur. ST" dataDxfId="9" dataCellStyle="Eingabe">
       <calculatedColumnFormula>IFERROR(IF(OR(GeneralTable[[#This Row],[Exclude From Chart]]="X",PerfPowerST[[#This Row],[ExcludeHere]]="X"),NA(),GeneralTable[[#This Row],[Dur. ST]]),NA())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -26735,20 +26753,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1040C365-31F2-4EBB-9FDC-5364ADB93CE3}" name="PerfPowerST4" displayName="PerfPowerST4" ref="B4:F93" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1040C365-31F2-4EBB-9FDC-5364ADB93CE3}" name="PerfPowerST4" displayName="PerfPowerST4" ref="B4:F93" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B4:F93" xr:uid="{97DB2D71-6F27-4FB7-95C8-FAF945A7A0CC}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{93151D86-B2C5-4644-A01F-5738C5969B82}" name="Ref." dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{93151D86-B2C5-4644-A01F-5738C5969B82}" name="Ref." dataDxfId="6">
       <calculatedColumnFormula>IFERROR(GeneralTable[[#This Row],[Ref.]],NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FC1D4FE0-575B-4079-A322-20E22576692A}" name="GraphLabel" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{FC1D4FE0-575B-4079-A322-20E22576692A}" name="GraphLabel" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(IF(GeneralTable[[#This Row],[Exclude From Chart]]="X",NA(),GeneralTable[[#This Row],[CPU]]&amp; " [" &amp; GeneralTable[[#This Row],[Ref.]] &amp; "]"),NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AB77A797-FBA5-4D60-A78A-8A65DE947B8F}" name="ExcludeHere" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{65B743FB-D4EA-48F0-9851-F1B02492AB9E}" name="Cons. MT" dataDxfId="1" dataCellStyle="Komma">
+    <tableColumn id="4" xr3:uid="{AB77A797-FBA5-4D60-A78A-8A65DE947B8F}" name="ExcludeHere" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{65B743FB-D4EA-48F0-9851-F1B02492AB9E}" name="Cons. MT" dataDxfId="3" dataCellStyle="Komma">
       <calculatedColumnFormula>IFERROR(IF(OR(GeneralTable[[#This Row],[Exclude From Chart]]="X",PerfPowerST4[[#This Row],[ExcludeHere]]="X"),NA(),GeneralTable[[#This Row],[Cons. MT]]),NA())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{29581847-BA31-4ED9-9849-40A45512FE0D}" name="Dur. MT" dataDxfId="0" dataCellStyle="Eingabe">
+    <tableColumn id="3" xr3:uid="{29581847-BA31-4ED9-9849-40A45512FE0D}" name="Dur. MT" dataDxfId="2" dataCellStyle="Eingabe">
       <calculatedColumnFormula>IFERROR(IF(OR(GeneralTable[[#This Row],[Exclude From Chart]]="X",PerfPowerST4[[#This Row],[ExcludeHere]]="X"),NA(),GeneralTable[[#This Row],[Dur. MT]]),NA())</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -27019,13 +27037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U90"/>
+  <dimension ref="B1:W90"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -27049,51 +27067,49 @@
     <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34" customWidth="1"/>
-    <col min="21" max="21" width="93.5546875" customWidth="1"/>
-    <col min="22" max="22" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="32.33203125" customWidth="1"/>
     <col min="24" max="24" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -27105,7 +27121,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>39</v>
@@ -27138,33 +27154,39 @@
         <v>7</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="V4" t="s">
+        <v>223</v>
+      </c>
+      <c r="W4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -27204,8 +27226,16 @@
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>1|3DC #3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.7.0|2656,06|2410|156,22|15,43</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V5" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]1[/TD][TD]3DC #3[/TD][TD]R7 4700U (Renoir)[/TD][TD]CrazyIvan[/TD][TD]AC / Win: Best Perf. / HP: Recmd.[/TD][TD]v0.7.0[/TD][TD]143,17[/TD][TD]10432[/TD][TD]669,57[/TD][TD]15,58[/TD][/TR]</v>
+      </c>
+      <c r="W5" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]1[/TD][TD]3DC #3[/TD][TD]R7 4700U (Renoir)[/TD][TD]CrazyIvan[/TD][TD]AC / Win: Best Perf. / HP: Recmd.[/TD][TD]v0.7.0[/TD][TD]2656,06[/TD][TD]2410[/TD][TD]156,22[/TD][TD]15,43[/TD][/TR]</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -27213,13 +27243,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
@@ -27263,8 +27293,16 @@
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>2|3DC #6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223|99,8612431022931|72,33036336831</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V6" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]2[/TD][TD]3DC #6[/TD][TD]R5 3600 (Matisse)[/TD][TD]Lyka[/TD][TD][/TD][TD]v0.3.1[/TD][TD]45,76[/TD][TD]32112[/TD][TD]680,5[/TD][TD]47,1888317413666[/TD][/TR]</v>
+      </c>
+      <c r="W6" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]2[/TD][TD]3DC #6[/TD][TD]R5 3600 (Matisse)[/TD][TD]Lyka[/TD][TD][/TD][TD]v0.3.1[/TD][TD]1386,39[/TD][TD]7223[/TD][TD]99,8612431022931[/TD][TD]72,33036336831[/TD][/TR]</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -27272,13 +27310,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>6</v>
@@ -27322,8 +27360,16 @@
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>3|3DC #7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912|288,768579428154|13,54718026368</v>
       </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V7" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]3[/TD][TD]3DC #7[/TD][TD]i7 1065G (IceLake)[/TD][TD]Naitsabes[/TD][TD][/TD][TD]v0.3.1[/TD][TD]127,76[/TD][TD]9839[/TD][TD]795,5[/TD][TD]12,3683218101823[/TD][/TR]</v>
+      </c>
+      <c r="W7" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]3[/TD][TD]3DC #7[/TD][TD]i7 1065G (IceLake)[/TD][TD]Naitsabes[/TD][TD][/TD][TD]v0.3.1[/TD][TD]885,22[/TD][TD]3912[/TD][TD]288,768579428154[/TD][TD]13,54718026368[/TD][/TR]</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -27331,13 +27377,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4">
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>14</v>
@@ -27383,8 +27429,16 @@
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>4|3DC #14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22</v>
       </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="V8" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]4[/TD][TD]3DC #14[/TD][TD]R9 5950X (Vermeer)[/TD][TD]dosenfisch24[/TD][TD][/TD][TD]v0.3.1[/TD][TD]55,41[/TD][TD]35920[/TD][TD]502,43[/TD][TD]71,49[/TD][/TR]</v>
+      </c>
+      <c r="W8" t="str">
+        <f>"[TR][TD]"&amp;GeneralTable[[#This Row],[Ref.]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[CPU]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[User]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Remark]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Ver]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"[/TD][TD]"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]&amp;"[/TD][/TR]"</f>
+        <v>[TR][TD]4[/TD][TD]3DC #14[/TD][TD]R9 5950X (Vermeer)[/TD][TD]dosenfisch24[/TD][TD][/TD][TD]v0.3.1[/TD][TD]4779,3[/TD][TD]6242[/TD][TD]33,52[/TD][TD]186,22[/TD][/TR]</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -27392,13 +27446,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="4">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -27442,8 +27496,16 @@
         <f>GeneralTable[[#This Row],[Ref.]]&amp;"|"&amp;GeneralTable[[#This Row],[Frm]] &amp; " #" &amp;GeneralTable[[#This Row],[Post]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Ver]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>5|3DC #18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56